--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -335,7 +335,10 @@
     <t>2.22</t>
   </si>
   <si>
-    <t>2.14.99</t>
+    <t>2.15.37</t>
+  </si>
+  <si>
+    <t>76</t>
   </si>
   <si>
     <t>23</t>
@@ -392,7 +395,7 @@
     <t>1.29</t>
   </si>
   <si>
-    <t>1.24.31</t>
+    <t>1.24.00</t>
   </si>
   <si>
     <t>71</t>
@@ -425,9 +428,6 @@
     <t>1.33</t>
   </si>
   <si>
-    <t>1.24.41</t>
-  </si>
-  <si>
     <t>1.42</t>
   </si>
   <si>
@@ -479,16 +479,13 @@
     <t>1.46</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>日光城</t>
   </si>
   <si>
-    <t>1.55.44</t>
+    <t>1.54.27</t>
   </si>
   <si>
     <t>10</t>
@@ -638,163 +635,163 @@
     <t>64</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.05.00</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.05.99</t>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.00</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.49.00</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>2.01.00</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.17.59</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.95</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.29.33</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.16.28</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.94</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.49.24</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>2.01.67</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.17.59</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.95</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.29.33</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.16.28</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>黄金坐标</t>
   </si>
   <si>
-    <t>1.47.87</t>
+    <t>1.53.00</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2014,13 +2011,13 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2302,13 +2299,13 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3295,13 +3292,13 @@
     <xf numFmtId="0" fontId="103" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="103" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="103" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3427,7 +3424,7 @@
     <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="110" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="110" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3706,13 +3703,13 @@
     <xf numFmtId="0" fontId="126" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3742,13 +3739,10 @@
     <xf numFmtId="0" fontId="128" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="128" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4417,47 +4411,47 @@
         <v>83</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="86" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="86" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I16" s="90" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>49</v>
@@ -4475,7 +4469,7 @@
         <v>97</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" s="96" t="s">
         <v>83</v>
@@ -4486,13 +4480,13 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="98" t="s">
         <v>16</v>
@@ -4507,7 +4501,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="102" t="s">
         <v>68</v>
@@ -4518,42 +4512,42 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="104" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="106" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="104" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I19" s="108" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="110" t="s">
         <v>23</v>
@@ -4571,39 +4565,39 @@
         <v>103</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I20" s="114" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" s="116" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I21" s="120" t="s">
         <v>83</v>
@@ -4852,7 +4846,7 @@
         <v>83</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -4866,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="161" t="s">
         <v>16</v>
@@ -4889,10 +4883,10 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="166" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>156</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>48</v>
@@ -4910,30 +4904,30 @@
         <v>25</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="169" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="J9" s="170" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="171" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="172" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="C10" s="171" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="171" t="s">
+      <c r="E10" s="173" t="s">
         <v>160</v>
-      </c>
-      <c r="E10" s="173" t="s">
-        <v>161</v>
       </c>
       <c r="F10" s="171" t="s">
         <v>137</v>
@@ -4942,7 +4936,7 @@
         <v>153</v>
       </c>
       <c r="H10" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="175" t="s">
         <v>68</v>
@@ -4953,34 +4947,34 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="178" t="s">
+      <c r="C11" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="177" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="177" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="177" t="s">
-        <v>165</v>
       </c>
       <c r="E11" s="177" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="179" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="177" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="180" t="s">
         <v>166</v>
-      </c>
-      <c r="H11" s="180" t="s">
-        <v>167</v>
       </c>
       <c r="I11" s="181" t="s">
         <v>83</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -5000,7 +4994,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="183" t="s">
         <v>32</v>
@@ -5012,7 +5006,7 @@
         <v>83</v>
       </c>
       <c r="J12" s="188" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5035,7 +5029,7 @@
         <v>91</v>
       </c>
       <c r="G13" s="189" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="192" t="s">
         <v>62</v>
@@ -5049,42 +5043,42 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="195" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="C14" s="195" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="195" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>172</v>
       </c>
       <c r="E14" s="195" t="s">
         <v>141</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="195" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="199" t="s">
+      <c r="J14" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="J14" s="200" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="202" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="202" t="s">
-        <v>178</v>
       </c>
       <c r="C15" s="201" t="s">
         <v>23</v>
@@ -5093,7 +5087,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="203" t="s">
         <v>32</v>
@@ -5102,13 +5096,13 @@
         <v>34</v>
       </c>
       <c r="H15" s="204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="205" t="s">
         <v>83</v>
       </c>
       <c r="J15" s="206" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -5172,7 +5166,7 @@
         <v>83</v>
       </c>
       <c r="J17" s="218" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -5183,10 +5177,10 @@
         <v>76</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="219" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="219" t="s">
         <v>79</v>
@@ -5204,15 +5198,15 @@
         <v>83</v>
       </c>
       <c r="J18" s="224" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="226" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" s="226" t="s">
-        <v>183</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5227,10 +5221,10 @@
         <v>97</v>
       </c>
       <c r="G19" s="225" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="228" t="s">
         <v>184</v>
-      </c>
-      <c r="H19" s="228" t="s">
-        <v>185</v>
       </c>
       <c r="I19" s="229" t="s">
         <v>83</v>
@@ -5241,28 +5235,28 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="D20" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="E20" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="F20" s="231" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="231" t="s">
-        <v>191</v>
       </c>
       <c r="G20" s="231" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5300,7 +5294,7 @@
         <v>83</v>
       </c>
       <c r="J21" s="242" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -5323,7 +5317,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="243" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" s="246" t="s">
         <v>94</v>
@@ -5332,7 +5326,7 @@
         <v>83</v>
       </c>
       <c r="J22" s="248" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -5343,7 +5337,7 @@
         <v>96</v>
       </c>
       <c r="C23" s="249" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="249" t="s">
         <v>32</v>
@@ -5364,15 +5358,15 @@
         <v>83</v>
       </c>
       <c r="J23" s="254" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="256" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" s="256" t="s">
-        <v>194</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5384,19 +5378,19 @@
         <v>90</v>
       </c>
       <c r="F24" s="257" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="255" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="258" t="s">
         <v>195</v>
-      </c>
-      <c r="G24" s="255" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="258" t="s">
-        <v>196</v>
       </c>
       <c r="I24" s="259" t="s">
         <v>83</v>
       </c>
       <c r="J24" s="260" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -5413,39 +5407,39 @@
         <v>53</v>
       </c>
       <c r="E25" s="261" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="263" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" s="264" t="s">
         <v>106</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="J25" s="266" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="267" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="268" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="267" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E26" s="267" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="269" t="s">
         <v>78</v>
@@ -5454,21 +5448,21 @@
         <v>148</v>
       </c>
       <c r="H26" s="270" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I26" s="271" t="s">
         <v>83</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="273" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="274" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="273" t="s">
         <v>42</v>
@@ -5486,27 +5480,27 @@
         <v>103</v>
       </c>
       <c r="H27" s="276" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" s="277" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="278" t="s">
         <v>175</v>
-      </c>
-      <c r="J27" s="278" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="279" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="280" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="279" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="279" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="279" t="s">
         <v>16</v>
@@ -5518,53 +5512,53 @@
         <v>43</v>
       </c>
       <c r="H28" s="282" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I28" s="283" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="284" t="s">
         <v>175</v>
-      </c>
-      <c r="J28" s="284" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="285" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="286" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="285" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="285" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="285" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29" s="287" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H29" s="288" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I29" s="289" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="291" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" s="292" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="291" t="s">
         <v>144</v>
@@ -5573,7 +5567,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="291" t="s">
         <v>26</v>
@@ -5582,7 +5576,7 @@
         <v>73</v>
       </c>
       <c r="H30" s="294" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I30" s="295" t="s">
         <v>68</v>
@@ -5593,42 +5587,42 @@
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="297" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" s="298" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="297" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="297" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="297" t="s">
         <v>92</v>
       </c>
       <c r="F31" s="299" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H31" s="300" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I31" s="301" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="304" t="s">
         <v>202</v>
-      </c>
-      <c r="B32" s="304" t="s">
-        <v>203</v>
       </c>
       <c r="C32" s="303" t="s">
         <v>49</v>
@@ -5640,27 +5634,27 @@
         <v>33</v>
       </c>
       <c r="F32" s="303" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G32" s="305" t="s">
         <v>97</v>
       </c>
       <c r="H32" s="306" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="I32" s="307" t="s">
+      <c r="J32" s="308" t="s">
         <v>205</v>
-      </c>
-      <c r="J32" s="308" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="310" t="s">
         <v>207</v>
-      </c>
-      <c r="B33" s="310" t="s">
-        <v>208</v>
       </c>
       <c r="C33" s="309" t="s">
         <v>144</v>
@@ -5678,30 +5672,30 @@
         <v>73</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I33" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" s="314" t="s">
         <v>175</v>
-      </c>
-      <c r="J33" s="314" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="316" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="316" t="s">
-        <v>211</v>
-      </c>
       <c r="C34" s="315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="315" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="315" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="315" t="s">
         <v>13</v>
@@ -5710,24 +5704,24 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="319" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="320" t="s">
         <v>212</v>
-      </c>
-      <c r="I34" s="319" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="320" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="322" t="s">
         <v>214</v>
       </c>
-      <c r="B35" s="322" t="s">
+      <c r="C35" s="321" t="s">
         <v>215</v>
-      </c>
-      <c r="C35" s="321" t="s">
-        <v>216</v>
       </c>
       <c r="D35" s="321" t="s">
         <v>142</v>
@@ -5742,24 +5736,24 @@
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="328" t="s">
-        <v>219</v>
-      </c>
       <c r="C36" s="327" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="327" t="s">
         <v>144</v>
@@ -5768,19 +5762,19 @@
         <v>42</v>
       </c>
       <c r="F36" s="329" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="327" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I36" s="331" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="332" t="s">
         <v>175</v>
-      </c>
-      <c r="J36" s="332" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5842,7 +5836,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="334" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="334" t="s">
         <v>137</v>
@@ -5874,13 +5868,13 @@
         <v>140</v>
       </c>
       <c r="C3" s="340" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="340" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="340" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="342" t="s">
         <v>13</v>
@@ -5895,7 +5889,7 @@
         <v>83</v>
       </c>
       <c r="J3" s="345" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -5947,7 +5941,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="352" t="s">
         <v>103</v>
@@ -5959,7 +5953,7 @@
         <v>83</v>
       </c>
       <c r="J5" s="357" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -5973,16 +5967,16 @@
         <v>78</v>
       </c>
       <c r="D6" s="358" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="358" t="s">
         <v>222</v>
-      </c>
-      <c r="E6" s="358" t="s">
-        <v>223</v>
       </c>
       <c r="F6" s="360" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="358" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="361" t="s">
         <v>151</v>
@@ -5991,21 +5985,21 @@
         <v>83</v>
       </c>
       <c r="J6" s="363" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="364" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="365" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="365" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="364" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="364" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>16</v>
@@ -6017,13 +6011,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="367" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" s="368" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="369" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -6087,71 +6081,71 @@
         <v>83</v>
       </c>
       <c r="J9" s="381" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="382" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="383" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="383" t="s">
-        <v>159</v>
-      </c>
       <c r="C10" s="382" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="382" t="s">
         <v>141</v>
       </c>
       <c r="F10" s="384" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="382" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="385" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="386" t="s">
         <v>83</v>
       </c>
       <c r="J10" s="387" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="388" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="389" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="389" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" s="388" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="388" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="388" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="391" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="392" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="393" t="s">
         <v>175</v>
-      </c>
-      <c r="J11" s="393" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -6165,10 +6159,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="396" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="394" t="s">
         <v>59</v>
@@ -6203,7 +6197,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="402" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="400" t="s">
         <v>32</v>
@@ -6215,47 +6209,47 @@
         <v>83</v>
       </c>
       <c r="J13" s="405" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="406" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="407" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="407" t="s">
-        <v>171</v>
-      </c>
       <c r="C14" s="406" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E14" s="406" t="s">
         <v>141</v>
       </c>
       <c r="F14" s="408" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="406" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="409" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="410" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="410" t="s">
+      <c r="J14" s="411" t="s">
         <v>175</v>
-      </c>
-      <c r="J14" s="411" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="412" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="413" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="413" t="s">
-        <v>178</v>
       </c>
       <c r="C15" s="412" t="s">
         <v>22</v>
@@ -6273,21 +6267,21 @@
         <v>53</v>
       </c>
       <c r="H15" s="415" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="416" t="s">
         <v>83</v>
       </c>
       <c r="J15" s="417" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="419" t="s">
         <v>182</v>
-      </c>
-      <c r="B16" s="419" t="s">
-        <v>183</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6299,45 +6293,45 @@
         <v>73</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="418" t="s">
         <v>104</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="422" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="423" t="s">
         <v>175</v>
-      </c>
-      <c r="J16" s="423" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="425" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="425" t="s">
-        <v>187</v>
-      </c>
       <c r="C17" s="424" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="424" t="s">
         <v>227</v>
-      </c>
-      <c r="D17" s="424" t="s">
-        <v>228</v>
       </c>
       <c r="E17" s="426" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6348,16 +6342,16 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="431" t="s">
         <v>230</v>
-      </c>
-      <c r="B18" s="431" t="s">
-        <v>231</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="430" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="430" t="s">
         <v>59</v>
@@ -6369,13 +6363,13 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I18" s="434" t="s">
         <v>83</v>
       </c>
       <c r="J18" s="435" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -6404,10 +6398,10 @@
         <v>87</v>
       </c>
       <c r="I19" s="440" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="441" t="s">
         <v>175</v>
-      </c>
-      <c r="J19" s="441" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -6436,10 +6430,10 @@
         <v>67</v>
       </c>
       <c r="I20" s="446" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="447" t="s">
         <v>175</v>
-      </c>
-      <c r="J20" s="447" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -6456,7 +6450,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="448" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="450" t="s">
         <v>32</v>
@@ -6471,7 +6465,7 @@
         <v>83</v>
       </c>
       <c r="J21" s="453" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -6482,7 +6476,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="454" t="s">
         <v>77</v>
@@ -6491,7 +6485,7 @@
         <v>147</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22" s="454" t="s">
         <v>80</v>
@@ -6500,18 +6494,18 @@
         <v>82</v>
       </c>
       <c r="I22" s="458" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="459" t="s">
         <v>175</v>
-      </c>
-      <c r="J22" s="459" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="460" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" s="461" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="460" t="s">
         <v>103</v>
@@ -6529,27 +6523,27 @@
         <v>79</v>
       </c>
       <c r="H23" s="463" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="464" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="465" t="s">
         <v>175</v>
-      </c>
-      <c r="J23" s="465" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="466" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="467" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="466" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="466" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="466" t="s">
         <v>16</v>
@@ -6561,21 +6555,21 @@
         <v>43</v>
       </c>
       <c r="H24" s="469" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I24" s="470" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="471" t="s">
         <v>175</v>
-      </c>
-      <c r="J24" s="471" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="472" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="473" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="472" t="s">
         <v>42</v>
@@ -6593,13 +6587,13 @@
         <v>103</v>
       </c>
       <c r="H25" s="475" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I25" s="476" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="477" t="s">
         <v>175</v>
-      </c>
-      <c r="J25" s="477" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -6622,48 +6616,48 @@
         <v>73</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="481" t="s">
         <v>99</v>
       </c>
       <c r="I26" s="482" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="483" t="s">
         <v>175</v>
-      </c>
-      <c r="J26" s="483" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="485" t="s">
         <v>193</v>
-      </c>
-      <c r="B27" s="485" t="s">
-        <v>194</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="484" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="486" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="484" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27" s="488" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="489" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -6692,10 +6686,10 @@
         <v>106</v>
       </c>
       <c r="I28" s="494" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -6718,7 +6712,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="496" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="499" t="s">
         <v>94</v>
@@ -6727,15 +6721,15 @@
         <v>83</v>
       </c>
       <c r="J29" s="501" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="503" t="s">
         <v>207</v>
-      </c>
-      <c r="B30" s="503" t="s">
-        <v>208</v>
       </c>
       <c r="C30" s="502" t="s">
         <v>16</v>
@@ -6753,27 +6747,27 @@
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="509" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="509" t="s">
-        <v>211</v>
-      </c>
       <c r="C31" s="508" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" s="508" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="508" t="s">
         <v>12</v>
@@ -6785,21 +6779,21 @@
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="515" t="s">
         <v>236</v>
-      </c>
-      <c r="B32" s="515" t="s">
-        <v>237</v>
       </c>
       <c r="C32" s="514" t="s">
         <v>141</v>
@@ -6817,21 +6811,21 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I32" s="518" t="s">
         <v>83</v>
       </c>
       <c r="J32" s="519" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="521" t="s">
         <v>202</v>
-      </c>
-      <c r="B33" s="521" t="s">
-        <v>203</v>
       </c>
       <c r="C33" s="520" t="s">
         <v>49</v>
@@ -6843,27 +6837,27 @@
         <v>33</v>
       </c>
       <c r="F33" s="520" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="522" t="s">
         <v>97</v>
       </c>
       <c r="H33" s="523" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="524" t="s">
         <v>204</v>
       </c>
-      <c r="I33" s="524" t="s">
+      <c r="J33" s="525" t="s">
         <v>205</v>
-      </c>
-      <c r="J33" s="525" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="526" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="527" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="526" t="s">
         <v>16</v>
@@ -6878,91 +6872,91 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="529" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I34" s="530" t="s">
         <v>83</v>
       </c>
       <c r="J34" s="531" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="532" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="533" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" s="532" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D35" s="532" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="532" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F35" s="532" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="534" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H35" s="535" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="538" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B36" s="539" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="538" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="538" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="538" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="540" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="538" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" s="541" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I36" s="542" t="s">
         <v>83</v>
       </c>
       <c r="J36" s="543" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="545" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="545" t="s">
+      <c r="C37" s="544" t="s">
         <v>215</v>
-      </c>
-      <c r="C37" s="544" t="s">
-        <v>216</v>
       </c>
       <c r="D37" s="544" t="s">
         <v>142</v>
@@ -6977,24 +6971,24 @@
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="551" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="551" t="s">
-        <v>219</v>
-      </c>
       <c r="C38" s="550" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="550" t="s">
         <v>16</v>
@@ -7009,13 +7003,13 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -7038,7 +7032,7 @@
         <v>77</v>
       </c>
       <c r="G39" s="556" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H39" s="558" t="s">
         <v>241</v>
@@ -7130,7 +7124,7 @@
         <v>83</v>
       </c>
       <c r="J2" s="567" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -7141,7 +7135,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="568" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="568" t="s">
         <v>141</v>
@@ -7162,7 +7156,7 @@
         <v>83</v>
       </c>
       <c r="J3" s="573" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -7214,7 +7208,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="582" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="580" t="s">
         <v>103</v>
@@ -7226,7 +7220,7 @@
         <v>83</v>
       </c>
       <c r="J5" s="585" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -7240,16 +7234,16 @@
         <v>78</v>
       </c>
       <c r="D6" s="586" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="586" t="s">
         <v>222</v>
-      </c>
-      <c r="E6" s="586" t="s">
-        <v>223</v>
       </c>
       <c r="F6" s="588" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="586" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="589" t="s">
         <v>151</v>
@@ -7258,15 +7252,15 @@
         <v>83</v>
       </c>
       <c r="J6" s="591" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="592" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="593" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="593" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="592" t="s">
         <v>66</v>
@@ -7284,13 +7278,13 @@
         <v>49</v>
       </c>
       <c r="H7" s="595" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" s="596" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="J7" s="597" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -7313,16 +7307,16 @@
         <v>103</v>
       </c>
       <c r="G8" s="598" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="601" t="s">
         <v>246</v>
       </c>
       <c r="I8" s="602" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="603" t="s">
         <v>175</v>
-      </c>
-      <c r="J8" s="603" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -7339,7 +7333,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="604" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F9" s="606" t="s">
         <v>144</v>
@@ -7354,7 +7348,7 @@
         <v>83</v>
       </c>
       <c r="J9" s="609" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -7386,15 +7380,15 @@
         <v>83</v>
       </c>
       <c r="J10" s="615" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="616" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="617" t="s">
         <v>163</v>
-      </c>
-      <c r="B11" s="617" t="s">
-        <v>164</v>
       </c>
       <c r="C11" s="616" t="s">
         <v>60</v>
@@ -7403,39 +7397,39 @@
         <v>61</v>
       </c>
       <c r="E11" s="616" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="618" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="616" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="619" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="620" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="621" t="s">
         <v>175</v>
-      </c>
-      <c r="J11" s="621" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="622" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="623" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="623" t="s">
-        <v>159</v>
-      </c>
       <c r="C12" s="622" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="622" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" s="622" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="624" t="s">
         <v>142</v>
@@ -7444,13 +7438,13 @@
         <v>13</v>
       </c>
       <c r="H12" s="625" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="626" t="s">
         <v>83</v>
       </c>
       <c r="J12" s="627" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -7461,7 +7455,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="628" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="628" t="s">
         <v>57</v>
@@ -7473,7 +7467,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="628" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H13" s="631" t="s">
         <v>62</v>
@@ -7501,60 +7495,60 @@
       <c r="E14" s="634" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="634" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="636" t="s">
+      <c r="F14" s="636" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="634" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="637" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="638" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="J14" s="639" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="640" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="641" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="641" t="s">
-        <v>171</v>
-      </c>
       <c r="C15" s="640" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="640" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="640" t="s">
         <v>141</v>
       </c>
       <c r="F15" s="642" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="640" t="s">
         <v>138</v>
       </c>
       <c r="H15" s="643" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="644" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="644" t="s">
+      <c r="J15" s="645" t="s">
         <v>175</v>
-      </c>
-      <c r="J15" s="645" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="646" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="647" t="s">
         <v>177</v>
-      </c>
-      <c r="B16" s="647" t="s">
-        <v>178</v>
       </c>
       <c r="C16" s="646" t="s">
         <v>144</v>
@@ -7572,21 +7566,21 @@
         <v>33</v>
       </c>
       <c r="H16" s="649" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="650" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="651" t="s">
         <v>175</v>
-      </c>
-      <c r="J16" s="651" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="652" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="653" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="653" t="s">
-        <v>183</v>
       </c>
       <c r="C17" s="652" t="s">
         <v>32</v>
@@ -7595,7 +7589,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="652" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="652" t="s">
         <v>35</v>
@@ -7604,53 +7598,53 @@
         <v>97</v>
       </c>
       <c r="H17" s="655" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="656" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="657" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="658" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="659" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="659" t="s">
+      <c r="C18" s="658" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="658" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="658" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="658" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="658" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="658" t="s">
+      <c r="F18" s="660" t="s">
         <v>188</v>
-      </c>
-      <c r="F18" s="660" t="s">
-        <v>189</v>
       </c>
       <c r="G18" s="658" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="661" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I18" s="662" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="663" t="s">
         <v>175</v>
-      </c>
-      <c r="J18" s="663" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="664" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="665" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" s="664" t="s">
         <v>33</v>
@@ -7659,30 +7653,30 @@
         <v>34</v>
       </c>
       <c r="E19" s="664" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="664" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="664" t="s">
-        <v>198</v>
       </c>
       <c r="G19" s="666" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="667" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I19" s="668" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J19" s="669" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="670" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="671" t="s">
         <v>230</v>
-      </c>
-      <c r="B20" s="671" t="s">
-        <v>231</v>
       </c>
       <c r="C20" s="670" t="s">
         <v>57</v>
@@ -7697,16 +7691,16 @@
         <v>91</v>
       </c>
       <c r="G20" s="672" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="673" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I20" s="674" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J20" s="675" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -7717,7 +7711,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="676" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="676" t="s">
         <v>137</v>
@@ -7735,10 +7729,10 @@
         <v>87</v>
       </c>
       <c r="I21" s="680" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J21" s="681" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -7758,7 +7752,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="682" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="684" t="s">
         <v>16</v>
@@ -7767,10 +7761,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="686" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J22" s="687" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -7799,10 +7793,10 @@
         <v>74</v>
       </c>
       <c r="I23" s="692" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J23" s="693" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -7822,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="F24" s="694" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="696" t="s">
         <v>148</v>
@@ -7831,50 +7825,50 @@
         <v>82</v>
       </c>
       <c r="I24" s="698" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J24" s="699" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="700" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="701" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="700" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="700" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="700" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="700" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="702" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H25" s="703" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25" s="704" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="706" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="707" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26" s="706" t="s">
         <v>66</v>
@@ -7892,21 +7886,21 @@
         <v>24</v>
       </c>
       <c r="H26" s="709" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I26" s="710" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="712" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="713" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="712" t="s">
         <v>23</v>
@@ -7915,7 +7909,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="712" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="712" t="s">
         <v>32</v>
@@ -7924,13 +7918,13 @@
         <v>53</v>
       </c>
       <c r="H27" s="714" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" s="715" t="s">
         <v>242</v>
       </c>
       <c r="J27" s="716" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -7944,7 +7938,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="717" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="717" t="s">
         <v>32</v>
@@ -7959,21 +7953,21 @@
         <v>99</v>
       </c>
       <c r="I28" s="721" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J28" s="722" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="723" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="724" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="724" t="s">
-        <v>194</v>
-      </c>
       <c r="C29" s="723" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="723" t="s">
         <v>57</v>
@@ -7988,13 +7982,13 @@
         <v>60</v>
       </c>
       <c r="H29" s="726" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="727" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="728" t="s">
         <v>175</v>
-      </c>
-      <c r="J29" s="728" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -8023,10 +8017,10 @@
         <v>106</v>
       </c>
       <c r="I30" s="733" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="J30" s="734" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -8037,42 +8031,42 @@
         <v>89</v>
       </c>
       <c r="C31" s="735" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" s="735" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="735" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F31" s="735" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="737" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H31" s="738" t="s">
         <v>94</v>
       </c>
       <c r="I31" s="739" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J31" s="740" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="741" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" s="742" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C32" s="741" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="741" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" s="741" t="s">
         <v>12</v>
@@ -8080,336 +8074,336 @@
       <c r="F32" s="741" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="743" t="s">
+      <c r="G32" s="741" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="744" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" s="745" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="746" t="s">
-        <v>234</v>
+      <c r="H32" s="743" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="744" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" s="745" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="747" t="s">
+      <c r="A33" s="746" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="747" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="748" t="s">
+      <c r="C33" s="746" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="746" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="746" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="746" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="746" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="748" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="747" t="s">
+      <c r="I33" s="749" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="750" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="751" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="752" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="751" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="751" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="751" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="751" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="753" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="754" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="755" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="756" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="757" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="758" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="757" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="757" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="757" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="759" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="757" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="760" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="761" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="762" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="763" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="764" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="763" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="763" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="763" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="763" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="763" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="765" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="766" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" s="767" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="768" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="769" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="768" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="747" t="s">
+      <c r="D37" s="768" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="768" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="770" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="768" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="771" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="772" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="773" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="774" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="775" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="774" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="774" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="774" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="774" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="776" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="777" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="778" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="779" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="780" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="781" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="780" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="780" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="780" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="782" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="780" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="783" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="784" t="s">
+        <v>174</v>
+      </c>
+      <c r="J39" s="785" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="786" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="787" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="786" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="786" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="786" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="786" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="786" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="788" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="789" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="790" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="791" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="792" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="791" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="791" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="791" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="747" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="747" t="s">
+      <c r="F41" s="791" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="747" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="749" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" s="750" t="s">
+      <c r="G41" s="793" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="794" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="795" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="796" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="797" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="798" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="797" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="797" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="797" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="797" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="797" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="799" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="800" t="s">
         <v>242</v>
       </c>
-      <c r="J33" s="751" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="752" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="753" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="752" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="752" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="752" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="752" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="754" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="755" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" s="756" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="757" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="758" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="759" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" s="758" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="758" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="758" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="760" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="758" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="761" t="s">
-        <v>238</v>
-      </c>
-      <c r="I35" s="762" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="763" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="764" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="765" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="764" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="764" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="764" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="764" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="764" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="766" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="767" t="s">
-        <v>242</v>
-      </c>
-      <c r="J36" s="768" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="769" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="770" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="769" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="769" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="769" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="771" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="769" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="772" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="773" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="774" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="775" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="776" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="775" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="775" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="775" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="775" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="777" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="778" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="779" t="s">
-        <v>256</v>
-      </c>
-      <c r="J38" s="780" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="781" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="782" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="781" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="781" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="781" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="783" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="781" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="784" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="785" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" s="786" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="787" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="788" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="787" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="787" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="787" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="787" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="787" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="789" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="790" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="791" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="792" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="793" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="792" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="792" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="792" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="792" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="794" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="795" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="796" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="797" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="798" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="799" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="798" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="798" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="798" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="798" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="798" t="s">
-        <v>222</v>
-      </c>
-      <c r="H42" s="800" t="s">
-        <v>241</v>
-      </c>
-      <c r="I42" s="801" t="s">
-        <v>242</v>
-      </c>
-      <c r="J42" s="802" t="s">
+      <c r="J42" s="801" t="s">
         <v>243</v>
       </c>
     </row>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="260">
   <si>
     <t>id</t>
   </si>
@@ -203,7 +203,7 @@
     <t>1.21</t>
   </si>
   <si>
-    <t>1.13.71</t>
+    <t>1.13.11</t>
   </si>
   <si>
     <t>86</t>
@@ -239,7 +239,10 @@
     <t>2.10</t>
   </si>
   <si>
-    <t>2.03.31</t>
+    <t>2.02.33</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>22</t>
@@ -278,7 +281,7 @@
     <t>龙之遗迹</t>
   </si>
   <si>
-    <t>1.49.20</t>
+    <t>1.48.41</t>
   </si>
   <si>
     <t>29</t>
@@ -335,150 +338,153 @@
     <t>2.22</t>
   </si>
   <si>
-    <t>2.15.37</t>
+    <t>2.14.99</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.23.97</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.08.64</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.56.38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.24.31</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.24.41</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1.46</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.23.97</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.08.64</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.56.38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.24.00</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -500,7 +506,7 @@
     <t>1.38</t>
   </si>
   <si>
-    <t>1.38.65</t>
+    <t>1.36.59</t>
   </si>
   <si>
     <t>9</t>
@@ -554,12 +560,12 @@
     <t>2.02.43</t>
   </si>
   <si>
+    <t>2.21</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
-    <t>2.21</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -641,7 +647,7 @@
     <t>秘密机关的威胁</t>
   </si>
   <si>
-    <t>2.05.00</t>
+    <t>2.05.99</t>
   </si>
   <si>
     <t>32</t>
@@ -650,7 +656,7 @@
     <t>冰峰裂谷</t>
   </si>
   <si>
-    <t>1.45.00</t>
+    <t>1.45.94</t>
   </si>
   <si>
     <t>65</t>
@@ -665,7 +671,7 @@
     <t>1.36</t>
   </si>
   <si>
-    <t>1.49.00</t>
+    <t>1.49.24</t>
   </si>
   <si>
     <t>39</t>
@@ -674,7 +680,7 @@
     <t>幽暗峡谷</t>
   </si>
   <si>
-    <t>2.01.00</t>
+    <t>2.01.67</t>
   </si>
   <si>
     <t>2.09</t>
@@ -713,66 +719,66 @@
     <t>1.17.59</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.29.33</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.16.28</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.95</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.29.33</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.16.28</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -788,10 +794,7 @@
     <t>黄金坐标</t>
   </si>
   <si>
-    <t>1.53.00</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>1.47.17</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1666,13 +1669,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1702,13 +1705,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2029,13 +2032,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2155,13 +2158,13 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2227,13 +2230,13 @@
     <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2299,13 +2302,13 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2668,7 +2671,7 @@
     <xf numFmtId="0" fontId="67" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2824,13 +2827,13 @@
     <xf numFmtId="0" fontId="76" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3382,13 +3385,13 @@
     <xf numFmtId="0" fontId="108" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3544,13 +3547,13 @@
     <xf numFmtId="0" fontId="117" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="117" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="117" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3580,13 +3583,13 @@
     <xf numFmtId="0" fontId="119" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="119" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="119" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3703,13 +3706,13 @@
     <xf numFmtId="0" fontId="126" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3739,10 +3742,13 @@
     <xf numFmtId="0" fontId="128" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="128" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4248,50 +4254,50 @@
         <v>74</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>13</v>
@@ -4309,39 +4315,39 @@
         <v>42</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="72" t="s">
         <v>68</v>
@@ -4352,10 +4358,10 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>32</v>
@@ -4367,13 +4373,13 @@
         <v>73</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I14" s="78" t="s">
         <v>68</v>
@@ -4384,34 +4390,34 @@
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="80" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -4428,19 +4434,19 @@
         <v>110</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="88" t="s">
         <v>111</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="89" t="s">
         <v>112</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="91" t="s">
         <v>113</v>
@@ -4466,16 +4472,16 @@
         <v>35</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="95" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -4521,13 +4527,13 @@
         <v>123</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="104" t="s">
         <v>124</v>
       </c>
       <c r="F19" s="106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="104" t="s">
         <v>125</v>
@@ -4536,7 +4542,7 @@
         <v>126</v>
       </c>
       <c r="I19" s="108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" s="109" t="s">
         <v>127</v>
@@ -4562,7 +4568,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="113" t="s">
         <v>130</v>
@@ -4588,7 +4594,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="118" t="s">
         <v>135</v>
@@ -4597,13 +4603,13 @@
         <v>136</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4668,10 +4674,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="123" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="123" t="s">
         <v>40</v>
@@ -4691,28 +4697,28 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="131" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="133" t="s">
         <v>68</v>
@@ -4729,7 +4735,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="135" t="s">
         <v>22</v>
@@ -4773,7 +4779,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="144" t="s">
         <v>37</v>
@@ -4787,34 +4793,34 @@
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" s="147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H6" s="150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -4825,7 +4831,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" s="153" t="s">
         <v>66</v>
@@ -4843,10 +4849,10 @@
         <v>44</v>
       </c>
       <c r="I7" s="157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -4883,10 +4889,10 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="165" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B9" s="166" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>48</v>
@@ -4904,7 +4910,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I9" s="169" t="s">
         <v>18</v>
@@ -4915,66 +4921,66 @@
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="171" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" s="172" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="171" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="171" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E10" s="173" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="171" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" s="171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" s="174" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I10" s="175" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="J10" s="176" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="177" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="177" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="179" t="s">
         <v>135</v>
       </c>
       <c r="G11" s="177" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" s="180" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I11" s="181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -4994,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="185" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G12" s="183" t="s">
         <v>32</v>
@@ -5003,10 +5009,10 @@
         <v>54</v>
       </c>
       <c r="I12" s="187" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="188" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5023,10 +5029,10 @@
         <v>58</v>
       </c>
       <c r="E13" s="191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="189" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="189" t="s">
         <v>124</v>
@@ -5043,42 +5049,42 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="195" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" s="196" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="195" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D14" s="195" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="195" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14" s="195" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H14" s="198" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I14" s="199" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J14" s="200" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="201" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" s="202" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" s="201" t="s">
         <v>23</v>
@@ -5087,7 +5093,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F15" s="203" t="s">
         <v>32</v>
@@ -5096,13 +5102,13 @@
         <v>34</v>
       </c>
       <c r="H15" s="204" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I15" s="205" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="206" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -5122,7 +5128,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="209" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G16" s="207" t="s">
         <v>24</v>
@@ -5131,10 +5137,10 @@
         <v>67</v>
       </c>
       <c r="I16" s="211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="212" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -5150,10 +5156,10 @@
       <c r="D17" s="213" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="213" t="s">
+      <c r="E17" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="215" t="s">
+      <c r="F17" s="213" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="213" t="s">
@@ -5163,50 +5169,50 @@
         <v>74</v>
       </c>
       <c r="I17" s="217" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J17" s="218" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="219" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="220" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="219" t="s">
         <v>111</v>
       </c>
       <c r="E18" s="219" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="221" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G18" s="219" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="223" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" s="224" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="226" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5218,45 +5224,45 @@
         <v>35</v>
       </c>
       <c r="F19" s="227" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="225" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H19" s="228" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I19" s="229" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" s="230" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B20" s="232" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C20" s="231" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D20" s="233" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E20" s="231" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="231" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G20" s="231" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5267,42 +5273,42 @@
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="237" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="238" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="237" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="237" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="239" t="s">
+      <c r="F21" s="237" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="237" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="240" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="241" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J21" s="242" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="243" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="244" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="243" t="s">
         <v>57</v>
@@ -5317,27 +5323,27 @@
         <v>60</v>
       </c>
       <c r="G22" s="243" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H22" s="246" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="247" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="248" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="249" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="249" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D23" s="249" t="s">
         <v>32</v>
@@ -5346,27 +5352,27 @@
         <v>34</v>
       </c>
       <c r="F23" s="251" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="249" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="252" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" s="253" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="254" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5375,30 +5381,30 @@
         <v>58</v>
       </c>
       <c r="E24" s="255" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>134</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I24" s="259" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" s="260" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="261" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="261" t="s">
         <v>32</v>
@@ -5407,22 +5413,22 @@
         <v>53</v>
       </c>
       <c r="E25" s="261" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F25" s="263" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H25" s="264" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="J25" s="266" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -5433,28 +5439,28 @@
         <v>109</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D26" s="267" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="267" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="269" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" s="267" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="270" t="s">
         <v>112</v>
       </c>
       <c r="I26" s="271" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -5477,16 +5483,16 @@
         <v>34</v>
       </c>
       <c r="G27" s="273" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="276" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="277" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -5515,10 +5521,10 @@
         <v>120</v>
       </c>
       <c r="I28" s="283" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J28" s="284" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -5532,22 +5538,22 @@
         <v>123</v>
       </c>
       <c r="D29" s="285" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="285" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="287" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="288" t="s">
         <v>126</v>
       </c>
       <c r="I29" s="289" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="290" t="s">
         <v>113</v>
@@ -5561,13 +5567,13 @@
         <v>129</v>
       </c>
       <c r="C30" s="291" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" s="291" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F30" s="291" t="s">
         <v>26</v>
@@ -5599,30 +5605,30 @@
         <v>134</v>
       </c>
       <c r="E31" s="297" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F31" s="299" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G31" s="297" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H31" s="300" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C32" s="303" t="s">
         <v>49</v>
@@ -5634,30 +5640,30 @@
         <v>33</v>
       </c>
       <c r="F32" s="303" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G32" s="305" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H32" s="306" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I32" s="307" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J32" s="308" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" s="310" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C33" s="309" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="309" t="s">
         <v>23</v>
@@ -5672,30 +5678,30 @@
         <v>73</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I33" s="313" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J33" s="314" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C34" s="315" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D34" s="315" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E34" s="315" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F34" s="315" t="s">
         <v>13</v>
@@ -5704,77 +5710,77 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I34" s="319" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B35" s="322" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C35" s="321" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D35" s="321" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" s="321" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35" s="321" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G35" s="323" t="s">
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B36" s="328" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C36" s="327" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="327" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" s="327" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="329" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G36" s="327" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I36" s="331" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J36" s="332" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5836,13 +5842,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="334" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D2" s="334" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="336" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="334" t="s">
         <v>40</v>
@@ -5862,19 +5868,19 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="340" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="341" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="340" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D3" s="340" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E3" s="340" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F3" s="342" t="s">
         <v>13</v>
@@ -5883,13 +5889,13 @@
         <v>40</v>
       </c>
       <c r="H3" s="343" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="344" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="345" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -5941,59 +5947,59 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" s="352" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="355" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="356" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="357" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="358" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="359" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="358" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="358" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E6" s="358" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F6" s="360" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" s="358" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H6" s="361" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I6" s="362" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="363" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="364" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" s="365" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="364" t="s">
         <v>15</v>
@@ -6011,13 +6017,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="367" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="368" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="369" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -6060,7 +6066,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="376" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="376" t="s">
         <v>66</v>
@@ -6078,50 +6084,50 @@
         <v>44</v>
       </c>
       <c r="I9" s="380" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="381" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="382" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" s="383" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="382" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="382" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="384" t="s">
-        <v>172</v>
+        <v>226</v>
+      </c>
+      <c r="E10" s="384" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="382" t="s">
+        <v>174</v>
       </c>
       <c r="G10" s="382" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H10" s="385" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I10" s="386" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J10" s="387" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="388" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" s="389" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="388" t="s">
         <v>124</v>
@@ -6130,22 +6136,22 @@
         <v>61</v>
       </c>
       <c r="E11" s="388" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H11" s="391" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I11" s="392" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J11" s="393" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -6159,7 +6165,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>123</v>
@@ -6197,7 +6203,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="402" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="400" t="s">
         <v>32</v>
@@ -6206,50 +6212,50 @@
         <v>54</v>
       </c>
       <c r="I13" s="404" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="405" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="406" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" s="407" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="406" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E14" s="406" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="408" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14" s="406" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H14" s="409" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I14" s="410" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J14" s="411" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="412" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" s="413" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" s="412" t="s">
         <v>22</v>
@@ -6267,21 +6273,21 @@
         <v>53</v>
       </c>
       <c r="H15" s="415" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I15" s="416" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="417" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" s="419" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6293,45 +6299,45 @@
         <v>73</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G16" s="418" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I16" s="422" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J16" s="423" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B17" s="425" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17" s="424" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D17" s="424" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E17" s="426" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6342,10 +6348,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
@@ -6363,21 +6369,21 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I18" s="434" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" s="435" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="436" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="437" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="436" t="s">
         <v>12</v>
@@ -6386,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="436" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="438" t="s">
         <v>15</v>
@@ -6395,13 +6401,13 @@
         <v>16</v>
       </c>
       <c r="H19" s="439" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="440" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="J19" s="441" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -6412,10 +6418,10 @@
         <v>65</v>
       </c>
       <c r="C20" s="442" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="442" t="s">
         <v>66</v>
@@ -6430,10 +6436,10 @@
         <v>67</v>
       </c>
       <c r="I20" s="446" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J20" s="447" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -6450,7 +6456,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="448" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F21" s="450" t="s">
         <v>32</v>
@@ -6462,42 +6468,42 @@
         <v>74</v>
       </c>
       <c r="I21" s="452" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="453" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="454" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="455" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D22" s="454" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="454" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G22" s="454" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="457" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="458" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J22" s="459" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -6508,28 +6514,28 @@
         <v>109</v>
       </c>
       <c r="C23" s="460" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" s="460" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="460" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="462" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" s="460" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="463" t="s">
         <v>112</v>
       </c>
       <c r="I23" s="464" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J23" s="465" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -6558,10 +6564,10 @@
         <v>120</v>
       </c>
       <c r="I24" s="470" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J24" s="471" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -6584,24 +6590,24 @@
         <v>34</v>
       </c>
       <c r="G25" s="472" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" s="475" t="s">
         <v>116</v>
       </c>
       <c r="I25" s="476" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="478" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="479" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="478" t="s">
         <v>43</v>
@@ -6616,56 +6622,56 @@
         <v>73</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H26" s="481" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="482" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J26" s="483" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B27" s="485" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E27" s="484" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="486" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" s="484" t="s">
         <v>124</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I27" s="488" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="489" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="490" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="491" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="490" t="s">
         <v>25</v>
@@ -6677,27 +6683,27 @@
         <v>34</v>
       </c>
       <c r="F28" s="490" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="492" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="493" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I28" s="494" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="496" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="497" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="496" t="s">
         <v>57</v>
@@ -6712,24 +6718,24 @@
         <v>60</v>
       </c>
       <c r="G29" s="496" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="499" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="500" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="501" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B30" s="503" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C30" s="502" t="s">
         <v>16</v>
@@ -6747,62 +6753,62 @@
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="508" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E31" s="508" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="508" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" s="510" t="s">
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B32" s="515" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C32" s="514" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D32" s="514" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" s="514" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" s="516" t="s">
         <v>14</v>
@@ -6811,21 +6817,21 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I32" s="518" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="519" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B33" s="521" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C33" s="520" t="s">
         <v>49</v>
@@ -6837,19 +6843,19 @@
         <v>33</v>
       </c>
       <c r="F33" s="520" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G33" s="522" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H33" s="523" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I33" s="524" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J33" s="525" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -6872,16 +6878,16 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H34" s="529" t="s">
         <v>130</v>
       </c>
       <c r="I34" s="530" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="531" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -6901,7 +6907,7 @@
         <v>124</v>
       </c>
       <c r="F35" s="532" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" s="534" t="s">
         <v>135</v>
@@ -6910,10 +6916,10 @@
         <v>126</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
@@ -6930,62 +6936,62 @@
         <v>134</v>
       </c>
       <c r="E36" s="538" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F36" s="540" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G36" s="538" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="541" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I36" s="542" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="543" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B37" s="545" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C37" s="544" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D37" s="544" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="544" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37" s="544" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" s="546" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B38" s="551" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" s="550" t="s">
         <v>119</v>
@@ -7003,45 +7009,45 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="556" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B39" s="557" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C39" s="556" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="556" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="556" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F39" s="556" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="556" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H39" s="558" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I39" s="559" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J39" s="560" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7103,7 +7109,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="562" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="562" t="s">
         <v>12</v>
@@ -7112,7 +7118,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="564" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="562" t="s">
         <v>48</v>
@@ -7121,42 +7127,42 @@
         <v>17</v>
       </c>
       <c r="I2" s="566" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="567" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="568" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="569" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="568" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" s="568" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="568" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="570" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" s="568" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="571" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="572" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="573" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -7208,59 +7214,59 @@
         <v>33</v>
       </c>
       <c r="F5" s="582" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" s="580" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="583" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="584" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="585" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="586" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="587" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="586" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="586" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E6" s="586" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F6" s="588" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" s="586" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H6" s="589" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I6" s="590" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="591" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="592" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" s="593" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="592" t="s">
         <v>66</v>
@@ -7278,21 +7284,21 @@
         <v>49</v>
       </c>
       <c r="H7" s="595" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="596" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="597" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="598" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B8" s="599" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8" s="598" t="s">
         <v>26</v>
@@ -7304,19 +7310,19 @@
         <v>73</v>
       </c>
       <c r="F8" s="600" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="598" t="s">
         <v>110</v>
       </c>
       <c r="H8" s="601" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I8" s="602" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J8" s="603" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -7336,7 +7342,7 @@
         <v>119</v>
       </c>
       <c r="F9" s="606" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G9" s="604" t="s">
         <v>42</v>
@@ -7345,10 +7351,10 @@
         <v>50</v>
       </c>
       <c r="I9" s="608" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="609" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -7377,18 +7383,18 @@
         <v>44</v>
       </c>
       <c r="I10" s="614" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="615" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="616" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" s="617" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="616" t="s">
         <v>60</v>
@@ -7397,54 +7403,54 @@
         <v>61</v>
       </c>
       <c r="E11" s="616" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F11" s="618" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G11" s="616" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H11" s="619" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I11" s="620" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J11" s="621" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="622" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="623" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C12" s="622" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D12" s="622" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="622" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="624" t="s">
-        <v>142</v>
+      <c r="E12" s="624" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="622" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="622" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="625" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I12" s="626" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J12" s="627" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -7455,7 +7461,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="628" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D13" s="628" t="s">
         <v>57</v>
@@ -7464,19 +7470,19 @@
         <v>58</v>
       </c>
       <c r="F13" s="630" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="628" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="631" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="632" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="633" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -7490,7 +7496,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="634" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="634" t="s">
         <v>42</v>
@@ -7505,53 +7511,53 @@
         <v>54</v>
       </c>
       <c r="I14" s="638" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="639" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="640" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="641" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="640" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" s="640" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E15" s="640" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15" s="642" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G15" s="640" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="643" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I15" s="644" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J15" s="645" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="646" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B16" s="647" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C16" s="646" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D16" s="646" t="s">
         <v>23</v>
@@ -7566,21 +7572,21 @@
         <v>33</v>
       </c>
       <c r="H16" s="649" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I16" s="650" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J16" s="651" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="652" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="653" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="652" t="s">
         <v>32</v>
@@ -7589,62 +7595,62 @@
         <v>33</v>
       </c>
       <c r="E17" s="652" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F17" s="652" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="654" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="655" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I17" s="656" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J17" s="657" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="658" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" s="659" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="658" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D18" s="658" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E18" s="658" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F18" s="660" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G18" s="658" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="661" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18" s="662" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J18" s="663" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="664" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B19" s="665" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" s="664" t="s">
         <v>33</v>
@@ -7653,30 +7659,30 @@
         <v>34</v>
       </c>
       <c r="E19" s="664" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" s="664" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" s="666" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="667" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="668" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J19" s="669" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="670" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" s="671" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C20" s="670" t="s">
         <v>57</v>
@@ -7685,54 +7691,54 @@
         <v>58</v>
       </c>
       <c r="E20" s="670" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="670" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="672" t="s">
         <v>134</v>
       </c>
       <c r="H20" s="673" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I20" s="674" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J20" s="675" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="676" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="677" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="676" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D21" s="676" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E21" s="676" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="676" t="s">
+      <c r="F21" s="678" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="678" t="s">
+      <c r="G21" s="676" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="679" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="680" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J21" s="681" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -7761,10 +7767,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="686" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J22" s="687" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -7775,7 +7781,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="688" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" s="688" t="s">
         <v>23</v>
@@ -7783,52 +7789,52 @@
       <c r="E23" s="688" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="688" t="s">
+      <c r="F23" s="690" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="690" t="s">
+      <c r="G23" s="688" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="691" t="s">
         <v>74</v>
       </c>
       <c r="I23" s="692" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J23" s="693" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="694" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="695" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="694" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="694" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="694" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="694" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G24" s="696" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="697" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="698" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J24" s="699" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -7842,13 +7848,13 @@
         <v>35</v>
       </c>
       <c r="D25" s="700" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E25" s="700" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="700" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" s="702" t="s">
         <v>111</v>
@@ -7857,10 +7863,10 @@
         <v>112</v>
       </c>
       <c r="I25" s="704" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -7889,10 +7895,10 @@
         <v>120</v>
       </c>
       <c r="I26" s="710" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -7909,7 +7915,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="712" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F27" s="712" t="s">
         <v>32</v>
@@ -7921,24 +7927,24 @@
         <v>116</v>
       </c>
       <c r="I27" s="715" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J27" s="716" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="717" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="718" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="717" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="717" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E28" s="717" t="s">
         <v>32</v>
@@ -7950,24 +7956,24 @@
         <v>73</v>
       </c>
       <c r="H28" s="720" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" s="721" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J28" s="722" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="723" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B29" s="724" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" s="723" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D29" s="723" t="s">
         <v>57</v>
@@ -7982,21 +7988,21 @@
         <v>60</v>
       </c>
       <c r="H29" s="726" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I29" s="727" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J29" s="728" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="729" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="730" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="729" t="s">
         <v>25</v>
@@ -8014,27 +8020,27 @@
         <v>36</v>
       </c>
       <c r="H30" s="732" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I30" s="733" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="J30" s="734" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="735" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="736" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="735" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" s="735" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" s="735" t="s">
         <v>123</v>
@@ -8046,365 +8052,365 @@
         <v>134</v>
       </c>
       <c r="H31" s="738" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="739" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J31" s="740" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="741" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B32" s="742" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C32" s="741" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" s="741" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E32" s="741" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="741" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="741" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="743" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="743" t="s">
-        <v>257</v>
-      </c>
-      <c r="I32" s="744" t="s">
+      <c r="H32" s="744" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" s="745" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="746" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="747" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="748" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="747" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="747" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="747" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="747" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="747" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="749" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="750" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" s="751" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="752" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="753" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="752" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="752" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="752" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="752" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="754" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="755" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="756" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="757" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="758" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="759" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="758" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="758" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="758" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="760" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="758" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="761" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="762" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="763" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="764" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="765" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="764" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="764" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="764" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="764" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="764" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="766" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="767" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="768" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="769" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="770" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="769" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="769" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="769" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="771" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="769" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="772" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="773" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="774" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="775" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="776" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="775" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="775" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="775" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="775" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="777" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="778" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="779" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" s="780" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="781" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="782" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="781" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="781" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="781" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="783" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="781" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="784" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="785" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="786" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="787" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="788" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="787" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="787" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="787" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="787" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="787" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="789" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="790" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="791" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="792" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="793" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="792" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="792" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="792" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="792" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="794" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="795" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" s="796" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="797" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="798" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="799" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="798" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="798" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="798" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="798" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="798" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="800" t="s">
         <v>242</v>
       </c>
-      <c r="J32" s="745" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="746" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="747" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="746" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="746" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="746" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="746" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="746" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="748" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="749" t="s">
-        <v>242</v>
-      </c>
-      <c r="J33" s="750" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="751" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="752" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="751" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="751" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="751" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="751" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="753" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="754" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="755" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="756" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="757" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="758" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="757" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" s="757" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="757" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="759" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="757" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="760" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" s="761" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="762" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="763" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="764" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="763" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="763" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="763" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="763" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="763" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="765" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" s="766" t="s">
-        <v>242</v>
-      </c>
-      <c r="J36" s="767" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="768" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="769" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="768" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="768" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="768" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="770" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="768" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="771" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="772" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="773" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="774" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="775" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="774" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="774" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="774" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" s="774" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="776" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="777" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" s="778" t="s">
-        <v>253</v>
-      </c>
-      <c r="J38" s="779" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="780" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="781" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="780" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="780" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="780" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="782" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="780" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="783" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="784" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="785" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="786" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="787" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="786" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="786" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="786" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="786" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="786" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="788" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="789" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="790" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="791" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41" s="792" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="791" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="791" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="791" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="791" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="793" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="794" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" s="795" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" s="796" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="797" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="798" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="797" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="797" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="797" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="797" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="797" t="s">
-        <v>221</v>
-      </c>
-      <c r="H42" s="799" t="s">
-        <v>241</v>
-      </c>
-      <c r="I42" s="800" t="s">
-        <v>242</v>
-      </c>
-      <c r="J42" s="801" t="s">
+      <c r="I42" s="801" t="s">
         <v>243</v>
+      </c>
+      <c r="J42" s="802" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -770,7 +770,7 @@
     <t>神秘研究所</t>
   </si>
   <si>
-    <t>2.16.28</t>
+    <t>2.14.21</t>
   </si>
   <si>
     <t>63</t>
@@ -3511,13 +3511,13 @@
     <xf numFmtId="0" fontId="115" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="115" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="115" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -7661,20 +7661,20 @@
       <c r="E19" s="664" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="664" t="s">
+      <c r="F19" s="666" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="666" t="s">
+      <c r="G19" s="664" t="s">
         <v>105</v>
       </c>
       <c r="H19" s="667" t="s">
         <v>251</v>
       </c>
       <c r="I19" s="668" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="J19" s="669" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -6,10 +6,10 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="S1分数交流线" r:id="rId3" sheetId="1"/>
-    <sheet name="S3分数交流线" r:id="rId4" sheetId="2"/>
-    <sheet name="S4分数交流线" r:id="rId5" sheetId="3"/>
-    <sheet name="S5分数交流线" r:id="rId6" sheetId="4"/>
+    <sheet name="s1交流分数线" r:id="rId3" sheetId="1"/>
+    <sheet name="s3交流分数线" r:id="rId4" sheetId="2"/>
+    <sheet name="s4交流分数线" r:id="rId5" sheetId="3"/>
+    <sheet name="s5交流分数线" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -47,7 +47,7 @@
     <t>分数</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
   <si>
     <t>城镇高速公路</t>
@@ -77,718 +77,718 @@
     <t>85</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>滨海风景</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.56.91</t>
+  </si>
+  <si>
+    <t>一线勉强</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>狮城狂飙</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.07.65</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>迪拜富人区</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.51.83</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>灵岩环道</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.52.73</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>恐龙决斗场</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.59.41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>里约滑坡</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.13.11</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>万里长城</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.52.69</t>
+  </si>
+  <si>
+    <t>二线勉强</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>海盗绝壁海湾</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.02.33</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>海底神殿</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.29.56</t>
+  </si>
+  <si>
+    <t>三线以上</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.48.41</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>城镇公路</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.16.48</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.10.73</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.14.99</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.23.97</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.08.64</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.56.38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.24.31</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.24.41</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>滨海风景</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>1.56.91</t>
-  </si>
-  <si>
-    <t>一线勉强</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>狮城狂飙</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.07.65</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>迪拜富人区</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.51.83</t>
-  </si>
-  <si>
-    <t>83</t>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.59</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.40.73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>2.02.43</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.91</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.64</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.14.57</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.05.99</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.94</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.49.24</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>2.01.67</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.17.59</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.29.33</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>灵岩环道</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>1.52.73</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>恐龙决斗场</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.59.41</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>里约滑坡</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.13.11</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>万里长城</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.52.69</t>
-  </si>
-  <si>
-    <t>二线勉强</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>海盗绝壁海湾</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.02.33</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>海底神殿</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.29.56</t>
-  </si>
-  <si>
-    <t>三线以上</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.48.41</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>城镇公路</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.16.48</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.10.73</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.14.99</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.23.97</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.08.64</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.56.38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.24.31</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.24.41</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.59</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.40.73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>2.02.43</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.91</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.64</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.14.57</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.14.21</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.05.99</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.94</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.49.24</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>2.01.67</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.17.59</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.94</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.29.33</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.14.21</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>黄金坐标</t>
@@ -8415,6 +8415,5 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup/>
 </worksheet>
 </file>
--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -716,7 +716,7 @@
     <t>玩具工厂</t>
   </si>
   <si>
-    <t>1.17.59</t>
+    <t>1.15.99</t>
   </si>
   <si>
     <t>68</t>
@@ -2809,13 +2809,13 @@
     <xf numFmtId="0" fontId="75" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3535,7 +3535,7 @@
     <xf numFmtId="0" fontId="116" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="116" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="116" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -6359,10 +6359,10 @@
       <c r="D18" s="430" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="430" t="s">
+      <c r="E18" s="432" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="432" t="s">
+      <c r="F18" s="430" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="430" t="s">
@@ -6372,10 +6372,10 @@
         <v>233</v>
       </c>
       <c r="I18" s="434" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J18" s="435" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -7693,20 +7693,20 @@
       <c r="E20" s="670" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="670" t="s">
+      <c r="F20" s="672" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="672" t="s">
+      <c r="G20" s="670" t="s">
         <v>134</v>
       </c>
       <c r="H20" s="673" t="s">
         <v>233</v>
       </c>
       <c r="I20" s="674" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="J20" s="675" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -365,7 +365,7 @@
     <t>沙漠旋转工地</t>
   </si>
   <si>
-    <t>2.08.64</t>
+    <t>2.07.47</t>
   </si>
   <si>
     <t>25</t>
@@ -779,22 +779,22 @@
     <t>66</t>
   </si>
   <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>黄金坐标</t>
+  </si>
+  <si>
+    <t>1.47.17</t>
+  </si>
+  <si>
     <t>57</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>黄金坐标</t>
-  </si>
-  <si>
-    <t>1.47.17</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1795,13 +1795,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2338,13 +2338,13 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2935,13 +2935,13 @@
     <xf numFmtId="0" fontId="82" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3655,10 +3655,13 @@
     <xf numFmtId="0" fontId="123" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="123" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="123" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="123" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4465,10 +4468,10 @@
       <c r="D17" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="92" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="92" t="s">
@@ -4478,10 +4481,10 @@
         <v>116</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -5489,10 +5492,10 @@
         <v>116</v>
       </c>
       <c r="I27" s="277" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -6596,10 +6599,10 @@
         <v>116</v>
       </c>
       <c r="I25" s="476" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -7920,496 +7923,496 @@
       <c r="F27" s="712" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="712" t="s">
+      <c r="G27" s="714" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="714" t="s">
+      <c r="H27" s="715" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="715" t="s">
+      <c r="I27" s="716" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="717" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="718" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="719" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="718" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="718" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="718" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="718" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="720" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="721" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="722" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="723" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="724" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="725" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="724" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="724" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="724" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="726" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="724" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="727" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="728" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="729" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="730" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="731" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="730" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="730" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="730" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="730" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="732" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="733" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="734" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="735" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="736" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="737" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="736" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="736" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="736" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="736" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="738" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="739" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="740" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="741" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="742" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="743" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="742" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="742" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="742" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="742" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="744" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="745" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" s="746" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="747" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="748" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="749" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="748" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="748" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="748" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="748" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="748" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="750" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="751" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="716" t="s">
+      <c r="J33" s="752" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="753" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="754" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="753" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="753" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="753" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="753" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="755" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="756" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="757" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="758" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="759" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="760" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="759" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="759" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="759" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="761" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="759" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="762" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="763" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="764" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="765" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="766" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="765" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="765" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="765" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="765" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="765" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="767" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="768" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="769" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="770" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="771" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="770" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="770" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="770" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="772" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="770" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="773" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="774" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="775" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="776" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="777" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="776" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="776" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="776" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="776" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="778" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="779" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="780" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" s="717" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="718" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="717" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="717" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="717" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="717" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="719" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="720" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="721" t="s">
+      <c r="J38" s="781" t="s">
         <v>255</v>
       </c>
-      <c r="J28" s="722" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" ht="20.0" customHeight="true">
-      <c r="A29" s="723" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="724" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="723" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="723" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="723" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="725" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="723" t="s">
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="782" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="783" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="782" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="782" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="726" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="727" t="s">
+      <c r="E39" s="782" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="784" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="782" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="785" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="786" t="s">
         <v>176</v>
       </c>
-      <c r="J29" s="728" t="s">
+      <c r="J39" s="787" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" s="729" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="730" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="729" t="s">
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="788" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="789" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="788" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="788" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="788" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="788" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="788" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="790" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="791" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="792" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="793" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="794" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="793" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="793" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="793" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="793" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="795" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="729" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="729" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="729" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="731" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="732" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="733" t="s">
+      <c r="H41" s="796" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" s="797" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="734" t="s">
+      <c r="J41" s="798" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="735" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="736" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="735" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="735" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="735" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="735" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="737" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="738" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="739" t="s">
-        <v>206</v>
-      </c>
-      <c r="J31" s="740" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" s="741" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="742" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="741" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="741" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="741" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="741" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="743" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="744" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" s="745" t="s">
-        <v>206</v>
-      </c>
-      <c r="J32" s="746" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="747" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="748" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="747" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="747" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="747" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="747" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="747" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="749" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="750" t="s">
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="799" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="800" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="799" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="799" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="799" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="799" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="799" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="801" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" s="802" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="751" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="752" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="753" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="752" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="752" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="752" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="752" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="754" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="755" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="756" t="s">
-        <v>206</v>
-      </c>
-      <c r="J34" s="757" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="758" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="759" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="758" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="758" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="758" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="760" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="758" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="761" t="s">
-        <v>239</v>
-      </c>
-      <c r="I35" s="762" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="763" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="764" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="765" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="764" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="764" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="764" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="764" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="764" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="766" t="s">
-        <v>205</v>
-      </c>
-      <c r="I36" s="767" t="s">
-        <v>243</v>
-      </c>
-      <c r="J36" s="768" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="769" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="770" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="769" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="769" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="769" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="771" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="769" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="772" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="773" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="774" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="775" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="776" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="775" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="775" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="775" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="775" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="777" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="778" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" s="779" t="s">
-        <v>255</v>
-      </c>
-      <c r="J38" s="780" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="781" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="782" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="781" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="781" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="781" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="783" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="781" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="784" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="785" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" s="786" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="787" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="788" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="787" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="787" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="787" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="787" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="787" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="789" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" s="790" t="s">
-        <v>243</v>
-      </c>
-      <c r="J40" s="791" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="792" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="793" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="792" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="792" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="792" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="792" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="794" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="795" t="s">
-        <v>221</v>
-      </c>
-      <c r="I41" s="796" t="s">
-        <v>206</v>
-      </c>
-      <c r="J41" s="797" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="798" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="799" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="798" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="798" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="798" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="798" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="798" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" s="800" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" s="801" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="802" t="s">
+      <c r="J42" s="803" t="s">
         <v>244</v>
       </c>
     </row>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -266,7 +266,73 @@
     <t>2.37</t>
   </si>
   <si>
-    <t>2.29.56</t>
+    <t>2.28.27</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.48.41</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>城镇公路</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.16.48</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.10.73</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.14.99</t>
   </si>
   <si>
     <t>三线以上</t>
@@ -275,72 +341,6 @@
     <t>78</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.48.41</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>城镇公路</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.16.48</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.10.73</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.14.99</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -563,69 +563,69 @@
     <t>2.21</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.91</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.64</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.91</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.64</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -771,9 +771,6 @@
   </si>
   <si>
     <t>2.14.21</t>
-  </si>
-  <si>
-    <t>63</t>
   </si>
   <si>
     <t>66</t>
@@ -1687,13 +1684,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2176,13 +2173,13 @@
     <xf numFmtId="0" fontId="39" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2881,13 +2878,13 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4276,10 +4273,10 @@
       <c r="D11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="56" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="56" t="s">
@@ -4289,18 +4286,18 @@
         <v>83</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>13</v>
@@ -4318,7 +4315,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" s="66" t="s">
         <v>18</v>
@@ -4329,28 +4326,28 @@
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="G13" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="H13" s="71" t="s">
         <v>93</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>95</v>
       </c>
       <c r="I13" s="72" t="s">
         <v>68</v>
@@ -4361,10 +4358,10 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>32</v>
@@ -4376,13 +4373,13 @@
         <v>73</v>
       </c>
       <c r="F14" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="77" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>100</v>
       </c>
       <c r="I14" s="78" t="s">
         <v>68</v>
@@ -4393,34 +4390,34 @@
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="80" t="s">
         <v>101</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="80" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="H15" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="I15" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="J15" s="85" t="s">
         <v>107</v>
-      </c>
-      <c r="I15" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -4437,7 +4434,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="88" t="s">
         <v>111</v>
@@ -4449,7 +4446,7 @@
         <v>112</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J16" s="91" t="s">
         <v>113</v>
@@ -4475,7 +4472,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="95" t="s">
         <v>116</v>
@@ -4530,13 +4527,13 @@
         <v>123</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="104" t="s">
         <v>124</v>
       </c>
       <c r="F19" s="106" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="104" t="s">
         <v>125</v>
@@ -4545,7 +4542,7 @@
         <v>126</v>
       </c>
       <c r="I19" s="108" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J19" s="109" t="s">
         <v>127</v>
@@ -4571,7 +4568,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="113" t="s">
         <v>130</v>
@@ -4597,7 +4594,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="118" t="s">
         <v>135</v>
@@ -4609,10 +4606,10 @@
         <v>137</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4779,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="144" t="s">
         <v>37</v>
@@ -4820,7 +4817,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J6" s="152" t="s">
         <v>153</v>
@@ -4852,7 +4849,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="157" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J7" s="158" t="s">
         <v>155</v>
@@ -4968,7 +4965,7 @@
         <v>166</v>
       </c>
       <c r="E11" s="177" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="179" t="s">
         <v>135</v>
@@ -4980,7 +4977,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="181" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J11" s="182" t="s">
         <v>169</v>
@@ -5012,7 +5009,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="187" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J12" s="188" t="s">
         <v>155</v>
@@ -5032,10 +5029,10 @@
         <v>58</v>
       </c>
       <c r="E13" s="191" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="189" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="189" t="s">
         <v>124</v>
@@ -5108,7 +5105,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="205" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J15" s="206" t="s">
         <v>155</v>
@@ -5140,7 +5137,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="211" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J16" s="212" t="s">
         <v>153</v>
@@ -5191,10 +5188,10 @@
       <c r="D18" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="219" t="s">
+      <c r="E18" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="221" t="s">
+      <c r="F18" s="219" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="219" t="s">
@@ -5204,18 +5201,18 @@
         <v>83</v>
       </c>
       <c r="I18" s="223" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J18" s="224" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="226" t="s">
         <v>183</v>
-      </c>
-      <c r="B19" s="226" t="s">
-        <v>184</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5227,16 +5224,16 @@
         <v>35</v>
       </c>
       <c r="F19" s="227" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="228" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="228" t="s">
-        <v>186</v>
-      </c>
       <c r="I19" s="229" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J19" s="230" t="s">
         <v>153</v>
@@ -5244,28 +5241,28 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="232" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="D20" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="E20" s="231" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="F20" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="231" t="s">
+      <c r="G20" s="231" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="234" t="s">
         <v>192</v>
-      </c>
-      <c r="G20" s="231" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="234" t="s">
-        <v>193</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5276,10 +5273,10 @@
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="237" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="238" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="237" t="s">
         <v>138</v>
@@ -5297,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="H21" s="240" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" s="241" t="s">
         <v>68</v>
@@ -5308,10 +5305,10 @@
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="243" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="244" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="243" t="s">
         <v>57</v>
@@ -5329,10 +5326,10 @@
         <v>166</v>
       </c>
       <c r="H22" s="246" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I22" s="247" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J22" s="248" t="s">
         <v>155</v>
@@ -5340,10 +5337,10 @@
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="249" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="249" t="s">
         <v>170</v>
@@ -5355,16 +5352,16 @@
         <v>34</v>
       </c>
       <c r="F23" s="251" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="249" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H23" s="252" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="253" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J23" s="254" t="s">
         <v>155</v>
@@ -5372,10 +5369,10 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="256" t="s">
         <v>194</v>
-      </c>
-      <c r="B24" s="256" t="s">
-        <v>195</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5384,19 +5381,19 @@
         <v>58</v>
       </c>
       <c r="E24" s="255" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>134</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="259" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J24" s="260" t="s">
         <v>155</v>
@@ -5404,10 +5401,10 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="261" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="261" t="s">
         <v>32</v>
@@ -5416,19 +5413,19 @@
         <v>53</v>
       </c>
       <c r="E25" s="261" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="263" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H25" s="264" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J25" s="266" t="s">
         <v>113</v>
@@ -5442,13 +5439,13 @@
         <v>109</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="267" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="267" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="269" t="s">
         <v>79</v>
@@ -5460,10 +5457,10 @@
         <v>112</v>
       </c>
       <c r="I26" s="271" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -5486,13 +5483,13 @@
         <v>34</v>
       </c>
       <c r="G27" s="273" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="276" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="277" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J27" s="278" t="s">
         <v>113</v>
@@ -5541,22 +5538,22 @@
         <v>123</v>
       </c>
       <c r="D29" s="285" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" s="285" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="287" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" s="288" t="s">
         <v>126</v>
       </c>
       <c r="I29" s="289" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J29" s="290" t="s">
         <v>113</v>
@@ -5608,10 +5605,10 @@
         <v>134</v>
       </c>
       <c r="E31" s="297" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="299" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="297" t="s">
         <v>167</v>
@@ -5620,10 +5617,10 @@
         <v>137</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
@@ -5643,10 +5640,10 @@
         <v>33</v>
       </c>
       <c r="F32" s="303" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G32" s="305" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="306" t="s">
         <v>205</v>
@@ -5895,7 +5892,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="344" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J3" s="345" t="s">
         <v>155</v>
@@ -5953,13 +5950,13 @@
         <v>222</v>
       </c>
       <c r="G5" s="352" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="355" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="356" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J5" s="357" t="s">
         <v>155</v>
@@ -5991,7 +5988,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="362" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J6" s="363" t="s">
         <v>169</v>
@@ -6023,7 +6020,7 @@
         <v>158</v>
       </c>
       <c r="I7" s="368" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J7" s="369" t="s">
         <v>155</v>
@@ -6087,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="380" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J9" s="381" t="s">
         <v>155</v>
@@ -6142,7 +6139,7 @@
         <v>173</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="388" t="s">
         <v>227</v>
@@ -6168,7 +6165,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>123</v>
@@ -6215,7 +6212,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="404" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J13" s="405" t="s">
         <v>155</v>
@@ -6279,7 +6276,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="416" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J15" s="417" t="s">
         <v>169</v>
@@ -6287,10 +6284,10 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="419" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="419" t="s">
-        <v>184</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6302,13 +6299,13 @@
         <v>73</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="418" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I16" s="422" t="s">
         <v>176</v>
@@ -6319,10 +6316,10 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="425" t="s">
         <v>187</v>
-      </c>
-      <c r="B17" s="425" t="s">
-        <v>188</v>
       </c>
       <c r="C17" s="424" t="s">
         <v>228</v>
@@ -6331,7 +6328,7 @@
         <v>229</v>
       </c>
       <c r="E17" s="426" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="424" t="s">
         <v>230</v>
@@ -6340,7 +6337,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6383,10 +6380,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="436" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="437" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="436" t="s">
         <v>12</v>
@@ -6404,10 +6401,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="439" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="440" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J19" s="441" t="s">
         <v>169</v>
@@ -6471,7 +6468,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="452" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J21" s="453" t="s">
         <v>155</v>
@@ -6485,7 +6482,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="454" t="s">
         <v>78</v>
@@ -6503,10 +6500,10 @@
         <v>83</v>
       </c>
       <c r="I22" s="458" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="J22" s="459" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -6517,13 +6514,13 @@
         <v>109</v>
       </c>
       <c r="C23" s="460" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="460" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="460" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="462" t="s">
         <v>78</v>
@@ -6593,13 +6590,13 @@
         <v>34</v>
       </c>
       <c r="G25" s="472" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" s="475" t="s">
         <v>116</v>
       </c>
       <c r="I25" s="476" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J25" s="477" t="s">
         <v>113</v>
@@ -6607,10 +6604,10 @@
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="478" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="479" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="478" t="s">
         <v>43</v>
@@ -6625,10 +6622,10 @@
         <v>73</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H26" s="481" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26" s="482" t="s">
         <v>176</v>
@@ -6639,31 +6636,31 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="485" t="s">
         <v>194</v>
-      </c>
-      <c r="B27" s="485" t="s">
-        <v>195</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="484" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="486" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="484" t="s">
         <v>124</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="488" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J27" s="489" t="s">
         <v>169</v>
@@ -6671,10 +6668,10 @@
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="490" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="491" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="490" t="s">
         <v>25</v>
@@ -6686,13 +6683,13 @@
         <v>34</v>
       </c>
       <c r="F28" s="490" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G28" s="492" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="493" t="s">
         <v>105</v>
-      </c>
-      <c r="H28" s="493" t="s">
-        <v>107</v>
       </c>
       <c r="I28" s="494" t="s">
         <v>206</v>
@@ -6703,10 +6700,10 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="496" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="497" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="496" t="s">
         <v>57</v>
@@ -6724,10 +6721,10 @@
         <v>166</v>
       </c>
       <c r="H29" s="499" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I29" s="500" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J29" s="501" t="s">
         <v>155</v>
@@ -6823,7 +6820,7 @@
         <v>239</v>
       </c>
       <c r="I32" s="518" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J32" s="519" t="s">
         <v>155</v>
@@ -6846,10 +6843,10 @@
         <v>33</v>
       </c>
       <c r="F33" s="520" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="522" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H33" s="523" t="s">
         <v>205</v>
@@ -6887,7 +6884,7 @@
         <v>130</v>
       </c>
       <c r="I34" s="530" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J34" s="531" t="s">
         <v>155</v>
@@ -6910,7 +6907,7 @@
         <v>124</v>
       </c>
       <c r="F35" s="532" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G35" s="534" t="s">
         <v>135</v>
@@ -6942,7 +6939,7 @@
         <v>166</v>
       </c>
       <c r="F36" s="540" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G36" s="538" t="s">
         <v>125</v>
@@ -6951,7 +6948,7 @@
         <v>137</v>
       </c>
       <c r="I36" s="542" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J36" s="543" t="s">
         <v>169</v>
@@ -7029,13 +7026,13 @@
         <v>241</v>
       </c>
       <c r="C39" s="556" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="556" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E39" s="556" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="556" t="s">
         <v>78</v>
@@ -7130,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="566" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J2" s="567" t="s">
         <v>155</v>
@@ -7162,7 +7159,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="572" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J3" s="573" t="s">
         <v>169</v>
@@ -7220,13 +7217,13 @@
         <v>222</v>
       </c>
       <c r="G5" s="580" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="583" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="584" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J5" s="585" t="s">
         <v>155</v>
@@ -7258,7 +7255,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="590" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J6" s="591" t="s">
         <v>169</v>
@@ -7290,7 +7287,7 @@
         <v>158</v>
       </c>
       <c r="I7" s="596" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J7" s="597" t="s">
         <v>169</v>
@@ -7313,7 +7310,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="600" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="598" t="s">
         <v>110</v>
@@ -7354,7 +7351,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="608" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J9" s="609" t="s">
         <v>155</v>
@@ -7386,7 +7383,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="614" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J10" s="615" t="s">
         <v>169</v>
@@ -7409,7 +7406,7 @@
         <v>173</v>
       </c>
       <c r="F11" s="618" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="616" t="s">
         <v>227</v>
@@ -7473,16 +7470,16 @@
         <v>58</v>
       </c>
       <c r="F13" s="630" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="628" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13" s="631" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="632" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J13" s="633" t="s">
         <v>153</v>
@@ -7514,7 +7511,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="638" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J14" s="639" t="s">
         <v>169</v>
@@ -7586,10 +7583,10 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="652" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="653" t="s">
         <v>183</v>
-      </c>
-      <c r="B17" s="653" t="s">
-        <v>184</v>
       </c>
       <c r="C17" s="652" t="s">
         <v>32</v>
@@ -7604,10 +7601,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="654" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="655" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I17" s="656" t="s">
         <v>206</v>
@@ -7618,10 +7615,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="658" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="659" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="659" t="s">
-        <v>188</v>
       </c>
       <c r="C18" s="658" t="s">
         <v>248</v>
@@ -7630,16 +7627,16 @@
         <v>228</v>
       </c>
       <c r="E18" s="658" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="660" t="s">
         <v>189</v>
-      </c>
-      <c r="F18" s="660" t="s">
-        <v>190</v>
       </c>
       <c r="G18" s="658" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="661" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" s="662" t="s">
         <v>176</v>
@@ -7662,13 +7659,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="664" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="666" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="666" t="s">
-        <v>199</v>
-      </c>
       <c r="G19" s="664" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" s="667" t="s">
         <v>251</v>
@@ -7694,10 +7691,10 @@
         <v>58</v>
       </c>
       <c r="E20" s="670" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="672" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="670" t="s">
         <v>134</v>
@@ -7706,7 +7703,7 @@
         <v>233</v>
       </c>
       <c r="I20" s="674" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J20" s="675" t="s">
         <v>153</v>
@@ -7714,10 +7711,10 @@
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="676" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="677" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="676" t="s">
         <v>174</v>
@@ -7735,7 +7732,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="679" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" s="680" t="s">
         <v>176</v>
@@ -7816,10 +7813,10 @@
         <v>77</v>
       </c>
       <c r="C24" s="694" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="694" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="694" t="s">
         <v>79</v>
@@ -7851,13 +7848,13 @@
         <v>35</v>
       </c>
       <c r="D25" s="700" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="700" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="700" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="702" t="s">
         <v>111</v>
@@ -7901,7 +7898,7 @@
         <v>206</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -7930,18 +7927,18 @@
         <v>116</v>
       </c>
       <c r="I27" s="716" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="717" t="s">
         <v>254</v>
-      </c>
-      <c r="J27" s="717" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="718" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="719" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="718" t="s">
         <v>49</v>
@@ -7959,21 +7956,21 @@
         <v>73</v>
       </c>
       <c r="H28" s="721" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I28" s="722" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="723" t="s">
         <v>254</v>
-      </c>
-      <c r="J28" s="723" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="724" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="725" t="s">
         <v>194</v>
-      </c>
-      <c r="B29" s="725" t="s">
-        <v>195</v>
       </c>
       <c r="C29" s="724" t="s">
         <v>230</v>
@@ -7991,7 +7988,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="727" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I29" s="728" t="s">
         <v>176</v>
@@ -8002,10 +7999,10 @@
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="730" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="731" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="730" t="s">
         <v>25</v>
@@ -8023,7 +8020,7 @@
         <v>36</v>
       </c>
       <c r="H30" s="733" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I30" s="734" t="s">
         <v>206</v>
@@ -8034,16 +8031,16 @@
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="736" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="737" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="736" t="s">
         <v>230</v>
       </c>
       <c r="D31" s="736" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="736" t="s">
         <v>123</v>
@@ -8055,7 +8052,7 @@
         <v>134</v>
       </c>
       <c r="H31" s="739" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="740" t="s">
         <v>206</v>
@@ -8066,10 +8063,10 @@
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="742" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="743" t="s">
         <v>256</v>
-      </c>
-      <c r="B32" s="743" t="s">
-        <v>257</v>
       </c>
       <c r="C32" s="742" t="s">
         <v>217</v>
@@ -8087,7 +8084,7 @@
         <v>66</v>
       </c>
       <c r="H32" s="745" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I32" s="746" t="s">
         <v>206</v>
@@ -8125,7 +8122,7 @@
         <v>243</v>
       </c>
       <c r="J33" s="752" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -8157,7 +8154,7 @@
         <v>206</v>
       </c>
       <c r="J34" s="758" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -8186,7 +8183,7 @@
         <v>239</v>
       </c>
       <c r="I35" s="763" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J35" s="764" t="s">
         <v>169</v>
@@ -8212,7 +8209,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="765" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="767" t="s">
         <v>205</v>
@@ -8221,7 +8218,7 @@
         <v>243</v>
       </c>
       <c r="J36" s="769" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -8267,10 +8264,10 @@
         <v>58</v>
       </c>
       <c r="D38" s="776" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="776" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="776" t="s">
         <v>134</v>
@@ -8282,10 +8279,10 @@
         <v>126</v>
       </c>
       <c r="I38" s="780" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="781" t="s">
         <v>254</v>
-      </c>
-      <c r="J38" s="781" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -8296,7 +8293,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="782" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D39" s="782" t="s">
         <v>60</v>
@@ -8349,7 +8346,7 @@
         <v>243</v>
       </c>
       <c r="J40" s="792" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
@@ -8392,13 +8389,13 @@
         <v>241</v>
       </c>
       <c r="C42" s="799" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="799" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="799" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="799" t="s">
         <v>78</v>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -332,105 +332,105 @@
     <t>2.22</t>
   </si>
   <si>
-    <t>2.14.99</t>
+    <t>2.11.87</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.23.97</t>
   </si>
   <si>
     <t>三线以上</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.07.47</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.56.38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.24.31</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.24.41</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.23.97</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.07.47</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.56.38</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.24.31</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.24.41</t>
-  </si>
-  <si>
     <t>1.42</t>
   </si>
   <si>
@@ -719,22 +719,22 @@
     <t>1.15.99</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
     <t>68</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.94</t>
   </si>
   <si>
     <t>41</t>
@@ -1762,7 +1762,7 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2299,13 +2299,13 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2992,7 +2992,7 @@
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4401,10 +4401,10 @@
       <c r="D15" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="80" t="s">
@@ -4414,50 +4414,50 @@
         <v>105</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="86" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" s="86" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="91" t="s">
         <v>112</v>
-      </c>
-      <c r="I16" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="93" t="s">
         <v>114</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>115</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>49</v>
@@ -4475,7 +4475,7 @@
         <v>96</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="96" t="s">
         <v>68</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="C18" s="98" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>119</v>
       </c>
       <c r="D18" s="98" t="s">
         <v>16</v>
@@ -4507,7 +4507,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="102" t="s">
         <v>68</v>
@@ -4518,42 +4518,42 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="C19" s="104" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="104" t="s">
-        <v>123</v>
       </c>
       <c r="D19" s="104" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="106" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="I19" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="109" t="s">
         <v>126</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="109" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="111" t="s">
         <v>128</v>
-      </c>
-      <c r="B20" s="111" t="s">
-        <v>129</v>
       </c>
       <c r="C20" s="110" t="s">
         <v>23</v>
@@ -4571,45 +4571,45 @@
         <v>102</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="114" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="117" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" s="117" t="s">
-        <v>133</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="116" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="116" t="s">
+      <c r="H21" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="I21" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="121" t="s">
         <v>137</v>
-      </c>
-      <c r="I21" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="121" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4817,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J6" s="152" t="s">
         <v>153</v>
@@ -4849,7 +4849,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="157" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J7" s="158" t="s">
         <v>155</v>
@@ -4866,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="161" t="s">
         <v>16</v>
@@ -4927,7 +4927,7 @@
         <v>160</v>
       </c>
       <c r="C10" s="171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="171" t="s">
         <v>161</v>
@@ -4959,7 +4959,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="177" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>166</v>
@@ -4968,7 +4968,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="177" t="s">
         <v>167</v>
@@ -4977,7 +4977,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="181" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J11" s="182" t="s">
         <v>169</v>
@@ -5009,7 +5009,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="187" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J12" s="188" t="s">
         <v>155</v>
@@ -5035,7 +5035,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="192" t="s">
         <v>62</v>
@@ -5105,7 +5105,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="205" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J15" s="206" t="s">
         <v>155</v>
@@ -5137,7 +5137,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="211" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J16" s="212" t="s">
         <v>153</v>
@@ -5186,7 +5186,7 @@
         <v>181</v>
       </c>
       <c r="D18" s="219" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="221" t="s">
         <v>80</v>
@@ -5233,7 +5233,7 @@
         <v>185</v>
       </c>
       <c r="I19" s="229" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J19" s="230" t="s">
         <v>153</v>
@@ -5329,7 +5329,7 @@
         <v>93</v>
       </c>
       <c r="I22" s="247" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J22" s="248" t="s">
         <v>155</v>
@@ -5361,7 +5361,7 @@
         <v>98</v>
       </c>
       <c r="I23" s="253" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J23" s="254" t="s">
         <v>155</v>
@@ -5387,13 +5387,13 @@
         <v>195</v>
       </c>
       <c r="G24" s="255" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="258" t="s">
         <v>196</v>
       </c>
       <c r="I24" s="259" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J24" s="260" t="s">
         <v>155</v>
@@ -5412,10 +5412,10 @@
       <c r="D25" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="261" t="s">
+      <c r="E25" s="263" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="263" t="s">
+      <c r="F25" s="261" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
@@ -5425,24 +5425,24 @@
         <v>105</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J25" s="266" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="267" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" s="268" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="267" t="s">
         <v>198</v>
       </c>
       <c r="D26" s="267" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="267" t="s">
         <v>184</v>
@@ -5454,10 +5454,10 @@
         <v>149</v>
       </c>
       <c r="H26" s="270" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="271" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J26" s="272" t="s">
         <v>199</v>
@@ -5465,10 +5465,10 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="273" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="274" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" s="274" t="s">
-        <v>115</v>
       </c>
       <c r="C27" s="273" t="s">
         <v>42</v>
@@ -5486,27 +5486,27 @@
         <v>102</v>
       </c>
       <c r="H27" s="276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="277" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="279" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="280" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="280" t="s">
-        <v>118</v>
       </c>
       <c r="C28" s="279" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="279" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="279" t="s">
         <v>16</v>
@@ -5518,7 +5518,7 @@
         <v>43</v>
       </c>
       <c r="H28" s="282" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="283" t="s">
         <v>176</v>
@@ -5529,19 +5529,19 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="285" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="286" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="286" t="s">
+      <c r="C29" s="285" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" s="285" t="s">
-        <v>123</v>
       </c>
       <c r="D29" s="285" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="285" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="287" t="s">
         <v>92</v>
@@ -5550,21 +5550,21 @@
         <v>200</v>
       </c>
       <c r="H29" s="288" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="289" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="291" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="292" t="s">
         <v>128</v>
-      </c>
-      <c r="B30" s="292" t="s">
-        <v>129</v>
       </c>
       <c r="C30" s="291" t="s">
         <v>145</v>
@@ -5582,7 +5582,7 @@
         <v>73</v>
       </c>
       <c r="H30" s="294" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="295" t="s">
         <v>68</v>
@@ -5593,16 +5593,16 @@
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="298" t="s">
         <v>132</v>
-      </c>
-      <c r="B31" s="298" t="s">
-        <v>133</v>
       </c>
       <c r="C31" s="297" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="297" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="297" t="s">
         <v>91</v>
@@ -5614,10 +5614,10 @@
         <v>167</v>
       </c>
       <c r="H31" s="300" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J31" s="302" t="s">
         <v>202</v>
@@ -5759,7 +5759,7 @@
         <v>220</v>
       </c>
       <c r="C36" s="327" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="327" t="s">
         <v>145</v>
@@ -5892,7 +5892,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="344" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J3" s="345" t="s">
         <v>155</v>
@@ -5956,7 +5956,7 @@
         <v>37</v>
       </c>
       <c r="I5" s="356" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J5" s="357" t="s">
         <v>155</v>
@@ -5988,7 +5988,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="362" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J6" s="363" t="s">
         <v>169</v>
@@ -6005,7 +6005,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="364" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>16</v>
@@ -6020,7 +6020,7 @@
         <v>158</v>
       </c>
       <c r="I7" s="368" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J7" s="369" t="s">
         <v>155</v>
@@ -6084,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="380" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J9" s="381" t="s">
         <v>155</v>
@@ -6130,7 +6130,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="388" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="388" t="s">
         <v>61</v>
@@ -6168,7 +6168,7 @@
         <v>191</v>
       </c>
       <c r="E12" s="396" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="394" t="s">
         <v>59</v>
@@ -6212,7 +6212,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="404" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J13" s="405" t="s">
         <v>155</v>
@@ -6276,7 +6276,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="416" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J15" s="417" t="s">
         <v>169</v>
@@ -6357,7 +6357,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="430" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="432" t="s">
         <v>59</v>
@@ -6404,7 +6404,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="440" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J19" s="441" t="s">
         <v>169</v>
@@ -6468,7 +6468,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="452" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J21" s="453" t="s">
         <v>155</v>
@@ -6500,7 +6500,7 @@
         <v>83</v>
       </c>
       <c r="I22" s="458" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J22" s="459" t="s">
         <v>169</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="460" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="461" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="460" t="s">
         <v>102</v>
@@ -6529,7 +6529,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="463" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I23" s="464" t="s">
         <v>176</v>
@@ -6540,16 +6540,16 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="466" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="467" t="s">
         <v>117</v>
-      </c>
-      <c r="B24" s="467" t="s">
-        <v>118</v>
       </c>
       <c r="C24" s="466" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="466" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="466" t="s">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         <v>43</v>
       </c>
       <c r="H24" s="469" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="470" t="s">
         <v>176</v>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="472" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="473" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="473" t="s">
-        <v>115</v>
       </c>
       <c r="C25" s="472" t="s">
         <v>42</v>
@@ -6593,13 +6593,13 @@
         <v>102</v>
       </c>
       <c r="H25" s="475" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="476" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -6648,19 +6648,19 @@
         <v>191</v>
       </c>
       <c r="E27" s="484" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="486" t="s">
         <v>90</v>
       </c>
       <c r="G27" s="484" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="487" t="s">
         <v>196</v>
       </c>
       <c r="I27" s="488" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J27" s="489" t="s">
         <v>169</v>
@@ -6682,20 +6682,20 @@
       <c r="E28" s="490" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="490" t="s">
+      <c r="F28" s="492" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="492" t="s">
+      <c r="G28" s="490" t="s">
         <v>103</v>
       </c>
       <c r="H28" s="493" t="s">
         <v>105</v>
       </c>
       <c r="I28" s="494" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -6724,7 +6724,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="500" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J29" s="501" t="s">
         <v>155</v>
@@ -6759,7 +6759,7 @@
         <v>206</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -6791,15 +6791,15 @@
         <v>206</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="515" t="s">
         <v>237</v>
-      </c>
-      <c r="B32" s="515" t="s">
-        <v>238</v>
       </c>
       <c r="C32" s="514" t="s">
         <v>142</v>
@@ -6817,10 +6817,10 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I32" s="518" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J32" s="519" t="s">
         <v>155</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="526" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="527" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" s="527" t="s">
-        <v>129</v>
       </c>
       <c r="C34" s="526" t="s">
         <v>16</v>
@@ -6881,10 +6881,10 @@
         <v>222</v>
       </c>
       <c r="H34" s="529" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="530" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J34" s="531" t="s">
         <v>155</v>
@@ -6892,48 +6892,48 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="532" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="533" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="533" t="s">
+      <c r="C35" s="532" t="s">
         <v>122</v>
-      </c>
-      <c r="C35" s="532" t="s">
-        <v>123</v>
       </c>
       <c r="D35" s="532" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="532" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="532" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="534" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="535" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="536" t="s">
         <v>206</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="538" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="539" t="s">
         <v>132</v>
-      </c>
-      <c r="B36" s="539" t="s">
-        <v>133</v>
       </c>
       <c r="C36" s="538" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="538" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="538" t="s">
         <v>166</v>
@@ -6942,13 +6942,13 @@
         <v>92</v>
       </c>
       <c r="G36" s="538" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="541" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I36" s="542" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J36" s="543" t="s">
         <v>169</v>
@@ -6994,7 +6994,7 @@
         <v>220</v>
       </c>
       <c r="C38" s="550" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="550" t="s">
         <v>16</v>
@@ -7015,7 +7015,7 @@
         <v>206</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -7127,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="566" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J2" s="567" t="s">
         <v>155</v>
@@ -7159,7 +7159,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="572" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J3" s="573" t="s">
         <v>169</v>
@@ -7223,7 +7223,7 @@
         <v>37</v>
       </c>
       <c r="I5" s="584" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J5" s="585" t="s">
         <v>155</v>
@@ -7255,7 +7255,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="590" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J6" s="591" t="s">
         <v>169</v>
@@ -7287,7 +7287,7 @@
         <v>158</v>
       </c>
       <c r="I7" s="596" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J7" s="597" t="s">
         <v>169</v>
@@ -7313,7 +7313,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="598" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="601" t="s">
         <v>247</v>
@@ -7339,7 +7339,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="604" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="606" t="s">
         <v>145</v>
@@ -7351,7 +7351,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="608" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J9" s="609" t="s">
         <v>155</v>
@@ -7383,7 +7383,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="614" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J10" s="615" t="s">
         <v>169</v>
@@ -7432,7 +7432,7 @@
         <v>227</v>
       </c>
       <c r="D12" s="622" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="624" t="s">
         <v>217</v>
@@ -7479,7 +7479,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="632" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J13" s="633" t="s">
         <v>153</v>
@@ -7511,7 +7511,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="638" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J14" s="639" t="s">
         <v>169</v>
@@ -7697,13 +7697,13 @@
         <v>90</v>
       </c>
       <c r="G20" s="670" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="673" t="s">
         <v>233</v>
       </c>
       <c r="I20" s="674" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J20" s="675" t="s">
         <v>153</v>
@@ -7758,7 +7758,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="682" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="684" t="s">
         <v>16</v>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="700" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="701" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="700" t="s">
         <v>35</v>
@@ -7851,30 +7851,30 @@
         <v>198</v>
       </c>
       <c r="E25" s="700" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="700" t="s">
         <v>184</v>
       </c>
       <c r="G25" s="702" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" s="703" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I25" s="704" t="s">
         <v>206</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="706" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="707" t="s">
         <v>117</v>
-      </c>
-      <c r="B26" s="707" t="s">
-        <v>118</v>
       </c>
       <c r="C26" s="706" t="s">
         <v>66</v>
@@ -7892,7 +7892,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="709" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="710" t="s">
         <v>206</v>
@@ -7903,10 +7903,10 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="712" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="713" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" s="713" t="s">
-        <v>115</v>
       </c>
       <c r="C27" s="712" t="s">
         <v>23</v>
@@ -7924,7 +7924,7 @@
         <v>53</v>
       </c>
       <c r="H27" s="715" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="716" t="s">
         <v>253</v>
@@ -8026,7 +8026,7 @@
         <v>206</v>
       </c>
       <c r="J30" s="735" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -8043,13 +8043,13 @@
         <v>191</v>
       </c>
       <c r="E31" s="736" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="736" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="738" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H31" s="739" t="s">
         <v>93</v>
@@ -8058,7 +8058,7 @@
         <v>206</v>
       </c>
       <c r="J31" s="741" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
@@ -8090,7 +8090,7 @@
         <v>206</v>
       </c>
       <c r="J32" s="747" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
@@ -8159,10 +8159,10 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="759" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="760" t="s">
         <v>237</v>
-      </c>
-      <c r="B35" s="760" t="s">
-        <v>238</v>
       </c>
       <c r="C35" s="759" t="s">
         <v>217</v>
@@ -8180,10 +8180,10 @@
         <v>66</v>
       </c>
       <c r="H35" s="762" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I35" s="763" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J35" s="764" t="s">
         <v>169</v>
@@ -8223,10 +8223,10 @@
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="770" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="771" t="s">
         <v>128</v>
-      </c>
-      <c r="B37" s="771" t="s">
-        <v>129</v>
       </c>
       <c r="C37" s="770" t="s">
         <v>41</v>
@@ -8244,7 +8244,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="773" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" s="774" t="s">
         <v>176</v>
@@ -8255,10 +8255,10 @@
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="776" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="777" t="s">
         <v>121</v>
-      </c>
-      <c r="B38" s="777" t="s">
-        <v>122</v>
       </c>
       <c r="C38" s="776" t="s">
         <v>58</v>
@@ -8270,13 +8270,13 @@
         <v>195</v>
       </c>
       <c r="F38" s="776" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="778" t="s">
         <v>173</v>
       </c>
       <c r="H38" s="779" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="780" t="s">
         <v>253</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="782" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="783" t="s">
         <v>132</v>
-      </c>
-      <c r="B39" s="783" t="s">
-        <v>133</v>
       </c>
       <c r="C39" s="782" t="s">
         <v>90</v>
@@ -8299,16 +8299,16 @@
         <v>60</v>
       </c>
       <c r="E39" s="782" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" s="784" t="s">
         <v>173</v>
       </c>
       <c r="G39" s="782" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="785" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39" s="786" t="s">
         <v>176</v>
@@ -8325,7 +8325,7 @@
         <v>216</v>
       </c>
       <c r="C40" s="788" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="788" t="s">
         <v>142</v>
@@ -8360,7 +8360,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="793" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="793" t="s">
         <v>145</v>
@@ -8378,7 +8378,7 @@
         <v>206</v>
       </c>
       <c r="J41" s="798" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -425,10 +425,7 @@
     <t>1.33</t>
   </si>
   <si>
-    <t>1.24.41</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>1.23.21</t>
   </si>
   <si>
     <t>1.42</t>
@@ -621,9 +618,6 @@
   </si>
   <si>
     <t>1.27</t>
-  </si>
-  <si>
-    <t>77</t>
   </si>
   <si>
     <t>35</t>
@@ -1864,13 +1858,13 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2407,13 +2401,13 @@
     <xf numFmtId="0" fontId="52" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3862,13 +3856,13 @@
     <xf numFmtId="0" fontId="135" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="135" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="135" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4593,10 +4587,10 @@
       <c r="D21" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="116" t="s">
+      <c r="E21" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="118" t="s">
+      <c r="F21" s="116" t="s">
         <v>134</v>
       </c>
       <c r="G21" s="116" t="s">
@@ -4606,10 +4600,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4674,10 +4668,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="125" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="125" t="s">
-        <v>139</v>
       </c>
       <c r="F2" s="123" t="s">
         <v>40</v>
@@ -4697,28 +4691,28 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="D3" s="129" t="s">
         <v>142</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="131" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="133" t="s">
         <v>68</v>
@@ -4735,7 +4729,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="135" t="s">
         <v>22</v>
@@ -4793,34 +4787,34 @@
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="C6" s="147" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="147" t="s">
-        <v>148</v>
       </c>
       <c r="D6" s="147" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="G6" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="H6" s="150" t="s">
         <v>151</v>
-      </c>
-      <c r="H6" s="150" t="s">
-        <v>152</v>
       </c>
       <c r="I6" s="151" t="s">
         <v>111</v>
       </c>
       <c r="J6" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -4831,7 +4825,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="153" t="s">
         <v>66</v>
@@ -4852,7 +4846,7 @@
         <v>111</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -4889,10 +4883,10 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="165" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="166" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>157</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>48</v>
@@ -4910,7 +4904,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="169" t="s">
         <v>18</v>
@@ -4921,28 +4915,28 @@
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="171" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="172" t="s">
         <v>159</v>
-      </c>
-      <c r="B10" s="172" t="s">
-        <v>160</v>
       </c>
       <c r="C10" s="171" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="F10" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="171" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="174" t="s">
         <v>162</v>
-      </c>
-      <c r="F10" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="171" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="174" t="s">
-        <v>163</v>
       </c>
       <c r="I10" s="175" t="s">
         <v>18</v>
@@ -4953,16 +4947,16 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="178" t="s">
         <v>164</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>165</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="177" t="s">
         <v>92</v>
@@ -4971,16 +4965,16 @@
         <v>134</v>
       </c>
       <c r="G11" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="180" t="s">
         <v>167</v>
-      </c>
-      <c r="H11" s="180" t="s">
-        <v>168</v>
       </c>
       <c r="I11" s="181" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -5000,7 +4994,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="183" t="s">
         <v>32</v>
@@ -5012,7 +5006,7 @@
         <v>111</v>
       </c>
       <c r="J12" s="188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5049,42 +5043,42 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="C14" s="195" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="195" t="s">
+      <c r="E14" s="195" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="195" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="197" t="s">
+      <c r="G14" s="195" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="195" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="198" t="s">
+      <c r="I14" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="199" t="s">
+      <c r="J14" s="200" t="s">
         <v>176</v>
-      </c>
-      <c r="J14" s="200" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="201" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="202" t="s">
         <v>178</v>
-      </c>
-      <c r="B15" s="202" t="s">
-        <v>179</v>
       </c>
       <c r="C15" s="201" t="s">
         <v>23</v>
@@ -5093,7 +5087,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="203" t="s">
         <v>32</v>
@@ -5102,13 +5096,13 @@
         <v>34</v>
       </c>
       <c r="H15" s="204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="205" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -5128,7 +5122,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="207" t="s">
         <v>24</v>
@@ -5140,7 +5134,7 @@
         <v>111</v>
       </c>
       <c r="J16" s="212" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -5183,7 +5177,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="219" t="s">
         <v>109</v>
@@ -5192,7 +5186,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="219" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="219" t="s">
         <v>82</v>
@@ -5209,10 +5203,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="226" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" s="226" t="s">
-        <v>183</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5227,42 +5221,42 @@
         <v>96</v>
       </c>
       <c r="G19" s="225" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="228" t="s">
         <v>184</v>
-      </c>
-      <c r="H19" s="228" t="s">
-        <v>185</v>
       </c>
       <c r="I19" s="229" t="s">
         <v>111</v>
       </c>
       <c r="J19" s="230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="D20" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="E20" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="F20" s="231" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="231" t="s">
-        <v>191</v>
       </c>
       <c r="G20" s="231" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5279,10 +5273,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="237" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="237" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="237" t="s">
-        <v>139</v>
       </c>
       <c r="E21" s="239" t="s">
         <v>66</v>
@@ -5323,7 +5317,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="243" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="246" t="s">
         <v>93</v>
@@ -5332,7 +5326,7 @@
         <v>111</v>
       </c>
       <c r="J22" s="248" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -5343,7 +5337,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="249" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="249" t="s">
         <v>32</v>
@@ -5364,15 +5358,15 @@
         <v>111</v>
       </c>
       <c r="J23" s="254" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="256" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" s="256" t="s">
-        <v>194</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5384,19 +5378,19 @@
         <v>89</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>133</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" s="259" t="s">
         <v>111</v>
       </c>
       <c r="J24" s="260" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -5413,13 +5407,13 @@
         <v>53</v>
       </c>
       <c r="E25" s="263" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="261" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" s="264" t="s">
         <v>105</v>
@@ -5439,19 +5433,19 @@
         <v>107</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="267" t="s">
         <v>108</v>
       </c>
       <c r="E26" s="267" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="269" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="267" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="270" t="s">
         <v>110</v>
@@ -5460,7 +5454,7 @@
         <v>111</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -5521,10 +5515,10 @@
         <v>119</v>
       </c>
       <c r="I28" s="283" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="284" t="s">
         <v>176</v>
-      </c>
-      <c r="J28" s="284" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -5547,7 +5541,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H29" s="288" t="s">
         <v>125</v>
@@ -5567,13 +5561,13 @@
         <v>128</v>
       </c>
       <c r="C30" s="291" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="291" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="291" t="s">
         <v>26</v>
@@ -5604,31 +5598,31 @@
       <c r="D31" s="297" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="297" t="s">
+      <c r="E31" s="299" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="299" t="s">
-        <v>201</v>
+      <c r="F31" s="297" t="s">
+        <v>200</v>
       </c>
       <c r="G31" s="297" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="300" t="s">
         <v>136</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C32" s="303" t="s">
         <v>49</v>
@@ -5640,30 +5634,30 @@
         <v>33</v>
       </c>
       <c r="F32" s="303" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G32" s="305" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="306" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="307" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="308" t="s">
         <v>205</v>
-      </c>
-      <c r="I32" s="307" t="s">
-        <v>206</v>
-      </c>
-      <c r="J32" s="308" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B33" s="310" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="309" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="309" t="s">
         <v>23</v>
@@ -5678,30 +5672,30 @@
         <v>73</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33" s="313" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="314" t="s">
         <v>176</v>
-      </c>
-      <c r="J33" s="314" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="315" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="315" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="315" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="315" t="s">
         <v>13</v>
@@ -5710,77 +5704,77 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I34" s="319" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="322" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="321" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="322" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="321" t="s">
-        <v>217</v>
-      </c>
       <c r="D35" s="321" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="321" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="321" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="323" t="s">
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B36" s="328" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C36" s="327" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="327" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="327" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="329" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="327" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I36" s="331" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="332" t="s">
         <v>176</v>
-      </c>
-      <c r="J36" s="332" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5842,13 +5836,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="334" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="334" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="336" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="336" t="s">
-        <v>139</v>
       </c>
       <c r="F2" s="334" t="s">
         <v>40</v>
@@ -5868,19 +5862,19 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="340" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="341" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="341" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" s="340" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="340" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="340" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="342" t="s">
         <v>13</v>
@@ -5889,13 +5883,13 @@
         <v>40</v>
       </c>
       <c r="H3" s="343" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="344" t="s">
         <v>111</v>
       </c>
       <c r="J3" s="345" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -5947,7 +5941,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="352" t="s">
         <v>102</v>
@@ -5959,47 +5953,47 @@
         <v>111</v>
       </c>
       <c r="J5" s="357" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="358" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="359" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="359" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="358" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="358" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="358" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="360" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="358" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="358" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="360" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="358" t="s">
-        <v>225</v>
-      </c>
       <c r="H6" s="361" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="362" t="s">
         <v>111</v>
       </c>
       <c r="J6" s="363" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="364" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="365" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="365" t="s">
-        <v>157</v>
       </c>
       <c r="C7" s="364" t="s">
         <v>15</v>
@@ -6017,13 +6011,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="367" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="368" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="369" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -6066,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="376" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="376" t="s">
         <v>66</v>
@@ -6087,33 +6081,33 @@
         <v>111</v>
       </c>
       <c r="J9" s="381" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="382" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="383" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="383" t="s">
-        <v>160</v>
-      </c>
       <c r="C10" s="382" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10" s="384" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="382" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="382" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="385" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="386" t="s">
         <v>18</v>
@@ -6124,10 +6118,10 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="388" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="389" t="s">
         <v>164</v>
-      </c>
-      <c r="B11" s="389" t="s">
-        <v>165</v>
       </c>
       <c r="C11" s="388" t="s">
         <v>123</v>
@@ -6136,22 +6130,22 @@
         <v>61</v>
       </c>
       <c r="E11" s="388" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="391" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="392" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="393" t="s">
         <v>176</v>
-      </c>
-      <c r="J11" s="393" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -6165,7 +6159,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>122</v>
@@ -6203,7 +6197,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="402" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="400" t="s">
         <v>32</v>
@@ -6215,47 +6209,47 @@
         <v>111</v>
       </c>
       <c r="J13" s="405" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="406" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="407" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="407" t="s">
-        <v>172</v>
-      </c>
       <c r="C14" s="406" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E14" s="406" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="408" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="406" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="409" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="406" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="409" t="s">
+      <c r="I14" s="410" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="410" t="s">
+      <c r="J14" s="411" t="s">
         <v>176</v>
-      </c>
-      <c r="J14" s="411" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="412" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="413" t="s">
         <v>178</v>
-      </c>
-      <c r="B15" s="413" t="s">
-        <v>179</v>
       </c>
       <c r="C15" s="412" t="s">
         <v>22</v>
@@ -6273,21 +6267,21 @@
         <v>53</v>
       </c>
       <c r="H15" s="415" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="416" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="417" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="419" t="s">
         <v>182</v>
-      </c>
-      <c r="B16" s="419" t="s">
-        <v>183</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6299,45 +6293,45 @@
         <v>73</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="418" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="422" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="423" t="s">
         <v>176</v>
-      </c>
-      <c r="J16" s="423" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="425" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="425" t="s">
-        <v>187</v>
-      </c>
       <c r="C17" s="424" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D17" s="424" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6348,10 +6342,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
@@ -6369,7 +6363,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I18" s="434" t="s">
         <v>68</v>
@@ -6392,7 +6386,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="436" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="438" t="s">
         <v>15</v>
@@ -6407,7 +6401,7 @@
         <v>111</v>
       </c>
       <c r="J19" s="441" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -6418,10 +6412,10 @@
         <v>65</v>
       </c>
       <c r="C20" s="442" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="442" t="s">
         <v>66</v>
@@ -6436,10 +6430,10 @@
         <v>67</v>
       </c>
       <c r="I20" s="446" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="447" t="s">
         <v>176</v>
-      </c>
-      <c r="J20" s="447" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -6456,7 +6450,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="448" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="450" t="s">
         <v>32</v>
@@ -6471,7 +6465,7 @@
         <v>111</v>
       </c>
       <c r="J21" s="453" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -6482,16 +6476,16 @@
         <v>77</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="454" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="454" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G22" s="454" t="s">
         <v>81</v>
@@ -6503,7 +6497,7 @@
         <v>111</v>
       </c>
       <c r="J22" s="459" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -6532,10 +6526,10 @@
         <v>110</v>
       </c>
       <c r="I23" s="464" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="465" t="s">
         <v>176</v>
-      </c>
-      <c r="J23" s="465" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -6564,10 +6558,10 @@
         <v>119</v>
       </c>
       <c r="I24" s="470" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="471" t="s">
         <v>176</v>
-      </c>
-      <c r="J24" s="471" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -6622,30 +6616,30 @@
         <v>73</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="481" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="482" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="483" t="s">
         <v>176</v>
-      </c>
-      <c r="J26" s="483" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="485" t="s">
         <v>193</v>
-      </c>
-      <c r="B27" s="485" t="s">
-        <v>194</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="484" t="s">
         <v>122</v>
@@ -6657,13 +6651,13 @@
         <v>123</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27" s="488" t="s">
         <v>111</v>
       </c>
       <c r="J27" s="489" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -6695,7 +6689,7 @@
         <v>111</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -6718,7 +6712,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="496" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H29" s="499" t="s">
         <v>93</v>
@@ -6727,15 +6721,15 @@
         <v>111</v>
       </c>
       <c r="J29" s="501" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B30" s="503" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="502" t="s">
         <v>16</v>
@@ -6753,62 +6747,62 @@
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D31" s="508" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="508" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="508" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" s="510" t="s">
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" s="515" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="514" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="514" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="514" t="s">
-        <v>143</v>
-      </c>
       <c r="E32" s="514" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="516" t="s">
         <v>14</v>
@@ -6817,21 +6811,21 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I32" s="518" t="s">
         <v>111</v>
       </c>
       <c r="J32" s="519" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" s="521" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="520" t="s">
         <v>49</v>
@@ -6843,19 +6837,19 @@
         <v>33</v>
       </c>
       <c r="F33" s="520" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="522" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="523" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="524" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="525" t="s">
         <v>205</v>
-      </c>
-      <c r="I33" s="524" t="s">
-        <v>206</v>
-      </c>
-      <c r="J33" s="525" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -6878,7 +6872,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H34" s="529" t="s">
         <v>129</v>
@@ -6887,7 +6881,7 @@
         <v>111</v>
       </c>
       <c r="J34" s="531" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -6916,10 +6910,10 @@
         <v>125</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
@@ -6936,7 +6930,7 @@
         <v>133</v>
       </c>
       <c r="E36" s="538" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="540" t="s">
         <v>92</v>
@@ -6951,47 +6945,47 @@
         <v>111</v>
       </c>
       <c r="J36" s="543" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="545" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="544" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="545" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="544" t="s">
-        <v>217</v>
-      </c>
       <c r="D37" s="544" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="544" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="544" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="546" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38" s="551" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C38" s="550" t="s">
         <v>118</v>
@@ -7009,21 +7003,21 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="556" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B39" s="557" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C39" s="556" t="s">
         <v>102</v>
@@ -7038,16 +7032,16 @@
         <v>78</v>
       </c>
       <c r="G39" s="556" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H39" s="558" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="559" t="s">
+        <v>241</v>
+      </c>
+      <c r="J39" s="560" t="s">
         <v>242</v>
-      </c>
-      <c r="I39" s="559" t="s">
-        <v>243</v>
-      </c>
-      <c r="J39" s="560" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="562" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="562" t="s">
         <v>12</v>
@@ -7118,7 +7112,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="564" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="562" t="s">
         <v>48</v>
@@ -7130,39 +7124,39 @@
         <v>111</v>
       </c>
       <c r="J2" s="567" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="568" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="569" t="s">
+      <c r="C3" s="568" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="568" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="568" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="568" t="s">
+      <c r="E3" s="568" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="568" t="s">
-        <v>143</v>
-      </c>
       <c r="F3" s="570" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="568" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="571" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="572" t="s">
         <v>111</v>
       </c>
       <c r="J3" s="573" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -7214,7 +7208,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="582" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="580" t="s">
         <v>102</v>
@@ -7226,47 +7220,47 @@
         <v>111</v>
       </c>
       <c r="J5" s="585" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="586" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="587" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="587" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="586" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="586" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="586" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="588" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="586" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="586" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="588" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="586" t="s">
-        <v>225</v>
-      </c>
       <c r="H6" s="589" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="590" t="s">
         <v>111</v>
       </c>
       <c r="J6" s="591" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="592" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="593" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="593" t="s">
-        <v>157</v>
       </c>
       <c r="C7" s="592" t="s">
         <v>66</v>
@@ -7284,21 +7278,21 @@
         <v>49</v>
       </c>
       <c r="H7" s="595" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="596" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="597" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="598" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="599" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="598" t="s">
         <v>26</v>
@@ -7316,13 +7310,13 @@
         <v>108</v>
       </c>
       <c r="H8" s="601" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I8" s="602" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="603" t="s">
         <v>176</v>
-      </c>
-      <c r="J8" s="603" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -7342,7 +7336,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="606" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="604" t="s">
         <v>42</v>
@@ -7354,7 +7348,7 @@
         <v>111</v>
       </c>
       <c r="J9" s="609" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -7386,15 +7380,15 @@
         <v>111</v>
       </c>
       <c r="J10" s="615" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="616" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="617" t="s">
         <v>164</v>
-      </c>
-      <c r="B11" s="617" t="s">
-        <v>165</v>
       </c>
       <c r="C11" s="616" t="s">
         <v>60</v>
@@ -7403,48 +7397,48 @@
         <v>61</v>
       </c>
       <c r="E11" s="616" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="618" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="616" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="619" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="620" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="621" t="s">
         <v>176</v>
-      </c>
-      <c r="J11" s="621" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="622" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="623" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="623" t="s">
-        <v>160</v>
-      </c>
       <c r="C12" s="622" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" s="622" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="624" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F12" s="622" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="622" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="625" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="626" t="s">
         <v>68</v>
@@ -7461,7 +7455,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="628" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="628" t="s">
         <v>57</v>
@@ -7473,7 +7467,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="628" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H13" s="631" t="s">
         <v>62</v>
@@ -7482,7 +7476,7 @@
         <v>111</v>
       </c>
       <c r="J13" s="633" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -7496,7 +7490,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="634" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="634" t="s">
         <v>42</v>
@@ -7514,50 +7508,50 @@
         <v>111</v>
       </c>
       <c r="J14" s="639" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="640" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="641" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="641" t="s">
-        <v>172</v>
-      </c>
       <c r="C15" s="640" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="640" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E15" s="640" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="642" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="640" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="643" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="640" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="643" t="s">
+      <c r="I15" s="644" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="644" t="s">
+      <c r="J15" s="645" t="s">
         <v>176</v>
-      </c>
-      <c r="J15" s="645" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="646" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="647" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="647" t="s">
-        <v>179</v>
-      </c>
       <c r="C16" s="646" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="646" t="s">
         <v>23</v>
@@ -7572,21 +7566,21 @@
         <v>33</v>
       </c>
       <c r="H16" s="649" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="650" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="651" t="s">
         <v>176</v>
-      </c>
-      <c r="J16" s="651" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="652" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="653" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="653" t="s">
-        <v>183</v>
       </c>
       <c r="C17" s="652" t="s">
         <v>32</v>
@@ -7595,7 +7589,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="652" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F17" s="652" t="s">
         <v>35</v>
@@ -7604,53 +7598,53 @@
         <v>96</v>
       </c>
       <c r="H17" s="655" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="656" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J17" s="657" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="658" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="659" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="659" t="s">
+      <c r="C18" s="658" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="658" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="658" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="658" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="658" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="658" t="s">
+      <c r="F18" s="660" t="s">
         <v>188</v>
-      </c>
-      <c r="F18" s="660" t="s">
-        <v>189</v>
       </c>
       <c r="G18" s="658" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="661" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I18" s="662" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="663" t="s">
         <v>176</v>
-      </c>
-      <c r="J18" s="663" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="664" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B19" s="665" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C19" s="664" t="s">
         <v>33</v>
@@ -7659,30 +7653,30 @@
         <v>34</v>
       </c>
       <c r="E19" s="664" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="666" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="666" t="s">
-        <v>198</v>
       </c>
       <c r="G19" s="664" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="667" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I19" s="668" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="669" t="s">
         <v>176</v>
-      </c>
-      <c r="J19" s="669" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="670" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" s="671" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="670" t="s">
         <v>57</v>
@@ -7700,13 +7694,13 @@
         <v>133</v>
       </c>
       <c r="H20" s="673" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I20" s="674" t="s">
         <v>111</v>
       </c>
       <c r="J20" s="675" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -7717,10 +7711,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="676" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="676" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="676" t="s">
         <v>14</v>
@@ -7735,10 +7729,10 @@
         <v>86</v>
       </c>
       <c r="I21" s="680" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="681" t="s">
         <v>176</v>
-      </c>
-      <c r="J21" s="681" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -7767,10 +7761,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="686" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J22" s="687" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -7781,7 +7775,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="688" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="688" t="s">
         <v>23</v>
@@ -7799,10 +7793,10 @@
         <v>74</v>
       </c>
       <c r="I23" s="692" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="693" t="s">
         <v>176</v>
-      </c>
-      <c r="J23" s="693" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -7822,19 +7816,19 @@
         <v>79</v>
       </c>
       <c r="F24" s="694" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G24" s="696" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="697" t="s">
         <v>83</v>
       </c>
       <c r="I24" s="698" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J24" s="699" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -7848,13 +7842,13 @@
         <v>35</v>
       </c>
       <c r="D25" s="700" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="700" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="700" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="702" t="s">
         <v>109</v>
@@ -7863,10 +7857,10 @@
         <v>110</v>
       </c>
       <c r="I25" s="704" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -7895,10 +7889,10 @@
         <v>119</v>
       </c>
       <c r="I26" s="710" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -7915,7 +7909,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="712" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="712" t="s">
         <v>32</v>
@@ -7927,10 +7921,10 @@
         <v>115</v>
       </c>
       <c r="I27" s="716" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J27" s="717" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -7944,7 +7938,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="718" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="718" t="s">
         <v>32</v>
@@ -7959,21 +7953,21 @@
         <v>98</v>
       </c>
       <c r="I28" s="722" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J28" s="723" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="724" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="725" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="725" t="s">
-        <v>194</v>
-      </c>
       <c r="C29" s="724" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="724" t="s">
         <v>57</v>
@@ -7988,13 +7982,13 @@
         <v>60</v>
       </c>
       <c r="H29" s="727" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="728" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="729" t="s">
         <v>176</v>
-      </c>
-      <c r="J29" s="729" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -8023,10 +8017,10 @@
         <v>105</v>
       </c>
       <c r="I30" s="734" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J30" s="735" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -8037,10 +8031,10 @@
         <v>88</v>
       </c>
       <c r="C31" s="736" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="736" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="736" t="s">
         <v>122</v>
@@ -8055,56 +8049,56 @@
         <v>93</v>
       </c>
       <c r="I31" s="740" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J31" s="741" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="742" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B32" s="743" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="742" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D32" s="742" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="742" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="742" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="744" t="s">
         <v>66</v>
       </c>
       <c r="H32" s="745" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I32" s="746" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J32" s="747" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="748" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B33" s="749" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="748" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="748" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="748" t="s">
         <v>23</v>
@@ -8116,30 +8110,30 @@
         <v>32</v>
       </c>
       <c r="H33" s="750" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33" s="751" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J33" s="752" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="753" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B34" s="754" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="753" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="753" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="753" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="753" t="s">
         <v>13</v>
@@ -8148,59 +8142,59 @@
         <v>66</v>
       </c>
       <c r="H34" s="756" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I34" s="757" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J34" s="758" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="759" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="760" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C35" s="759" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="759" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="759" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="761" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="759" t="s">
         <v>66</v>
       </c>
       <c r="H35" s="762" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I35" s="763" t="s">
         <v>111</v>
       </c>
       <c r="J35" s="764" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="765" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B36" s="766" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C36" s="765" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="765" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="765" t="s">
         <v>32</v>
@@ -8212,13 +8206,13 @@
         <v>102</v>
       </c>
       <c r="H36" s="767" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I36" s="768" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J36" s="769" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -8238,7 +8232,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="772" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="770" t="s">
         <v>26</v>
@@ -8247,10 +8241,10 @@
         <v>129</v>
       </c>
       <c r="I37" s="774" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="775" t="s">
         <v>176</v>
-      </c>
-      <c r="J37" s="775" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
@@ -8267,22 +8261,22 @@
         <v>89</v>
       </c>
       <c r="E38" s="776" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F38" s="776" t="s">
         <v>133</v>
       </c>
       <c r="G38" s="778" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="779" t="s">
         <v>125</v>
       </c>
       <c r="I38" s="780" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J38" s="781" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -8302,7 +8296,7 @@
         <v>133</v>
       </c>
       <c r="F39" s="784" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" s="782" t="s">
         <v>124</v>
@@ -8311,27 +8305,27 @@
         <v>136</v>
       </c>
       <c r="I39" s="786" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="J39" s="787" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="788" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B40" s="789" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C40" s="788" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="788" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="788" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F40" s="788" t="s">
         <v>13</v>
@@ -8340,21 +8334,21 @@
         <v>66</v>
       </c>
       <c r="H40" s="790" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I40" s="791" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J40" s="792" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="793" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B41" s="794" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C41" s="793" t="s">
         <v>15</v>
@@ -8363,7 +8357,7 @@
         <v>118</v>
       </c>
       <c r="E41" s="793" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="793" t="s">
         <v>24</v>
@@ -8372,21 +8366,21 @@
         <v>25</v>
       </c>
       <c r="H41" s="796" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I41" s="797" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J41" s="798" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="799" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" s="800" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C42" s="799" t="s">
         <v>102</v>
@@ -8401,16 +8395,16 @@
         <v>78</v>
       </c>
       <c r="G42" s="799" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H42" s="801" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="802" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="803" t="s">
         <v>242</v>
-      </c>
-      <c r="I42" s="802" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="803" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -347,271 +347,271 @@
     <t>2.24</t>
   </si>
   <si>
-    <t>2.23.97</t>
+    <t>2.22.58</t>
   </si>
   <si>
     <t>三线以上</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.07.47</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.56.38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.24.31</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.23.21</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.59</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.40.73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>2.02.43</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.91</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.64</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.07.47</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.56.38</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.24.31</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.23.21</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.59</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.40.73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>2.02.43</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.91</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.64</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>74</t>
   </si>
   <si>
     <t>1.30</t>
@@ -2890,13 +2890,13 @@
     <xf numFmtId="0" fontId="80" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5454,7 +5454,7 @@
         <v>111</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -5486,7 +5486,7 @@
         <v>111</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -5550,7 +5550,7 @@
         <v>111</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -6526,10 +6526,10 @@
         <v>110</v>
       </c>
       <c r="I23" s="464" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="J23" s="465" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -6593,7 +6593,7 @@
         <v>111</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -6689,7 +6689,7 @@
         <v>111</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -7860,7 +7860,7 @@
         <v>204</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -8308,7 +8308,7 @@
         <v>111</v>
       </c>
       <c r="J39" s="787" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -782,7 +782,7 @@
     <t>黄金坐标</t>
   </si>
   <si>
-    <t>1.47.17</t>
+    <t>1.46.74</t>
   </si>
   <si>
     <t>57</t>
@@ -8084,7 +8084,7 @@
         <v>204</v>
       </c>
       <c r="J32" s="747" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -347,7 +347,7 @@
     <t>2.24</t>
   </si>
   <si>
-    <t>2.22.58</t>
+    <t>2.22.49</t>
   </si>
   <si>
     <t>三线以上</t>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -218,7 +218,49 @@
     <t>1.48</t>
   </si>
   <si>
-    <t>1.52.69</t>
+    <t>1.51.70</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>海盗绝壁海湾</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.02.33</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>海底神殿</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.28.27</t>
   </si>
   <si>
     <t>二线勉强</t>
@@ -227,48 +269,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>海盗绝壁海湾</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.02.33</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>海底神殿</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.28.27</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>2.02.43</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>2.21</t>
@@ -1642,13 +1645,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2836,13 +2839,13 @@
     <xf numFmtId="0" fontId="77" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3556,13 +3559,13 @@
     <xf numFmtId="0" fontId="118" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="118" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="118" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4216,18 +4219,18 @@
         <v>67</v>
       </c>
       <c r="I9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="49" t="s">
         <v>68</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>71</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>42</v>
@@ -4236,54 +4239,54 @@
         <v>49</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>74</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="E11" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="F11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="G11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="H11" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="I11" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="J11" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -4315,7 +4318,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -4344,10 +4347,10 @@
         <v>93</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -4364,7 +4367,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="74" t="s">
         <v>96</v>
@@ -4376,10 +4379,10 @@
         <v>98</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -4393,7 +4396,7 @@
         <v>101</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>102</v>
@@ -4434,7 +4437,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="89" t="s">
         <v>110</v>
@@ -4457,7 +4460,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="94" t="s">
         <v>53</v>
@@ -4472,10 +4475,10 @@
         <v>115</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -4504,10 +4507,10 @@
         <v>119</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J18" s="103" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -4556,7 +4559,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="110" t="s">
         <v>34</v>
@@ -4600,10 +4603,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4683,10 +4686,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="127" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -4715,10 +4718,10 @@
         <v>143</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -4741,7 +4744,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="138" t="s">
         <v>27</v>
@@ -4761,7 +4764,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="141" t="s">
         <v>26</v>
@@ -4770,7 +4773,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="141" t="s">
         <v>102</v>
@@ -4779,10 +4782,10 @@
         <v>37</v>
       </c>
       <c r="I5" s="145" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J5" s="146" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -4796,7 +4799,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="147" t="s">
         <v>148</v>
@@ -5134,15 +5137,15 @@
         <v>111</v>
       </c>
       <c r="J16" s="212" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="213" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="214" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="214" t="s">
-        <v>71</v>
       </c>
       <c r="C17" s="213" t="s">
         <v>23</v>
@@ -5157,56 +5160,56 @@
         <v>33</v>
       </c>
       <c r="G17" s="213" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="216" t="s">
-        <v>74</v>
-      </c>
       <c r="I17" s="217" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J17" s="218" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="219" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="220" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="219" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="221" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="219" t="s">
         <v>149</v>
       </c>
       <c r="G18" s="219" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="222" t="s">
+      <c r="J18" s="224" t="s">
         <v>83</v>
-      </c>
-      <c r="I18" s="223" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="224" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" s="226" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5221,10 +5224,10 @@
         <v>96</v>
       </c>
       <c r="G19" s="225" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H19" s="228" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I19" s="229" t="s">
         <v>111</v>
@@ -5235,28 +5238,28 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" s="232" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="231" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20" s="233" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E20" s="231" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F20" s="231" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G20" s="231" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5291,10 +5294,10 @@
         <v>86</v>
       </c>
       <c r="I21" s="241" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J21" s="242" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -5363,10 +5366,10 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5378,13 +5381,13 @@
         <v>89</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>133</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I24" s="259" t="s">
         <v>111</v>
@@ -5407,22 +5410,22 @@
         <v>53</v>
       </c>
       <c r="E25" s="263" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F25" s="261" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H25" s="264" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J25" s="266" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -5433,16 +5436,16 @@
         <v>107</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="267" t="s">
         <v>108</v>
       </c>
       <c r="E26" s="267" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="269" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="267" t="s">
         <v>148</v>
@@ -5486,7 +5489,7 @@
         <v>111</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -5541,7 +5544,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="288" t="s">
         <v>125</v>
@@ -5550,7 +5553,7 @@
         <v>111</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -5573,16 +5576,16 @@
         <v>26</v>
       </c>
       <c r="G30" s="291" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="294" t="s">
         <v>129</v>
       </c>
       <c r="I30" s="295" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J30" s="296" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -5602,7 +5605,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="297" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" s="297" t="s">
         <v>166</v>
@@ -5611,18 +5614,18 @@
         <v>136</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C32" s="303" t="s">
         <v>49</v>
@@ -5634,27 +5637,27 @@
         <v>33</v>
       </c>
       <c r="F32" s="303" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" s="305" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="306" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I32" s="307" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J32" s="308" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B33" s="310" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="309" t="s">
         <v>144</v>
@@ -5669,10 +5672,10 @@
         <v>26</v>
       </c>
       <c r="G33" s="309" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I33" s="313" t="s">
         <v>175</v>
@@ -5683,10 +5686,10 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="315" t="s">
         <v>160</v>
@@ -5704,24 +5707,24 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I34" s="319" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B35" s="322" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C35" s="321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="321" t="s">
         <v>142</v>
@@ -5736,21 +5739,21 @@
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B36" s="328" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C36" s="327" t="s">
         <v>118</v>
@@ -5768,7 +5771,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I36" s="331" t="s">
         <v>175</v>
@@ -5854,10 +5857,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="338" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J2" s="339" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -5868,7 +5871,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="340" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" s="340" t="s">
         <v>161</v>
@@ -5912,7 +5915,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="346" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="349" t="s">
         <v>27</v>
@@ -5941,7 +5944,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="352" t="s">
         <v>102</v>
@@ -5964,19 +5967,19 @@
         <v>146</v>
       </c>
       <c r="C6" s="358" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="358" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="358" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="360" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="358" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" s="361" t="s">
         <v>151</v>
@@ -6046,10 +6049,10 @@
         <v>50</v>
       </c>
       <c r="I8" s="374" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J8" s="375" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -6095,7 +6098,7 @@
         <v>166</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E10" s="384" t="s">
         <v>141</v>
@@ -6133,10 +6136,10 @@
         <v>172</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H11" s="391" t="s">
         <v>167</v>
@@ -6159,7 +6162,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>122</v>
@@ -6174,10 +6177,10 @@
         <v>62</v>
       </c>
       <c r="I12" s="398" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J12" s="399" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -6223,7 +6226,7 @@
         <v>166</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E14" s="406" t="s">
         <v>141</v>
@@ -6261,7 +6264,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="414" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="412" t="s">
         <v>53</v>
@@ -6278,10 +6281,10 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" s="419" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6290,16 +6293,16 @@
         <v>53</v>
       </c>
       <c r="E16" s="418" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G16" s="418" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I16" s="422" t="s">
         <v>175</v>
@@ -6310,28 +6313,28 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="425" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="424" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D17" s="424" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E17" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6342,10 +6345,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
@@ -6363,13 +6366,13 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I18" s="434" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J18" s="435" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -6430,18 +6433,18 @@
         <v>67</v>
       </c>
       <c r="I20" s="446" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="J20" s="447" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="448" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="449" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="449" t="s">
-        <v>71</v>
       </c>
       <c r="C21" s="448" t="s">
         <v>23</v>
@@ -6459,7 +6462,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="451" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="452" t="s">
         <v>111</v>
@@ -6470,28 +6473,28 @@
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="454" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="455" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="454" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="454" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" s="455" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="454" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="454" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="454" t="s">
         <v>147</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G22" s="454" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="457" t="s">
         <v>81</v>
-      </c>
-      <c r="H22" s="457" t="s">
-        <v>83</v>
       </c>
       <c r="I22" s="458" t="s">
         <v>111</v>
@@ -6517,10 +6520,10 @@
         <v>97</v>
       </c>
       <c r="F23" s="462" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="460" t="s">
         <v>78</v>
-      </c>
-      <c r="G23" s="460" t="s">
-        <v>80</v>
       </c>
       <c r="H23" s="463" t="s">
         <v>110</v>
@@ -6529,7 +6532,7 @@
         <v>111</v>
       </c>
       <c r="J23" s="465" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -6593,7 +6596,7 @@
         <v>111</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -6607,16 +6610,16 @@
         <v>43</v>
       </c>
       <c r="D26" s="478" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="478" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="480" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H26" s="481" t="s">
         <v>98</v>
@@ -6630,16 +6633,16 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="485" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="484" t="s">
         <v>122</v>
@@ -6651,7 +6654,7 @@
         <v>123</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I27" s="488" t="s">
         <v>111</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B30" s="503" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" s="502" t="s">
         <v>16</v>
@@ -6747,24 +6750,24 @@
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D31" s="508" t="s">
         <v>161</v>
@@ -6779,21 +6782,21 @@
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" s="515" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="514" t="s">
         <v>141</v>
@@ -6811,7 +6814,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I32" s="518" t="s">
         <v>111</v>
@@ -6822,10 +6825,10 @@
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B33" s="521" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C33" s="520" t="s">
         <v>49</v>
@@ -6837,19 +6840,19 @@
         <v>33</v>
       </c>
       <c r="F33" s="520" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G33" s="522" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="523" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I33" s="524" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J33" s="525" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -6872,7 +6875,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H34" s="529" t="s">
         <v>129</v>
@@ -6910,10 +6913,10 @@
         <v>125</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
@@ -6950,13 +6953,13 @@
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" s="545" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C37" s="544" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D37" s="544" t="s">
         <v>142</v>
@@ -6971,21 +6974,21 @@
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B38" s="551" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C38" s="550" t="s">
         <v>118</v>
@@ -7003,21 +7006,21 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="556" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39" s="557" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" s="556" t="s">
         <v>102</v>
@@ -7029,19 +7032,19 @@
         <v>97</v>
       </c>
       <c r="F39" s="556" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="556" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H39" s="558" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I39" s="559" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J39" s="560" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7179,7 +7182,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="574" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="577" t="s">
         <v>27</v>
@@ -7208,7 +7211,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="582" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="580" t="s">
         <v>102</v>
@@ -7231,19 +7234,19 @@
         <v>146</v>
       </c>
       <c r="C6" s="586" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="586" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="586" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="588" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="586" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" s="589" t="s">
         <v>151</v>
@@ -7289,10 +7292,10 @@
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="598" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B8" s="599" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" s="598" t="s">
         <v>26</v>
@@ -7301,7 +7304,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="598" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="600" t="s">
         <v>102</v>
@@ -7310,7 +7313,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="601" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I8" s="602" t="s">
         <v>175</v>
@@ -7400,10 +7403,10 @@
         <v>172</v>
       </c>
       <c r="F11" s="618" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G11" s="616" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H11" s="619" t="s">
         <v>167</v>
@@ -7423,13 +7426,13 @@
         <v>159</v>
       </c>
       <c r="C12" s="622" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D12" s="622" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="624" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F12" s="622" t="s">
         <v>142</v>
@@ -7441,10 +7444,10 @@
         <v>162</v>
       </c>
       <c r="I12" s="626" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J12" s="627" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -7455,7 +7458,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="628" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D13" s="628" t="s">
         <v>57</v>
@@ -7467,7 +7470,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="628" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H13" s="631" t="s">
         <v>62</v>
@@ -7499,7 +7502,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="634" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="637" t="s">
         <v>54</v>
@@ -7522,7 +7525,7 @@
         <v>166</v>
       </c>
       <c r="D15" s="640" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E15" s="640" t="s">
         <v>141</v>
@@ -7577,10 +7580,10 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="652" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" s="653" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="652" t="s">
         <v>32</v>
@@ -7589,7 +7592,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="652" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F17" s="652" t="s">
         <v>35</v>
@@ -7598,39 +7601,39 @@
         <v>96</v>
       </c>
       <c r="H17" s="655" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I17" s="656" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J17" s="657" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="658" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="659" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" s="658" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D18" s="658" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" s="658" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F18" s="660" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G18" s="658" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="661" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18" s="662" t="s">
         <v>175</v>
@@ -7641,10 +7644,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="664" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B19" s="665" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C19" s="664" t="s">
         <v>33</v>
@@ -7653,16 +7656,16 @@
         <v>34</v>
       </c>
       <c r="E19" s="664" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19" s="666" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19" s="664" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="667" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="668" t="s">
         <v>175</v>
@@ -7673,10 +7676,10 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="670" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" s="671" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="670" t="s">
         <v>57</v>
@@ -7694,7 +7697,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="673" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I20" s="674" t="s">
         <v>111</v>
@@ -7751,28 +7754,28 @@
       <c r="E22" s="682" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="682" t="s">
+      <c r="F22" s="684" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="684" t="s">
+      <c r="G22" s="682" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="685" t="s">
         <v>67</v>
       </c>
       <c r="I22" s="686" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="J22" s="687" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="688" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="689" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="689" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="688" t="s">
         <v>144</v>
@@ -7790,7 +7793,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="691" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="692" t="s">
         <v>175</v>
@@ -7801,10 +7804,10 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="694" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="695" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="694" t="s">
         <v>97</v>
@@ -7813,22 +7816,22 @@
         <v>104</v>
       </c>
       <c r="E24" s="694" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="694" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G24" s="696" t="s">
         <v>148</v>
       </c>
       <c r="H24" s="697" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I24" s="698" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J24" s="699" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -7842,13 +7845,13 @@
         <v>35</v>
       </c>
       <c r="D25" s="700" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E25" s="700" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="700" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G25" s="702" t="s">
         <v>109</v>
@@ -7857,10 +7860,10 @@
         <v>110</v>
       </c>
       <c r="I25" s="704" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -7889,10 +7892,10 @@
         <v>119</v>
       </c>
       <c r="I26" s="710" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -7921,10 +7924,10 @@
         <v>115</v>
       </c>
       <c r="I27" s="716" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J27" s="717" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -7947,27 +7950,27 @@
         <v>53</v>
       </c>
       <c r="G28" s="720" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="721" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="722" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J28" s="723" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="724" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="725" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C29" s="724" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D29" s="724" t="s">
         <v>57</v>
@@ -7982,7 +7985,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="727" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="728" t="s">
         <v>175</v>
@@ -8008,7 +8011,7 @@
         <v>53</v>
       </c>
       <c r="F30" s="730" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="732" t="s">
         <v>36</v>
@@ -8017,10 +8020,10 @@
         <v>105</v>
       </c>
       <c r="I30" s="734" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J30" s="735" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -8031,10 +8034,10 @@
         <v>88</v>
       </c>
       <c r="C31" s="736" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D31" s="736" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" s="736" t="s">
         <v>122</v>
@@ -8049,21 +8052,21 @@
         <v>93</v>
       </c>
       <c r="I31" s="740" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J31" s="741" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="742" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="743" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C32" s="742" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D32" s="742" t="s">
         <v>161</v>
@@ -8078,21 +8081,21 @@
         <v>66</v>
       </c>
       <c r="H32" s="745" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I32" s="746" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J32" s="747" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="748" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B33" s="749" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="748" t="s">
         <v>41</v>
@@ -8110,21 +8113,21 @@
         <v>32</v>
       </c>
       <c r="H33" s="750" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I33" s="751" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J33" s="752" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="753" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B34" s="754" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="753" t="s">
         <v>160</v>
@@ -8142,24 +8145,24 @@
         <v>66</v>
       </c>
       <c r="H34" s="756" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I34" s="757" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J34" s="758" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="759" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35" s="760" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C35" s="759" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="759" t="s">
         <v>161</v>
@@ -8174,7 +8177,7 @@
         <v>66</v>
       </c>
       <c r="H35" s="762" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I35" s="763" t="s">
         <v>111</v>
@@ -8185,10 +8188,10 @@
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="765" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="766" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="765" t="s">
         <v>24</v>
@@ -8206,13 +8209,13 @@
         <v>102</v>
       </c>
       <c r="H36" s="767" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I36" s="768" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J36" s="769" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -8261,7 +8264,7 @@
         <v>89</v>
       </c>
       <c r="E38" s="776" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" s="776" t="s">
         <v>133</v>
@@ -8273,10 +8276,10 @@
         <v>125</v>
       </c>
       <c r="I38" s="780" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J38" s="781" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -8308,15 +8311,15 @@
         <v>111</v>
       </c>
       <c r="J39" s="787" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="788" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B40" s="789" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C40" s="788" t="s">
         <v>135</v>
@@ -8334,21 +8337,21 @@
         <v>66</v>
       </c>
       <c r="H40" s="790" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I40" s="791" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J40" s="792" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="793" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B41" s="794" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C41" s="793" t="s">
         <v>15</v>
@@ -8366,21 +8369,21 @@
         <v>25</v>
       </c>
       <c r="H41" s="796" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I41" s="797" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" s="798" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="799" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="800" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="799" t="s">
         <v>102</v>
@@ -8392,19 +8395,19 @@
         <v>97</v>
       </c>
       <c r="F42" s="799" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" s="799" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H42" s="801" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I42" s="802" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J42" s="803" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -644,7 +644,10 @@
     <t>秘密机关的威胁</t>
   </si>
   <si>
-    <t>2.05.99</t>
+    <t>2.01.55</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>33</t>
@@ -716,79 +719,79 @@
     <t>1.15.99</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.29.33</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.14.21</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>黄金坐标</t>
+  </si>
+  <si>
+    <t>1.46.74</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.94</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.29.33</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.14.21</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>黄金坐标</t>
-  </si>
-  <si>
-    <t>1.46.74</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="805">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,13 +2443,13 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3025,7 +3028,7 @@
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3757,10 +3760,13 @@
     <xf numFmtId="0" fontId="129" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="129" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="129" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="129" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="129" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5678,18 +5684,18 @@
         <v>209</v>
       </c>
       <c r="I33" s="313" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="J33" s="314" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C34" s="315" t="s">
         <v>160</v>
@@ -5707,24 +5713,24 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I34" s="319" t="s">
         <v>205</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B35" s="322" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C35" s="321" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D35" s="321" t="s">
         <v>142</v>
@@ -5739,21 +5745,21 @@
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I35" s="325" t="s">
         <v>205</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B36" s="328" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C36" s="327" t="s">
         <v>118</v>
@@ -5771,7 +5777,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I36" s="331" t="s">
         <v>175</v>
@@ -5871,7 +5877,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="340" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="340" t="s">
         <v>161</v>
@@ -5944,7 +5950,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G5" s="352" t="s">
         <v>102</v>
@@ -5970,16 +5976,16 @@
         <v>77</v>
       </c>
       <c r="D6" s="358" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="358" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F6" s="360" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="358" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" s="361" t="s">
         <v>151</v>
@@ -6098,7 +6104,7 @@
         <v>166</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E10" s="384" t="s">
         <v>141</v>
@@ -6139,7 +6145,7 @@
         <v>201</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" s="391" t="s">
         <v>167</v>
@@ -6226,7 +6232,7 @@
         <v>166</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E14" s="406" t="s">
         <v>141</v>
@@ -6319,16 +6325,16 @@
         <v>187</v>
       </c>
       <c r="C17" s="424" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D17" s="424" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E17" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
@@ -6345,10 +6351,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
@@ -6366,7 +6372,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I18" s="434" t="s">
         <v>82</v>
@@ -6488,7 +6494,7 @@
         <v>147</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G22" s="454" t="s">
         <v>79</v>
@@ -6743,31 +6749,31 @@
       <c r="E30" s="502" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="502" t="s">
+      <c r="F30" s="504" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="504" t="s">
+      <c r="G30" s="502" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
         <v>209</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D31" s="508" t="s">
         <v>161</v>
@@ -6782,7 +6788,7 @@
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I31" s="512" t="s">
         <v>205</v>
@@ -6875,7 +6881,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" s="529" t="s">
         <v>129</v>
@@ -6953,13 +6959,13 @@
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B37" s="545" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" s="544" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D37" s="544" t="s">
         <v>142</v>
@@ -6974,21 +6980,21 @@
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I37" s="548" t="s">
         <v>205</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B38" s="551" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C38" s="550" t="s">
         <v>118</v>
@@ -7006,7 +7012,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I38" s="554" t="s">
         <v>205</v>
@@ -7035,7 +7041,7 @@
         <v>76</v>
       </c>
       <c r="G39" s="556" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H39" s="558" t="s">
         <v>241</v>
@@ -7211,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="582" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G5" s="580" t="s">
         <v>102</v>
@@ -7237,16 +7243,16 @@
         <v>77</v>
       </c>
       <c r="D6" s="586" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="586" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F6" s="588" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="586" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" s="589" t="s">
         <v>151</v>
@@ -7406,7 +7412,7 @@
         <v>201</v>
       </c>
       <c r="G11" s="616" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" s="619" t="s">
         <v>167</v>
@@ -7426,13 +7432,13 @@
         <v>159</v>
       </c>
       <c r="C12" s="622" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D12" s="622" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="624" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" s="622" t="s">
         <v>142</v>
@@ -7458,7 +7464,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="628" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D13" s="628" t="s">
         <v>57</v>
@@ -7525,7 +7531,7 @@
         <v>166</v>
       </c>
       <c r="D15" s="640" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" s="640" t="s">
         <v>141</v>
@@ -7592,7 +7598,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="652" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="652" t="s">
         <v>35</v>
@@ -7607,7 +7613,7 @@
         <v>205</v>
       </c>
       <c r="J17" s="657" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -7621,7 +7627,7 @@
         <v>247</v>
       </c>
       <c r="D18" s="658" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" s="658" t="s">
         <v>188</v>
@@ -7676,10 +7682,10 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="670" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" s="671" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="670" t="s">
         <v>57</v>
@@ -7697,7 +7703,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="673" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I20" s="674" t="s">
         <v>111</v>
@@ -7819,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="694" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G24" s="696" t="s">
         <v>148</v>
@@ -7863,7 +7869,7 @@
         <v>205</v>
       </c>
       <c r="J25" s="705" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -7970,7 +7976,7 @@
         <v>194</v>
       </c>
       <c r="C29" s="724" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D29" s="724" t="s">
         <v>57</v>
@@ -8034,7 +8040,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="736" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D31" s="736" t="s">
         <v>191</v>
@@ -8066,7 +8072,7 @@
         <v>255</v>
       </c>
       <c r="C32" s="742" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D32" s="742" t="s">
         <v>161</v>
@@ -8087,7 +8093,7 @@
         <v>205</v>
       </c>
       <c r="J32" s="747" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
@@ -8109,304 +8115,304 @@
       <c r="F33" s="748" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="748" t="s">
+      <c r="G33" s="750" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="750" t="s">
+      <c r="H33" s="751" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="751" t="s">
+      <c r="I33" s="752" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="753" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="754" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="755" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="754" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="754" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="754" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="754" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="756" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="757" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="758" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="759" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="760" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="761" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="760" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="760" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="760" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="762" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="760" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="763" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="764" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="765" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="766" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="767" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="766" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="766" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="766" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="766" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="766" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="768" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="769" t="s">
         <v>242</v>
       </c>
-      <c r="J33" s="752" t="s">
+      <c r="J36" s="770" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="753" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="754" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="753" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="753" t="s">
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="771" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="772" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="771" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="771" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="771" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="773" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="771" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="774" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="775" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="776" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="777" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="778" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="777" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="777" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="777" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="777" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="779" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="780" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="781" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" s="782" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="783" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="784" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="783" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="783" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="783" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="785" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="783" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="786" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="787" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="788" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="789" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="790" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="789" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="789" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="753" t="s">
+      <c r="E40" s="789" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="753" t="s">
+      <c r="F40" s="789" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="755" t="s">
+      <c r="G40" s="789" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="756" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" s="757" t="s">
+      <c r="H40" s="791" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="792" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="793" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="794" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="795" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="794" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="794" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="794" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="794" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="796" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="797" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" s="798" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="758" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="759" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="760" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="759" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="759" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="759" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="761" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="759" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="762" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" s="763" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="764" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="765" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="766" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="765" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="765" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="765" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="765" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="765" t="s">
+      <c r="J41" s="799" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="800" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="801" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="800" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="767" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="768" t="s">
+      <c r="D42" s="800" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="800" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="800" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="800" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="802" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="803" t="s">
         <v>242</v>
       </c>
-      <c r="J36" s="769" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="770" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="771" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="770" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="770" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="770" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="772" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="770" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="773" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="774" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="775" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="776" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="777" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="776" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="776" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="776" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="776" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="778" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="779" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="780" t="s">
-        <v>252</v>
-      </c>
-      <c r="J38" s="781" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="782" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="783" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="782" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="782" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="782" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="784" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="782" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="785" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="786" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="787" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="788" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="789" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="788" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="788" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="788" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="788" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="788" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="790" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="791" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="792" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="793" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="794" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="793" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="793" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="793" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="793" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="795" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="796" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="797" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="798" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="799" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="800" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="799" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="799" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="799" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="799" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="799" t="s">
-        <v>222</v>
-      </c>
-      <c r="H42" s="801" t="s">
-        <v>241</v>
-      </c>
-      <c r="I42" s="802" t="s">
-        <v>242</v>
-      </c>
-      <c r="J42" s="803" t="s">
+      <c r="J42" s="804" t="s">
         <v>243</v>
       </c>
     </row>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -593,7 +593,7 @@
     <t>1.11</t>
   </si>
   <si>
-    <t>1.06.64</t>
+    <t>1.06.42</t>
   </si>
   <si>
     <t>28</t>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -68,7 +68,7 @@
     <t>1.53</t>
   </si>
   <si>
-    <t>1.44.79</t>
+    <t>1.44.15</t>
   </si>
   <si>
     <t>二线以上</t>
@@ -374,7 +374,7 @@
     <t>1.51</t>
   </si>
   <si>
-    <t>1.56.38</t>
+    <t>1.55.79</t>
   </si>
   <si>
     <t>37</t>
@@ -716,7 +716,7 @@
     <t>玩具工厂</t>
   </si>
   <si>
-    <t>1.15.99</t>
+    <t>1.15.74</t>
   </si>
   <si>
     <t>67</t>
@@ -740,13 +740,13 @@
     <t>冰山滑雪场</t>
   </si>
   <si>
-    <t>2.29.33</t>
+    <t>2.25703.00</t>
   </si>
   <si>
     <t>娱乐开外</t>
   </si>
   <si>
-    <t>54</t>
+    <t>-450860</t>
   </si>
   <si>
     <t>7</t>
@@ -1810,13 +1810,13 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2353,13 +2353,13 @@
     <xf numFmtId="0" fontId="49" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2914,13 +2914,13 @@
     <xf numFmtId="0" fontId="81" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3634,13 +3634,13 @@
     <xf numFmtId="0" fontId="122" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="122" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="122" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4513,10 +4513,10 @@
         <v>119</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J18" s="103" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -5524,10 +5524,10 @@
         <v>119</v>
       </c>
       <c r="I28" s="283" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="J28" s="284" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -6567,10 +6567,10 @@
         <v>119</v>
       </c>
       <c r="I24" s="470" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="J24" s="471" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -7888,20 +7888,20 @@
       <c r="E26" s="706" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="706" t="s">
+      <c r="F26" s="708" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="708" t="s">
+      <c r="G26" s="706" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="709" t="s">
         <v>119</v>
       </c>
       <c r="I26" s="710" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="J26" s="711" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -128,7 +128,7 @@
     <t>2.15</t>
   </si>
   <si>
-    <t>2.07.65</t>
+    <t>2.07.20</t>
   </si>
   <si>
     <t>9</t>
@@ -149,7 +149,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>1.51.83</t>
+    <t>1.51.65</t>
   </si>
   <si>
     <t>83</t>
@@ -347,378 +347,372 @@
     <t>2.24</t>
   </si>
   <si>
-    <t>2.22.49</t>
+    <t>2.20.82</t>
   </si>
   <si>
     <t>三线以上</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.05.41</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.55.79</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.22.96</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.60</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.23.20</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.59</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.40.73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>2.02.43</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.35</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.42</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.11.49</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.01.55</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.75</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.49.24</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>2.01.67</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.15.74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>74</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.07.47</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.55.79</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.24.31</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.86</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.23.21</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.59</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.40.73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>2.02.43</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.91</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.42</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.14.57</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.01.55</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.94</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.49.24</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>2.01.67</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.15.74</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -740,52 +734,52 @@
     <t>冰山滑雪场</t>
   </si>
   <si>
-    <t>2.25703.00</t>
+    <t>2.25.70</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.14.21</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>黄金坐标</t>
+  </si>
+  <si>
+    <t>1.41.40</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>-450860</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.14.21</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>黄金坐标</t>
-  </si>
-  <si>
-    <t>1.46.74</t>
   </si>
   <si>
     <t>57</t>
@@ -1428,12 +1422,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="63"/>
+        <fgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="63"/>
       </patternFill>
     </fill>
   </fills>
@@ -1511,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="805">
+  <cellXfs count="808">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,13 +1786,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2317,13 +2311,13 @@
     <xf numFmtId="0" fontId="47" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2425,13 +2419,13 @@
     <xf numFmtId="0" fontId="53" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3076,13 +3070,13 @@
     <xf numFmtId="0" fontId="90" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3118,7 +3112,7 @@
     <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="92" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3184,10 +3178,13 @@
     <xf numFmtId="0" fontId="96" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="96" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3616,13 +3613,13 @@
     <xf numFmtId="0" fontId="121" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="121" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="121" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="121" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="121" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3652,13 +3649,13 @@
     <xf numFmtId="0" fontId="123" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="123" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="123" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3676,7 +3673,7 @@
     <xf numFmtId="0" fontId="124" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="124" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="124" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3742,13 +3739,13 @@
     <xf numFmtId="0" fontId="128" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3814,10 +3811,13 @@
     <xf numFmtId="0" fontId="132" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="132" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="132" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="132" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3847,13 +3847,13 @@
     <xf numFmtId="0" fontId="134" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="134" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="134" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="134" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3886,7 +3886,7 @@
     <xf numFmtId="0" fontId="136" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="136" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="136" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3916,10 +3916,13 @@
     <xf numFmtId="0" fontId="138" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="138" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="138" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="138" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4481,10 +4484,10 @@
         <v>115</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -4823,7 +4826,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="152" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -4834,7 +4837,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="153" t="s">
         <v>66</v>
@@ -4855,7 +4858,7 @@
         <v>111</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -4892,10 +4895,10 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="166" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>156</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>48</v>
@@ -4913,7 +4916,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="169" t="s">
         <v>18</v>
@@ -4924,28 +4927,28 @@
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="171" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="172" t="s">
         <v>158</v>
-      </c>
-      <c r="B10" s="172" t="s">
-        <v>159</v>
       </c>
       <c r="C10" s="171" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="173" t="s">
         <v>160</v>
-      </c>
-      <c r="E10" s="173" t="s">
-        <v>161</v>
       </c>
       <c r="F10" s="171" t="s">
         <v>137</v>
       </c>
       <c r="G10" s="171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="175" t="s">
         <v>18</v>
@@ -4956,16 +4959,16 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="178" t="s">
         <v>163</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>164</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="177" t="s">
         <v>92</v>
@@ -4974,16 +4977,16 @@
         <v>134</v>
       </c>
       <c r="G11" s="177" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="180" t="s">
         <v>166</v>
-      </c>
-      <c r="H11" s="180" t="s">
-        <v>167</v>
       </c>
       <c r="I11" s="181" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -5003,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="183" t="s">
         <v>32</v>
@@ -5015,7 +5018,7 @@
         <v>111</v>
       </c>
       <c r="J12" s="188" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5052,42 +5055,42 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="195" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="C14" s="195" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="195" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>172</v>
       </c>
       <c r="E14" s="195" t="s">
         <v>141</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="195" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="199" t="s">
+      <c r="J14" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="J14" s="200" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="202" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="202" t="s">
-        <v>178</v>
       </c>
       <c r="C15" s="201" t="s">
         <v>23</v>
@@ -5096,7 +5099,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="203" t="s">
         <v>32</v>
@@ -5105,13 +5108,13 @@
         <v>34</v>
       </c>
       <c r="H15" s="204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="205" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -5143,7 +5146,7 @@
         <v>111</v>
       </c>
       <c r="J16" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -5186,7 +5189,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="219" t="s">
         <v>109</v>
@@ -5212,10 +5215,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="226" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" s="226" t="s">
-        <v>183</v>
       </c>
       <c r="C19" s="225" t="s">
         <v>33</v>
@@ -5230,42 +5233,42 @@
         <v>96</v>
       </c>
       <c r="G19" s="225" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="228" t="s">
         <v>184</v>
-      </c>
-      <c r="H19" s="228" t="s">
-        <v>185</v>
       </c>
       <c r="I19" s="229" t="s">
         <v>111</v>
       </c>
       <c r="J19" s="230" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="C20" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="D20" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="E20" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="F20" s="231" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="231" t="s">
-        <v>191</v>
       </c>
       <c r="G20" s="231" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I20" s="235" t="s">
         <v>28</v>
@@ -5326,7 +5329,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="243" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" s="246" t="s">
         <v>93</v>
@@ -5335,7 +5338,7 @@
         <v>111</v>
       </c>
       <c r="J22" s="248" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -5346,7 +5349,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="249" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="249" t="s">
         <v>32</v>
@@ -5367,15 +5370,15 @@
         <v>111</v>
       </c>
       <c r="J23" s="254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="256" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" s="256" t="s">
-        <v>194</v>
       </c>
       <c r="C24" s="255" t="s">
         <v>57</v>
@@ -5387,19 +5390,19 @@
         <v>89</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>133</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" s="259" t="s">
         <v>111</v>
       </c>
       <c r="J24" s="260" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -5416,13 +5419,13 @@
         <v>53</v>
       </c>
       <c r="E25" s="263" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="261" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" s="264" t="s">
         <v>105</v>
@@ -5442,15 +5445,15 @@
         <v>107</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="267" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="269" t="s">
+      <c r="E26" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="267" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="267" t="s">
@@ -5460,10 +5463,10 @@
         <v>110</v>
       </c>
       <c r="I26" s="271" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -5495,7 +5498,7 @@
         <v>111</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -5527,7 +5530,7 @@
         <v>111</v>
       </c>
       <c r="J28" s="284" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -5550,7 +5553,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="285" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H29" s="288" t="s">
         <v>125</v>
@@ -5559,7 +5562,7 @@
         <v>111</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -5576,7 +5579,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="291" t="s">
         <v>26</v>
@@ -5611,10 +5614,10 @@
         <v>91</v>
       </c>
       <c r="F31" s="297" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G31" s="297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H31" s="300" t="s">
         <v>136</v>
@@ -5628,10 +5631,10 @@
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="303" t="s">
         <v>49</v>
@@ -5642,28 +5645,28 @@
       <c r="E32" s="303" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="303" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="305" t="s">
+      <c r="F32" s="305" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="303" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="306" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I32" s="307" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="J32" s="308" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B33" s="310" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C33" s="309" t="s">
         <v>144</v>
@@ -5681,30 +5684,30 @@
         <v>72</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I33" s="313" t="s">
         <v>111</v>
       </c>
       <c r="J33" s="314" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C34" s="315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="315" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="315" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="315" t="s">
         <v>13</v>
@@ -5713,24 +5716,24 @@
         <v>40</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I34" s="319" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="321" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B35" s="322" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C35" s="321" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D35" s="321" t="s">
         <v>142</v>
@@ -5739,27 +5742,27 @@
         <v>137</v>
       </c>
       <c r="F35" s="321" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="323" t="s">
         <v>41</v>
       </c>
       <c r="H35" s="324" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="327" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B36" s="328" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C36" s="327" t="s">
         <v>118</v>
@@ -5771,19 +5774,19 @@
         <v>42</v>
       </c>
       <c r="F36" s="329" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="327" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="330" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I36" s="331" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="332" t="s">
         <v>175</v>
-      </c>
-      <c r="J36" s="332" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5848,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="334" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="334" t="s">
         <v>137</v>
@@ -5877,13 +5880,13 @@
         <v>140</v>
       </c>
       <c r="C3" s="340" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D3" s="340" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="340" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="342" t="s">
         <v>13</v>
@@ -5898,7 +5901,7 @@
         <v>111</v>
       </c>
       <c r="J3" s="345" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -5950,7 +5953,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="354" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G5" s="352" t="s">
         <v>102</v>
@@ -5962,7 +5965,7 @@
         <v>111</v>
       </c>
       <c r="J5" s="357" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -5976,16 +5979,16 @@
         <v>77</v>
       </c>
       <c r="D6" s="358" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E6" s="358" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F6" s="360" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="358" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H6" s="361" t="s">
         <v>151</v>
@@ -5994,15 +5997,15 @@
         <v>111</v>
       </c>
       <c r="J6" s="363" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="364" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="365" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="365" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="364" t="s">
         <v>15</v>
@@ -6020,13 +6023,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="367" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" s="368" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="369" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -6069,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="376" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="376" t="s">
         <v>66</v>
@@ -6090,33 +6093,33 @@
         <v>111</v>
       </c>
       <c r="J9" s="381" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="382" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="383" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="383" t="s">
-        <v>159</v>
-      </c>
       <c r="C10" s="382" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="382" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E10" s="384" t="s">
         <v>141</v>
       </c>
       <c r="F10" s="382" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="382" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="385" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="386" t="s">
         <v>18</v>
@@ -6127,10 +6130,10 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="388" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="389" t="s">
         <v>163</v>
-      </c>
-      <c r="B11" s="389" t="s">
-        <v>164</v>
       </c>
       <c r="C11" s="388" t="s">
         <v>123</v>
@@ -6139,22 +6142,22 @@
         <v>61</v>
       </c>
       <c r="E11" s="388" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H11" s="391" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="392" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="393" t="s">
         <v>175</v>
-      </c>
-      <c r="J11" s="393" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -6168,7 +6171,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="394" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="396" t="s">
         <v>122</v>
@@ -6206,7 +6209,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="402" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="400" t="s">
         <v>32</v>
@@ -6218,47 +6221,47 @@
         <v>111</v>
       </c>
       <c r="J13" s="405" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="406" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="407" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="407" t="s">
-        <v>171</v>
-      </c>
       <c r="C14" s="406" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="406" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E14" s="406" t="s">
         <v>141</v>
       </c>
       <c r="F14" s="408" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="406" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="409" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="410" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="410" t="s">
+      <c r="J14" s="411" t="s">
         <v>175</v>
-      </c>
-      <c r="J14" s="411" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="412" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="413" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="413" t="s">
-        <v>178</v>
       </c>
       <c r="C15" s="412" t="s">
         <v>22</v>
@@ -6276,21 +6279,21 @@
         <v>53</v>
       </c>
       <c r="H15" s="415" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="416" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="417" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="419" t="s">
         <v>182</v>
-      </c>
-      <c r="B16" s="419" t="s">
-        <v>183</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
@@ -6302,45 +6305,45 @@
         <v>72</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="418" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="422" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="423" t="s">
         <v>175</v>
-      </c>
-      <c r="J16" s="423" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="425" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="425" t="s">
-        <v>187</v>
-      </c>
       <c r="C17" s="424" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D17" s="424" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E17" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G17" s="424" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -6351,10 +6354,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="430" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B18" s="431" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C18" s="430" t="s">
         <v>58</v>
@@ -6372,7 +6375,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="433" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I18" s="434" t="s">
         <v>82</v>
@@ -6395,7 +6398,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="436" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="438" t="s">
         <v>15</v>
@@ -6410,7 +6413,7 @@
         <v>111</v>
       </c>
       <c r="J19" s="441" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -6424,7 +6427,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="442" t="s">
         <v>66</v>
@@ -6442,7 +6445,7 @@
         <v>111</v>
       </c>
       <c r="J20" s="447" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -6459,7 +6462,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="448" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="450" t="s">
         <v>32</v>
@@ -6474,7 +6477,7 @@
         <v>111</v>
       </c>
       <c r="J21" s="453" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -6485,7 +6488,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="454" t="s">
         <v>76</v>
@@ -6494,7 +6497,7 @@
         <v>147</v>
       </c>
       <c r="F22" s="456" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G22" s="454" t="s">
         <v>79</v>
@@ -6506,7 +6509,7 @@
         <v>111</v>
       </c>
       <c r="J22" s="459" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -6538,7 +6541,7 @@
         <v>111</v>
       </c>
       <c r="J23" s="465" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -6570,7 +6573,7 @@
         <v>111</v>
       </c>
       <c r="J24" s="471" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -6602,7 +6605,7 @@
         <v>111</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -6625,30 +6628,30 @@
         <v>72</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="481" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="482" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="483" t="s">
         <v>175</v>
-      </c>
-      <c r="J26" s="483" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="485" t="s">
         <v>193</v>
-      </c>
-      <c r="B27" s="485" t="s">
-        <v>194</v>
       </c>
       <c r="C27" s="484" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="484" t="s">
         <v>122</v>
@@ -6660,13 +6663,13 @@
         <v>123</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27" s="488" t="s">
         <v>111</v>
       </c>
       <c r="J27" s="489" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
@@ -6698,7 +6701,7 @@
         <v>111</v>
       </c>
       <c r="J28" s="495" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -6721,7 +6724,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="496" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="499" t="s">
         <v>93</v>
@@ -6730,15 +6733,15 @@
         <v>111</v>
       </c>
       <c r="J29" s="501" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B30" s="503" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="502" t="s">
         <v>16</v>
@@ -6756,27 +6759,27 @@
         <v>33</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I30" s="506" t="s">
         <v>111</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D31" s="508" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="508" t="s">
         <v>12</v>
@@ -6788,21 +6791,21 @@
         <v>66</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32" s="515" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="514" t="s">
         <v>141</v>
@@ -6820,21 +6823,21 @@
         <v>15</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I32" s="518" t="s">
         <v>111</v>
       </c>
       <c r="J32" s="519" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B33" s="521" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33" s="520" t="s">
         <v>49</v>
@@ -6845,20 +6848,20 @@
       <c r="E33" s="520" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="520" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="522" t="s">
+      <c r="F33" s="522" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="520" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="523" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I33" s="524" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="J33" s="525" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -6881,7 +6884,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="526" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H34" s="529" t="s">
         <v>129</v>
@@ -6890,7 +6893,7 @@
         <v>111</v>
       </c>
       <c r="J34" s="531" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -6909,20 +6912,20 @@
       <c r="E35" s="532" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="532" t="s">
+      <c r="F35" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="534" t="s">
+      <c r="G35" s="532" t="s">
         <v>134</v>
       </c>
       <c r="H35" s="535" t="s">
         <v>125</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="J35" s="537" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
@@ -6939,7 +6942,7 @@
         <v>133</v>
       </c>
       <c r="E36" s="538" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="540" t="s">
         <v>92</v>
@@ -6954,18 +6957,18 @@
         <v>111</v>
       </c>
       <c r="J36" s="543" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="544" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B37" s="545" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C37" s="544" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D37" s="544" t="s">
         <v>142</v>
@@ -6974,27 +6977,27 @@
         <v>137</v>
       </c>
       <c r="F37" s="544" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" s="546" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="547" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="550" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B38" s="551" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C38" s="550" t="s">
         <v>118</v>
@@ -7012,21 +7015,21 @@
         <v>26</v>
       </c>
       <c r="H38" s="553" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J38" s="555" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="556" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B39" s="557" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C39" s="556" t="s">
         <v>102</v>
@@ -7040,17 +7043,17 @@
       <c r="F39" s="556" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="556" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="558" t="s">
-        <v>241</v>
-      </c>
-      <c r="I39" s="559" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" s="560" t="s">
-        <v>243</v>
+      <c r="G39" s="558" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="559" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="560" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" s="561" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7073,1347 +7076,1347 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="561" t="s">
+      <c r="A1" s="562" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="561" t="s">
+      <c r="B1" s="562" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="561" t="s">
+      <c r="C1" s="562" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="561" t="s">
+      <c r="D1" s="562" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="561" t="s">
+      <c r="E1" s="562" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="561" t="s">
+      <c r="F1" s="562" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="561" t="s">
+      <c r="G1" s="562" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="561" t="s">
+      <c r="H1" s="562" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="561" t="s">
+      <c r="I1" s="562" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="561" t="s">
+      <c r="J1" s="562" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="562" t="s">
+      <c r="A2" s="563" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="563" t="s">
+      <c r="B2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="562" t="s">
+      <c r="C2" s="563" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="562" t="s">
+      <c r="D2" s="563" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="562" t="s">
+      <c r="E2" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="564" t="s">
+      <c r="F2" s="565" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="563" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="566" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="567" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="568" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="562" t="s">
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="570" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="569" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="569" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="569" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="571" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="569" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="572" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="573" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="574" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="575" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="576" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="575" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="575" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="577" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="575" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="575" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="578" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="579" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="580" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="581" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="582" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="581" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="581" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="581" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="583" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="581" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="584" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="585" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="586" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="587" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="588" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="587" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="587" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="587" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="589" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="587" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="590" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="591" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="592" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="593" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="594" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="593" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="593" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="565" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="566" t="s">
+      <c r="E7" s="593" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="595" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="593" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="596" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="597" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="567" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="568" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="569" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="568" t="s">
+      <c r="J7" s="598" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="599" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="600" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="599" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="599" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="599" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="601" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="599" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="602" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="603" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="604" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="605" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="606" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="605" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="605" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="605" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="607" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="605" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="608" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="609" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="610" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="611" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="612" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="611" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="611" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="611" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="613" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="611" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="614" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="615" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="616" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="617" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="618" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="617" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="617" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="617" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="619" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="617" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="620" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="621" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="622" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="623" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="624" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="623" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="623" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="625" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="623" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="623" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="626" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="627" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="628" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="629" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="630" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="629" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="629" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="629" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="631" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="629" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="632" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="633" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="634" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="635" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="636" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="635" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="635" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="635" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="637" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="635" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="638" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="639" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="640" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="641" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="642" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="641" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="641" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="641" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="643" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="641" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="644" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="645" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="646" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="647" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="648" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="647" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="647" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="647" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="649" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="647" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="650" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="651" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="652" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="653" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="654" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="653" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="653" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="653" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="653" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="655" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="656" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="657" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="658" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" s="659" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="660" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="659" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="659" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="659" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="661" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="659" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="662" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="663" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="664" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" s="665" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="666" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="665" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="665" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="665" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="667" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="665" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="668" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="669" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="670" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" s="671" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="672" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="671" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="671" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="671" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="673" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="671" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="674" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="675" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="676" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" s="677" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="678" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="677" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="677" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="677" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="679" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="677" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="680" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="681" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="682" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" s="683" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="684" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="683" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="683" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="683" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="685" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="683" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="686" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="687" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="688" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" s="689" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="690" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="689" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="689" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="689" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="691" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="689" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="692" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="693" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="694" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" s="695" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="696" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="695" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="695" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="695" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="695" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="697" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="698" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="699" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" s="700" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" s="701" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="702" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="701" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="701" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="701" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="703" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="701" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="704" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="705" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="706" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" s="707" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="708" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="707" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="707" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="707" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="709" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="707" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="710" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="711" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="712" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" s="713" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="714" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="713" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="713" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="713" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="713" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="715" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="716" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="717" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="718" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="719" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="720" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="719" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="719" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="719" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="719" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="721" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="722" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="723" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="724" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="725" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="726" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="725" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="725" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="725" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="727" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="725" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="728" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="729" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="730" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="731" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="732" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="731" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="731" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="731" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="731" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="733" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="734" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="735" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="736" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="737" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="738" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="737" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="737" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="737" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="737" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="739" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="740" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="741" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" s="742" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="743" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="744" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="743" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="743" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="568" t="s">
+      <c r="E32" s="745" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="743" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="743" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="746" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="747" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="748" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="749" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="750" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="749" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="749" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="749" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="749" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="751" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="752" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="753" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="754" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="755" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="756" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="755" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="755" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="568" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="570" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="568" t="s">
+      <c r="E34" s="755" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="755" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="757" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="758" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="759" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="760" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="761" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="762" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="761" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="761" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="761" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="763" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="761" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="764" t="s">
+        <v>235</v>
+      </c>
+      <c r="I35" s="765" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="766" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="767" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="768" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="767" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="767" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="767" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="767" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="769" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="770" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="771" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="772" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="773" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="774" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="773" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="773" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="773" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="775" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="773" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="776" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="777" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="778" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="779" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="780" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="779" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="779" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="779" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="779" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="781" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="782" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="783" t="s">
+        <v>209</v>
+      </c>
+      <c r="J38" s="784" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="785" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="786" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="785" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="785" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="785" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="787" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="785" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="788" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="789" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="790" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="791" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="792" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="791" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="791" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="791" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="791" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="791" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="793" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="794" t="s">
+        <v>254</v>
+      </c>
+      <c r="J40" s="795" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="796" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="797" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="796" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="571" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="572" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="573" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="574" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="575" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="574" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="574" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="576" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="574" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="574" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="577" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="578" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="579" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="580" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="581" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="580" t="s">
+      <c r="D41" s="796" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="796" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="796" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="798" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="580" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="580" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="582" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="580" t="s">
+      <c r="H41" s="799" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="800" t="s">
+        <v>209</v>
+      </c>
+      <c r="J41" s="801" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="802" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="803" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="802" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="583" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="584" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="585" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="586" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="587" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="586" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="586" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="586" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="588" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="586" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="589" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="590" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="591" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="592" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="593" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="592" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="592" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="592" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="594" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="592" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="595" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="596" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="597" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="598" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="599" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="598" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="598" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="598" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="600" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="598" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="601" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="602" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="603" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="604" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="605" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="604" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="604" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="604" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="606" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="604" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="607" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="608" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="609" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="610" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="611" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="610" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="610" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="610" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="612" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="610" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="613" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="614" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="615" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="616" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="617" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="616" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="616" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="616" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="618" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="616" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="619" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="620" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="621" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="622" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="623" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="622" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="622" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="624" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="622" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="622" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="625" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="626" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="627" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="628" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="629" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="628" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="628" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="628" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="630" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="628" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="631" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="632" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="633" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="634" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="635" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="634" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="634" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="634" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="636" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="634" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="637" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="638" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="639" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="640" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="641" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="640" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="640" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="640" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="642" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="640" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="643" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="644" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="645" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="646" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="647" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="646" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="646" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="646" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="648" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="646" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="649" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="650" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="651" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="652" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="653" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="652" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="652" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="652" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="652" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="654" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="655" t="s">
-        <v>185</v>
-      </c>
-      <c r="I17" s="656" t="s">
-        <v>205</v>
-      </c>
-      <c r="J17" s="657" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" s="658" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="659" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="658" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="658" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="658" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="660" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="658" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="661" t="s">
-        <v>192</v>
-      </c>
-      <c r="I18" s="662" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="663" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" ht="20.0" customHeight="true">
-      <c r="A19" s="664" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="665" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="664" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="664" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="664" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="666" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="664" t="s">
+      <c r="D42" s="802" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="667" t="s">
-        <v>250</v>
-      </c>
-      <c r="I19" s="668" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="669" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" s="670" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="671" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="670" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="670" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="670" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="672" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="670" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="673" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="674" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="675" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" ht="20.0" customHeight="true">
-      <c r="A21" s="676" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="677" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="676" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="676" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="676" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="678" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="676" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="679" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="680" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="681" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" s="682" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="683" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="682" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="682" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="682" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="684" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="682" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="685" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="686" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="687" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" ht="20.0" customHeight="true">
-      <c r="A23" s="688" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="689" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="688" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="688" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="688" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="690" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="688" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="691" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="692" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="693" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" ht="20.0" customHeight="true">
-      <c r="A24" s="694" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="695" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="694" t="s">
+      <c r="E42" s="802" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="694" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="694" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="694" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="696" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="697" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="698" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="699" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" ht="20.0" customHeight="true">
-      <c r="A25" s="700" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="701" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="700" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="700" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="700" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="700" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="702" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="703" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="704" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="705" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" ht="20.0" customHeight="true">
-      <c r="A26" s="706" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="707" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="706" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="706" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="706" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="708" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="706" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="709" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="710" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="711" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" ht="20.0" customHeight="true">
-      <c r="A27" s="712" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="713" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="712" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="712" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="712" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="712" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="714" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="715" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="716" t="s">
-        <v>252</v>
-      </c>
-      <c r="J27" s="717" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" s="718" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="719" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="718" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="718" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="718" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="718" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="720" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="721" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="722" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28" s="723" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" ht="20.0" customHeight="true">
-      <c r="A29" s="724" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="725" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="724" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="724" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="724" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="726" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="724" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="727" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="728" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" s="729" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" s="730" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="731" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="730" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="730" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="730" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="730" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="732" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="733" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="734" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="735" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="736" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="737" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="736" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="736" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="736" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="736" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="738" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="739" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="740" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="741" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" s="742" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="743" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="742" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="742" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="742" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="742" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="744" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="745" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" s="746" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="747" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="748" t="s">
-        <v>207</v>
-      </c>
-      <c r="B33" s="749" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="748" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="748" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="748" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="748" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="750" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="751" t="s">
+      <c r="F42" s="802" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="804" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="805" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="806" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="752" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="753" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="754" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="755" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="754" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="754" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="754" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="754" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="756" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="757" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="758" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="759" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="760" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="761" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="760" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="760" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="760" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="762" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="760" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="763" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" s="764" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="765" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="766" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="767" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="766" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="766" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="766" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="766" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="766" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="768" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="769" t="s">
-        <v>242</v>
-      </c>
-      <c r="J36" s="770" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="771" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="772" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="771" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="771" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="771" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="773" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="771" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="774" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="775" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="776" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="777" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="778" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="777" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="777" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="777" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="777" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="779" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="780" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="781" t="s">
-        <v>252</v>
-      </c>
-      <c r="J38" s="782" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="783" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="784" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="783" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="783" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="783" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="785" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="783" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="786" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="787" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="788" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="789" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="790" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="789" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="789" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="789" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="789" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="789" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="791" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" s="792" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="793" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="794" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="795" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="794" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="794" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="794" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="794" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="796" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="797" t="s">
-        <v>221</v>
-      </c>
-      <c r="I41" s="798" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="799" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="800" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="801" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="800" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="800" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="800" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="800" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="800" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" s="802" t="s">
-        <v>241</v>
-      </c>
-      <c r="I42" s="803" t="s">
-        <v>242</v>
-      </c>
-      <c r="J42" s="804" t="s">
-        <v>243</v>
+      <c r="J42" s="807" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -404,7 +404,7 @@
     <t>太空蜿蜒跑道</t>
   </si>
   <si>
-    <t>2.01.60</t>
+    <t>2.01.31</t>
   </si>
   <si>
     <t>84</t>
@@ -755,7 +755,7 @@
     <t>神秘研究所</t>
   </si>
   <si>
-    <t>2.14.21</t>
+    <t>2.12.39</t>
   </si>
   <si>
     <t>66</t>
@@ -3505,13 +3505,13 @@
     <xf numFmtId="0" fontId="115" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="115" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="115" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -7677,10 +7677,10 @@
         <v>246</v>
       </c>
       <c r="I19" s="669" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="J19" s="670" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -107,7 +107,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>狮城狂飙</t>
@@ -131,7 +131,7 @@
     <t>2.07.20</t>
   </si>
   <si>
-    <t>9</t>
+    <t>13</t>
   </si>
   <si>
     <t>迪拜富人区</t>
@@ -155,603 +155,603 @@
     <t>83</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>灵岩环道</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.52.73</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>恐龙决斗场</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.59.41</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>里约滑坡</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.13.11</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>万里长城</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.51.70</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>海盗绝壁海湾</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.02.33</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>海底神殿</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.28.27</t>
+  </si>
+  <si>
+    <t>二线勉强</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.48.41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>城镇公路</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.16.48</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.10.73</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.11.87</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.20.82</t>
+  </si>
+  <si>
+    <t>三线以上</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.05.41</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.55.79</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.22.96</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.31</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.23.20</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>灵岩环道</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>1.52.73</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>恐龙决斗场</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.59.41</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>里约滑坡</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.13.11</t>
-  </si>
-  <si>
-    <t>86</t>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.59</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>万里长城</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.51.70</t>
-  </si>
-  <si>
-    <t>82</t>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.40.73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>海盗绝壁海湾</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.02.33</t>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>2.02.43</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2.21</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>海底神殿</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.28.27</t>
-  </si>
-  <si>
-    <t>二线勉强</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.48.41</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>城镇公路</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.16.48</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.10.73</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.11.87</t>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.35</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.20.82</t>
-  </si>
-  <si>
-    <t>三线以上</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.11.49</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.01.55</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.75</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.49.24</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>2.01.67</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.05.41</t>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.15.74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.25.70</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.55.79</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.22.96</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.31</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.23.20</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.59</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.40.73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>2.02.43</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.35</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.42</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.11.49</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.01.55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.75</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.49.24</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>2.01.67</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.15.74</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.94</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.25.70</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>神秘研究所</t>
   </si>
   <si>
@@ -767,7 +767,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>31</t>
+    <t>48</t>
   </si>
   <si>
     <t>黄金坐标</t>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
   <si>
     <t>62</t>
@@ -8352,7 +8349,7 @@
         <v>254</v>
       </c>
       <c r="J40" s="795" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
@@ -8384,7 +8381,7 @@
         <v>209</v>
       </c>
       <c r="J41" s="801" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -10,12 +10,13 @@
     <sheet name="s3交流分数线" r:id="rId4" sheetId="2"/>
     <sheet name="s4交流分数线" r:id="rId5" sheetId="3"/>
     <sheet name="s5交流分数线" r:id="rId6" sheetId="4"/>
+    <sheet name="s8交流分数线" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="308">
   <si>
     <t>id</t>
   </si>
@@ -783,6 +784,162 @@
   </si>
   <si>
     <t>62</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>巴黎风情</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.34.21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>滨海火车</t>
+  </si>
+  <si>
+    <t>1.54.46</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>龙之宫殿</t>
+  </si>
+  <si>
+    <t>1.29.23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>东方明珠之夜</t>
+  </si>
+  <si>
+    <t>1.34.30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>龙之都市</t>
+  </si>
+  <si>
+    <t>1.31.54</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>360塔楼</t>
+  </si>
+  <si>
+    <t>1.35.09</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>龙之冰灯祭</t>
+  </si>
+  <si>
+    <t>1.28.48</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>铃鹿赛道</t>
+  </si>
+  <si>
+    <t>1.55.71</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>太空军用机场</t>
+  </si>
+  <si>
+    <t>2.01.97</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>城镇高速公路(反向)</t>
+  </si>
+  <si>
+    <t>1.51.43</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>纽约狂飙</t>
+  </si>
+  <si>
+    <t>-86</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>巴黎铁塔</t>
+  </si>
+  <si>
+    <t>2.07.73</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>城镇极限竞技场</t>
+  </si>
+  <si>
+    <t>1.52.41</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之西湖</t>
+  </si>
+  <si>
+    <t>1.59.82</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>意大利比萨斜塔</t>
+  </si>
+  <si>
+    <t>1.09.16</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>森林发夹(反向)</t>
+  </si>
+  <si>
+    <t>2.21.68</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>街头狂飙</t>
+  </si>
+  <si>
+    <t>2.18.73</t>
   </si>
 </sst>
 </file>
@@ -790,7 +947,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="139">
+  <fonts count="198">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1189,6 +1346,243 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1502,7 +1896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="808">
+  <cellXfs count="1142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3923,6 +4317,1008 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8419,4 +9815,1911 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.600000381469727" baseColWidth="5" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="10.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.0" customHeight="true">
+      <c r="A1" s="808" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="808" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="808" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="808" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="808" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="808" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="808" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="808" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="808" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="808" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="20.0" customHeight="true">
+      <c r="A2" s="809" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="810" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="809" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="809" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="809" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="811" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="809" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="812" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="813" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="814" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="815" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="816" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="815" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="815" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="815" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="815" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="817" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="818" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="819" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="820" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="821" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="822" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="821" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="821" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="821" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="823" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="821" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="824" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="825" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="826" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="827" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="828" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="827" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="827" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="829" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="827" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="827" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="830" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="831" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="832" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="833" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="834" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="833" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="833" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="833" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="835" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="833" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="836" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="837" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="838" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="839" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="840" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="839" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="839" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="839" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="839" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="841" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="842" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="843" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="844" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="845" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="846" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="845" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="845" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="845" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="845" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="845" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="847" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="848" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="849" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="850" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="851" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="850" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="850" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="850" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="850" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="852" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="853" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="854" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="855" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="856" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="857" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="856" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="856" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="856" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="858" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="856" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="859" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="860" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="861" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="862" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="863" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="862" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="862" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="862" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="862" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="862" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="864" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="865" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="866" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="867" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="868" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="867" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="867" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="867" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="869" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="867" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="870" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="871" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="872" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="873" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="874" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="873" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="873" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="873" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="875" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="873" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="876" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="877" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="878" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="879" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="880" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="879" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="879" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="879" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="879" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="881" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="882" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="883" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="884" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="885" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="886" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="885" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="885" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="885" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="887" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="885" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="888" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="889" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="890" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="891" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="892" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="891" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="891" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="891" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="891" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="891" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="893" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="894" t="s">
+        <v>254</v>
+      </c>
+      <c r="J16" s="895" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="896" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="897" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="896" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="896" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="896" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="898" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="896" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="899" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="900" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="901" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" s="902" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="903" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="902" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="902" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="902" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="904" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="902" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="905" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="906" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="907" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" s="908" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="909" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="908" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="908" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="908" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="910" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="908" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="911" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="912" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="913" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" s="914" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="915" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="914" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="914" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="914" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="914" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="916" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="917" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="918" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="919" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" s="920" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="921" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="920" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="920" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="920" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="920" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="922" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="923" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="924" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" s="925" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" s="926" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="927" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="926" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="926" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="926" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="926" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="928" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="929" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" s="930" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="931" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" s="932" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="933" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="932" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="932" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="932" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="932" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="934" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="935" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="936" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="937" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" s="938" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="939" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="938" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="938" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="938" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="940" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="938" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="941" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="942" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="943" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" s="944" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="945" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="944" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="944" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="944" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="944" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="946" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="947" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="948" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="949" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" s="950" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="951" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="950" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="950" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="950" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="952" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="950" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="953" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="954" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="955" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" s="956" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="957" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="956" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="956" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="956" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="956" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="956" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="958" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" s="959" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="960" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="961" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="962" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="961" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="961" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="961" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="963" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="961" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="964" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" s="965" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="966" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="967" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" s="968" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="967" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="967" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="967" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="967" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="967" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="969" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="970" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" s="971" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="972" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="973" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="972" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="972" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="972" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="972" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="972" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="974" t="s">
+        <v>286</v>
+      </c>
+      <c r="I30" s="975" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" s="976" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="977" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="978" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="977" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="977" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="977" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="977" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="977" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="979" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="980" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" s="981" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="982" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="983" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="982" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="982" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="982" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="984" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="982" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="985" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="986" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="987" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="988" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="989" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="988" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="988" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="988" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="988" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="988" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="990" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="991" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" s="992" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="993" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="994" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="993" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="993" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="993" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="993" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="995" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="996" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="997" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="998" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="999" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1000" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="999" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="999" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="999" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="999" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="999" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="1001" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="1002" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" s="1003" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="1004" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="1005" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="1004" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1004" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1004" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1006" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="1004" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="1007" t="s">
+        <v>298</v>
+      </c>
+      <c r="I36" s="1008" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="1009" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="1010" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="1011" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="1010" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="1010" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="1010" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="1012" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="1010" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="1013" t="s">
+        <v>301</v>
+      </c>
+      <c r="I37" s="1014" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="1015" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="1016" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1017" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1016" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="1016" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1016" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="1018" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1016" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1019" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1020" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="1021" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="1022" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1023" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1022" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1022" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="1022" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="1022" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="1024" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="1025" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="1026" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" s="1027" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="1028" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1029" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1028" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="1028" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="1028" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1028" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="1030" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="1031" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="1032" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" s="1033" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="1034" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="1035" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="1034" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1034" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1034" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="1034" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="1036" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="1037" t="s">
+        <v>304</v>
+      </c>
+      <c r="I41" s="1038" t="s">
+        <v>209</v>
+      </c>
+      <c r="J41" s="1039" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="1040" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1041" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1040" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1040" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1040" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1040" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="1042" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="1043" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="1044" t="s">
+        <v>209</v>
+      </c>
+      <c r="J42" s="1045" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" s="1046" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1047" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1046" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1046" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1046" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="1046" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1048" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1049" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="1050" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" s="1051" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" s="1052" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="1053" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1052" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1052" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1052" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="1052" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1052" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="1054" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="1055" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44" s="1056" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" s="1057" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="1058" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="1057" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="1057" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="1057" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="1057" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="1059" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="1060" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="1061" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45" s="1062" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" s="1063" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1064" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1063" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1063" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="1063" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1063" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="1065" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="1066" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="1067" t="s">
+        <v>248</v>
+      </c>
+      <c r="J46" s="1068" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" s="1069" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1070" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1069" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="1069" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="1069" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="1069" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1071" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="1072" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="1073" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" s="1074" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" s="1075" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="1076" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="1075" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="1075" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="1075" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1075" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="1078" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="1079" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" s="1080" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" s="1081" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1082" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1081" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1081" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1081" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="1081" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="1081" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="1083" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" s="1084" t="s">
+        <v>254</v>
+      </c>
+      <c r="J49" s="1085" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" s="1086" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="1087" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="1086" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="1086" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="1086" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="1086" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="1088" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="1089" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" s="1090" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" s="1091" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" s="1092" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="1093" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="1092" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="1092" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="1092" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="1094" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1092" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="1095" t="s">
+        <v>235</v>
+      </c>
+      <c r="I51" s="1096" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" s="1097" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" s="1098" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="1099" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="1098" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1098" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="1098" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="1098" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="1100" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="1101" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" s="1102" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="1103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" s="1104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="1104" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="1106" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="1107" t="s">
+        <v>254</v>
+      </c>
+      <c r="J53" s="1108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54" s="1109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="1109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="1109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="1111" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1112" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="1113" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" s="1114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" s="1115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1115" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="1115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="1115" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="1117" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="1119" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" s="1120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" s="1121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="1121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="1121" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1121" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="1121" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="1123" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="1124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="1125" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="1126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" s="1127" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="1128" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="1127" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="1127" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="1127" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1127" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="1129" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="1130" t="s">
+        <v>254</v>
+      </c>
+      <c r="J57" s="1131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" s="1132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="1133" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="1132" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="1132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1132" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="1132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="1132" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="1134" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="1135" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" s="1136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" s="1137" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="1138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="1137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1137" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="1137" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="1137" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="1139" t="s">
+        <v>239</v>
+      </c>
+      <c r="I59" s="1140" t="s">
+        <v>254</v>
+      </c>
+      <c r="J59" s="1141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -132,6 +132,24 @@
     <t>2.07.20</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>灵岩环道</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.52.73</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -141,9 +159,6 @@
     <t>1.47</t>
   </si>
   <si>
-    <t>1.52</t>
-  </si>
-  <si>
     <t>1.57</t>
   </si>
   <si>
@@ -156,19 +171,31 @@
     <t>83</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>灵岩环道</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>1.52.73</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>里约滑坡</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.13.11</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
   <si>
     <t>20</t>
@@ -183,31 +210,16 @@
     <t>1.59.41</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>里约滑坡</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.13.11</t>
-  </si>
-  <si>
-    <t>86</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.48.41</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>35</t>
@@ -222,9 +234,6 @@
     <t>1.51.70</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -270,13 +279,82 @@
     <t>80</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.48.41</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.20.82</t>
+  </si>
+  <si>
+    <t>三线以上</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.55.79</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.05.41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.10.73</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.11.87</t>
   </si>
   <si>
     <t>45</t>
@@ -300,82 +378,16 @@
     <t>1.16.48</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.10.73</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.11.87</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.20.82</t>
-  </si>
-  <si>
-    <t>三线以上</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.05.41</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.55.79</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.31</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>53</t>
@@ -399,18 +411,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.31</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -474,21 +474,21 @@
     <t>2.31.94</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
     <t>1.46</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -555,43 +555,46 @@
     <t>2.02.43</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.35</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.42</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
     <t>2.21</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.35</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.42</t>
+    <t>2.14</t>
   </si>
   <si>
     <t>43</t>
@@ -609,7 +612,37 @@
     <t>2.11</t>
   </si>
   <si>
-    <t>2.14</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.75</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.01.55</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.11.49</t>
   </si>
   <si>
     <t>1.30</t>
@@ -618,39 +651,6 @@
     <t>1.27</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.11.49</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.01.55</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.75</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -786,15 +786,51 @@
     <t>62</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>龙之都市</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.31.54</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>东方明珠之夜</t>
+  </si>
+  <si>
+    <t>1.34.30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>龙之宫殿</t>
+  </si>
+  <si>
+    <t>1.29.23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之西湖</t>
+  </si>
+  <si>
+    <t>1.59.82</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>巴黎风情</t>
   </si>
   <si>
-    <t>1.26</t>
-  </si>
-  <si>
     <t>1.34.21</t>
   </si>
   <si>
@@ -807,33 +843,6 @@
     <t>1.54.46</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>龙之宫殿</t>
-  </si>
-  <si>
-    <t>1.29.23</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>东方明珠之夜</t>
-  </si>
-  <si>
-    <t>1.34.30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>龙之都市</t>
-  </si>
-  <si>
-    <t>1.31.54</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -879,6 +888,33 @@
     <t>1.51.43</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>城镇极限竞技场</t>
+  </si>
+  <si>
+    <t>1.52.41</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>巴黎铁塔</t>
+  </si>
+  <si>
+    <t>2.07.73</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>意大利比萨斜塔</t>
+  </si>
+  <si>
+    <t>1.09.16</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
@@ -888,40 +924,13 @@
     <t>-86</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>巴黎铁塔</t>
-  </si>
-  <si>
-    <t>2.07.73</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>城镇极限竞技场</t>
-  </si>
-  <si>
-    <t>1.52.41</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之西湖</t>
-  </si>
-  <si>
-    <t>1.59.82</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>意大利比萨斜塔</t>
-  </si>
-  <si>
-    <t>1.09.16</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>街头狂飙</t>
+  </si>
+  <si>
+    <t>2.18.73</t>
   </si>
   <si>
     <t>58</t>
@@ -931,15 +940,6 @@
   </si>
   <si>
     <t>2.21.68</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>街头狂飙</t>
-  </si>
-  <si>
-    <t>2.18.73</t>
   </si>
 </sst>
 </file>
@@ -1961,13 +1961,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1979,13 +1979,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2069,13 +2069,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2087,13 +2087,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2105,13 +2105,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2123,13 +2123,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2159,13 +2159,13 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2195,13 +2195,13 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2219,7 +2219,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2237,7 +2237,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2366,7 +2366,7 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2402,7 +2402,7 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2456,7 +2456,7 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2474,7 +2474,7 @@
     <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2546,7 +2546,7 @@
     <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2600,7 +2600,7 @@
     <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2630,13 +2630,13 @@
     <xf numFmtId="0" fontId="43" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2684,13 +2684,13 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2702,13 +2702,13 @@
     <xf numFmtId="0" fontId="47" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2720,13 +2720,13 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2762,7 +2762,7 @@
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2774,13 +2774,13 @@
     <xf numFmtId="0" fontId="51" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2798,7 +2798,7 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2816,7 +2816,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2846,13 +2846,13 @@
     <xf numFmtId="0" fontId="55" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3413,7 +3413,7 @@
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3431,7 +3431,7 @@
     <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="88" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3758,7 +3758,7 @@
     <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="107" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3776,7 +3776,7 @@
     <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4130,13 +4130,13 @@
     <xf numFmtId="0" fontId="128" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4154,7 +4154,7 @@
     <xf numFmtId="0" fontId="129" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="129" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="129" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4166,13 +4166,13 @@
     <xf numFmtId="0" fontId="130" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="130" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="130" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4190,7 +4190,7 @@
     <xf numFmtId="0" fontId="131" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="131" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="131" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4346,13 +4346,13 @@
     <xf numFmtId="0" fontId="141" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="141" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="141" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4370,7 +4370,7 @@
     <xf numFmtId="0" fontId="142" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="142" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4388,7 +4388,7 @@
     <xf numFmtId="0" fontId="143" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="143" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="143" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4400,13 +4400,13 @@
     <xf numFmtId="0" fontId="144" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="144" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="144" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4418,13 +4418,13 @@
     <xf numFmtId="0" fontId="145" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="145" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="145" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4436,10 +4436,13 @@
     <xf numFmtId="0" fontId="146" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="146" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="146" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="146" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4520,13 +4523,13 @@
     <xf numFmtId="0" fontId="151" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="151" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="151" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4538,13 +4541,13 @@
     <xf numFmtId="0" fontId="152" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="152" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="152" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4556,13 +4559,13 @@
     <xf numFmtId="0" fontId="153" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="153" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="153" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4607,13 +4610,10 @@
     <xf numFmtId="0" fontId="156" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="156" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="156" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4625,13 +4625,13 @@
     <xf numFmtId="0" fontId="157" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="157" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="157" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4643,13 +4643,13 @@
     <xf numFmtId="0" fontId="158" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="158" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="158" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="158" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="158" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4661,13 +4661,13 @@
     <xf numFmtId="0" fontId="159" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="159" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="159" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="159" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="159" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4679,13 +4679,13 @@
     <xf numFmtId="0" fontId="160" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="160" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="160" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4697,13 +4697,13 @@
     <xf numFmtId="0" fontId="161" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="161" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="161" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="161" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="161" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4721,7 +4721,7 @@
     <xf numFmtId="0" fontId="162" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="162" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4733,13 +4733,13 @@
     <xf numFmtId="0" fontId="163" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="163" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="163" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="163" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="163" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4751,13 +4751,13 @@
     <xf numFmtId="0" fontId="164" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="164" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="164" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4769,10 +4769,13 @@
     <xf numFmtId="0" fontId="165" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="165" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="165" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="165" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="165" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4784,13 +4787,10 @@
     <xf numFmtId="0" fontId="166" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="166" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="166" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="166" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4802,10 +4802,13 @@
     <xf numFmtId="0" fontId="167" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="167" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="167" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="167" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="167" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4847,13 +4850,10 @@
     <xf numFmtId="0" fontId="170" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="170" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="170" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="170" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4865,10 +4865,13 @@
     <xf numFmtId="0" fontId="171" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="171" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="171" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="171" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4880,13 +4883,13 @@
     <xf numFmtId="0" fontId="172" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="172" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="172" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="172" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="172" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4898,10 +4901,13 @@
     <xf numFmtId="0" fontId="173" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="173" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="173" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="173" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="173" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4913,13 +4919,10 @@
     <xf numFmtId="0" fontId="174" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="174" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="174" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="174" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4955,7 +4958,7 @@
     <xf numFmtId="0" fontId="176" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="176" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4967,13 +4970,10 @@
     <xf numFmtId="0" fontId="177" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="177" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="177" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="177" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5039,13 +5039,10 @@
     <xf numFmtId="0" fontId="181" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="181" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="181" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5057,10 +5054,13 @@
     <xf numFmtId="0" fontId="182" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="182" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="182" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="182" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="182" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5072,13 +5072,13 @@
     <xf numFmtId="0" fontId="183" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="183" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="183" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="183" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="183" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5090,13 +5090,13 @@
     <xf numFmtId="0" fontId="184" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="184" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="184" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5126,13 +5126,13 @@
     <xf numFmtId="0" fontId="186" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="186" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="186" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5144,10 +5144,13 @@
     <xf numFmtId="0" fontId="187" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="187" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="187" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="187" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="187" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5159,13 +5162,10 @@
     <xf numFmtId="0" fontId="188" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="188" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="188" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="188" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5177,13 +5177,13 @@
     <xf numFmtId="0" fontId="189" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="189" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="189" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="189" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="189" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5195,13 +5195,10 @@
     <xf numFmtId="0" fontId="190" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="190" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="190" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="190" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5213,10 +5210,13 @@
     <xf numFmtId="0" fontId="191" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="191" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="191" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="191" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5264,13 +5264,10 @@
     <xf numFmtId="0" fontId="194" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="194" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="194" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="194" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5312,10 +5309,13 @@
     <xf numFmtId="0" fontId="197" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="197" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="197" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="197" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="197" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5477,58 +5477,58 @@
       <c r="C5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="D6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="G6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="H6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="I6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -5539,60 +5539,60 @@
         <v>52</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -5603,124 +5603,124 @@
         <v>65</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="E9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="C10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>73</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="F11" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="H11" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>81</v>
-      </c>
       <c r="I11" s="60" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="I12" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="65" t="s">
+      <c r="J12" s="67" t="s">
         <v>86</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5731,60 +5731,60 @@
         <v>88</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="70" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="I13" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="72" t="s">
-        <v>82</v>
-      </c>
       <c r="J13" s="73" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H14" s="77" t="s">
         <v>98</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -5795,124 +5795,124 @@
         <v>100</v>
       </c>
       <c r="C15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="82" t="s">
+      <c r="H15" s="83" t="s">
         <v>102</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>105</v>
       </c>
       <c r="I15" s="84" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>101</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H16" s="89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="92" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E17" s="94" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I17" s="96" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="97" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="F18" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="G18" s="98" t="s">
         <v>118</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="101" t="s">
         <v>119</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J18" s="103" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -5923,57 +5923,57 @@
         <v>121</v>
       </c>
       <c r="C19" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="104" t="s">
+      <c r="I19" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="109" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="109" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="F20" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="110" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="113" t="s">
         <v>129</v>
       </c>
       <c r="I20" s="114" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J20" s="115" t="s">
         <v>130</v>
@@ -5987,13 +5987,13 @@
         <v>132</v>
       </c>
       <c r="C21" s="116" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="116" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="118" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F21" s="116" t="s">
         <v>134</v>
@@ -6005,10 +6005,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6079,19 +6079,19 @@
         <v>138</v>
       </c>
       <c r="F2" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="123" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="123" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="127" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -6114,16 +6114,16 @@
         <v>138</v>
       </c>
       <c r="G3" s="129" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -6140,13 +6140,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4" s="135" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="138" t="s">
         <v>27</v>
@@ -6166,28 +6166,28 @@
         <v>31</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="141" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="141" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H5" s="144" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="145" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="146" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -6201,7 +6201,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="147" t="s">
         <v>148</v>
@@ -6216,56 +6216,56 @@
         <v>151</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J6" s="152" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="153" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B7" s="154" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D7" s="153" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="155" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="E7" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="153" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="153" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H7" s="156" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="I7" s="157" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="159" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E8" s="161" t="s">
         <v>16</v>
@@ -6274,10 +6274,10 @@
         <v>23</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I8" s="163" t="s">
         <v>18</v>
@@ -6288,34 +6288,34 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="165" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="B9" s="166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="165" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="165" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="167" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="165" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H9" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="170" t="s">
         <v>156</v>
-      </c>
-      <c r="I9" s="169" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="170" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -6338,7 +6338,7 @@
         <v>137</v>
       </c>
       <c r="G10" s="171" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10" s="174" t="s">
         <v>161</v>
@@ -6347,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="176" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -6364,7 +6364,7 @@
         <v>164</v>
       </c>
       <c r="E11" s="177" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F11" s="179" t="s">
         <v>134</v>
@@ -6376,7 +6376,7 @@
         <v>166</v>
       </c>
       <c r="I11" s="181" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J11" s="182" t="s">
         <v>167</v>
@@ -6390,60 +6390,60 @@
         <v>52</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="183" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="185" t="s">
-        <v>168</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="185" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="183" t="s">
+        <v>116</v>
       </c>
       <c r="G12" s="183" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="H12" s="186" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I12" s="187" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J12" s="188" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="189" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" s="190" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="189" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D13" s="189" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="191" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="189" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="E13" s="189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="191" t="s">
+        <v>168</v>
       </c>
       <c r="G13" s="189" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="H13" s="192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J13" s="194" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -6504,202 +6504,202 @@
         <v>178</v>
       </c>
       <c r="I15" s="205" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J15" s="206" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="207" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B16" s="208" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C16" s="207" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D16" s="207" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E16" s="207" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F16" s="209" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="G16" s="207" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="H16" s="210" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="I16" s="211" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J16" s="212" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="213" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B17" s="214" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C17" s="213" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="215" t="s">
-        <v>25</v>
+        <v>185</v>
+      </c>
+      <c r="D17" s="215" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="213" t="s">
+        <v>187</v>
       </c>
       <c r="F17" s="213" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="G17" s="213" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H17" s="216" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="I17" s="217" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J17" s="218" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="219" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B18" s="220" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C18" s="219" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D18" s="219" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E18" s="221" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F18" s="219" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="G18" s="219" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="H18" s="222" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I18" s="223" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J18" s="224" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="225" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="B19" s="226" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C19" s="225" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D19" s="225" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E19" s="225" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F19" s="227" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="G19" s="225" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="H19" s="228" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="I19" s="229" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J19" s="230" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="231" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="B20" s="232" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="C20" s="231" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="233" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="231" t="s">
-        <v>189</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="233" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="231" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="G20" s="231" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H20" s="234" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="I20" s="235" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J20" s="236" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="237" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="238" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="237" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="239" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="237" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="237" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="238" t="s">
+      <c r="I21" s="241" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="237" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="237" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="239" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="237" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="237" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="240" t="s">
+      <c r="J21" s="242" t="s">
         <v>86</v>
-      </c>
-      <c r="I21" s="241" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="242" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -6710,412 +6710,412 @@
         <v>88</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D22" s="243" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="243" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="245" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="E22" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="243" t="s">
+        <v>80</v>
       </c>
       <c r="G22" s="243" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H22" s="246" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="247" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="J22" s="248" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="249" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D23" s="249" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E23" s="249" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F23" s="251" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="G23" s="249" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H23" s="252" t="s">
         <v>98</v>
       </c>
       <c r="I23" s="253" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J23" s="254" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="255" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C24" s="255" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D24" s="255" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E24" s="255" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="G24" s="255" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H24" s="258" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="I24" s="259" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J24" s="260" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="261" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C25" s="261" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="261" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="263" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="261" t="s">
-        <v>36</v>
+      <c r="E25" s="261" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="263" t="s">
+        <v>109</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="H25" s="264" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="265" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J25" s="266" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="267" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B26" s="268" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="C26" s="267" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="D26" s="267" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="269" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="267" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="267" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="269" t="s">
+        <v>195</v>
       </c>
       <c r="G26" s="267" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H26" s="270" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="I26" s="271" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J26" s="272" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="273" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B27" s="274" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C27" s="273" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D27" s="273" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="273" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="275" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="E27" s="275" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="273" t="s">
+        <v>36</v>
       </c>
       <c r="G27" s="273" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="H27" s="276" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I27" s="277" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="J27" s="278" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="279" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="280" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" s="279" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D28" s="279" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="E28" s="279" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F28" s="281" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G28" s="279" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="H28" s="282" t="s">
         <v>119</v>
       </c>
       <c r="I28" s="283" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J28" s="284" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="285" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B29" s="286" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C29" s="285" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D29" s="285" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E29" s="285" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="287" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="285" t="s">
-        <v>198</v>
+        <v>172</v>
+      </c>
+      <c r="F29" s="285" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="287" t="s">
+        <v>46</v>
       </c>
       <c r="H29" s="288" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="I29" s="289" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="J29" s="290" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="291" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="B30" s="292" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="C30" s="291" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="291" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="293" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="291" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="291" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="293" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="291" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H30" s="294" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="I30" s="295" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J30" s="296" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="297" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B31" s="298" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C31" s="297" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D31" s="297" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="299" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="297" t="s">
-        <v>199</v>
+        <v>25</v>
+      </c>
+      <c r="E31" s="297" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="299" t="s">
+        <v>197</v>
       </c>
       <c r="G31" s="297" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="H31" s="300" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="I31" s="301" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="J31" s="302" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="303" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="C32" s="303" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D32" s="303" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="303" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="305" t="s">
-        <v>196</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="305" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="303" t="s">
+        <v>26</v>
       </c>
       <c r="G32" s="303" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H32" s="306" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="I32" s="307" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="J32" s="308" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="309" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B33" s="310" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C33" s="309" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D33" s="309" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E33" s="309" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="F33" s="311" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="G33" s="309" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="H33" s="312" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="I33" s="313" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J33" s="314" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="315" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="B34" s="316" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="C34" s="315" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="D34" s="315" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="315" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="E34" s="317" t="s">
+        <v>117</v>
       </c>
       <c r="F34" s="315" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="317" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="G34" s="315" t="s">
+        <v>165</v>
       </c>
       <c r="H34" s="318" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="I34" s="319" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="J34" s="320" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -7135,7 +7135,7 @@
         <v>137</v>
       </c>
       <c r="F35" s="321" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G35" s="323" t="s">
         <v>41</v>
@@ -7144,10 +7144,10 @@
         <v>214</v>
       </c>
       <c r="I35" s="325" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J35" s="326" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
@@ -7158,13 +7158,13 @@
         <v>216</v>
       </c>
       <c r="C36" s="327" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D36" s="327" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="327" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F36" s="329" t="s">
         <v>168</v>
@@ -7250,19 +7250,19 @@
         <v>138</v>
       </c>
       <c r="F2" s="334" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="334" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="334" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="337" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="338" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J2" s="339" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -7285,16 +7285,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="340" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H3" s="343" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="344" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J3" s="345" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -7311,13 +7311,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="348" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" s="346" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4" s="346" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="349" t="s">
         <v>27</v>
@@ -7349,16 +7349,16 @@
         <v>218</v>
       </c>
       <c r="G5" s="352" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H5" s="355" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="356" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J5" s="357" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -7369,7 +7369,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="358" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D6" s="358" t="s">
         <v>219</v>
@@ -7387,7 +7387,7 @@
         <v>151</v>
       </c>
       <c r="I6" s="362" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J6" s="363" t="s">
         <v>167</v>
@@ -7395,16 +7395,16 @@
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="364" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="365" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="364" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="364" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>16</v>
@@ -7413,30 +7413,30 @@
         <v>23</v>
       </c>
       <c r="G7" s="364" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7" s="367" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="368" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="369" t="s">
         <v>156</v>
-      </c>
-      <c r="I7" s="368" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="369" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="370" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="371" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="370" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="370" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E8" s="372" t="s">
         <v>41</v>
@@ -7448,45 +7448,45 @@
         <v>24</v>
       </c>
       <c r="H8" s="373" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I8" s="374" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="375" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="376" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="377" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="376" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D9" s="376" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" s="376" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9" s="378" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="376" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H9" s="379" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I9" s="380" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J9" s="381" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -7518,7 +7518,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="387" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -7529,16 +7529,16 @@
         <v>163</v>
       </c>
       <c r="C11" s="388" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D11" s="388" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="388" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="390" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G11" s="388" t="s">
         <v>223</v>
@@ -7555,42 +7555,42 @@
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="394" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="395" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="394" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="394" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="396" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="394" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="395" t="s">
+      <c r="G12" s="394" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="394" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="394" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="396" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="394" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="394" t="s">
-        <v>60</v>
-      </c>
       <c r="H12" s="397" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="398" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J12" s="399" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="400" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B13" s="401" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C13" s="400" t="s">
         <v>16</v>
@@ -7608,13 +7608,13 @@
         <v>32</v>
       </c>
       <c r="H13" s="403" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I13" s="404" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J13" s="405" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -7660,22 +7660,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" s="414" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="412" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H15" s="415" t="s">
         <v>178</v>
       </c>
       <c r="I15" s="416" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J15" s="417" t="s">
         <v>167</v>
@@ -7683,28 +7683,28 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="418" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" s="419" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="418" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="418" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E16" s="418" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F16" s="420" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G16" s="418" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H16" s="421" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I16" s="422" t="s">
         <v>174</v>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="424" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="425" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="424" t="s">
         <v>224</v>
@@ -7727,16 +7727,16 @@
         <v>225</v>
       </c>
       <c r="E17" s="426" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F17" s="424" t="s">
         <v>226</v>
       </c>
       <c r="G17" s="424" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H17" s="427" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I17" s="428" t="s">
         <v>18</v>
@@ -7753,36 +7753,36 @@
         <v>228</v>
       </c>
       <c r="C18" s="430" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="430" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E18" s="432" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F18" s="430" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G18" s="430" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H18" s="433" t="s">
         <v>229</v>
       </c>
       <c r="I18" s="434" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J18" s="435" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="436" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B19" s="437" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C19" s="436" t="s">
         <v>12</v>
@@ -7791,7 +7791,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="436" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F19" s="438" t="s">
         <v>15</v>
@@ -7800,10 +7800,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="439" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I19" s="440" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J19" s="441" t="s">
         <v>167</v>
@@ -7811,19 +7811,19 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="442" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B20" s="443" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="442" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E20" s="442" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F20" s="444" t="s">
         <v>41</v>
@@ -7832,10 +7832,10 @@
         <v>23</v>
       </c>
       <c r="H20" s="445" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I20" s="446" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J20" s="447" t="s">
         <v>230</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="448" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B21" s="449" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="448" t="s">
         <v>23</v>
@@ -7864,27 +7864,27 @@
         <v>34</v>
       </c>
       <c r="H21" s="451" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" s="452" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J21" s="453" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="454" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22" s="455" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="454" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D22" s="454" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22" s="454" t="s">
         <v>147</v>
@@ -7893,13 +7893,13 @@
         <v>220</v>
       </c>
       <c r="G22" s="454" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H22" s="457" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I22" s="458" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J22" s="459" t="s">
         <v>167</v>
@@ -7907,48 +7907,48 @@
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="460" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B23" s="461" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C23" s="460" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D23" s="460" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E23" s="460" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F23" s="462" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" s="460" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" s="463" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I23" s="464" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J23" s="465" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="466" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B24" s="467" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C24" s="466" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="466" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E24" s="466" t="s">
         <v>16</v>
@@ -7957,13 +7957,13 @@
         <v>23</v>
       </c>
       <c r="G24" s="466" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H24" s="469" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I24" s="470" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J24" s="471" t="s">
         <v>167</v>
@@ -7971,16 +7971,16 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="472" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B25" s="473" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C25" s="472" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D25" s="472" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E25" s="472" t="s">
         <v>32</v>
@@ -7989,42 +7989,42 @@
         <v>34</v>
       </c>
       <c r="G25" s="472" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="475" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="475" t="s">
-        <v>115</v>
-      </c>
       <c r="I25" s="476" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J25" s="477" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="478" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B26" s="479" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C26" s="478" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D26" s="478" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" s="478" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F26" s="480" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="478" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H26" s="481" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I26" s="482" t="s">
         <v>174</v>
@@ -8035,31 +8035,31 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="484" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="485" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="484" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" s="484" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" s="484" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F27" s="486" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G27" s="484" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H27" s="487" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I27" s="488" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J27" s="489" t="s">
         <v>167</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="490" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B28" s="491" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C28" s="490" t="s">
         <v>25</v>
@@ -8082,16 +8082,16 @@
         <v>34</v>
       </c>
       <c r="F28" s="492" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G28" s="490" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H28" s="493" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I28" s="494" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J28" s="495" t="s">
         <v>231</v>
@@ -8099,141 +8099,141 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="496" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B29" s="497" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C29" s="496" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="496" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E29" s="496" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="498" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G29" s="496" t="s">
         <v>164</v>
       </c>
       <c r="H29" s="499" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="500" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="500" t="s">
-        <v>111</v>
-      </c>
       <c r="J29" s="501" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="502" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B30" s="503" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C30" s="502" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="D30" s="502" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="E30" s="502" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="504" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="502" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="F30" s="502" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="504" t="s">
+        <v>70</v>
       </c>
       <c r="H30" s="505" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I30" s="506" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="J30" s="507" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="508" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B31" s="509" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C31" s="508" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="D31" s="508" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E31" s="508" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="508" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="510" t="s">
-        <v>66</v>
+        <v>137</v>
+      </c>
+      <c r="F31" s="510" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="508" t="s">
+        <v>15</v>
       </c>
       <c r="H31" s="511" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="I31" s="512" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="J31" s="513" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="514" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B32" s="515" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C32" s="514" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D32" s="514" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E32" s="514" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="F32" s="516" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G32" s="514" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H32" s="517" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="I32" s="518" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J32" s="519" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="520" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B33" s="521" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C33" s="520" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D33" s="520" t="s">
         <v>25</v>
@@ -8242,13 +8242,13 @@
         <v>33</v>
       </c>
       <c r="F33" s="522" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G33" s="520" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H33" s="523" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I33" s="524" t="s">
         <v>174</v>
@@ -8259,10 +8259,10 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="526" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B34" s="527" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C34" s="526" t="s">
         <v>16</v>
@@ -8271,7 +8271,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="526" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F34" s="528" t="s">
         <v>32</v>
@@ -8280,42 +8280,42 @@
         <v>218</v>
       </c>
       <c r="H34" s="529" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I34" s="530" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J34" s="531" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="532" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B35" s="533" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C35" s="532" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D35" s="532" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E35" s="532" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F35" s="534" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G35" s="532" t="s">
         <v>134</v>
       </c>
       <c r="H35" s="535" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I35" s="536" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J35" s="537" t="s">
         <v>230</v>
@@ -8329,7 +8329,7 @@
         <v>132</v>
       </c>
       <c r="C36" s="538" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D36" s="538" t="s">
         <v>133</v>
@@ -8338,19 +8338,19 @@
         <v>164</v>
       </c>
       <c r="F36" s="540" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="G36" s="538" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H36" s="541" t="s">
         <v>136</v>
       </c>
       <c r="I36" s="542" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J36" s="543" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -8370,7 +8370,7 @@
         <v>137</v>
       </c>
       <c r="F37" s="544" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G37" s="546" t="s">
         <v>41</v>
@@ -8379,10 +8379,10 @@
         <v>214</v>
       </c>
       <c r="I37" s="548" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J37" s="549" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
@@ -8393,7 +8393,7 @@
         <v>216</v>
       </c>
       <c r="C38" s="550" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D38" s="550" t="s">
         <v>16</v>
@@ -8402,7 +8402,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="550" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G38" s="552" t="s">
         <v>26</v>
@@ -8411,7 +8411,7 @@
         <v>217</v>
       </c>
       <c r="I38" s="554" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J38" s="555" t="s">
         <v>236</v>
@@ -8425,16 +8425,16 @@
         <v>238</v>
       </c>
       <c r="C39" s="556" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D39" s="556" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E39" s="556" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F39" s="556" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G39" s="558" t="s">
         <v>219</v>
@@ -8443,10 +8443,10 @@
         <v>239</v>
       </c>
       <c r="I39" s="560" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J39" s="561" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8517,19 +8517,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="565" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G2" s="563" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H2" s="566" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="567" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J2" s="568" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -8558,7 +8558,7 @@
         <v>143</v>
       </c>
       <c r="I3" s="573" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J3" s="574" t="s">
         <v>167</v>
@@ -8578,13 +8578,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="577" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" s="575" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4" s="575" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="578" t="s">
         <v>27</v>
@@ -8616,16 +8616,16 @@
         <v>218</v>
       </c>
       <c r="G5" s="581" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H5" s="584" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="585" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J5" s="586" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -8636,7 +8636,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="587" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D6" s="587" t="s">
         <v>219</v>
@@ -8654,7 +8654,7 @@
         <v>151</v>
       </c>
       <c r="I6" s="591" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J6" s="592" t="s">
         <v>167</v>
@@ -8662,16 +8662,16 @@
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="593" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="594" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="593" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="593" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" s="593" t="s">
         <v>41</v>
@@ -8680,13 +8680,13 @@
         <v>22</v>
       </c>
       <c r="G7" s="593" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H7" s="596" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="597" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J7" s="598" t="s">
         <v>167</v>
@@ -8703,16 +8703,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="599" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E8" s="599" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="601" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" s="599" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H8" s="602" t="s">
         <v>242</v>
@@ -8726,48 +8726,48 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="605" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9" s="606" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C9" s="605" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="605" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="605" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F9" s="607" t="s">
         <v>144</v>
       </c>
       <c r="G9" s="605" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H9" s="608" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I9" s="609" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J9" s="610" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="611" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" s="612" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C10" s="611" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="611" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" s="611" t="s">
         <v>15</v>
@@ -8779,10 +8779,10 @@
         <v>23</v>
       </c>
       <c r="H10" s="614" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I10" s="615" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J10" s="616" t="s">
         <v>167</v>
@@ -8790,106 +8790,106 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="617" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B11" s="618" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" s="617" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="D11" s="617" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="617" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="619" t="s">
-        <v>199</v>
+        <v>135</v>
+      </c>
+      <c r="E11" s="619" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="617" t="s">
+        <v>142</v>
       </c>
       <c r="G11" s="617" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="H11" s="620" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I11" s="621" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="J11" s="622" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="623" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B12" s="624" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C12" s="623" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="623" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="623" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="625" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="623" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="623" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="625" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="623" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="623" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" s="626" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I12" s="627" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="J12" s="628" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="629" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="630" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="629" t="s">
         <v>226</v>
       </c>
       <c r="D13" s="629" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="629" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="631" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="629" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="632" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="631" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="629" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="632" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" s="633" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J13" s="634" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="635" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B14" s="636" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C14" s="635" t="s">
         <v>41</v>
@@ -8898,19 +8898,19 @@
         <v>144</v>
       </c>
       <c r="E14" s="635" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="637" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G14" s="635" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" s="638" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I14" s="639" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J14" s="640" t="s">
         <v>167</v>
@@ -8962,7 +8962,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="647" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F16" s="649" t="s">
         <v>25</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="653" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" s="654" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" s="653" t="s">
         <v>32</v>
@@ -9000,24 +9000,24 @@
         <v>35</v>
       </c>
       <c r="G17" s="655" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H17" s="656" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I17" s="657" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J17" s="658" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="659" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="660" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="659" t="s">
         <v>243</v>
@@ -9026,16 +9026,16 @@
         <v>224</v>
       </c>
       <c r="E18" s="659" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" s="661" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G18" s="659" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H18" s="662" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I18" s="663" t="s">
         <v>174</v>
@@ -9058,22 +9058,22 @@
         <v>34</v>
       </c>
       <c r="E19" s="665" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19" s="667" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G19" s="665" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H19" s="668" t="s">
         <v>246</v>
       </c>
       <c r="I19" s="669" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J19" s="670" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -9084,16 +9084,16 @@
         <v>228</v>
       </c>
       <c r="C20" s="671" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" s="671" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" s="671" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F20" s="673" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G20" s="671" t="s">
         <v>133</v>
@@ -9102,18 +9102,18 @@
         <v>229</v>
       </c>
       <c r="I20" s="675" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J20" s="676" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="677" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B21" s="678" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C21" s="677" t="s">
         <v>172</v>
@@ -9125,13 +9125,13 @@
         <v>14</v>
       </c>
       <c r="F21" s="679" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G21" s="677" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="680" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I21" s="681" t="s">
         <v>174</v>
@@ -9142,10 +9142,10 @@
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="683" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B22" s="684" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C22" s="683" t="s">
         <v>13</v>
@@ -9154,16 +9154,16 @@
         <v>14</v>
       </c>
       <c r="E22" s="683" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F22" s="685" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G22" s="683" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="686" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I22" s="687" t="s">
         <v>174</v>
@@ -9174,10 +9174,10 @@
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="689" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" s="690" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" s="689" t="s">
         <v>144</v>
@@ -9186,7 +9186,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="689" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F23" s="691" t="s">
         <v>25</v>
@@ -9195,7 +9195,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="692" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" s="693" t="s">
         <v>174</v>
@@ -9206,19 +9206,19 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="695" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B24" s="696" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" s="695" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D24" s="695" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E24" s="695" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" s="695" t="s">
         <v>219</v>
@@ -9227,10 +9227,10 @@
         <v>148</v>
       </c>
       <c r="H24" s="698" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I24" s="699" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J24" s="700" t="s">
         <v>247</v>
@@ -9238,28 +9238,28 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="701" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B25" s="702" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C25" s="701" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="701" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E25" s="701" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F25" s="703" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G25" s="701" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H25" s="704" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I25" s="705" t="s">
         <v>174</v>
@@ -9270,16 +9270,16 @@
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="707" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B26" s="708" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C26" s="707" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D26" s="707" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E26" s="707" t="s">
         <v>41</v>
@@ -9291,7 +9291,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="710" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I26" s="711" t="s">
         <v>174</v>
@@ -9302,10 +9302,10 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="713" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B27" s="714" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C27" s="713" t="s">
         <v>23</v>
@@ -9320,13 +9320,13 @@
         <v>32</v>
       </c>
       <c r="G27" s="715" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H27" s="716" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I27" s="717" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J27" s="718" t="s">
         <v>247</v>
@@ -9334,13 +9334,13 @@
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="719" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B28" s="720" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C28" s="719" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D28" s="719" t="s">
         <v>168</v>
@@ -9349,13 +9349,13 @@
         <v>32</v>
       </c>
       <c r="F28" s="719" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G28" s="721" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H28" s="722" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I28" s="723" t="s">
         <v>248</v>
@@ -9366,28 +9366,28 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="725" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="726" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C29" s="725" t="s">
         <v>226</v>
       </c>
       <c r="D29" s="725" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="725" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F29" s="727" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" s="725" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H29" s="728" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="729" t="s">
         <v>174</v>
@@ -9398,10 +9398,10 @@
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="731" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B30" s="732" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C30" s="731" t="s">
         <v>25</v>
@@ -9410,19 +9410,19 @@
         <v>26</v>
       </c>
       <c r="E30" s="731" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F30" s="731" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G30" s="733" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="734" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I30" s="735" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J30" s="736" t="s">
         <v>236</v>
@@ -9430,31 +9430,31 @@
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="737" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B31" s="738" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C31" s="737" t="s">
         <v>226</v>
       </c>
       <c r="D31" s="737" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E31" s="737" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F31" s="737" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G31" s="739" t="s">
         <v>133</v>
       </c>
       <c r="H31" s="740" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="I31" s="741" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J31" s="742" t="s">
         <v>236</v>
@@ -9462,138 +9462,138 @@
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="743" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="B32" s="744" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="C32" s="743" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D32" s="743" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="745" t="s">
-        <v>12</v>
+        <v>141</v>
+      </c>
+      <c r="E32" s="743" t="s">
+        <v>172</v>
       </c>
       <c r="F32" s="743" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="743" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="G32" s="745" t="s">
+        <v>70</v>
       </c>
       <c r="H32" s="746" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="I32" s="747" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="J32" s="748" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="749" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B33" s="750" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C33" s="749" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="D33" s="749" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E33" s="749" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="749" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="751" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="F33" s="751" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="749" t="s">
+        <v>70</v>
       </c>
       <c r="H33" s="752" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="I33" s="753" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="J33" s="754" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="755" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="B34" s="756" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="C34" s="755" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D34" s="755" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="755" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="E34" s="757" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="755" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="757" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="G34" s="755" t="s">
+        <v>70</v>
       </c>
       <c r="H34" s="758" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="I34" s="759" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="J34" s="760" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="761" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B35" s="762" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C35" s="761" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="D35" s="761" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E35" s="761" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="763" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="761" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="F35" s="761" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="763" t="s">
+        <v>32</v>
       </c>
       <c r="H35" s="764" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="I35" s="765" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="J35" s="766" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="767" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B36" s="768" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C36" s="767" t="s">
         <v>24</v>
@@ -9605,16 +9605,16 @@
         <v>32</v>
       </c>
       <c r="F36" s="767" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G36" s="769" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H36" s="770" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I36" s="771" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J36" s="772" t="s">
         <v>253</v>
@@ -9622,10 +9622,10 @@
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="773" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B37" s="774" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C37" s="773" t="s">
         <v>41</v>
@@ -9643,7 +9643,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="776" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I37" s="777" t="s">
         <v>174</v>
@@ -9654,19 +9654,19 @@
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="779" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B38" s="780" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C38" s="779" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D38" s="779" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E38" s="779" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" s="779" t="s">
         <v>133</v>
@@ -9675,13 +9675,13 @@
         <v>171</v>
       </c>
       <c r="H38" s="782" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I38" s="783" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J38" s="784" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
@@ -9692,10 +9692,10 @@
         <v>132</v>
       </c>
       <c r="C39" s="785" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D39" s="785" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E39" s="785" t="s">
         <v>133</v>
@@ -9704,13 +9704,13 @@
         <v>171</v>
       </c>
       <c r="G39" s="785" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H39" s="788" t="s">
         <v>136</v>
       </c>
       <c r="I39" s="789" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J39" s="790" t="s">
         <v>230</v>
@@ -9736,7 +9736,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="791" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H40" s="793" t="s">
         <v>214</v>
@@ -9759,7 +9759,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="796" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E41" s="796" t="s">
         <v>144</v>
@@ -9774,7 +9774,7 @@
         <v>217</v>
       </c>
       <c r="I41" s="800" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J41" s="801" t="s">
         <v>255</v>
@@ -9788,16 +9788,16 @@
         <v>238</v>
       </c>
       <c r="C42" s="802" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D42" s="802" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E42" s="802" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F42" s="802" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G42" s="804" t="s">
         <v>219</v>
@@ -9806,10 +9806,10 @@
         <v>239</v>
       </c>
       <c r="I42" s="806" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J42" s="807" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -9883,528 +9883,528 @@
         <v>14</v>
       </c>
       <c r="G2" s="809" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2" s="812" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="813" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J2" s="814" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="815" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="B3" s="816" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="C3" s="815" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="D3" s="815" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E3" s="815" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="815" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="817" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="F3" s="817" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="815" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="818" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="I3" s="819" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J3" s="820" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="821" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="B4" s="822" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C4" s="821" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D4" s="821" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="821" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="823" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="E4" s="823" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="821" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="821" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H4" s="824" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I4" s="825" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="J4" s="826" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
       <c r="A5" s="827" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="B5" s="828" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="C5" s="827" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D5" s="827" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="829" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="827" t="s">
-        <v>24</v>
+        <v>210</v>
+      </c>
+      <c r="E5" s="827" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="829" t="s">
+        <v>223</v>
       </c>
       <c r="G5" s="827" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="H5" s="830" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I5" s="831" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="J5" s="832" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="833" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="B6" s="834" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="C6" s="833" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D6" s="833" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E6" s="833" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="835" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="833" t="s">
-        <v>72</v>
+        <v>223</v>
+      </c>
+      <c r="F6" s="833" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="835" t="s">
+        <v>159</v>
       </c>
       <c r="H6" s="836" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="I6" s="837" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="J6" s="838" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="839" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B7" s="840" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="C7" s="839" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D7" s="839" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="E7" s="839" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="839" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="841" t="s">
-        <v>149</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="841" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="839" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="842" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I7" s="843" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J7" s="844" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="845" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="B8" s="846" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="C8" s="845" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="845" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="845" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="845" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="847" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="848" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="849" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="850" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="851" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="852" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="851" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="851" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="851" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="851" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="853" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="854" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="855" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="856" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="857" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="858" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="857" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="857" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="857" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="859" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="857" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="860" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="861" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="862" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="863" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="864" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="863" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="863" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="863" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="863" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="863" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="865" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="866" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="867" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="868" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="869" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="868" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="868" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="868" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="870" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="868" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="871" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="872" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="873" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="874" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="875" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="874" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="874" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="874" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="876" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="874" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="877" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="878" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="879" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="880" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="881" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="880" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="880" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="880" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="882" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="880" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="883" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="884" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="885" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="886" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="887" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="886" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="886" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="886" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="886" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="888" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="889" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="890" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="891" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="892" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="893" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="892" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="845" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="845" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="845" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="845" t="s">
+      <c r="D16" s="892" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="892" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="892" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="892" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="847" t="s">
-        <v>262</v>
-      </c>
-      <c r="I8" s="848" t="s">
+      <c r="H16" s="894" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="895" t="s">
         <v>254</v>
       </c>
-      <c r="J8" s="849" t="s">
+      <c r="J16" s="896" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="850" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="851" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="850" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="850" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="850" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="850" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="852" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="853" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="854" t="s">
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="897" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="898" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="897" t="s">
         <v>209</v>
       </c>
-      <c r="J9" s="855" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="856" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="857" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="856" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="856" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="856" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="858" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="856" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="859" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="860" t="s">
+      <c r="D17" s="897" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="897" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="899" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="897" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="900" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="901" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="861" t="s">
+      <c r="J17" s="902" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="862" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="863" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="862" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="862" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="862" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="862" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="862" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="864" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="865" t="s">
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" s="903" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="904" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="903" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="903" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="903" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="903" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="903" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="905" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="906" t="s">
         <v>254</v>
       </c>
-      <c r="J11" s="866" t="s">
+      <c r="J18" s="907" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="867" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="868" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="867" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="867" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="867" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="869" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="867" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="870" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="871" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="872" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="873" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="874" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="873" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="873" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="873" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="875" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="873" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="876" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="877" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="878" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="879" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="880" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="879" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="879" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="879" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="879" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="881" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="882" t="s">
-        <v>268</v>
-      </c>
-      <c r="I14" s="883" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="884" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="885" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="886" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="885" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="885" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="885" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="887" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="885" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="888" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="889" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="890" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="891" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="892" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="891" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="891" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="891" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="891" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="891" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="893" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="894" t="s">
-        <v>254</v>
-      </c>
-      <c r="J16" s="895" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="896" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="897" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="896" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="896" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="896" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="898" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="896" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="899" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" s="900" t="s">
-        <v>174</v>
-      </c>
-      <c r="J17" s="901" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" s="902" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="903" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="902" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="902" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="902" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="904" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="902" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="905" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="906" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="907" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -10415,316 +10415,316 @@
         <v>52</v>
       </c>
       <c r="C19" s="908" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="D19" s="908" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="E19" s="908" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F19" s="910" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="G19" s="908" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H19" s="911" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I19" s="912" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="J19" s="913" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="914" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="B20" s="915" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="C20" s="914" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="914" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="914" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="914" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="914" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="914" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="914" t="s">
-        <v>142</v>
-      </c>
       <c r="G20" s="916" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="H20" s="917" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="I20" s="918" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="J20" s="919" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="920" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B21" s="921" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C21" s="920" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="920" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="920" t="s">
+      <c r="E21" s="920" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="920" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="920" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="922" t="s">
-        <v>26</v>
+      <c r="F21" s="922" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="920" t="s">
+        <v>25</v>
       </c>
       <c r="H21" s="923" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="I21" s="924" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J21" s="925" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="926" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="B22" s="927" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="C22" s="926" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D22" s="926" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" s="926" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F22" s="926" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="G22" s="928" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H22" s="929" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="I22" s="930" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="J22" s="931" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="932" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B23" s="933" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C23" s="932" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="D23" s="932" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="932" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="932" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="934" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="932" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="932" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="934" t="s">
-        <v>197</v>
-      </c>
       <c r="H23" s="935" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I23" s="936" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="J23" s="937" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="938" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B24" s="939" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C24" s="938" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="D24" s="938" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="E24" s="938" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="940" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="938" t="s">
-        <v>226</v>
+        <v>34</v>
+      </c>
+      <c r="F24" s="938" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="940" t="s">
+        <v>192</v>
       </c>
       <c r="H24" s="941" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I24" s="942" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="J24" s="943" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="944" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B25" s="945" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C25" s="944" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="D25" s="944" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="E25" s="944" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="944" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="946" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="F25" s="946" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="944" t="s">
+        <v>226</v>
       </c>
       <c r="H25" s="947" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="I25" s="948" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J25" s="949" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="950" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B26" s="951" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C26" s="950" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="D26" s="950" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="E26" s="950" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="952" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="950" t="s">
-        <v>60</v>
+        <v>218</v>
+      </c>
+      <c r="F26" s="950" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="952" t="s">
+        <v>192</v>
       </c>
       <c r="H26" s="953" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="I26" s="954" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="J26" s="955" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="956" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="B27" s="957" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C27" s="956" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D27" s="956" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="E27" s="956" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="956" t="s">
-        <v>91</v>
+        <v>126</v>
+      </c>
+      <c r="F27" s="958" t="s">
+        <v>55</v>
       </c>
       <c r="G27" s="956" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="959" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="960" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="961" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="962" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="963" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="962" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="962" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="962" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="962" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="962" t="s">
         <v>258</v>
-      </c>
-      <c r="H27" s="958" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="959" t="s">
-        <v>254</v>
-      </c>
-      <c r="J27" s="960" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" s="961" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" s="962" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" s="961" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="961" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="961" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="963" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="961" t="s">
-        <v>24</v>
       </c>
       <c r="H28" s="964" t="s">
         <v>280</v>
       </c>
       <c r="I28" s="965" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="J28" s="966" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -10735,124 +10735,124 @@
         <v>282</v>
       </c>
       <c r="C29" s="967" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D29" s="967" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="967" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="969" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="967" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="970" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="971" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="972" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="973" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="974" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="973" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="973" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="967" t="s">
+      <c r="E30" s="973" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="967" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="967" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="969" t="s">
-        <v>283</v>
-      </c>
-      <c r="I29" s="970" t="s">
+      <c r="F30" s="973" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="973" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="975" t="s">
+        <v>286</v>
+      </c>
+      <c r="I30" s="976" t="s">
         <v>254</v>
       </c>
-      <c r="J29" s="971" t="s">
+      <c r="J30" s="977" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" s="972" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="973" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="972" t="s">
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="978" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="979" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="978" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="972" t="s">
+      <c r="D31" s="978" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="972" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="972" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="972" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="974" t="s">
-        <v>286</v>
-      </c>
-      <c r="I30" s="975" t="s">
+      <c r="E31" s="978" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="978" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="978" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="980" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31" s="981" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="976" t="s">
+      <c r="J31" s="982" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="977" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="978" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="977" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="977" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="977" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="977" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="977" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="979" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="980" t="s">
-        <v>254</v>
-      </c>
-      <c r="J31" s="981" t="s">
-        <v>289</v>
-      </c>
-    </row>
     <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" s="982" t="s">
+      <c r="A32" s="983" t="s">
         <v>290</v>
       </c>
-      <c r="B32" s="983" t="s">
+      <c r="B32" s="984" t="s">
         <v>291</v>
       </c>
-      <c r="C32" s="982" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="982" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="982" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="984" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="982" t="s">
-        <v>35</v>
+      <c r="C32" s="983" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="983" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="983" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="983" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="983" t="s">
+        <v>70</v>
       </c>
       <c r="H32" s="985" t="s">
         <v>292</v>
       </c>
       <c r="I32" s="986" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="J32" s="987" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
@@ -10863,249 +10863,249 @@
         <v>294</v>
       </c>
       <c r="C33" s="988" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="D33" s="988" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="988" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="990" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="988" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="991" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="992" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="993" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="994" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="995" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="994" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="994" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="994" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="996" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="994" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="997" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" s="998" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" s="999" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="1000" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1001" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1000" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1000" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1000" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1002" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1003" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="1004" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="1005" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="1006" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1007" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1006" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="988" t="s">
+      <c r="D36" s="1006" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="988" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="988" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="990" t="s">
-        <v>295</v>
-      </c>
-      <c r="I33" s="991" t="s">
+      <c r="E36" s="1006" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="1006" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1006" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1008" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="1009" t="s">
         <v>254</v>
       </c>
-      <c r="J33" s="992" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="993" t="s">
+      <c r="J36" s="1010" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="1011" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1012" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1011" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1011" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1011" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1013" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1011" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1014" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="1015" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="1016" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="1017" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1018" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1017" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1017" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="1017" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="1017" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="1019" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="1020" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="994" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="993" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="993" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="993" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="993" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="995" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="996" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="997" t="s">
+      <c r="I38" s="1021" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" s="1022" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="1023" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="1024" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="1023" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="1023" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="1023" t="s">
         <v>209</v>
       </c>
-      <c r="J34" s="998" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="999" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1000" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="999" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="999" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="999" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="999" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="999" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="1001" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="1002" t="s">
+      <c r="F39" s="1023" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="1023" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="1025" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="1026" t="s">
         <v>254</v>
       </c>
-      <c r="J35" s="1003" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="1004" t="s">
-        <v>296</v>
-      </c>
-      <c r="B36" s="1005" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="1004" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="1004" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="1004" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1006" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" s="1004" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="1007" t="s">
-        <v>298</v>
-      </c>
-      <c r="I36" s="1008" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" s="1009" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="1010" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="1011" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="1010" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" s="1010" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="1010" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="1012" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="1010" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="1013" t="s">
+      <c r="J39" s="1027" t="s">
         <v>301</v>
-      </c>
-      <c r="I37" s="1014" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="1015" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="1016" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="1017" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1016" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1016" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="1016" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="1018" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="1016" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="1019" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="1020" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" s="1021" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="1022" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="1023" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="1022" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="1022" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="1022" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="1022" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="1024" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="1025" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="1026" t="s">
-        <v>248</v>
-      </c>
-      <c r="J39" s="1027" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="1028" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1029" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1028" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="1028" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1028" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1028" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1030" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H40" s="1031" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1032" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J40" s="1033" t="s">
         <v>247</v>
@@ -11113,234 +11113,234 @@
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="1034" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1035" t="s">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1034" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1034" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1034" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F41" s="1034" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="G41" s="1036" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H41" s="1037" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="I41" s="1038" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J41" s="1039" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="1040" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1041" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1040" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1040" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1040" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="1040" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1042" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H42" s="1043" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I42" s="1044" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J42" s="1045" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" ht="20.0" customHeight="true">
       <c r="A43" s="1046" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1047" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1046" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1046" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1046" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1046" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="1048" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="1049" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1046" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="1048" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="1049" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43" s="1050" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" s="1051" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="1052" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="1051" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1051" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="1051" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="1051" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="1050" t="s">
-        <v>209</v>
-      </c>
-      <c r="J43" s="1051" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" ht="20.0" customHeight="true">
-      <c r="A44" s="1052" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="1053" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="1052" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="1052" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1052" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="1052" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="1052" t="s">
-        <v>34</v>
+      <c r="G44" s="1053" t="s">
+        <v>195</v>
       </c>
       <c r="H44" s="1054" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="I44" s="1055" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="J44" s="1056" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" ht="20.0" customHeight="true">
       <c r="A45" s="1057" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1058" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C45" s="1057" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1057" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1057" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="F45" s="1057" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1059" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H45" s="1060" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="I45" s="1061" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="J45" s="1062" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
       <c r="A46" s="1063" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1064" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1063" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="D46" s="1063" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1063" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1063" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G46" s="1065" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="H46" s="1066" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I46" s="1067" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="J46" s="1068" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="20.0" customHeight="true">
       <c r="A47" s="1069" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1070" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1069" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D47" s="1069" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E47" s="1069" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1069" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1071" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="H47" s="1072" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="I47" s="1073" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J47" s="1074" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" ht="20.0" customHeight="true">
       <c r="A48" s="1075" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B48" s="1076" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C48" s="1075" t="s">
         <v>213</v>
@@ -11355,368 +11355,368 @@
         <v>13</v>
       </c>
       <c r="G48" s="1075" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="H48" s="1078" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I48" s="1079" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="J48" s="1080" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" ht="20.0" customHeight="true">
       <c r="A49" s="1081" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="1082" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="1081" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="1081" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="1081" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="1083" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1081" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1084" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" s="1085" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="1086" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" s="1087" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="1082" t="s">
+      <c r="B50" s="1088" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="1081" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="1081" t="s">
+      <c r="C50" s="1087" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1087" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="1081" t="s">
+      <c r="E50" s="1087" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="1081" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="1081" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="1083" t="s">
+      <c r="F50" s="1087" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1087" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="1089" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="1084" t="s">
+      <c r="I50" s="1090" t="s">
         <v>254</v>
       </c>
-      <c r="J49" s="1085" t="s">
+      <c r="J50" s="1091" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="50" ht="20.0" customHeight="true">
-      <c r="A50" s="1086" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="1087" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="1086" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="1086" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="1086" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="1086" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="1088" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="1089" t="s">
-        <v>208</v>
-      </c>
-      <c r="I50" s="1090" t="s">
-        <v>209</v>
-      </c>
-      <c r="J50" s="1091" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="51" ht="20.0" customHeight="true">
       <c r="A51" s="1092" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="B51" s="1093" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="C51" s="1092" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1092" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="E51" s="1092" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="1094" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1092" t="s">
-        <v>152</v>
+        <v>109</v>
+      </c>
+      <c r="F51" s="1092" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="1094" t="s">
+        <v>181</v>
       </c>
       <c r="H51" s="1095" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="I51" s="1096" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="J51" s="1097" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" ht="20.0" customHeight="true">
       <c r="A52" s="1098" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1099" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="C52" s="1098" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1098" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1098" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="1098" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="1098" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="1098" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="1098" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" s="1100" t="s">
-        <v>183</v>
-      </c>
-      <c r="H52" s="1101" t="s">
-        <v>307</v>
-      </c>
-      <c r="I52" s="1102" t="s">
-        <v>209</v>
-      </c>
-      <c r="J52" s="1103" t="s">
-        <v>210</v>
+      <c r="H52" s="1100" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" s="1101" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="1102" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" ht="20.0" customHeight="true">
-      <c r="A53" s="1104" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="1105" t="s">
+      <c r="A53" s="1103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="1103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="1103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="1105" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="1106" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="1107" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="1104" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="1104" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="1104" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="1104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="1104" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="1106" t="s">
-        <v>202</v>
-      </c>
-      <c r="I53" s="1107" t="s">
-        <v>254</v>
-      </c>
       <c r="J53" s="1108" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" ht="20.0" customHeight="true">
       <c r="A54" s="1109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1109" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="1109" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="1109" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="1110" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="1109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="1109" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="1109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="1109" t="s">
-        <v>43</v>
-      </c>
       <c r="G54" s="1111" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="H54" s="1112" t="s">
         <v>129</v>
       </c>
       <c r="I54" s="1113" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J54" s="1114" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" ht="20.0" customHeight="true">
       <c r="A55" s="1115" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1116" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1115" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1115" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1115" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="F55" s="1115" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G55" s="1117" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="H55" s="1118" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I55" s="1119" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J55" s="1120" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" ht="20.0" customHeight="true">
       <c r="A56" s="1121" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="1122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="1121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="1121" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="1121" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="1121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="1123" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="1124" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="1125" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="1122" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="1121" t="s">
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" s="1126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="1127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="1126" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="1126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1126" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="1126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="1126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" s="1128" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="1129" t="s">
+        <v>254</v>
+      </c>
+      <c r="J57" s="1130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" s="1131" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="1132" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="1131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1131" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1131" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="1131" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="1131" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="1133" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" s="1134" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" s="1135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" s="1136" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="1137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="1136" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="1136" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="1136" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="1136" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="1121" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="1121" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="1121" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" s="1123" t="s">
-        <v>258</v>
-      </c>
-      <c r="H56" s="1124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" s="1125" t="s">
-        <v>209</v>
-      </c>
-      <c r="J56" s="1126" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" ht="20.0" customHeight="true">
-      <c r="A57" s="1127" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="1128" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="1127" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="1127" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="1127" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="1127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1127" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="1129" t="s">
-        <v>214</v>
-      </c>
-      <c r="I57" s="1130" t="s">
-        <v>254</v>
-      </c>
-      <c r="J57" s="1131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" ht="20.0" customHeight="true">
-      <c r="A58" s="1132" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="1133" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="1132" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="1132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1132" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="1132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="1132" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="1134" t="s">
-        <v>217</v>
-      </c>
-      <c r="I58" s="1135" t="s">
-        <v>254</v>
-      </c>
-      <c r="J58" s="1136" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" ht="20.0" customHeight="true">
-      <c r="A59" s="1137" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="1138" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="1137" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="1137" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="1137" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="1137" t="s">
-        <v>180</v>
-      </c>
-      <c r="G59" s="1137" t="s">
-        <v>109</v>
+      <c r="G59" s="1138" t="s">
+        <v>79</v>
       </c>
       <c r="H59" s="1139" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="I59" s="1140" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="J59" s="1141" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="307">
   <si>
     <t>id</t>
   </si>
@@ -48,7 +48,7 @@
     <t>分数</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>城镇高速公路</t>
@@ -78,862 +78,859 @@
     <t>85</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>滨海风景</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.56.91</t>
+  </si>
+  <si>
+    <t>一线勉强</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>狮城狂飙</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.07.20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>灵岩环道</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.52.73</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>迪拜富人区</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.51.65</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>里约滑坡</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.13.11</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>恐龙决斗场</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.59.41</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.48.41</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>万里长城</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.51.70</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>海盗绝壁海湾</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.02.33</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>海底神殿</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.28.27</t>
+  </si>
+  <si>
+    <t>二线勉强</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.20.82</t>
+  </si>
+  <si>
+    <t>三线以上</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.55.79</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.05.41</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.10.73</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.11.87</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>城镇公路</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.16.48</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>2.01.31</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.22.96</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.23.20</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>滨海风景</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>1.56.91</t>
-  </si>
-  <si>
-    <t>一线勉强</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.41.05</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.31.94</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.54.27</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.59</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.40.73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>2.02.43</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.14.35</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.06.42</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.15.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.45.75</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.01.55</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.11.49</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.49.24</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>2.01.67</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.15.74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.43.94</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.25.70</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.13.50</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.12.39</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>黄金坐标</t>
+  </si>
+  <si>
+    <t>1.41.40</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>龙之都市</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.31.54</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>狮城狂飙</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.07.20</t>
+    <t>东方明珠之夜</t>
+  </si>
+  <si>
+    <t>1.34.30</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>龙之宫殿</t>
+  </si>
+  <si>
+    <t>1.29.23</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>灵岩环道</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>1.52.73</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>迪拜富人区</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.51.65</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>里约滑坡</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.13.11</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>恐龙决斗场</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.59.41</t>
+    <t>龙之西湖</t>
+  </si>
+  <si>
+    <t>1.59.82</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>巴黎风情</t>
+  </si>
+  <si>
+    <t>1.34.21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>滨海火车</t>
+  </si>
+  <si>
+    <t>1.54.46</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>360塔楼</t>
+  </si>
+  <si>
+    <t>1.35.09</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>龙之冰灯祭</t>
+  </si>
+  <si>
+    <t>1.28.48</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>铃鹿赛道</t>
+  </si>
+  <si>
+    <t>1.55.71</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>太空军用机场</t>
+  </si>
+  <si>
+    <t>2.01.97</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>城镇高速公路(反向)</t>
+  </si>
+  <si>
+    <t>1.51.43</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>城镇极限竞技场</t>
+  </si>
+  <si>
+    <t>1.52.41</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.48.41</t>
-  </si>
-  <si>
-    <t>82</t>
+    <t>巴黎铁塔</t>
+  </si>
+  <si>
+    <t>2.07.73</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>万里长城</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.51.70</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>海盗绝壁海湾</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.02.33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>海底神殿</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.28.27</t>
-  </si>
-  <si>
-    <t>二线勉强</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.20.82</t>
-  </si>
-  <si>
-    <t>三线以上</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>意大利比萨斜塔</t>
+  </si>
+  <si>
+    <t>1.09.16</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.55.79</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.05.41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.10.73</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.11.87</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>城镇公路</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.16.48</t>
+    <t>纽约狂飙</t>
+  </si>
+  <si>
+    <t>-86</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>2.01.31</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.22.96</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.23.20</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.41.05</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.31.94</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.54.27</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.59</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.40.73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>2.02.43</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.14.35</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.06.42</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15.31</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.75</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.01.55</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.11.49</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.49.24</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>2.01.67</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.15.74</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.43.94</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.25.70</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.13.50</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.12.39</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>黄金坐标</t>
-  </si>
-  <si>
-    <t>1.41.40</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>龙之都市</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>1.31.54</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>东方明珠之夜</t>
-  </si>
-  <si>
-    <t>1.34.30</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>龙之宫殿</t>
-  </si>
-  <si>
-    <t>1.29.23</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之西湖</t>
-  </si>
-  <si>
-    <t>1.59.82</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>巴黎风情</t>
-  </si>
-  <si>
-    <t>1.34.21</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>滨海火车</t>
-  </si>
-  <si>
-    <t>1.54.46</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>360塔楼</t>
-  </si>
-  <si>
-    <t>1.35.09</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>龙之冰灯祭</t>
-  </si>
-  <si>
-    <t>1.28.48</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>铃鹿赛道</t>
-  </si>
-  <si>
-    <t>1.55.71</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>太空军用机场</t>
-  </si>
-  <si>
-    <t>2.01.97</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>城镇高速公路(反向)</t>
-  </si>
-  <si>
-    <t>1.51.43</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>城镇极限竞技场</t>
-  </si>
-  <si>
-    <t>1.52.41</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>巴黎铁塔</t>
-  </si>
-  <si>
-    <t>2.07.73</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>意大利比萨斜塔</t>
-  </si>
-  <si>
-    <t>1.09.16</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>纽约狂飙</t>
-  </si>
-  <si>
-    <t>-86</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>街头狂飙</t>
   </si>
   <si>
     <t>2.18.73</t>
-  </si>
-  <si>
-    <t>58</t>
   </si>
   <si>
     <t>森林发夹(反向)</t>
@@ -9745,7 +9742,7 @@
         <v>254</v>
       </c>
       <c r="J40" s="795" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
@@ -10180,7 +10177,7 @@
         <v>254</v>
       </c>
       <c r="J11" s="867" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -10340,7 +10337,7 @@
         <v>254</v>
       </c>
       <c r="J16" s="896" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -10404,7 +10401,7 @@
         <v>254</v>
       </c>
       <c r="J18" s="907" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -10724,7 +10721,7 @@
         <v>254</v>
       </c>
       <c r="J28" s="966" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -10788,7 +10785,7 @@
         <v>254</v>
       </c>
       <c r="J30" s="977" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -10820,7 +10817,7 @@
         <v>254</v>
       </c>
       <c r="J31" s="982" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
@@ -10852,7 +10849,7 @@
         <v>254</v>
       </c>
       <c r="J32" s="987" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
@@ -10980,7 +10977,7 @@
         <v>254</v>
       </c>
       <c r="J36" s="1010" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -11204,7 +11201,7 @@
         <v>254</v>
       </c>
       <c r="J43" s="1050" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="20.0" customHeight="true">
@@ -11428,7 +11425,7 @@
         <v>254</v>
       </c>
       <c r="J50" s="1091" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" ht="20.0" customHeight="true">
@@ -11492,7 +11489,7 @@
         <v>254</v>
       </c>
       <c r="J52" s="1102" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" ht="20.0" customHeight="true">
@@ -11620,7 +11617,7 @@
         <v>254</v>
       </c>
       <c r="J56" s="1125" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" ht="20.0" customHeight="true">
@@ -11652,7 +11649,7 @@
         <v>254</v>
       </c>
       <c r="J57" s="1130" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="20.0" customHeight="true">
@@ -11684,15 +11681,15 @@
         <v>254</v>
       </c>
       <c r="J58" s="1135" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" ht="20.0" customHeight="true">
       <c r="A59" s="1136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="1137" t="s">
         <v>305</v>
-      </c>
-      <c r="B59" s="1137" t="s">
-        <v>306</v>
       </c>
       <c r="C59" s="1136" t="s">
         <v>75</v>
@@ -11710,7 +11707,7 @@
         <v>79</v>
       </c>
       <c r="H59" s="1139" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I59" s="1140" t="s">
         <v>201</v>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -1174,10 +1174,10 @@
     <t>0.55</t>
   </si>
   <si>
-    <t>4.7.24</t>
-  </si>
-  <si>
-    <t>4.2.28</t>
+    <t>47.24</t>
+  </si>
+  <si>
+    <t>42.28</t>
   </si>
   <si>
     <t>100</t>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -139,7 +139,7 @@
     <t>2.07.20</t>
   </si>
   <si>
-    <t>1.59.85</t>
+    <t>1.59.81</t>
   </si>
   <si>
     <t>二线以上</t>
@@ -166,7 +166,7 @@
     <t>1.52.73</t>
   </si>
   <si>
-    <t>1.46.95</t>
+    <t>1.46.83</t>
   </si>
   <si>
     <t>15</t>
@@ -187,7 +187,7 @@
     <t>1.51.65</t>
   </si>
   <si>
-    <t>1.43.91</t>
+    <t>1.43.78</t>
   </si>
   <si>
     <t>83</t>
@@ -235,7 +235,7 @@
     <t>1.59.41</t>
   </si>
   <si>
-    <t>1.51.03</t>
+    <t>1.50.96</t>
   </si>
   <si>
     <t>36</t>
@@ -247,7 +247,7 @@
     <t>1.48.41</t>
   </si>
   <si>
-    <t>1.37.57</t>
+    <t>1.37.47</t>
   </si>
   <si>
     <t>82</t>
@@ -283,7 +283,7 @@
     <t>2.02.33</t>
   </si>
   <si>
-    <t>1.51.38</t>
+    <t>1.51.13</t>
   </si>
   <si>
     <t>39</t>
@@ -337,7 +337,7 @@
     <t>2.20.82</t>
   </si>
   <si>
-    <t>2.08.73</t>
+    <t>2.08.56</t>
   </si>
   <si>
     <t>三线以上</t>
@@ -358,7 +358,7 @@
     <t>1.55.79</t>
   </si>
   <si>
-    <t>1.46.69</t>
+    <t>1.46.41</t>
   </si>
   <si>
     <t>43</t>
@@ -373,7 +373,7 @@
     <t>2.05.41</t>
   </si>
   <si>
-    <t>1.52.96</t>
+    <t>1.52.60</t>
   </si>
   <si>
     <t>44</t>
@@ -385,7 +385,7 @@
     <t>2.10.57</t>
   </si>
   <si>
-    <t>1.56.36</t>
+    <t>1.56.26</t>
   </si>
   <si>
     <t>46</t>
@@ -493,7 +493,7 @@
     <t>1.23.20</t>
   </si>
   <si>
-    <t>1.14.76</t>
+    <t>1.14.62</t>
   </si>
   <si>
     <t>1.42</t>
@@ -517,7 +517,7 @@
     <t>1.41.05</t>
   </si>
   <si>
-    <t>1.33.99</t>
+    <t>1.33.98</t>
   </si>
   <si>
     <t>1.54</t>
@@ -544,7 +544,7 @@
     <t>2.31.94</t>
   </si>
   <si>
-    <t>2.23.60</t>
+    <t>2.23.26</t>
   </si>
   <si>
     <t>9</t>
@@ -556,7 +556,7 @@
     <t>1.54.27</t>
   </si>
   <si>
-    <t>1.46.51</t>
+    <t>1.46.47</t>
   </si>
   <si>
     <t>1.46</t>
@@ -622,7 +622,7 @@
     <t>1.40.73</t>
   </si>
   <si>
-    <t>1.29.81</t>
+    <t>1.29.68</t>
   </si>
   <si>
     <t>三线勉强</t>
@@ -718,7 +718,7 @@
     <t>1.45.75</t>
   </si>
   <si>
-    <t>1.32.07</t>
+    <t>1.32.04</t>
   </si>
   <si>
     <t>娱乐以上</t>
@@ -736,7 +736,7 @@
     <t>2.01.55</t>
   </si>
   <si>
-    <t>1.49.35</t>
+    <t>1.49.02</t>
   </si>
   <si>
     <t>53</t>
@@ -841,7 +841,7 @@
     <t>1.43.94</t>
   </si>
   <si>
-    <t>1.34.86</t>
+    <t>1.34.62</t>
   </si>
   <si>
     <t>59</t>
@@ -853,7 +853,7 @@
     <t>2.24.48</t>
   </si>
   <si>
-    <t>2.10.40</t>
+    <t>2.10.18</t>
   </si>
   <si>
     <t>11</t>
@@ -949,7 +949,7 @@
     <t>1.29.23</t>
   </si>
   <si>
-    <t>1.21.89</t>
+    <t>1.21.70</t>
   </si>
   <si>
     <t>12</t>
@@ -1009,7 +1009,7 @@
     <t>1.28.48</t>
   </si>
   <si>
-    <t>1.16.06</t>
+    <t>1.15.78</t>
   </si>
   <si>
     <t>30</t>
@@ -1045,7 +1045,7 @@
     <t>1.51.43</t>
   </si>
   <si>
-    <t>1.39.97</t>
+    <t>1.39.83</t>
   </si>
   <si>
     <t>33</t>
@@ -1108,7 +1108,7 @@
     <t>2.18.73</t>
   </si>
   <si>
-    <t>2.04.71</t>
+    <t>2.04.62</t>
   </si>
   <si>
     <t>森林发夹(反向)</t>
@@ -1117,7 +1117,7 @@
     <t>2.21.68</t>
   </si>
   <si>
-    <t>2.07.06</t>
+    <t>2.06.88</t>
   </si>
   <si>
     <t>四线</t>
@@ -1135,7 +1135,7 @@
     <t>1.09.88</t>
   </si>
   <si>
-    <t>1.06.22</t>
+    <t>1.06.19</t>
   </si>
   <si>
     <t>一线以上</t>
@@ -3173,7 +3173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3006">
+  <cellXfs count="3005">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -7633,7 +7633,7 @@
     <xf numFmtId="0" fontId="220" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="220" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="220" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -7642,7 +7642,7 @@
     <xf numFmtId="0" fontId="220" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="220" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="220" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -8872,7 +8872,7 @@
     <xf numFmtId="0" fontId="281" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="281" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="281" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -8881,7 +8881,7 @@
     <xf numFmtId="0" fontId="281" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="281" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="281" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -9661,16 +9661,13 @@
     <xf numFmtId="0" fontId="319" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="319" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="319" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="319" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="319" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -10126,7 +10123,7 @@
     <xf numFmtId="0" fontId="342" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="342" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="342" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -10135,7 +10132,7 @@
     <xf numFmtId="0" fontId="342" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="342" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="342" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -10918,7 +10915,7 @@
     <xf numFmtId="0" fontId="380" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="380" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="380" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -10927,7 +10924,7 @@
     <xf numFmtId="0" fontId="380" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="380" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="380" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -11383,7 +11380,7 @@
     <xf numFmtId="0" fontId="403" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="403" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="403" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -11392,7 +11389,7 @@
     <xf numFmtId="0" fontId="403" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="15" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="403" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="403" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -12175,7 +12172,7 @@
     <xf numFmtId="0" fontId="441" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="441" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -12184,7 +12181,7 @@
     <xf numFmtId="0" fontId="441" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="441" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -19982,19 +19979,19 @@
         <v>68</v>
       </c>
       <c r="C23" s="1485" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1485" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1487" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1485" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="G23" s="1485" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1488" t="s">
         <v>70</v>
@@ -20003,10 +20000,10 @@
         <v>71</v>
       </c>
       <c r="J23" s="1490" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K23" s="1491" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -21312,19 +21309,19 @@
         <v>363</v>
       </c>
       <c r="C61" s="1744" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1744" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="E61" s="1744" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F61" s="1744" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="G61" s="1744" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="H61" s="1746" t="s">
         <v>364</v>
@@ -21336,7 +21333,7 @@
         <v>296</v>
       </c>
       <c r="K61" s="1749" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -22137,19 +22134,19 @@
         <v>68</v>
       </c>
       <c r="C23" s="1898" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1900" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="1898" t="s">
-        <v>194</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="1898" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1900" t="s">
+        <v>53</v>
       </c>
       <c r="F23" s="1898" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G23" s="1898" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H23" s="1901" t="s">
         <v>70</v>
@@ -22158,10 +22155,10 @@
         <v>71</v>
       </c>
       <c r="J23" s="1903" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K23" s="1904" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -23467,31 +23464,31 @@
         <v>363</v>
       </c>
       <c r="C61" s="2161" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2161" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="E61" s="2161" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2161" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="2163" t="s">
-        <v>221</v>
-      </c>
-      <c r="H61" s="2164" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="2161" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="2163" t="s">
         <v>364</v>
       </c>
-      <c r="I61" s="2165" t="s">
+      <c r="I61" s="2164" t="s">
         <v>365</v>
       </c>
-      <c r="J61" s="2166" t="s">
-        <v>388</v>
-      </c>
-      <c r="K61" s="2167" t="s">
-        <v>289</v>
+      <c r="J61" s="2165" t="s">
+        <v>296</v>
+      </c>
+      <c r="K61" s="2166" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -23515,2138 +23512,2138 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="2168" t="s">
+      <c r="A1" s="2167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2168" t="s">
+      <c r="B1" s="2167" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2168" t="s">
+      <c r="C1" s="2167" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2168" t="s">
+      <c r="D1" s="2167" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2168" t="s">
+      <c r="E1" s="2167" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2168" t="s">
+      <c r="F1" s="2167" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="2168" t="s">
+      <c r="G1" s="2167" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="2168" t="s">
+      <c r="H1" s="2167" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2168" t="s">
+      <c r="I1" s="2167" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2168" t="s">
+      <c r="J1" s="2167" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2168" t="s">
+      <c r="K1" s="2167" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="2169" t="s">
+      <c r="A2" s="2168" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="2170" t="s">
+      <c r="B2" s="2169" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="2171" t="s">
+      <c r="C2" s="2170" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="2169" t="s">
+      <c r="D2" s="2168" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2169" t="s">
+      <c r="E2" s="2168" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="2169" t="s">
+      <c r="F2" s="2168" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="2169" t="s">
+      <c r="G2" s="2168" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="2172" t="s">
+      <c r="H2" s="2171" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="2173" t="s">
+      <c r="I2" s="2172" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="2174" t="s">
+      <c r="J2" s="2173" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="2175" t="s">
+      <c r="K2" s="2174" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="2176" t="s">
+      <c r="A3" s="2175" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2177" t="s">
+      <c r="B3" s="2176" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2178" t="s">
+      <c r="C3" s="2177" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2176" t="s">
+      <c r="D3" s="2175" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2176" t="s">
+      <c r="E3" s="2175" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2176" t="s">
+      <c r="F3" s="2175" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="2176" t="s">
+      <c r="G3" s="2175" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2179" t="s">
+      <c r="H3" s="2178" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2180" t="s">
+      <c r="I3" s="2179" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2181" t="s">
+      <c r="J3" s="2180" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="2182" t="s">
+      <c r="K3" s="2181" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="2183" t="s">
+      <c r="A4" s="2182" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="2184" t="s">
+      <c r="B4" s="2183" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="2183" t="s">
+      <c r="C4" s="2182" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="2185" t="s">
+      <c r="D4" s="2184" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="2183" t="s">
+      <c r="E4" s="2182" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="2183" t="s">
+      <c r="F4" s="2182" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="2183" t="s">
+      <c r="G4" s="2182" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="2186" t="s">
+      <c r="H4" s="2185" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="2187" t="s">
+      <c r="I4" s="2186" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="2188" t="s">
+      <c r="J4" s="2187" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2189" t="s">
+      <c r="K4" s="2188" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="2190" t="s">
+      <c r="A5" s="2189" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2191" t="s">
+      <c r="B5" s="2190" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2192" t="s">
+      <c r="C5" s="2191" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2190" t="s">
+      <c r="D5" s="2189" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2190" t="s">
+      <c r="E5" s="2189" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="2190" t="s">
+      <c r="F5" s="2189" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="2190" t="s">
+      <c r="G5" s="2189" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2193" t="s">
+      <c r="H5" s="2192" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2194" t="s">
+      <c r="I5" s="2193" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2195" t="s">
+      <c r="J5" s="2194" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="2196" t="s">
+      <c r="K5" s="2195" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="2197" t="s">
+      <c r="A6" s="2196" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="2198" t="s">
+      <c r="B6" s="2197" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="2199" t="s">
+      <c r="C6" s="2198" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="2197" t="s">
+      <c r="D6" s="2196" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="2197" t="s">
+      <c r="E6" s="2196" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="2197" t="s">
+      <c r="F6" s="2196" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="2197" t="s">
+      <c r="G6" s="2196" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="2200" t="s">
+      <c r="H6" s="2199" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="2201" t="s">
+      <c r="I6" s="2200" t="s">
         <v>301</v>
       </c>
-      <c r="J6" s="2202" t="s">
+      <c r="J6" s="2201" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="2203" t="s">
+      <c r="K6" s="2202" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="2204" t="s">
+      <c r="A7" s="2203" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="2205" t="s">
+      <c r="B7" s="2204" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="2204" t="s">
+      <c r="C7" s="2203" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="2206" t="s">
+      <c r="D7" s="2205" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="2204" t="s">
+      <c r="E7" s="2203" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="2204" t="s">
+      <c r="F7" s="2203" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="2204" t="s">
+      <c r="G7" s="2203" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2207" t="s">
+      <c r="H7" s="2206" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="2208" t="s">
+      <c r="I7" s="2207" t="s">
         <v>305</v>
       </c>
-      <c r="J7" s="2209" t="s">
+      <c r="J7" s="2208" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="2210" t="s">
+      <c r="K7" s="2209" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="2211" t="s">
+      <c r="A8" s="2210" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2212" t="s">
+      <c r="B8" s="2211" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2211" t="s">
+      <c r="C8" s="2210" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2213" t="s">
+      <c r="D8" s="2212" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2211" t="s">
+      <c r="E8" s="2210" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="2211" t="s">
+      <c r="F8" s="2210" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2211" t="s">
+      <c r="G8" s="2210" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="2214" t="s">
+      <c r="H8" s="2213" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2215" t="s">
+      <c r="I8" s="2214" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2216" t="s">
+      <c r="J8" s="2215" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2217" t="s">
+      <c r="K8" s="2216" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="2218" t="s">
+      <c r="A9" s="2217" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="2219" t="s">
+      <c r="B9" s="2218" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="2218" t="s">
+      <c r="C9" s="2217" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="2220" t="s">
+      <c r="D9" s="2219" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="2218" t="s">
+      <c r="E9" s="2217" t="s">
         <v>376</v>
       </c>
-      <c r="F9" s="2218" t="s">
+      <c r="F9" s="2217" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="2218" t="s">
+      <c r="G9" s="2217" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="2221" t="s">
+      <c r="H9" s="2220" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="2222" t="s">
+      <c r="I9" s="2221" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="2223" t="s">
+      <c r="J9" s="2222" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="2224" t="s">
+      <c r="K9" s="2223" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="2225" t="s">
+      <c r="A10" s="2224" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="2226" t="s">
+      <c r="B10" s="2225" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="2225" t="s">
+      <c r="C10" s="2224" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2227" t="s">
+      <c r="D10" s="2226" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2225" t="s">
+      <c r="E10" s="2224" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2225" t="s">
+      <c r="F10" s="2224" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2225" t="s">
+      <c r="G10" s="2224" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="2228" t="s">
+      <c r="H10" s="2227" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="2229" t="s">
+      <c r="I10" s="2228" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="2230" t="s">
+      <c r="J10" s="2229" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="2231" t="s">
+      <c r="K10" s="2230" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="2232" t="s">
+      <c r="A11" s="2231" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="2233" t="s">
+      <c r="B11" s="2232" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="2232" t="s">
+      <c r="C11" s="2231" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="2234" t="s">
+      <c r="D11" s="2233" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="2232" t="s">
+      <c r="E11" s="2231" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="2232" t="s">
+      <c r="F11" s="2231" t="s">
         <v>258</v>
       </c>
-      <c r="G11" s="2232" t="s">
+      <c r="G11" s="2231" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="2235" t="s">
+      <c r="H11" s="2234" t="s">
         <v>308</v>
       </c>
-      <c r="I11" s="2236" t="s">
+      <c r="I11" s="2235" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="2237" t="s">
+      <c r="J11" s="2236" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="2238" t="s">
+      <c r="K11" s="2237" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="2239" t="s">
+      <c r="A12" s="2238" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="2240" t="s">
+      <c r="B12" s="2239" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="2239" t="s">
+      <c r="C12" s="2238" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="2239" t="s">
+      <c r="D12" s="2238" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="2241" t="s">
+      <c r="E12" s="2240" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="2239" t="s">
+      <c r="F12" s="2238" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2239" t="s">
+      <c r="G12" s="2238" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="2242" t="s">
+      <c r="H12" s="2241" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="2243" t="s">
+      <c r="I12" s="2242" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="2244" t="s">
+      <c r="J12" s="2243" t="s">
         <v>201</v>
       </c>
-      <c r="K12" s="2245" t="s">
+      <c r="K12" s="2244" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="2246" t="s">
+      <c r="A13" s="2245" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="2247" t="s">
+      <c r="B13" s="2246" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="2246" t="s">
+      <c r="C13" s="2245" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2248" t="s">
+      <c r="D13" s="2247" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2246" t="s">
+      <c r="E13" s="2245" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2246" t="s">
+      <c r="F13" s="2245" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2246" t="s">
+      <c r="G13" s="2245" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="2249" t="s">
+      <c r="H13" s="2248" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="2250" t="s">
+      <c r="I13" s="2249" t="s">
         <v>313</v>
       </c>
-      <c r="J13" s="2251" t="s">
+      <c r="J13" s="2250" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="2252" t="s">
+      <c r="K13" s="2251" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="2253" t="s">
+      <c r="A14" s="2252" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2254" t="s">
+      <c r="B14" s="2253" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2255" t="s">
+      <c r="C14" s="2254" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2253" t="s">
+      <c r="D14" s="2252" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2253" t="s">
+      <c r="E14" s="2252" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2253" t="s">
+      <c r="F14" s="2252" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="2253" t="s">
+      <c r="G14" s="2252" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="2256" t="s">
+      <c r="H14" s="2255" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="2257" t="s">
+      <c r="I14" s="2256" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="2258" t="s">
+      <c r="J14" s="2257" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="2259" t="s">
+      <c r="K14" s="2258" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="2260" t="s">
+      <c r="A15" s="2259" t="s">
         <v>378</v>
       </c>
-      <c r="B15" s="2261" t="s">
+      <c r="B15" s="2260" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="2262" t="s">
+      <c r="C15" s="2261" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="2260" t="s">
+      <c r="D15" s="2259" t="s">
         <v>382</v>
       </c>
-      <c r="E15" s="2260" t="s">
+      <c r="E15" s="2259" t="s">
         <v>383</v>
       </c>
-      <c r="F15" s="2260" t="s">
+      <c r="F15" s="2259" t="s">
         <v>384</v>
       </c>
-      <c r="G15" s="2260" t="s">
+      <c r="G15" s="2259" t="s">
         <v>400</v>
       </c>
-      <c r="H15" s="2263" t="s">
+      <c r="H15" s="2262" t="s">
         <v>385</v>
       </c>
-      <c r="I15" s="2264" t="s">
+      <c r="I15" s="2263" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="2265" t="s">
+      <c r="J15" s="2264" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="2266" t="s">
+      <c r="K15" s="2265" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="2267" t="s">
+      <c r="A16" s="2266" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2268" t="s">
+      <c r="B16" s="2267" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2267" t="s">
+      <c r="C16" s="2266" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2269" t="s">
+      <c r="D16" s="2268" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2267" t="s">
+      <c r="E16" s="2266" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="2267" t="s">
+      <c r="F16" s="2266" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2267" t="s">
+      <c r="G16" s="2266" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="2270" t="s">
+      <c r="H16" s="2269" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="2271" t="s">
+      <c r="I16" s="2270" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="2272" t="s">
+      <c r="J16" s="2271" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="2273" t="s">
+      <c r="K16" s="2272" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="2274" t="s">
+      <c r="A17" s="2273" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="2275" t="s">
+      <c r="B17" s="2274" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="2274" t="s">
+      <c r="C17" s="2273" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="2276" t="s">
+      <c r="D17" s="2275" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="2274" t="s">
+      <c r="E17" s="2273" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="2274" t="s">
+      <c r="F17" s="2273" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="2274" t="s">
+      <c r="G17" s="2273" t="s">
         <v>198</v>
       </c>
-      <c r="H17" s="2277" t="s">
+      <c r="H17" s="2276" t="s">
         <v>316</v>
       </c>
-      <c r="I17" s="2278" t="s">
+      <c r="I17" s="2277" t="s">
         <v>317</v>
       </c>
-      <c r="J17" s="2279" t="s">
+      <c r="J17" s="2278" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="2280" t="s">
+      <c r="K17" s="2279" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" s="2281" t="s">
+      <c r="A18" s="2280" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="2282" t="s">
+      <c r="B18" s="2281" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="2281" t="s">
+      <c r="C18" s="2280" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2281" t="s">
+      <c r="D18" s="2280" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="2281" t="s">
+      <c r="E18" s="2280" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2283" t="s">
+      <c r="F18" s="2282" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2281" t="s">
+      <c r="G18" s="2280" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="2284" t="s">
+      <c r="H18" s="2283" t="s">
         <v>320</v>
       </c>
-      <c r="I18" s="2285" t="s">
+      <c r="I18" s="2284" t="s">
         <v>321</v>
       </c>
-      <c r="J18" s="2286" t="s">
+      <c r="J18" s="2285" t="s">
         <v>389</v>
       </c>
-      <c r="K18" s="2287" t="s">
+      <c r="K18" s="2286" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
-      <c r="A19" s="2288" t="s">
+      <c r="A19" s="2287" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="2289" t="s">
+      <c r="B19" s="2288" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="2290" t="s">
+      <c r="C19" s="2289" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="2288" t="s">
+      <c r="D19" s="2287" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="2288" t="s">
+      <c r="E19" s="2287" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="2288" t="s">
+      <c r="F19" s="2287" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="2288" t="s">
+      <c r="G19" s="2287" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="2291" t="s">
+      <c r="H19" s="2290" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="2292" t="s">
+      <c r="I19" s="2291" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="2293" t="s">
+      <c r="J19" s="2292" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2294" t="s">
+      <c r="K19" s="2293" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" s="2295" t="s">
+      <c r="A20" s="2294" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="2296" t="s">
+      <c r="B20" s="2295" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="2295" t="s">
+      <c r="C20" s="2294" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="2295" t="s">
+      <c r="D20" s="2294" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="2297" t="s">
+      <c r="E20" s="2296" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="2295" t="s">
+      <c r="F20" s="2294" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="2295" t="s">
+      <c r="G20" s="2294" t="s">
         <v>259</v>
       </c>
-      <c r="H20" s="2298" t="s">
+      <c r="H20" s="2297" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="2299" t="s">
+      <c r="I20" s="2298" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="2300" t="s">
+      <c r="J20" s="2299" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="2301" t="s">
+      <c r="K20" s="2300" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
-      <c r="A21" s="2302" t="s">
+      <c r="A21" s="2301" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2303" t="s">
+      <c r="B21" s="2302" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2304" t="s">
+      <c r="C21" s="2303" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2302" t="s">
+      <c r="D21" s="2301" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="2302" t="s">
+      <c r="E21" s="2301" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="2302" t="s">
+      <c r="F21" s="2301" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="2302" t="s">
+      <c r="G21" s="2301" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="2305" t="s">
+      <c r="H21" s="2304" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="2306" t="s">
+      <c r="I21" s="2305" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="2307" t="s">
+      <c r="J21" s="2306" t="s">
         <v>372</v>
       </c>
-      <c r="K21" s="2308" t="s">
+      <c r="K21" s="2307" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" s="2309" t="s">
+      <c r="A22" s="2308" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="2310" t="s">
+      <c r="B22" s="2309" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="2309" t="s">
+      <c r="C22" s="2308" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="2309" t="s">
+      <c r="D22" s="2308" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="2311" t="s">
+      <c r="E22" s="2310" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="2309" t="s">
+      <c r="F22" s="2308" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="2309" t="s">
+      <c r="G22" s="2308" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="2312" t="s">
+      <c r="H22" s="2311" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="2313" t="s">
+      <c r="I22" s="2312" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="2314" t="s">
+      <c r="J22" s="2313" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="2315" t="s">
+      <c r="K22" s="2314" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
-      <c r="A23" s="2316" t="s">
+      <c r="A23" s="2315" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2317" t="s">
+      <c r="B23" s="2316" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2316" t="s">
+      <c r="C23" s="2315" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2317" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2315" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="2315" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2315" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2318" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2319" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="2320" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="2321" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" s="2322" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="2323" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="2322" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="2322" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="2324" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="2322" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="2322" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="2325" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="2326" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2327" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="2328" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" s="2329" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="2330" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="2329" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2318" t="s">
+      <c r="D25" s="2329" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2316" t="s">
+      <c r="E25" s="2331" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="2316" t="s">
+      <c r="F25" s="2329" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="2316" t="s">
+      <c r="G25" s="2329" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="2319" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="2320" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="2321" t="s">
+      <c r="H25" s="2332" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="2333" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="2334" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="2335" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" s="2336" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="2337" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2336" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2336" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="2336" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="2336" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="2338" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="2339" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" s="2340" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="2341" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" s="2342" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" s="2343" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="2344" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="2345" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2343" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="2343" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="2343" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="2343" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2346" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="2347" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" s="2348" t="s">
+        <v>372</v>
+      </c>
+      <c r="K27" s="2349" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="2350" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="2351" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="2350" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2352" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2350" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="2350" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2350" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="2353" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" s="2354" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="2355" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="2356" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="2357" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="2358" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="2357" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="2359" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="2357" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2357" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="2357" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="2360" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29" s="2361" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="2362" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="2322" t="s">
+      <c r="K29" s="2363" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="24" ht="20.0" customHeight="true">
-      <c r="A24" s="2323" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2324" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="2323" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="2323" t="s">
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="2364" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="2365" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="2364" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="2364" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="2364" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="2366" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="2364" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="2367" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" s="2368" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="2369" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="2370" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="2371" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="2372" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="2371" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="2373" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2371" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2371" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="2371" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2374" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" s="2375" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" s="2376" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="2377" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="2378" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="2379" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="2378" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2378" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2378" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="2380" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="2378" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="2381" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="2382" t="s">
+        <v>337</v>
+      </c>
+      <c r="J32" s="2383" t="s">
+        <v>377</v>
+      </c>
+      <c r="K32" s="2384" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="2385" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="2386" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="2385" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="2385" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2385" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2387" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="2385" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="2388" t="s">
+        <v>340</v>
+      </c>
+      <c r="I33" s="2389" t="s">
+        <v>341</v>
+      </c>
+      <c r="J33" s="2390" t="s">
+        <v>389</v>
+      </c>
+      <c r="K33" s="2391" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="2392" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" s="2393" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="2392" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="2392" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="2392" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2394" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="2392" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="2395" t="s">
+        <v>344</v>
+      </c>
+      <c r="I34" s="2396" t="s">
+        <v>345</v>
+      </c>
+      <c r="J34" s="2397" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" s="2398" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="2399" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="2400" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="2399" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2399" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2401" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2399" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="2399" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="2402" t="s">
+        <v>348</v>
+      </c>
+      <c r="I35" s="2403" t="s">
+        <v>349</v>
+      </c>
+      <c r="J35" s="2404" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="2405" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="2406" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="2407" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="2406" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="2408" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="2406" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="2406" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="2406" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="2409" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="2410" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="2411" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="2412" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="2413" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2414" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2413" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="2413" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="2415" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2413" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="2413" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="2416" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="2417" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="2418" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="2419" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="2420" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2421" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2420" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="2420" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2420" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="2422" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="2420" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="2423" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2424" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="2425" t="s">
+        <v>389</v>
+      </c>
+      <c r="K38" s="2426" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="2427" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2428" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2427" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2427" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2429" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2427" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2427" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="2430" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="2431" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2432" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" s="2433" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="2434" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2435" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2434" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2434" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="2434" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="2436" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="2434" t="s">
+        <v>392</v>
+      </c>
+      <c r="H40" s="2437" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2438" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="2439" t="s">
+        <v>389</v>
+      </c>
+      <c r="K40" s="2440" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="2441" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="2442" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="2443" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="2441" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="2441" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="2441" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="2441" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="2444" t="s">
+        <v>357</v>
+      </c>
+      <c r="I41" s="2445" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" s="2446" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" s="2447" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="2448" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2449" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2448" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="2448" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2448" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="2450" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="2448" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="2451" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="2452" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="2453" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" s="2454" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" s="2455" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2456" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2455" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2457" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2455" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="2455" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="2455" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="2458" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="2459" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="2460" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="2461" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" s="2462" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2463" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2462" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2462" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="2462" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="2464" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2462" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="2465" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="2466" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="2467" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" s="2468" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" s="2469" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2470" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2469" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2469" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2469" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="2469" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="2471" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="2472" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="2473" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="2474" t="s">
+        <v>387</v>
+      </c>
+      <c r="K45" s="2475" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" s="2476" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="2477" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="2476" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="2478" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="2476" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2476" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="2476" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="2479" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="2480" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="2481" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="2482" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" s="2483" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2484" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="2483" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="2483" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2483" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="2485" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="2483" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="2486" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="2487" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="2488" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" s="2489" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" s="2490" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2491" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="2490" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2492" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="2490" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="2490" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="2490" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="2493" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="2494" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="2495" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="2496" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" s="2497" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="2498" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="2497" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="2497" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2497" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2499" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2497" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="2500" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="2501" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="2502" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" s="2503" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" s="2504" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="2505" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="2504" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2506" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2504" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2504" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="2504" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2507" t="s">
+        <v>272</v>
+      </c>
+      <c r="I50" s="2508" t="s">
+        <v>273</v>
+      </c>
+      <c r="J50" s="2509" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" s="2510" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" s="2511" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="2512" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="2511" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="2513" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="2511" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="2511" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="2511" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="2514" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="2515" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" s="2516" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="2517" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" s="2518" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="2519" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="2518" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2518" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2518" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="2520" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2518" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="2521" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="2522" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="2523" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" s="2524" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" s="2525" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="2526" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="2525" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="2525" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="2525" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2525" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="2527" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="2528" t="s">
+        <v>361</v>
+      </c>
+      <c r="I53" s="2529" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" s="2530" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" s="2531" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54" s="2532" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="2533" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="2532" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2532" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="2532" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="2532" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="2532" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="2534" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="2535" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" s="2536" t="s">
+        <v>296</v>
+      </c>
+      <c r="K54" s="2537" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" s="2538" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2539" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2538" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2538" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="2538" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="2540" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2538" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="2541" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="2542" t="s">
+        <v>141</v>
+      </c>
+      <c r="J55" s="2543" t="s">
+        <v>389</v>
+      </c>
+      <c r="K55" s="2544" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" s="2545" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2546" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="2545" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="2545" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="2545" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="2547" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="2545" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="2548" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="2549" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="2550" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" s="2551" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" s="2552" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="2553" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="2552" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2554" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="2552" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="2552" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="2552" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="2555" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="2556" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="2557" t="s">
+        <v>97</v>
+      </c>
+      <c r="K57" s="2558" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" s="2559" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="2560" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="2559" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="2325" t="s">
+      <c r="D58" s="2559" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="2323" t="s">
+      <c r="E58" s="2559" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="2323" t="s">
+      <c r="F58" s="2559" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="2326" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="2327" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="2328" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="2329" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" ht="20.0" customHeight="true">
-      <c r="A25" s="2330" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="2331" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="2330" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2330" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2332" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2330" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2330" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="2333" t="s">
-        <v>205</v>
-      </c>
-      <c r="I25" s="2334" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="2335" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="2336" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" ht="20.0" customHeight="true">
-      <c r="A26" s="2337" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="2338" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="2337" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2337" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="2337" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="2337" t="s">
+      <c r="G58" s="2559" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="2561" t="s">
+        <v>248</v>
+      </c>
+      <c r="I58" s="2562" t="s">
+        <v>249</v>
+      </c>
+      <c r="J58" s="2563" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" s="2564" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" s="2565" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="2566" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2565" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="2565" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="2565" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2565" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="2567" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="2568" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" s="2569" t="s">
+        <v>253</v>
+      </c>
+      <c r="J59" s="2570" t="s">
+        <v>387</v>
+      </c>
+      <c r="K59" s="2571" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" ht="20.0" customHeight="true">
+      <c r="A60" s="2572" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="2573" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="2572" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2572" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="2572" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="2572" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="2574" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="2575" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="2576" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="2577" t="s">
+        <v>388</v>
+      </c>
+      <c r="K60" s="2578" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" ht="20.0" customHeight="true">
+      <c r="A61" s="2579" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="2580" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" s="2579" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="2339" t="s">
+      <c r="D61" s="2579" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="2340" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="2341" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="2342" t="s">
-        <v>387</v>
-      </c>
-      <c r="K26" s="2343" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" ht="20.0" customHeight="true">
-      <c r="A27" s="2344" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="2345" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="2346" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="2344" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="2344" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="2344" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="2344" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="2347" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" s="2348" t="s">
-        <v>219</v>
-      </c>
-      <c r="J27" s="2349" t="s">
-        <v>372</v>
-      </c>
-      <c r="K27" s="2350" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" s="2351" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="2352" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="2351" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2353" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="2351" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="2351" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="2351" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="2354" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="2355" t="s">
-        <v>286</v>
-      </c>
-      <c r="J28" s="2356" t="s">
-        <v>97</v>
-      </c>
-      <c r="K28" s="2357" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="20.0" customHeight="true">
-      <c r="A29" s="2358" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="2359" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="2358" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="2360" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="2358" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2358" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="2358" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="2361" t="s">
-        <v>265</v>
-      </c>
-      <c r="I29" s="2362" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="2363" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="2364" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" s="2365" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="2366" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="2365" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="2365" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="2365" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="2367" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="2365" t="s">
-        <v>243</v>
-      </c>
-      <c r="H30" s="2368" t="s">
-        <v>328</v>
-      </c>
-      <c r="I30" s="2369" t="s">
-        <v>329</v>
-      </c>
-      <c r="J30" s="2370" t="s">
-        <v>377</v>
-      </c>
-      <c r="K30" s="2371" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="2372" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="2373" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="2372" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="2374" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="2372" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="2372" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="2372" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="2375" t="s">
-        <v>332</v>
-      </c>
-      <c r="I31" s="2376" t="s">
-        <v>333</v>
-      </c>
-      <c r="J31" s="2377" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="2378" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" s="2379" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="2380" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="2379" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2379" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="2379" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="2381" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="2379" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="2382" t="s">
-        <v>336</v>
-      </c>
-      <c r="I32" s="2383" t="s">
-        <v>337</v>
-      </c>
-      <c r="J32" s="2384" t="s">
-        <v>377</v>
-      </c>
-      <c r="K32" s="2385" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="2386" t="s">
-        <v>338</v>
-      </c>
-      <c r="B33" s="2387" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="2386" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="2386" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="2386" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="2388" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="2386" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" s="2389" t="s">
-        <v>340</v>
-      </c>
-      <c r="I33" s="2390" t="s">
-        <v>341</v>
-      </c>
-      <c r="J33" s="2391" t="s">
-        <v>389</v>
-      </c>
-      <c r="K33" s="2392" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="2393" t="s">
-        <v>342</v>
-      </c>
-      <c r="B34" s="2394" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="2393" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="2393" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="2393" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="2395" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="2393" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="2396" t="s">
-        <v>344</v>
-      </c>
-      <c r="I34" s="2397" t="s">
-        <v>345</v>
-      </c>
-      <c r="J34" s="2398" t="s">
-        <v>377</v>
-      </c>
-      <c r="K34" s="2399" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="2400" t="s">
-        <v>346</v>
-      </c>
-      <c r="B35" s="2401" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="2400" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2400" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2402" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="2400" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="2400" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="2403" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" s="2404" t="s">
-        <v>349</v>
-      </c>
-      <c r="J35" s="2405" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="2406" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="2407" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="2408" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" s="2407" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="2409" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="2407" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="2407" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="2407" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="2410" t="s">
-        <v>352</v>
-      </c>
-      <c r="I36" s="2411" t="s">
-        <v>353</v>
-      </c>
-      <c r="J36" s="2412" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="2413" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="2414" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2415" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="2414" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="2414" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="2416" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="2414" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="2414" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2417" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="2418" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" s="2419" t="s">
-        <v>201</v>
-      </c>
-      <c r="K37" s="2420" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="2421" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="2422" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2421" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="2421" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2421" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="2423" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="2421" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="2424" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="2425" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="2426" t="s">
-        <v>389</v>
-      </c>
-      <c r="K38" s="2427" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="2428" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2429" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="2428" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="2428" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2430" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2428" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2428" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="2431" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="2432" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="2433" t="s">
-        <v>201</v>
-      </c>
-      <c r="K39" s="2434" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="2435" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="2436" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2435" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="2435" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="2435" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="2437" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" s="2435" t="s">
-        <v>392</v>
-      </c>
-      <c r="H40" s="2438" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="2439" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="2440" t="s">
-        <v>389</v>
-      </c>
-      <c r="K40" s="2441" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="2442" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="2443" t="s">
-        <v>356</v>
-      </c>
-      <c r="C41" s="2444" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="2442" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="2442" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="2442" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="2442" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="2445" t="s">
-        <v>357</v>
-      </c>
-      <c r="I41" s="2446" t="s">
-        <v>358</v>
-      </c>
-      <c r="J41" s="2447" t="s">
-        <v>372</v>
-      </c>
-      <c r="K41" s="2448" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="2449" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="2450" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2449" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="2449" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="2449" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="2451" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42" s="2449" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="2452" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="2453" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="2454" t="s">
-        <v>377</v>
-      </c>
-      <c r="K42" s="2455" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" ht="20.0" customHeight="true">
-      <c r="A43" s="2456" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="2457" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="2456" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2458" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="2456" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="2456" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="2456" t="s">
-        <v>194</v>
-      </c>
-      <c r="H43" s="2459" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="2460" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="2461" t="s">
-        <v>97</v>
-      </c>
-      <c r="K43" s="2462" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" ht="20.0" customHeight="true">
-      <c r="A44" s="2463" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="2464" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="2463" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2463" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="2463" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="2465" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="2463" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="2466" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="2467" t="s">
-        <v>117</v>
-      </c>
-      <c r="J44" s="2468" t="s">
-        <v>377</v>
-      </c>
-      <c r="K44" s="2469" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" ht="20.0" customHeight="true">
-      <c r="A45" s="2470" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="2471" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2470" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="2470" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2470" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="2470" t="s">
-        <v>254</v>
-      </c>
-      <c r="G45" s="2472" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="2473" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="2474" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="2475" t="s">
-        <v>387</v>
-      </c>
-      <c r="K45" s="2476" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" ht="20.0" customHeight="true">
-      <c r="A46" s="2477" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="2478" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="2477" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="2479" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="2477" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="2477" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="2477" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" s="2480" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="2481" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46" s="2482" t="s">
-        <v>40</v>
-      </c>
-      <c r="K46" s="2483" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" ht="20.0" customHeight="true">
-      <c r="A47" s="2484" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2485" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="2484" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="2484" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="2484" t="s">
-        <v>254</v>
-      </c>
-      <c r="F47" s="2486" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="2484" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="2487" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="2488" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="2489" t="s">
-        <v>377</v>
-      </c>
-      <c r="K47" s="2490" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" ht="20.0" customHeight="true">
-      <c r="A48" s="2491" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="2492" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="2491" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="2493" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="2491" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="2491" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="2491" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" s="2494" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="2495" t="s">
-        <v>137</v>
-      </c>
-      <c r="J48" s="2496" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48" s="2497" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="20.0" customHeight="true">
-      <c r="A49" s="2498" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" s="2499" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="2498" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="2498" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="2498" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="2500" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="2498" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="2501" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="2502" t="s">
-        <v>232</v>
-      </c>
-      <c r="J49" s="2503" t="s">
-        <v>377</v>
-      </c>
-      <c r="K49" s="2504" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" ht="20.0" customHeight="true">
-      <c r="A50" s="2505" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="2506" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="2505" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2507" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="2505" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="2505" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="2505" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="2508" t="s">
-        <v>272</v>
-      </c>
-      <c r="I50" s="2509" t="s">
-        <v>273</v>
-      </c>
-      <c r="J50" s="2510" t="s">
-        <v>97</v>
-      </c>
-      <c r="K50" s="2511" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="20.0" customHeight="true">
-      <c r="A51" s="2512" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" s="2513" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="2512" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="2514" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="2512" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="2512" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="2512" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="2515" t="s">
-        <v>293</v>
-      </c>
-      <c r="I51" s="2516" t="s">
-        <v>294</v>
-      </c>
-      <c r="J51" s="2517" t="s">
-        <v>40</v>
-      </c>
-      <c r="K51" s="2518" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="52" ht="20.0" customHeight="true">
-      <c r="A52" s="2519" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="2520" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="2519" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2519" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="2519" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="2521" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="2519" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" s="2522" t="s">
-        <v>237</v>
-      </c>
-      <c r="I52" s="2523" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="2524" t="s">
-        <v>389</v>
-      </c>
-      <c r="K52" s="2525" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" ht="20.0" customHeight="true">
-      <c r="A53" s="2526" t="s">
-        <v>359</v>
-      </c>
-      <c r="B53" s="2527" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="2526" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="2526" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="2526" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="2526" t="s">
+      <c r="E61" s="2579" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="2528" t="s">
+      <c r="F61" s="2579" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="2529" t="s">
-        <v>361</v>
-      </c>
-      <c r="I53" s="2530" t="s">
-        <v>362</v>
-      </c>
-      <c r="J53" s="2531" t="s">
-        <v>387</v>
-      </c>
-      <c r="K53" s="2532" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" ht="20.0" customHeight="true">
-      <c r="A54" s="2533" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="2534" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="2533" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2533" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="2533" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="2533" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="2533" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="2535" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" s="2536" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" s="2537" t="s">
-        <v>296</v>
-      </c>
-      <c r="K54" s="2538" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" ht="20.0" customHeight="true">
-      <c r="A55" s="2539" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="2540" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="2539" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="2539" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="2539" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="2541" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="2539" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="2542" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="2543" t="s">
-        <v>141</v>
-      </c>
-      <c r="J55" s="2544" t="s">
-        <v>389</v>
-      </c>
-      <c r="K55" s="2545" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" ht="20.0" customHeight="true">
-      <c r="A56" s="2546" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="2547" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="2546" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="2546" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="2546" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="2548" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="2546" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="2549" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56" s="2550" t="s">
-        <v>149</v>
-      </c>
-      <c r="J56" s="2551" t="s">
-        <v>389</v>
-      </c>
-      <c r="K56" s="2552" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" ht="20.0" customHeight="true">
-      <c r="A57" s="2553" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="2554" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="2553" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="2555" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="2553" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="2553" t="s">
-        <v>244</v>
-      </c>
-      <c r="G57" s="2553" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" s="2556" t="s">
-        <v>156</v>
-      </c>
-      <c r="I57" s="2557" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="2558" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57" s="2559" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="20.0" customHeight="true">
-      <c r="A58" s="2560" t="s">
-        <v>245</v>
-      </c>
-      <c r="B58" s="2561" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="2560" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="2560" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="2560" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="2560" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="2560" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="2562" t="s">
-        <v>248</v>
-      </c>
-      <c r="I58" s="2563" t="s">
-        <v>249</v>
-      </c>
-      <c r="J58" s="2564" t="s">
-        <v>296</v>
-      </c>
-      <c r="K58" s="2565" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" ht="20.0" customHeight="true">
-      <c r="A59" s="2566" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="2567" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="2566" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="2566" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2566" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="2566" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="2568" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="2569" t="s">
-        <v>252</v>
-      </c>
-      <c r="I59" s="2570" t="s">
-        <v>253</v>
-      </c>
-      <c r="J59" s="2571" t="s">
-        <v>387</v>
-      </c>
-      <c r="K59" s="2572" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" ht="20.0" customHeight="true">
-      <c r="A60" s="2573" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="2574" t="s">
-        <v>275</v>
-      </c>
-      <c r="C60" s="2573" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="2573" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="2573" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="2573" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" s="2575" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" s="2576" t="s">
-        <v>276</v>
-      </c>
-      <c r="I60" s="2577" t="s">
-        <v>277</v>
-      </c>
-      <c r="J60" s="2578" t="s">
+      <c r="G61" s="2581" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="2582" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="2583" t="s">
+        <v>365</v>
+      </c>
+      <c r="J61" s="2584" t="s">
         <v>388</v>
       </c>
-      <c r="K60" s="2579" t="s">
+      <c r="K61" s="2585" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="61" ht="20.0" customHeight="true">
-      <c r="A61" s="2580" t="s">
-        <v>289</v>
-      </c>
-      <c r="B61" s="2581" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" s="2580" t="s">
-        <v>222</v>
-      </c>
-      <c r="D61" s="2580" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="2580" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="2580" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="2582" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="2583" t="s">
-        <v>364</v>
-      </c>
-      <c r="I61" s="2584" t="s">
-        <v>365</v>
-      </c>
-      <c r="J61" s="2585" t="s">
-        <v>387</v>
-      </c>
-      <c r="K61" s="2586" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -25670,2138 +25667,2138 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="2587" t="s">
+      <c r="A1" s="2586" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2587" t="s">
+      <c r="B1" s="2586" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2587" t="s">
+      <c r="C1" s="2586" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2587" t="s">
+      <c r="D1" s="2586" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2587" t="s">
+      <c r="E1" s="2586" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2587" t="s">
+      <c r="F1" s="2586" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="2587" t="s">
+      <c r="G1" s="2586" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="2587" t="s">
+      <c r="H1" s="2586" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2587" t="s">
+      <c r="I1" s="2586" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2587" t="s">
+      <c r="J1" s="2586" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2587" t="s">
+      <c r="K1" s="2586" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="2588" t="s">
+      <c r="A2" s="2587" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="2589" t="s">
+      <c r="B2" s="2588" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="2590" t="s">
+      <c r="C2" s="2589" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="2588" t="s">
+      <c r="D2" s="2587" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2588" t="s">
+      <c r="E2" s="2587" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2588" t="s">
+      <c r="F2" s="2587" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="2588" t="s">
+      <c r="G2" s="2587" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="2591" t="s">
+      <c r="H2" s="2590" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="2592" t="s">
+      <c r="I2" s="2591" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="2593" t="s">
+      <c r="J2" s="2592" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="2594" t="s">
+      <c r="K2" s="2593" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="2595" t="s">
+      <c r="A3" s="2594" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2596" t="s">
+      <c r="B3" s="2595" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2597" t="s">
+      <c r="C3" s="2596" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="2595" t="s">
+      <c r="D3" s="2594" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2595" t="s">
+      <c r="E3" s="2594" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2595" t="s">
+      <c r="F3" s="2594" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2595" t="s">
+      <c r="G3" s="2594" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="2598" t="s">
+      <c r="H3" s="2597" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2599" t="s">
+      <c r="I3" s="2598" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2600" t="s">
+      <c r="J3" s="2599" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="2601" t="s">
+      <c r="K3" s="2600" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="2602" t="s">
+      <c r="A4" s="2601" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="2603" t="s">
+      <c r="B4" s="2602" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="2604" t="s">
+      <c r="C4" s="2603" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2602" t="s">
+      <c r="D4" s="2601" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2602" t="s">
+      <c r="E4" s="2601" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2602" t="s">
+      <c r="F4" s="2601" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2602" t="s">
+      <c r="G4" s="2601" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2605" t="s">
+      <c r="H4" s="2604" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="2606" t="s">
+      <c r="I4" s="2605" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="2607" t="s">
+      <c r="J4" s="2606" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2608" t="s">
+      <c r="K4" s="2607" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="2609" t="s">
+      <c r="A5" s="2608" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2610" t="s">
+      <c r="B5" s="2609" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2611" t="s">
+      <c r="C5" s="2610" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2609" t="s">
+      <c r="D5" s="2608" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="2609" t="s">
+      <c r="E5" s="2608" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2609" t="s">
+      <c r="F5" s="2608" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2609" t="s">
+      <c r="G5" s="2608" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2612" t="s">
+      <c r="H5" s="2611" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2613" t="s">
+      <c r="I5" s="2612" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2614" t="s">
+      <c r="J5" s="2613" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="2615" t="s">
+      <c r="K5" s="2614" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="2616" t="s">
+      <c r="A6" s="2615" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="2617" t="s">
+      <c r="B6" s="2616" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="2618" t="s">
+      <c r="C6" s="2617" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="2616" t="s">
+      <c r="D6" s="2615" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="2616" t="s">
+      <c r="E6" s="2615" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="2616" t="s">
+      <c r="F6" s="2615" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="2616" t="s">
+      <c r="G6" s="2615" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2619" t="s">
+      <c r="H6" s="2618" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="2620" t="s">
+      <c r="I6" s="2619" t="s">
         <v>301</v>
       </c>
-      <c r="J6" s="2621" t="s">
+      <c r="J6" s="2620" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="2622" t="s">
+      <c r="K6" s="2621" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="2623" t="s">
+      <c r="A7" s="2622" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="2624" t="s">
+      <c r="B7" s="2623" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="2625" t="s">
+      <c r="C7" s="2624" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="2623" t="s">
+      <c r="D7" s="2622" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="2623" t="s">
+      <c r="E7" s="2622" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="2623" t="s">
+      <c r="F7" s="2622" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="2623" t="s">
+      <c r="G7" s="2622" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="2626" t="s">
+      <c r="H7" s="2625" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="2627" t="s">
+      <c r="I7" s="2626" t="s">
         <v>305</v>
       </c>
-      <c r="J7" s="2628" t="s">
+      <c r="J7" s="2627" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2629" t="s">
+      <c r="K7" s="2628" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="2630" t="s">
+      <c r="A8" s="2629" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2631" t="s">
+      <c r="B8" s="2630" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2632" t="s">
+      <c r="C8" s="2631" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2630" t="s">
+      <c r="D8" s="2629" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="2630" t="s">
+      <c r="E8" s="2629" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="2630" t="s">
+      <c r="F8" s="2629" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="2630" t="s">
+      <c r="G8" s="2629" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2633" t="s">
+      <c r="H8" s="2632" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2634" t="s">
+      <c r="I8" s="2633" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2635" t="s">
+      <c r="J8" s="2634" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2636" t="s">
+      <c r="K8" s="2635" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="2637" t="s">
+      <c r="A9" s="2636" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="2638" t="s">
+      <c r="B9" s="2637" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="2639" t="s">
+      <c r="C9" s="2638" t="s">
         <v>392</v>
       </c>
-      <c r="D9" s="2637" t="s">
+      <c r="D9" s="2636" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="2637" t="s">
+      <c r="E9" s="2636" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="2637" t="s">
+      <c r="F9" s="2636" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="2637" t="s">
+      <c r="G9" s="2636" t="s">
         <v>402</v>
       </c>
-      <c r="H9" s="2640" t="s">
+      <c r="H9" s="2639" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="2641" t="s">
+      <c r="I9" s="2640" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="2642" t="s">
+      <c r="J9" s="2641" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2643" t="s">
+      <c r="K9" s="2642" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="2644" t="s">
+      <c r="A10" s="2643" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="2645" t="s">
+      <c r="B10" s="2644" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="2646" t="s">
+      <c r="C10" s="2645" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="2644" t="s">
+      <c r="D10" s="2643" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2644" t="s">
+      <c r="E10" s="2643" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2644" t="s">
+      <c r="F10" s="2643" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2644" t="s">
+      <c r="G10" s="2643" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="2647" t="s">
+      <c r="H10" s="2646" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="2648" t="s">
+      <c r="I10" s="2647" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="2649" t="s">
+      <c r="J10" s="2648" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2650" t="s">
+      <c r="K10" s="2649" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="2651" t="s">
+      <c r="A11" s="2650" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="2652" t="s">
+      <c r="B11" s="2651" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="2653" t="s">
+      <c r="C11" s="2652" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="2651" t="s">
+      <c r="D11" s="2650" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="2651" t="s">
+      <c r="E11" s="2650" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="2651" t="s">
+      <c r="F11" s="2650" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="2651" t="s">
+      <c r="G11" s="2650" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="2654" t="s">
+      <c r="H11" s="2653" t="s">
         <v>308</v>
       </c>
-      <c r="I11" s="2655" t="s">
+      <c r="I11" s="2654" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="2656" t="s">
+      <c r="J11" s="2655" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2657" t="s">
+      <c r="K11" s="2656" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="2658" t="s">
+      <c r="A12" s="2657" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="2659" t="s">
+      <c r="B12" s="2658" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="2658" t="s">
+      <c r="C12" s="2657" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="2658" t="s">
+      <c r="D12" s="2657" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2660" t="s">
+      <c r="E12" s="2659" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="2658" t="s">
+      <c r="F12" s="2657" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="2658" t="s">
+      <c r="G12" s="2657" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="2661" t="s">
+      <c r="H12" s="2660" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="2662" t="s">
+      <c r="I12" s="2661" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="2663" t="s">
+      <c r="J12" s="2662" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="2664" t="s">
+      <c r="K12" s="2663" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="2665" t="s">
+      <c r="A13" s="2664" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="2666" t="s">
+      <c r="B13" s="2665" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="2667" t="s">
+      <c r="C13" s="2666" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2665" t="s">
+      <c r="D13" s="2664" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="2665" t="s">
+      <c r="E13" s="2664" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2665" t="s">
+      <c r="F13" s="2664" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2665" t="s">
+      <c r="G13" s="2664" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="2668" t="s">
+      <c r="H13" s="2667" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="2669" t="s">
+      <c r="I13" s="2668" t="s">
         <v>313</v>
       </c>
-      <c r="J13" s="2670" t="s">
+      <c r="J13" s="2669" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="2671" t="s">
+      <c r="K13" s="2670" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="2672" t="s">
+      <c r="A14" s="2671" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2673" t="s">
+      <c r="B14" s="2672" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2674" t="s">
+      <c r="C14" s="2673" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="2672" t="s">
+      <c r="D14" s="2671" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2672" t="s">
+      <c r="E14" s="2671" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2672" t="s">
+      <c r="F14" s="2671" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="2672" t="s">
+      <c r="G14" s="2671" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="2675" t="s">
+      <c r="H14" s="2674" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="2676" t="s">
+      <c r="I14" s="2675" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="2677" t="s">
+      <c r="J14" s="2676" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="2678" t="s">
+      <c r="K14" s="2677" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="2679" t="s">
+      <c r="A15" s="2678" t="s">
         <v>378</v>
       </c>
-      <c r="B15" s="2680" t="s">
+      <c r="B15" s="2679" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="2681" t="s">
+      <c r="C15" s="2680" t="s">
         <v>394</v>
       </c>
-      <c r="D15" s="2679" t="s">
+      <c r="D15" s="2678" t="s">
         <v>395</v>
       </c>
-      <c r="E15" s="2679" t="s">
+      <c r="E15" s="2678" t="s">
         <v>396</v>
       </c>
-      <c r="F15" s="2679" t="s">
+      <c r="F15" s="2678" t="s">
         <v>397</v>
       </c>
-      <c r="G15" s="2679" t="s">
+      <c r="G15" s="2678" t="s">
         <v>403</v>
       </c>
-      <c r="H15" s="2682" t="s">
+      <c r="H15" s="2681" t="s">
         <v>385</v>
       </c>
-      <c r="I15" s="2683" t="s">
+      <c r="I15" s="2682" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="2684" t="s">
+      <c r="J15" s="2683" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="2685" t="s">
+      <c r="K15" s="2684" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="2686" t="s">
+      <c r="A16" s="2685" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2687" t="s">
+      <c r="B16" s="2686" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2688" t="s">
+      <c r="C16" s="2687" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="2686" t="s">
+      <c r="D16" s="2685" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2686" t="s">
+      <c r="E16" s="2685" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="2686" t="s">
+      <c r="F16" s="2685" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="2686" t="s">
+      <c r="G16" s="2685" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="2689" t="s">
+      <c r="H16" s="2688" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="2690" t="s">
+      <c r="I16" s="2689" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="2691" t="s">
+      <c r="J16" s="2690" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2692" t="s">
+      <c r="K16" s="2691" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="2693" t="s">
+      <c r="A17" s="2692" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="2694" t="s">
+      <c r="B17" s="2693" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="2693" t="s">
+      <c r="C17" s="2692" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="2695" t="s">
+      <c r="D17" s="2694" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="2693" t="s">
+      <c r="E17" s="2692" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="2693" t="s">
+      <c r="F17" s="2692" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="2693" t="s">
+      <c r="G17" s="2692" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="2696" t="s">
+      <c r="H17" s="2695" t="s">
         <v>316</v>
       </c>
-      <c r="I17" s="2697" t="s">
+      <c r="I17" s="2696" t="s">
         <v>317</v>
       </c>
-      <c r="J17" s="2698" t="s">
+      <c r="J17" s="2697" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="2699" t="s">
+      <c r="K17" s="2698" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" s="2700" t="s">
+      <c r="A18" s="2699" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="2701" t="s">
+      <c r="B18" s="2700" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="2700" t="s">
+      <c r="C18" s="2699" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2700" t="s">
+      <c r="D18" s="2699" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2702" t="s">
+      <c r="E18" s="2701" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="2700" t="s">
+      <c r="F18" s="2699" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="2700" t="s">
+      <c r="G18" s="2699" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="2703" t="s">
+      <c r="H18" s="2702" t="s">
         <v>320</v>
       </c>
-      <c r="I18" s="2704" t="s">
+      <c r="I18" s="2703" t="s">
         <v>321</v>
       </c>
-      <c r="J18" s="2705" t="s">
+      <c r="J18" s="2704" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="2706" t="s">
+      <c r="K18" s="2705" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
-      <c r="A19" s="2707" t="s">
+      <c r="A19" s="2706" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="2708" t="s">
+      <c r="B19" s="2707" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="2709" t="s">
+      <c r="C19" s="2708" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="2707" t="s">
+      <c r="D19" s="2706" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="2707" t="s">
+      <c r="E19" s="2706" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2707" t="s">
+      <c r="F19" s="2706" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="2707" t="s">
+      <c r="G19" s="2706" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2710" t="s">
+      <c r="H19" s="2709" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="2711" t="s">
+      <c r="I19" s="2710" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="2712" t="s">
+      <c r="J19" s="2711" t="s">
         <v>372</v>
       </c>
-      <c r="K19" s="2713" t="s">
+      <c r="K19" s="2712" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" s="2714" t="s">
+      <c r="A20" s="2713" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="2715" t="s">
+      <c r="B20" s="2714" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="2714" t="s">
+      <c r="C20" s="2713" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="2714" t="s">
+      <c r="D20" s="2713" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="2716" t="s">
+      <c r="E20" s="2715" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="2714" t="s">
+      <c r="F20" s="2713" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="2714" t="s">
+      <c r="G20" s="2713" t="s">
         <v>190</v>
       </c>
-      <c r="H20" s="2717" t="s">
+      <c r="H20" s="2716" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="2718" t="s">
+      <c r="I20" s="2717" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="2719" t="s">
+      <c r="J20" s="2718" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="2720" t="s">
+      <c r="K20" s="2719" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
-      <c r="A21" s="2721" t="s">
+      <c r="A21" s="2720" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2722" t="s">
+      <c r="B21" s="2721" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2723" t="s">
+      <c r="C21" s="2722" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="2721" t="s">
+      <c r="D21" s="2720" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="2721" t="s">
+      <c r="E21" s="2720" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="2721" t="s">
+      <c r="F21" s="2720" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="2721" t="s">
+      <c r="G21" s="2720" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="2724" t="s">
+      <c r="H21" s="2723" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="2725" t="s">
+      <c r="I21" s="2724" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="2726" t="s">
+      <c r="J21" s="2725" t="s">
         <v>372</v>
       </c>
-      <c r="K21" s="2727" t="s">
+      <c r="K21" s="2726" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" s="2728" t="s">
+      <c r="A22" s="2727" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="2729" t="s">
+      <c r="B22" s="2728" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="2728" t="s">
+      <c r="C22" s="2727" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="2728" t="s">
+      <c r="D22" s="2727" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="2730" t="s">
+      <c r="E22" s="2729" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="2728" t="s">
+      <c r="F22" s="2727" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="2728" t="s">
+      <c r="G22" s="2727" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="2731" t="s">
+      <c r="H22" s="2730" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="2732" t="s">
+      <c r="I22" s="2731" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="2733" t="s">
+      <c r="J22" s="2732" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="2734" t="s">
+      <c r="K22" s="2733" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
-      <c r="A23" s="2735" t="s">
+      <c r="A23" s="2734" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2736" t="s">
+      <c r="B23" s="2735" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2737" t="s">
+      <c r="C23" s="2734" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2736" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2734" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2734" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2734" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="2737" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2738" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="2739" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2740" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" s="2741" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="2742" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="2741" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="2741" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="2743" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2741" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2741" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2744" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="2745" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2746" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="2747" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" s="2748" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="2749" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="2748" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2735" t="s">
+      <c r="D25" s="2748" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="2735" t="s">
+      <c r="E25" s="2750" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="2735" t="s">
+      <c r="F25" s="2748" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="2735" t="s">
+      <c r="G25" s="2748" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="2738" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="2739" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="2740" t="s">
+      <c r="H25" s="2751" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="2752" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="2753" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="2754" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" s="2755" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="2756" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2755" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2755" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2755" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2757" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="2755" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="2758" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" s="2759" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="2760" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="2761" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" s="2762" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="2763" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="2764" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="2762" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2762" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="2762" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2762" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="2765" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="2766" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" s="2767" t="s">
+        <v>372</v>
+      </c>
+      <c r="K27" s="2768" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="2769" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="2770" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="2769" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="2771" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2769" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="2769" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="2769" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="2772" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" s="2773" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="2774" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2775" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="2776" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="2777" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="2778" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2776" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="2776" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2776" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="2776" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="2779" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29" s="2780" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="2781" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="2741" t="s">
+      <c r="K29" s="2782" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" ht="20.0" customHeight="true">
-      <c r="A24" s="2742" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2743" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="2742" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="2742" t="s">
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="2783" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="2784" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="2783" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2783" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2783" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="2785" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="2783" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="2786" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" s="2787" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="2788" t="s">
+        <v>389</v>
+      </c>
+      <c r="K30" s="2789" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="2790" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="2791" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="2792" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2790" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2790" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2790" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="2790" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="2793" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" s="2794" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" s="2795" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2796" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="2797" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="2798" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="2797" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2797" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2797" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="2799" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2797" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="2800" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="2801" t="s">
+        <v>337</v>
+      </c>
+      <c r="J32" s="2802" t="s">
+        <v>389</v>
+      </c>
+      <c r="K32" s="2803" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="2804" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="2805" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="2804" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2804" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2806" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="2804" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2804" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2807" t="s">
+        <v>340</v>
+      </c>
+      <c r="I33" s="2808" t="s">
+        <v>341</v>
+      </c>
+      <c r="J33" s="2809" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="2810" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" s="2811" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" s="2812" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="2811" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2811" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2811" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2813" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="2811" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2814" t="s">
+        <v>344</v>
+      </c>
+      <c r="I34" s="2815" t="s">
+        <v>345</v>
+      </c>
+      <c r="J34" s="2816" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="2817" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="2818" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="2819" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="2818" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="2820" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2818" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="2818" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="2818" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="2821" t="s">
+        <v>348</v>
+      </c>
+      <c r="I35" s="2822" t="s">
+        <v>349</v>
+      </c>
+      <c r="J35" s="2823" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="2824" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="2825" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="2826" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="2825" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="2827" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2825" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="2825" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="2825" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="2828" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="2829" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="2830" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="2831" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="2832" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2833" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2832" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2832" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2834" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2832" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2832" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2835" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="2836" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="2837" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="2838" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="2839" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2840" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2839" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2839" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2841" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="2839" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2839" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2842" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2843" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="2844" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="2845" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="2846" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2847" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2846" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2846" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="2848" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="2846" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="2846" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="2849" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="2850" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2851" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="2852" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="2853" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2854" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2853" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="2853" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="2855" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="2853" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="2853" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="2856" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2857" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="2858" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" s="2859" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="2860" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="2861" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="2862" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="2860" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="2860" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="2860" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="2860" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="2863" t="s">
+        <v>357</v>
+      </c>
+      <c r="I41" s="2864" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" s="2865" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" s="2866" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="2867" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2868" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2867" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2867" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="2867" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="2869" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="2867" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="2870" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="2871" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="2872" t="s">
+        <v>389</v>
+      </c>
+      <c r="K42" s="2873" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" s="2874" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2875" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2874" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="2876" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2874" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="2874" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="2874" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="2877" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="2878" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="2879" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="2880" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" s="2881" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2882" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2881" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2881" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="2881" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="2883" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="2881" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2884" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="2885" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="2886" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" s="2887" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" s="2888" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2889" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2888" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2888" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2888" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2890" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="2888" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="2891" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="2892" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="2893" t="s">
+        <v>377</v>
+      </c>
+      <c r="K45" s="2894" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" s="2895" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="2896" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="2897" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2895" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="2895" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="2895" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="2895" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="2898" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="2899" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="2900" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="2901" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" s="2902" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2903" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="2902" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2902" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2902" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="2904" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="2902" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="2905" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="2906" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="2907" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" s="2908" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" s="2909" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2910" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="2909" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2911" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="2909" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="2909" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="2909" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="2912" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="2913" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="2914" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="2915" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" s="2916" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="2917" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="2916" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="2916" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="2916" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="2918" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="2916" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="2919" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="2920" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="2921" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" s="2922" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" s="2923" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="2924" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="2923" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="2925" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="2923" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="2923" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="2923" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="2926" t="s">
+        <v>272</v>
+      </c>
+      <c r="I50" s="2927" t="s">
+        <v>273</v>
+      </c>
+      <c r="J50" s="2928" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="2929" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" s="2930" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="2931" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="2932" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2930" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2930" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2930" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="2930" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2933" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="2934" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" s="2935" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="2936" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" s="2937" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="2938" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="2937" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2937" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2939" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="2937" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="2937" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2940" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="2941" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="2942" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="2943" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" s="2944" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="2945" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="2944" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2944" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="2944" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="2946" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="2944" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="2947" t="s">
+        <v>361</v>
+      </c>
+      <c r="I53" s="2948" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" s="2949" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" s="2950" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54" s="2951" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="2952" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="2951" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2951" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="2951" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="2951" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2951" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="2953" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="2954" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" s="2955" t="s">
+        <v>296</v>
+      </c>
+      <c r="K54" s="2956" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" s="2957" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2958" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2957" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="2957" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2959" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="2957" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="2957" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2960" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="2961" t="s">
+        <v>141</v>
+      </c>
+      <c r="J55" s="2962" t="s">
+        <v>201</v>
+      </c>
+      <c r="K55" s="2963" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" s="2964" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2965" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="2964" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="2964" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="2966" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="2964" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="2964" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="2967" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="2968" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="2969" t="s">
+        <v>201</v>
+      </c>
+      <c r="K56" s="2970" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" s="2971" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="2972" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="2971" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="2973" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="2971" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" s="2971" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="2971" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="2974" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="2975" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="2976" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="2977" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" s="2978" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="2979" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="2978" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="2744" t="s">
+      <c r="D58" s="2978" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="2742" t="s">
+      <c r="E58" s="2978" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2742" t="s">
+      <c r="F58" s="2978" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="2745" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="2746" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="2747" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="2748" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" ht="20.0" customHeight="true">
-      <c r="A25" s="2749" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="2750" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="2749" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2749" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="2751" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="2749" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2749" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="2752" t="s">
-        <v>205</v>
-      </c>
-      <c r="I25" s="2753" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="2754" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="2755" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" ht="20.0" customHeight="true">
-      <c r="A26" s="2756" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="2757" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="2756" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2756" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2756" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="2758" t="s">
+      <c r="G58" s="2978" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="2980" t="s">
+        <v>248</v>
+      </c>
+      <c r="I58" s="2981" t="s">
+        <v>249</v>
+      </c>
+      <c r="J58" s="2982" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" s="2983" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" s="2984" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="2985" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2984" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2984" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="2984" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2986" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="2984" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="2987" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" s="2988" t="s">
+        <v>253</v>
+      </c>
+      <c r="J59" s="2989" t="s">
+        <v>377</v>
+      </c>
+      <c r="K59" s="2990" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" ht="20.0" customHeight="true">
+      <c r="A60" s="2991" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="2992" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="2991" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="2991" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="2991" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="2991" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="2993" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="2994" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="2995" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="2996" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" s="2997" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" ht="20.0" customHeight="true">
+      <c r="A61" s="2998" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="2999" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" s="2998" t="s">
         <v>222</v>
       </c>
-      <c r="G26" s="2756" t="s">
+      <c r="D61" s="2998" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="2759" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="2760" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="2761" t="s">
-        <v>377</v>
-      </c>
-      <c r="K26" s="2762" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" ht="20.0" customHeight="true">
-      <c r="A27" s="2763" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="2764" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="2765" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="2763" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2763" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="2763" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="2763" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="2766" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" s="2767" t="s">
-        <v>219</v>
-      </c>
-      <c r="J27" s="2768" t="s">
-        <v>372</v>
-      </c>
-      <c r="K27" s="2769" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" s="2770" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="2771" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="2770" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="2772" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="2770" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="2770" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="2770" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="2773" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="2774" t="s">
-        <v>286</v>
-      </c>
-      <c r="J28" s="2775" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="2776" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" ht="20.0" customHeight="true">
-      <c r="A29" s="2777" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="2778" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="2779" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2777" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="2777" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="2777" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="2777" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="2780" t="s">
-        <v>265</v>
-      </c>
-      <c r="I29" s="2781" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="2782" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2783" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" s="2784" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="2785" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="2784" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="2784" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="2784" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" s="2786" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="2784" t="s">
-        <v>259</v>
-      </c>
-      <c r="H30" s="2787" t="s">
-        <v>328</v>
-      </c>
-      <c r="I30" s="2788" t="s">
-        <v>329</v>
-      </c>
-      <c r="J30" s="2789" t="s">
-        <v>389</v>
-      </c>
-      <c r="K30" s="2790" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" s="2791" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="2792" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="2793" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2791" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="2791" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="2791" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="2791" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="2794" t="s">
-        <v>332</v>
-      </c>
-      <c r="I31" s="2795" t="s">
-        <v>333</v>
-      </c>
-      <c r="J31" s="2796" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2797" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" s="2798" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="2799" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="2798" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2798" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2798" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="2800" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="2798" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="2801" t="s">
-        <v>336</v>
-      </c>
-      <c r="I32" s="2802" t="s">
-        <v>337</v>
-      </c>
-      <c r="J32" s="2803" t="s">
-        <v>389</v>
-      </c>
-      <c r="K32" s="2804" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" s="2805" t="s">
-        <v>338</v>
-      </c>
-      <c r="B33" s="2806" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="2805" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="2805" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="2807" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="2805" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="2805" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="2808" t="s">
-        <v>340</v>
-      </c>
-      <c r="I33" s="2809" t="s">
-        <v>341</v>
-      </c>
-      <c r="J33" s="2810" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="2811" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" s="2812" t="s">
-        <v>342</v>
-      </c>
-      <c r="B34" s="2813" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="2812" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2812" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="2812" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="2814" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="2812" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="2815" t="s">
-        <v>344</v>
-      </c>
-      <c r="I34" s="2816" t="s">
-        <v>345</v>
-      </c>
-      <c r="J34" s="2817" t="s">
-        <v>389</v>
-      </c>
-      <c r="K34" s="2818" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" s="2819" t="s">
-        <v>346</v>
-      </c>
-      <c r="B35" s="2820" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="2819" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="2821" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="2819" t="s">
-        <v>254</v>
-      </c>
-      <c r="F35" s="2819" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="2819" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="2822" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" s="2823" t="s">
-        <v>349</v>
-      </c>
-      <c r="J35" s="2824" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="2825" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" s="2826" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="2827" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" s="2826" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="2828" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="2826" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="2826" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="2826" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="2829" t="s">
-        <v>352</v>
-      </c>
-      <c r="I36" s="2830" t="s">
-        <v>353</v>
-      </c>
-      <c r="J36" s="2831" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="2832" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" s="2833" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2834" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="2833" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2833" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="2835" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2833" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="2833" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="2836" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="2837" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" s="2838" t="s">
-        <v>106</v>
-      </c>
-      <c r="K37" s="2839" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" s="2840" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="2841" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2840" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="2840" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2842" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="2840" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="2840" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="2843" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="2844" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="2845" t="s">
-        <v>201</v>
-      </c>
-      <c r="K38" s="2846" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" s="2847" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2848" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="2847" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="2847" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="2849" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="2847" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="2847" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="2850" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="2851" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="2852" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="2853" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" s="2854" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="2855" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2854" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="2854" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="2856" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="2854" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="2854" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" s="2857" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="2858" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="2859" t="s">
-        <v>201</v>
-      </c>
-      <c r="K40" s="2860" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" s="2861" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="2862" t="s">
-        <v>356</v>
-      </c>
-      <c r="C41" s="2863" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="2861" t="s">
-        <v>258</v>
-      </c>
-      <c r="E41" s="2861" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" s="2861" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="2861" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="2864" t="s">
-        <v>357</v>
-      </c>
-      <c r="I41" s="2865" t="s">
-        <v>358</v>
-      </c>
-      <c r="J41" s="2866" t="s">
-        <v>372</v>
-      </c>
-      <c r="K41" s="2867" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" s="2868" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="2869" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2868" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="2868" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="2868" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="2870" t="s">
-        <v>221</v>
-      </c>
-      <c r="G42" s="2868" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="2871" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="2872" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="2873" t="s">
-        <v>389</v>
-      </c>
-      <c r="K42" s="2874" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" ht="20.0" customHeight="true">
-      <c r="A43" s="2875" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="2876" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="2875" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="2877" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="2875" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="2875" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="2875" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="2878" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="2879" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="2880" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="2881" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" ht="20.0" customHeight="true">
-      <c r="A44" s="2882" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="2883" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="2882" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="2882" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="2882" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="2884" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="2882" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="2885" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="2886" t="s">
-        <v>117</v>
-      </c>
-      <c r="J44" s="2887" t="s">
-        <v>389</v>
-      </c>
-      <c r="K44" s="2888" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" ht="20.0" customHeight="true">
-      <c r="A45" s="2889" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="2890" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2889" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="2889" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2889" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="2891" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="2889" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="2892" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="2893" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="2894" t="s">
-        <v>377</v>
-      </c>
-      <c r="K45" s="2895" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" ht="20.0" customHeight="true">
-      <c r="A46" s="2896" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="2897" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="2898" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="2896" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="2896" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="2896" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="2896" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" s="2899" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="2900" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46" s="2901" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="2902" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" ht="20.0" customHeight="true">
-      <c r="A47" s="2903" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2904" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="2903" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="2903" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="2903" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="2905" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="2903" t="s">
-        <v>222</v>
-      </c>
-      <c r="H47" s="2906" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="2907" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="2908" t="s">
-        <v>389</v>
-      </c>
-      <c r="K47" s="2909" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" ht="20.0" customHeight="true">
-      <c r="A48" s="2910" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="2911" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="2910" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="2912" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="2910" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="2910" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="2910" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="2913" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="2914" t="s">
-        <v>137</v>
-      </c>
-      <c r="J48" s="2915" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48" s="2916" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" ht="20.0" customHeight="true">
-      <c r="A49" s="2917" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" s="2918" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="2917" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="2917" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="2917" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="2919" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="2917" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="2920" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="2921" t="s">
-        <v>232</v>
-      </c>
-      <c r="J49" s="2922" t="s">
-        <v>389</v>
-      </c>
-      <c r="K49" s="2923" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" ht="20.0" customHeight="true">
-      <c r="A50" s="2924" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="2925" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="2924" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="2926" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="2924" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="2924" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="2924" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="2927" t="s">
-        <v>272</v>
-      </c>
-      <c r="I50" s="2928" t="s">
-        <v>273</v>
-      </c>
-      <c r="J50" s="2929" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="2930" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" ht="20.0" customHeight="true">
-      <c r="A51" s="2931" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" s="2932" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="2933" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2931" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="2931" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="2931" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="2931" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="2934" t="s">
-        <v>293</v>
-      </c>
-      <c r="I51" s="2935" t="s">
-        <v>294</v>
-      </c>
-      <c r="J51" s="2936" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="2937" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" ht="20.0" customHeight="true">
-      <c r="A52" s="2938" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="2939" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="2938" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="2938" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="2940" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="2938" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="2938" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="2941" t="s">
-        <v>237</v>
-      </c>
-      <c r="I52" s="2942" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="2943" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" s="2944" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" ht="20.0" customHeight="true">
-      <c r="A53" s="2945" t="s">
-        <v>359</v>
-      </c>
-      <c r="B53" s="2946" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="2945" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="2945" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="2945" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="2947" t="s">
+      <c r="E61" s="2998" t="s">
         <v>126</v>
       </c>
-      <c r="G53" s="2945" t="s">
+      <c r="F61" s="2998" t="s">
         <v>209</v>
       </c>
-      <c r="H53" s="2948" t="s">
-        <v>361</v>
-      </c>
-      <c r="I53" s="2949" t="s">
-        <v>362</v>
-      </c>
-      <c r="J53" s="2950" t="s">
-        <v>377</v>
-      </c>
-      <c r="K53" s="2951" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" ht="20.0" customHeight="true">
-      <c r="A54" s="2952" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="2953" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="2952" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2952" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="2952" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="2952" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="2952" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="2954" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" s="2955" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" s="2956" t="s">
-        <v>296</v>
-      </c>
-      <c r="K54" s="2957" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" ht="20.0" customHeight="true">
-      <c r="A55" s="2958" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="2959" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="2958" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="2958" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="2960" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="2958" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="2958" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="2961" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="2962" t="s">
-        <v>141</v>
-      </c>
-      <c r="J55" s="2963" t="s">
-        <v>201</v>
-      </c>
-      <c r="K55" s="2964" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" ht="20.0" customHeight="true">
-      <c r="A56" s="2965" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="2966" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="2965" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="2965" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="2967" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="2965" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="2965" t="s">
-        <v>299</v>
-      </c>
-      <c r="H56" s="2968" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56" s="2969" t="s">
-        <v>149</v>
-      </c>
-      <c r="J56" s="2970" t="s">
-        <v>201</v>
-      </c>
-      <c r="K56" s="2971" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" ht="20.0" customHeight="true">
-      <c r="A57" s="2972" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="2973" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="2972" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="2974" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="2972" t="s">
-        <v>299</v>
-      </c>
-      <c r="F57" s="2972" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" s="2972" t="s">
-        <v>243</v>
-      </c>
-      <c r="H57" s="2975" t="s">
-        <v>156</v>
-      </c>
-      <c r="I57" s="2976" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="2977" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57" s="2978" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" ht="20.0" customHeight="true">
-      <c r="A58" s="2979" t="s">
-        <v>245</v>
-      </c>
-      <c r="B58" s="2980" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="2979" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="2979" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2979" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="2979" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="2979" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="2981" t="s">
-        <v>248</v>
-      </c>
-      <c r="I58" s="2982" t="s">
-        <v>249</v>
-      </c>
-      <c r="J58" s="2983" t="s">
-        <v>296</v>
-      </c>
-      <c r="K58" s="2984" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" ht="20.0" customHeight="true">
-      <c r="A59" s="2985" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="2986" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="2985" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2985" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="2985" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2987" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="2985" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="2988" t="s">
-        <v>252</v>
-      </c>
-      <c r="I59" s="2989" t="s">
-        <v>253</v>
-      </c>
-      <c r="J59" s="2990" t="s">
-        <v>377</v>
-      </c>
-      <c r="K59" s="2991" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" ht="20.0" customHeight="true">
-      <c r="A60" s="2992" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="2993" t="s">
-        <v>275</v>
-      </c>
-      <c r="C60" s="2992" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="2992" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="2992" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" s="2992" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="2994" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="2995" t="s">
-        <v>276</v>
-      </c>
-      <c r="I60" s="2996" t="s">
-        <v>277</v>
-      </c>
-      <c r="J60" s="2997" t="s">
+      <c r="G61" s="3000" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="3001" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="3002" t="s">
+        <v>365</v>
+      </c>
+      <c r="J61" s="3003" t="s">
         <v>387</v>
       </c>
-      <c r="K60" s="2998" t="s">
+      <c r="K61" s="3004" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="61" ht="20.0" customHeight="true">
-      <c r="A61" s="2999" t="s">
-        <v>289</v>
-      </c>
-      <c r="B61" s="3000" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" s="2999" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="2999" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="2999" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="3001" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="2999" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="3002" t="s">
-        <v>364</v>
-      </c>
-      <c r="I61" s="3003" t="s">
-        <v>365</v>
-      </c>
-      <c r="J61" s="3004" t="s">
-        <v>377</v>
-      </c>
-      <c r="K61" s="3005" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -575,7 +575,7 @@
     <t>2.03.57</t>
   </si>
   <si>
-    <t>1.52.46</t>
+    <t>1.51.83</t>
   </si>
   <si>
     <t>82</t>
@@ -752,7 +752,7 @@
     <t>1.23.20</t>
   </si>
   <si>
-    <t>1.14.60</t>
+    <t>1.14.48</t>
   </si>
   <si>
     <t>59</t>
@@ -8581,7 +8581,7 @@
     <xf numFmtId="0" fontId="259" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="259" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -8590,7 +8590,7 @@
     <xf numFmtId="0" fontId="259" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="259" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -9865,7 +9865,7 @@
     <xf numFmtId="0" fontId="322" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="322" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="322" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -9874,7 +9874,7 @@
     <xf numFmtId="0" fontId="322" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="322" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="322" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -11158,7 +11158,7 @@
     <xf numFmtId="0" fontId="385" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="385" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="385" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -11167,7 +11167,7 @@
     <xf numFmtId="0" fontId="385" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="385" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="385" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -12457,7 +12457,7 @@
     <xf numFmtId="0" fontId="448" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="448" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="448" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -12466,7 +12466,7 @@
     <xf numFmtId="0" fontId="448" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="448" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="448" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -15802,19 +15802,19 @@
         <v>182</v>
       </c>
       <c r="C45" s="3051" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="D45" s="3051" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E45" s="3053" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F45" s="3051" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G45" s="3051" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="H45" s="3054" t="s">
         <v>183</v>
@@ -15823,10 +15823,10 @@
         <v>184</v>
       </c>
       <c r="J45" s="3056" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="K45" s="3057" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
@@ -24252,19 +24252,19 @@
         <v>182</v>
       </c>
       <c r="C45" s="1759" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1759" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1759" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="1761" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1759" t="s">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="F45" s="1759" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1761" t="s">
+        <v>43</v>
       </c>
       <c r="H45" s="1762" t="s">
         <v>183</v>
@@ -24273,10 +24273,10 @@
         <v>184</v>
       </c>
       <c r="J45" s="1764" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K45" s="1765" t="s">
-        <v>97</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
@@ -26477,19 +26477,19 @@
         <v>182</v>
       </c>
       <c r="C45" s="2187" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2187" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2187" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F45" s="2189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G45" s="2187" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H45" s="2190" t="s">
         <v>183</v>
@@ -26498,10 +26498,10 @@
         <v>184</v>
       </c>
       <c r="J45" s="2192" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K45" s="2193" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
@@ -28702,19 +28702,19 @@
         <v>182</v>
       </c>
       <c r="C45" s="2618" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2618" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="2620" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="2618" t="s">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="E45" s="2618" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="2620" t="s">
+        <v>43</v>
       </c>
       <c r="G45" s="2618" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H45" s="2621" t="s">
         <v>183</v>
@@ -28723,10 +28723,10 @@
         <v>184</v>
       </c>
       <c r="J45" s="2623" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="K45" s="2624" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -11,12 +11,13 @@
     <sheet name="经典S4交流分数线" r:id="rId5" sheetId="3"/>
     <sheet name="经典s5交流分数线" r:id="rId6" sheetId="4"/>
     <sheet name="经典s8交流分数线" r:id="rId7" sheetId="5"/>
+    <sheet name="经典s9交流分数线" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -105,253 +106,289 @@
     <t>2.15</t>
   </si>
   <si>
-    <t>2.07.20</t>
+    <t>2.05.96</t>
   </si>
   <si>
     <t>1.59.56</t>
   </si>
   <si>
+    <t>一线以上</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>灵岩环道</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>1.51.98</t>
+  </si>
+  <si>
+    <t>1.46.69</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>迪拜富人区</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.49.93</t>
+  </si>
+  <si>
+    <t>1.43.32</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>恐龙决斗场</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.56.94</t>
+  </si>
+  <si>
+    <t>1.49.02</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>龙之遗迹</t>
+  </si>
+  <si>
+    <t>1.44.77</t>
+  </si>
+  <si>
+    <t>1.36.75</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>万里长城</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.49.57</t>
+  </si>
+  <si>
+    <t>1.39.84</t>
+  </si>
+  <si>
     <t>二线以上</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>海盗绝壁海湾</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.00.93</t>
+  </si>
+  <si>
+    <t>1.50.38</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>森林发夹</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.20.82</t>
+  </si>
+  <si>
+    <t>2.08.56</t>
+  </si>
+  <si>
+    <t>三线以上</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.03.57</t>
+  </si>
+  <si>
+    <t>1.51.83</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.05.89</t>
+  </si>
+  <si>
+    <t>1.56.26</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.10.58</t>
+  </si>
+  <si>
+    <t>1.57.16</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>2.01.31</t>
+  </si>
+  <si>
+    <t>1.48.96</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
     <t>85</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>灵岩环道</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>1.52.24</t>
-  </si>
-  <si>
-    <t>1.46.69</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>迪拜富人区</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.50.51</t>
-  </si>
-  <si>
-    <t>1.43.32</t>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>2.01</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>恐龙决斗场</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.59.30</t>
-  </si>
-  <si>
-    <t>1.49.02</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>1.58.56</t>
+  </si>
+  <si>
+    <t>1.51.70</t>
+  </si>
+  <si>
+    <t>1.54</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>龙之遗迹</t>
-  </si>
-  <si>
-    <t>1.44.77</t>
-  </si>
-  <si>
-    <t>1.36.75</t>
-  </si>
-  <si>
-    <t>一线以上</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>万里长城</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.49.57</t>
-  </si>
-  <si>
-    <t>1.39.84</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>海盗绝壁海湾</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.00.93</t>
-  </si>
-  <si>
-    <t>1.50.38</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>森林发夹</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.20.82</t>
-  </si>
-  <si>
-    <t>2.08.56</t>
-  </si>
-  <si>
-    <t>三线以上</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.03.57</t>
-  </si>
-  <si>
-    <t>1.51.83</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.05.89</t>
-  </si>
-  <si>
-    <t>1.56.26</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.10.58</t>
-  </si>
-  <si>
-    <t>1.57.16</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>2.01.31</t>
-  </si>
-  <si>
-    <t>1.48.96</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.30</t>
   </si>
   <si>
     <t>二线勉强</t>
@@ -360,75 +397,39 @@
     <t>80</t>
   </si>
   <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>2.01</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>1.58.85</t>
+  </si>
+  <si>
+    <t>1.44.17</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.23</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>1.59.46</t>
-  </si>
-  <si>
-    <t>1.51.70</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>1.58.85</t>
-  </si>
-  <si>
-    <t>1.44.17</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -447,15 +448,15 @@
     <t>2.02.06</t>
   </si>
   <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>73</t>
   </si>
   <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>娱乐以上</t>
   </si>
   <si>
@@ -472,6 +473,21 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -479,7 +495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="81">
+  <fonts count="98">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -812,8 +828,77 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +958,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -950,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -991,7 +1086,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1003,7 +1098,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1012,7 +1107,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1024,7 +1119,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1033,7 +1128,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1054,7 +1149,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1267,7 +1362,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1279,7 +1374,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1288,7 +1383,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1300,7 +1395,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1309,7 +1404,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1330,7 +1425,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1342,7 +1437,7 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1351,7 +1446,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1585,7 +1680,7 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1597,7 +1692,7 @@
     <xf numFmtId="0" fontId="34" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1606,7 +1701,7 @@
     <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1618,7 +1713,7 @@
     <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1627,7 +1722,7 @@
     <xf numFmtId="0" fontId="35" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1648,7 +1743,7 @@
     <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1903,7 +1998,7 @@
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1936,7 +2031,7 @@
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1945,7 +2040,7 @@
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1957,7 +2052,7 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1966,7 +2061,7 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1987,7 +2082,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1999,7 +2094,7 @@
     <xf numFmtId="0" fontId="54" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2008,7 +2103,7 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2242,7 +2337,7 @@
     <xf numFmtId="0" fontId="66" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2275,7 +2370,7 @@
     <xf numFmtId="0" fontId="68" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="68" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2284,7 +2379,7 @@
     <xf numFmtId="0" fontId="68" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2296,7 +2391,7 @@
     <xf numFmtId="0" fontId="69" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="69" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2305,7 +2400,7 @@
     <xf numFmtId="0" fontId="69" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2326,7 +2421,7 @@
     <xf numFmtId="0" fontId="70" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2338,7 +2433,7 @@
     <xf numFmtId="0" fontId="71" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2347,7 +2442,7 @@
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2540,6 +2635,333 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2641,10 +3063,10 @@
       <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2695,10 +3117,10 @@
         <v>41</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -2711,10 +3133,10 @@
       <c r="C5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="23" t="s">
@@ -2730,53 +3152,53 @@
         <v>48</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>14</v>
@@ -2794,30 +3216,30 @@
         <v>45</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>36</v>
@@ -2829,24 +3251,24 @@
         <v>46</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>45</v>
@@ -2855,89 +3277,89 @@
         <v>38</v>
       </c>
       <c r="E9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>73</v>
-      </c>
       <c r="J9" s="56" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="H10" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="I10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="J10" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="K10" s="64" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="65" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J11" s="70" t="s">
         <v>20</v>
@@ -2948,66 +3370,66 @@
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="72" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="F13" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="G13" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="79" t="s">
+      <c r="H13" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="I13" s="83" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="83" t="s">
-        <v>101</v>
       </c>
       <c r="J13" s="84" t="s">
         <v>20</v>
@@ -3018,37 +3440,37 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>105</v>
-      </c>
       <c r="E14" s="88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" s="86" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" s="89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3117,10 +3539,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>44</v>
@@ -3135,10 +3557,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -3149,19 +3571,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="103" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H3" s="104" t="s">
         <v>29</v>
@@ -3170,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="106" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="K3" s="107" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -3186,14 +3608,14 @@
       <c r="C4" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="110" t="s">
+      <c r="D4" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="108" t="s">
         <v>38</v>
@@ -3205,10 +3627,10 @@
         <v>41</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K4" s="114" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -3219,10 +3641,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="117" t="s">
         <v>35</v>
@@ -3240,18 +3662,18 @@
         <v>48</v>
       </c>
       <c r="J5" s="120" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K5" s="121" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="123" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="122" t="s">
         <v>17</v>
@@ -3259,43 +3681,43 @@
       <c r="D6" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>116</v>
+      <c r="E6" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="122" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="126" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" s="127" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K6" s="128" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="129" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="130" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>112</v>
       </c>
       <c r="F7" s="129" t="s">
         <v>24</v>
@@ -3304,45 +3726,45 @@
         <v>26</v>
       </c>
       <c r="H7" s="132" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K7" s="135" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="136" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="136" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="136" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" s="141" t="s">
         <v>20</v>
@@ -3353,10 +3775,10 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="143" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="143" t="s">
         <v>15</v>
@@ -3368,36 +3790,36 @@
         <v>35</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G9" s="143" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H9" s="146" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I9" s="147" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="148" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K9" s="149" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="150" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="150" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="152" t="s">
         <v>39</v>
@@ -3406,62 +3828,62 @@
         <v>25</v>
       </c>
       <c r="G10" s="150" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="153" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" s="154" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" s="155" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K10" s="156" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="157" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="159" t="s">
+      <c r="H11" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="157" t="s">
+      <c r="K11" s="163" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="163" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="164" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="165" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="164" t="s">
         <v>45</v>
@@ -3476,30 +3898,30 @@
         <v>26</v>
       </c>
       <c r="G12" s="164" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" s="167" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="168" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J12" s="169" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K12" s="170" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="171" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="172" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="171" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="171" t="s">
         <v>24</v>
@@ -3508,127 +3930,127 @@
         <v>26</v>
       </c>
       <c r="F13" s="171" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G13" s="171" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H13" s="174" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I13" s="175" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K13" s="177" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="178" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="178" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="180" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="178" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="178" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="181" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I14" s="182" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J14" s="183" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K14" s="184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="185" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="186" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="185" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="185" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="187" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="185" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="185" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="188" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I15" s="189" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J15" s="190" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K15" s="191" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="192" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="193" t="s">
-        <v>130</v>
-      </c>
       <c r="C16" s="192" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="192" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="194" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G16" s="192" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H16" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="196" t="s">
+      <c r="J16" s="197" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="198" t="s">
         <v>132</v>
-      </c>
-      <c r="J16" s="197" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="198" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3694,13 +4116,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="200" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="202" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="200" t="s">
         <v>44</v>
@@ -3715,10 +4137,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="205" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K2" s="206" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -3734,14 +4156,14 @@
       <c r="D3" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="207" t="s">
+      <c r="E3" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="209" t="s">
-        <v>135</v>
+      <c r="F3" s="207" t="s">
+        <v>134</v>
       </c>
       <c r="G3" s="207" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H3" s="210" t="s">
         <v>29</v>
@@ -3750,10 +4172,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="212" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K3" s="213" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -3776,7 +4198,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="214" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H4" s="217" t="s">
         <v>40</v>
@@ -3785,10 +4207,10 @@
         <v>41</v>
       </c>
       <c r="J4" s="219" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K4" s="220" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -3799,10 +4221,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="221" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" s="221" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="223" t="s">
         <v>35</v>
@@ -3820,18 +4242,18 @@
         <v>48</v>
       </c>
       <c r="J5" s="226" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K5" s="227" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="229" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="229" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="228" t="s">
         <v>17</v>
@@ -3839,34 +4261,34 @@
       <c r="D6" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="228" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="230" t="s">
-        <v>116</v>
+      <c r="E6" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="228" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="228" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="231" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="232" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" s="233" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K6" s="234" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="235" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="236" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="235" t="s">
         <v>37</v>
@@ -3878,30 +4300,30 @@
         <v>46</v>
       </c>
       <c r="F7" s="235" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="238" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I7" s="239" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J7" s="240" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K7" s="241" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="242" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="243" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="242" t="s">
         <v>13</v>
@@ -3910,7 +4332,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="242" t="s">
         <v>16</v>
@@ -3919,68 +4341,68 @@
         <v>17</v>
       </c>
       <c r="H8" s="245" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="246" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" s="247" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K8" s="248" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="249" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="250" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="249" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="249" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" s="249" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="251" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="249" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9" s="252" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I9" s="253" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="254" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K9" s="255" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="256" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="256" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="256" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="258" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" s="256" t="s">
         <v>24</v>
@@ -3989,59 +4411,59 @@
         <v>26</v>
       </c>
       <c r="H10" s="259" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" s="260" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" s="261" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K10" s="262" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="263" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="264" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="263" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="263" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="263" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="263" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="263" t="s">
+      <c r="F11" s="265" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="263" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="265" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="263" t="s">
+      <c r="I11" s="267" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="268" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="266" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="267" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="268" t="s">
-        <v>82</v>
-      </c>
       <c r="K11" s="269" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="270" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="271" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="270" t="s">
         <v>45</v>
@@ -4056,103 +4478,103 @@
         <v>26</v>
       </c>
       <c r="G12" s="270" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" s="273" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="274" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J12" s="275" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K12" s="276" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="277" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="278" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="277" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="277" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="277" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="277" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="280" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I13" s="281" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="282" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K13" s="283" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="284" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="285" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="284" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="284" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="284" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="286" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="284" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="284" t="s">
+      <c r="I14" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="287" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="288" t="s">
-        <v>101</v>
-      </c>
       <c r="J14" s="289" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="290" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="291" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="292" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="291" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="291" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E15" s="291" t="s">
         <v>38</v>
@@ -4161,51 +4583,51 @@
         <v>24</v>
       </c>
       <c r="G15" s="291" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="294" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I15" s="295" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J15" s="296" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K15" s="297" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="298" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="299" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="299" t="s">
-        <v>130</v>
-      </c>
       <c r="C16" s="298" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="298" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="298" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F16" s="300" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="298" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H16" s="301" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="302" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="302" t="s">
-        <v>132</v>
-      </c>
       <c r="J16" s="303" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K16" s="304" t="s">
         <v>137</v>
@@ -4283,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="306" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G2" s="306" t="s">
         <v>35</v>
@@ -4295,10 +4717,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="311" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K2" s="312" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -4314,14 +4736,14 @@
       <c r="D3" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="315" t="s">
-        <v>135</v>
+      <c r="F3" s="313" t="s">
+        <v>134</v>
       </c>
       <c r="G3" s="313" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H3" s="316" t="s">
         <v>29</v>
@@ -4330,10 +4752,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="318" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K3" s="319" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -4344,19 +4766,19 @@
         <v>140</v>
       </c>
       <c r="C4" s="320" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="320" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="322" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="320" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" s="320" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="323" t="s">
         <v>141</v>
@@ -4365,10 +4787,10 @@
         <v>142</v>
       </c>
       <c r="J4" s="325" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K4" s="326" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -4379,16 +4801,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="327" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="329" t="s">
-        <v>122</v>
+      <c r="E5" s="329" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="327" t="s">
+        <v>118</v>
       </c>
       <c r="G5" s="327" t="s">
         <v>45</v>
@@ -4400,10 +4822,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="332" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K5" s="333" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -4419,14 +4841,14 @@
       <c r="D6" s="334" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="334" t="s">
+      <c r="E6" s="336" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="336" t="s">
+      <c r="F6" s="334" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="334" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>47</v>
@@ -4435,59 +4857,59 @@
         <v>48</v>
       </c>
       <c r="J6" s="339" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K6" s="340" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="341" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="342" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" s="342" t="s">
-        <v>51</v>
       </c>
       <c r="C7" s="341" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="341" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="341" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="343" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="343" t="s">
+      <c r="F7" s="341" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="341" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H7" s="344" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="345" t="s">
-        <v>54</v>
-      </c>
       <c r="J7" s="346" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K7" s="347" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="348" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="349" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="348" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="349" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="348" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" s="348" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="350" t="s">
         <v>38</v>
@@ -4499,59 +4921,59 @@
         <v>25</v>
       </c>
       <c r="H8" s="351" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I8" s="352" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J8" s="353" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K8" s="354" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="355" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="356" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="355" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="355" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="357" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="355" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="355" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="358" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="359" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="360" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K9" s="361" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="362" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="363" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="362" t="s">
         <v>14</v>
@@ -4563,19 +4985,19 @@
         <v>44</v>
       </c>
       <c r="F10" s="364" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G10" s="362" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="365" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I10" s="366" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="367" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K10" s="368" t="s">
         <v>137</v>
@@ -4583,16 +5005,16 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="369" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="370" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="369" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="369" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="369" t="s">
         <v>38</v>
@@ -4604,164 +5026,164 @@
         <v>25</v>
       </c>
       <c r="H11" s="372" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11" s="373" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" s="374" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K11" s="375" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="376" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B12" s="377" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="376" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="376" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="376" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" s="378" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G12" s="376" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="379" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="380" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="379" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="380" t="s">
-        <v>81</v>
-      </c>
       <c r="J12" s="381" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="382" t="s">
         <v>144</v>
-      </c>
-      <c r="K12" s="382" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="383" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" s="384" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="383" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="383" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="383" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F13" s="385" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="383" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="386" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I13" s="387" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J13" s="388" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K13" s="389" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="390" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="391" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="390" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="390" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" s="390" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="392" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="390" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="393" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="394" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J14" s="395" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="396" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="397" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="398" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="397" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="397" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="397" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="399" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="397" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="400" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="401" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J15" s="402" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="403" t="s">
         <v>144</v>
-      </c>
-      <c r="K15" s="403" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="404" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="405" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="404" t="s">
         <v>36</v>
@@ -4770,60 +5192,60 @@
         <v>37</v>
       </c>
       <c r="E16" s="404" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="406" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G16" s="404" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H16" s="407" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I16" s="408" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="409" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="410" t="s">
         <v>144</v>
-      </c>
-      <c r="K16" s="410" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="411" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="412" t="s">
         <v>129</v>
-      </c>
-      <c r="B17" s="412" t="s">
-        <v>130</v>
       </c>
       <c r="C17" s="411" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="411" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E17" s="411" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F17" s="413" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="411" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="414" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="415" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="415" t="s">
-        <v>132</v>
-      </c>
       <c r="J17" s="416" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="417" t="s">
         <v>144</v>
-      </c>
-      <c r="K17" s="417" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4901,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="419" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="422" t="s">
         <v>18</v>
@@ -4910,10 +5332,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="424" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K2" s="425" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -4924,19 +5346,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="426" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D3" s="426" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="426" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="428" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="E3" s="428" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="426" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="426" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="429" t="s">
         <v>29</v>
@@ -4945,10 +5367,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="431" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="K3" s="432" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -4968,7 +5390,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="435" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="433" t="s">
         <v>27</v>
@@ -4980,10 +5402,10 @@
         <v>142</v>
       </c>
       <c r="J4" s="438" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="439" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" s="439" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -4994,19 +5416,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="440" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="440" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="440" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="442" t="s">
+      <c r="E5" s="442" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="440" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="440" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="443" t="s">
         <v>40</v>
@@ -5015,10 +5437,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="445" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K5" s="446" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -5034,11 +5456,11 @@
       <c r="D6" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="447" t="s">
+      <c r="E6" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="449" t="s">
-        <v>114</v>
+      <c r="F6" s="447" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="447" t="s">
         <v>17</v>
@@ -5050,88 +5472,88 @@
         <v>48</v>
       </c>
       <c r="J6" s="452" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K6" s="453" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="454" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="455" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" s="455" t="s">
-        <v>51</v>
       </c>
       <c r="C7" s="454" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="454" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="454" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="456" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="456" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="454" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="454" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="457" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="458" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="458" t="s">
-        <v>54</v>
-      </c>
       <c r="J7" s="459" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="K7" s="460" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="461" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="462" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="461" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="462" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="461" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" s="461" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="461" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="463" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="461" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="461" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="464" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="461" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="464" t="s">
-        <v>120</v>
-      </c>
       <c r="I8" s="465" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J8" s="466" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K8" s="467" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="468" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="469" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="468" t="s">
         <v>138</v>
@@ -5149,13 +5571,13 @@
         <v>16</v>
       </c>
       <c r="H9" s="471" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="472" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="473" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K9" s="474" t="s">
         <v>137</v>
@@ -5163,19 +5585,19 @@
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="475" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="476" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="475" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="475" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="475" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" s="475" t="s">
         <v>44</v>
@@ -5184,10 +5606,10 @@
         <v>35</v>
       </c>
       <c r="H10" s="478" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I10" s="479" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="480" t="s">
         <v>146</v>
@@ -5198,16 +5620,16 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="482" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="483" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="482" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="482" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="482" t="s">
         <v>38</v>
@@ -5219,45 +5641,45 @@
         <v>25</v>
       </c>
       <c r="H11" s="485" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11" s="486" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" s="487" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K11" s="488" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="489" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="490" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="489" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="489" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="489" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="489" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="490" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="489" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="489" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="489" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="489" t="s">
+      <c r="G12" s="491" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="491" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="492" t="s">
-        <v>80</v>
-      </c>
       <c r="I12" s="493" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J12" s="494" t="s">
         <v>146</v>
@@ -5268,10 +5690,10 @@
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="496" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" s="497" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="496" t="s">
         <v>37</v>
@@ -5289,10 +5711,10 @@
         <v>25</v>
       </c>
       <c r="H13" s="499" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I13" s="500" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J13" s="501" t="s">
         <v>146</v>
@@ -5303,66 +5725,66 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="503" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="504" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="503" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="503" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="503" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" s="505" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="503" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="506" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="507" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J14" s="508" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="509" t="s">
         <v>144</v>
-      </c>
-      <c r="K14" s="509" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="510" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="511" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="510" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="510" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="510" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="510" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="512" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="513" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="514" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J15" s="515" t="s">
         <v>146</v>
@@ -5373,16 +5795,16 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="517" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="518" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="517" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="517" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="517" t="s">
         <v>45</v>
@@ -5394,10 +5816,10 @@
         <v>24</v>
       </c>
       <c r="H16" s="520" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I16" s="521" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="522" t="s">
         <v>146</v>
@@ -5408,13 +5830,13 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="524" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="525" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="525" t="s">
-        <v>130</v>
-      </c>
       <c r="C17" s="524" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="524" t="s">
         <v>16</v>
@@ -5423,22 +5845,637 @@
         <v>36</v>
       </c>
       <c r="F17" s="524" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="526" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="527" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="528" t="s">
         <v>131</v>
-      </c>
-      <c r="I17" s="528" t="s">
-        <v>132</v>
       </c>
       <c r="J17" s="529" t="s">
         <v>146</v>
       </c>
       <c r="K17" s="530" t="s">
         <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.600000381469727" baseColWidth="5" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="18.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="10.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.0" customHeight="true">
+      <c r="A1" s="531" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="531" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="531" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="531" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="531" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="531" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="531" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="531" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="531" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="531" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="531" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="20.0" customHeight="true">
+      <c r="A2" s="532" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="533" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="532" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="532" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="534" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="532" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="532" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="535" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="536" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="537" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="538" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="539" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="540" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="539" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="539" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="541" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="539" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="539" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="542" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="543" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="544" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="545" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="546" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="547" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="546" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="546" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="546" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="548" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="546" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="549" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="550" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="551" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="552" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="553" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="554" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="553" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="553" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="555" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="553" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="553" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="556" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="557" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="558" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="559" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="560" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="561" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="560" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="560" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="560" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="562" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="560" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="563" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="564" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="565" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="566" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="567" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="568" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="567" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="567" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="567" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="569" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="567" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="570" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="571" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="572" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="573" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="574" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="575" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="574" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="574" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="574" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="576" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="574" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="577" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="578" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="579" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="580" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="581" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="582" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="581" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="581" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="581" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="583" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="581" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="584" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="585" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="586" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="587" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="588" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="589" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="588" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="588" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="588" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="588" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="590" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="591" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="592" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="593" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="594" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="595" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="596" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="595" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="595" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="597" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="595" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="595" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="598" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="599" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="600" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="601" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="602" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="603" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="602" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="602" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="602" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="602" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="602" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="604" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="605" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="606" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="607" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="608" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="609" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="608" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="608" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="608" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="608" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="610" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="611" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="612" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="613" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="614" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="615" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="616" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="615" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="615" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="615" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="615" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="617" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="618" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="619" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="620" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="621" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="622" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="623" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="622" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="622" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="622" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="622" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="622" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="624" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="625" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="626" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="627" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="628" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="629" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="628" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="628" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="628" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="628" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="628" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="630" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="631" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="632" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="633" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="634" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="635" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="634" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="634" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="634" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="634" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="634" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="636" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="637" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="638" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="639" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -409,45 +409,45 @@
     <t>幽暗峡谷</t>
   </si>
   <si>
-    <t>1.58.85</t>
+    <t>1.57.11</t>
   </si>
   <si>
     <t>1.44.17</t>
   </si>
   <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
     <t>2.23</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.10.37</t>
+  </si>
+  <si>
+    <t>2.02.06</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.10.37</t>
-  </si>
-  <si>
-    <t>2.02.06</t>
-  </si>
-  <si>
     <t>三线勉强</t>
   </si>
   <si>
@@ -457,6 +457,9 @@
     <t>73</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>娱乐以上</t>
   </si>
   <si>
@@ -485,9 +488,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1626,7 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1635,7 +1635,7 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2283,7 +2283,7 @@
     <xf numFmtId="0" fontId="63" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2292,7 +2292,7 @@
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4031,10 +4031,10 @@
       <c r="D16" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="192" t="s">
+      <c r="E16" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="194" t="s">
+      <c r="F16" s="192" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="192" t="s">
@@ -4047,10 +4047,10 @@
         <v>131</v>
       </c>
       <c r="J16" s="197" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K16" s="198" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>106</v>
@@ -4160,7 +4160,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="207" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="207" t="s">
         <v>94</v>
@@ -4385,7 +4385,7 @@
         <v>79</v>
       </c>
       <c r="K9" s="255" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -4455,7 +4455,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="269" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -4583,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="291" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="294" t="s">
         <v>103</v>
@@ -4630,7 +4630,7 @@
         <v>79</v>
       </c>
       <c r="K16" s="304" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="306" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="306" t="s">
         <v>13</v>
@@ -4740,7 +4740,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="313" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="313" t="s">
         <v>94</v>
@@ -4760,10 +4760,10 @@
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="320" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="321" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="321" t="s">
-        <v>140</v>
       </c>
       <c r="C4" s="320" t="s">
         <v>109</v>
@@ -4781,10 +4781,10 @@
         <v>73</v>
       </c>
       <c r="H4" s="323" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="324" t="s">
         <v>141</v>
-      </c>
-      <c r="I4" s="324" t="s">
-        <v>142</v>
       </c>
       <c r="J4" s="325" t="s">
         <v>124</v>
@@ -4941,7 +4941,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="355" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="355" t="s">
         <v>106</v>
@@ -5000,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="K10" s="368" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -5242,10 +5242,10 @@
         <v>131</v>
       </c>
       <c r="J17" s="416" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K17" s="417" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5311,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="419" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="419" t="s">
         <v>13</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="433" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="434" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="434" t="s">
-        <v>140</v>
       </c>
       <c r="C4" s="433" t="s">
         <v>24</v>
@@ -5396,10 +5396,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="436" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="437" t="s">
         <v>141</v>
-      </c>
-      <c r="I4" s="437" t="s">
-        <v>142</v>
       </c>
       <c r="J4" s="438" t="s">
         <v>143</v>
@@ -5556,7 +5556,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="468" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="468" t="s">
         <v>13</v>
@@ -5580,7 +5580,7 @@
         <v>79</v>
       </c>
       <c r="K9" s="474" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -5612,10 +5612,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="480" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K10" s="481" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -5682,10 +5682,10 @@
         <v>78</v>
       </c>
       <c r="J12" s="494" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" s="495" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5717,10 +5717,10 @@
         <v>85</v>
       </c>
       <c r="J13" s="501" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" s="502" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -5787,10 +5787,10 @@
         <v>98</v>
       </c>
       <c r="J15" s="515" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" s="516" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -5822,10 +5822,10 @@
         <v>104</v>
       </c>
       <c r="J16" s="522" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16" s="523" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -5857,10 +5857,10 @@
         <v>131</v>
       </c>
       <c r="J17" s="529" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="530" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5926,7 +5926,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="532" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="532" t="s">
         <v>13</v>
@@ -5973,7 +5973,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="539" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="542" t="s">
         <v>29</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="546" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="547" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="547" t="s">
-        <v>140</v>
       </c>
       <c r="C4" s="546" t="s">
         <v>24</v>
@@ -6011,10 +6011,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="549" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="550" t="s">
         <v>141</v>
-      </c>
-      <c r="I4" s="550" t="s">
-        <v>142</v>
       </c>
       <c r="J4" s="551" t="s">
         <v>143</v>
@@ -6090,7 +6090,7 @@
         <v>79</v>
       </c>
       <c r="K6" s="566" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -6125,7 +6125,7 @@
         <v>79</v>
       </c>
       <c r="K7" s="573" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -6171,7 +6171,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="581" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="581" t="s">
         <v>13</v>
@@ -6195,7 +6195,7 @@
         <v>79</v>
       </c>
       <c r="K9" s="587" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -6227,10 +6227,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="593" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K10" s="594" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -6297,10 +6297,10 @@
         <v>78</v>
       </c>
       <c r="J12" s="606" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12" s="607" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -6332,7 +6332,7 @@
         <v>85</v>
       </c>
       <c r="J13" s="613" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" s="614" t="s">
         <v>128</v>
@@ -6367,10 +6367,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="620" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" s="621" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -6402,10 +6402,10 @@
         <v>98</v>
       </c>
       <c r="J15" s="626" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15" s="627" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -6437,10 +6437,10 @@
         <v>104</v>
       </c>
       <c r="J16" s="632" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" s="633" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -6472,7 +6472,7 @@
         <v>131</v>
       </c>
       <c r="J17" s="638" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" s="639" t="s">
         <v>156</v>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -9,15 +9,16 @@
     <sheet name="经典S1交流分数线" r:id="rId3" sheetId="1"/>
     <sheet name="经典S3交流分数线" r:id="rId4" sheetId="2"/>
     <sheet name="经典S4交流分数线" r:id="rId5" sheetId="3"/>
-    <sheet name="经典s5交流分数线" r:id="rId6" sheetId="4"/>
-    <sheet name="经典s8交流分数线" r:id="rId7" sheetId="5"/>
-    <sheet name="经典s9交流分数线" r:id="rId8" sheetId="6"/>
+    <sheet name="经典s10交流分数线" r:id="rId6" sheetId="4"/>
+    <sheet name="经典s5交流分数线" r:id="rId7" sheetId="5"/>
+    <sheet name="经典s8交流分数线" r:id="rId8" sheetId="6"/>
+    <sheet name="经典s9交流分数线" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -181,7 +182,7 @@
     <t>1.49.02</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>龙之遗迹</t>
@@ -193,7 +194,7 @@
     <t>1.36.75</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>万里长城</t>
@@ -214,7 +215,7 @@
     <t>87</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>海盗绝壁海湾</t>
@@ -232,7 +233,7 @@
     <t>1.50.38</t>
   </si>
   <si>
-    <t>42</t>
+    <t>43</t>
   </si>
   <si>
     <t>森林发夹</t>
@@ -262,7 +263,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>44</t>
+    <t>45</t>
   </si>
   <si>
     <t>沙漠旋转工地</t>
@@ -277,7 +278,7 @@
     <t>1.51.83</t>
   </si>
   <si>
-    <t>45</t>
+    <t>46</t>
   </si>
   <si>
     <t>大城堡秘密地下室</t>
@@ -292,7 +293,7 @@
     <t>96</t>
   </si>
   <si>
-    <t>47</t>
+    <t>48</t>
   </si>
   <si>
     <t>海盗宝藏迷宫</t>
@@ -316,7 +317,7 @@
     <t>1.57.16</t>
   </si>
   <si>
-    <t>56</t>
+    <t>57</t>
   </si>
   <si>
     <t>太空蜿蜒跑道</t>
@@ -403,66 +404,81 @@
     <t>2.11</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>1.57.11</t>
+  </si>
+  <si>
+    <t>1.44.17</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.10.37</t>
+  </si>
+  <si>
+    <t>2.02.06</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>1.57.11</t>
-  </si>
-  <si>
-    <t>1.44.17</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
   </si>
   <si>
     <t>1.39</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.10.37</t>
-  </si>
-  <si>
-    <t>2.02.06</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -473,18 +489,6 @@
   </si>
   <si>
     <t>62</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
   </si>
   <si>
     <t>54</t>
@@ -495,7 +499,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="98">
+  <fonts count="115">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -629,6 +633,75 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -957,17 +1030,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="48"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -1045,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="640">
+  <cellXfs count="752">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1989,7 +2062,7 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1998,7 +2071,7 @@
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2010,7 +2083,7 @@
     <xf numFmtId="0" fontId="50" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2019,7 +2092,7 @@
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2031,7 +2104,7 @@
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2040,7 +2113,7 @@
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2073,7 +2146,7 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2082,7 +2155,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2094,7 +2167,7 @@
     <xf numFmtId="0" fontId="54" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2103,7 +2176,7 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2124,7 +2197,7 @@
     <xf numFmtId="0" fontId="55" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2136,7 +2209,7 @@
     <xf numFmtId="0" fontId="56" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2145,7 +2218,7 @@
     <xf numFmtId="0" fontId="56" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2187,7 +2260,7 @@
     <xf numFmtId="0" fontId="58" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="58" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2208,7 +2281,7 @@
     <xf numFmtId="0" fontId="59" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2220,7 +2293,7 @@
     <xf numFmtId="0" fontId="60" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2229,7 +2302,7 @@
     <xf numFmtId="0" fontId="60" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2241,16 +2314,13 @@
     <xf numFmtId="0" fontId="61" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2292,7 +2362,7 @@
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2328,7 +2398,7 @@
     <xf numFmtId="0" fontId="66" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2337,7 +2407,7 @@
     <xf numFmtId="0" fontId="66" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2358,7 +2428,7 @@
     <xf numFmtId="0" fontId="67" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2412,7 +2482,7 @@
     <xf numFmtId="0" fontId="70" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="70" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2421,7 +2491,7 @@
     <xf numFmtId="0" fontId="70" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2433,7 +2503,7 @@
     <xf numFmtId="0" fontId="71" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2442,7 +2512,7 @@
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2463,7 +2533,7 @@
     <xf numFmtId="0" fontId="72" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2484,7 +2554,7 @@
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2517,7 +2587,7 @@
     <xf numFmtId="0" fontId="75" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2526,7 +2596,7 @@
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2547,7 +2617,7 @@
     <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2559,7 +2629,7 @@
     <xf numFmtId="0" fontId="77" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2568,7 +2638,7 @@
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2580,7 +2650,7 @@
     <xf numFmtId="0" fontId="78" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2589,7 +2659,7 @@
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2601,7 +2671,7 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2610,7 +2680,7 @@
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2631,7 +2701,7 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2709,7 +2779,7 @@
     <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2718,7 +2788,7 @@
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2730,7 +2800,7 @@
     <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="86" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2739,7 +2809,7 @@
     <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="86" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2751,7 +2821,7 @@
     <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2760,7 +2830,7 @@
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2772,7 +2842,7 @@
     <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="88" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2781,7 +2851,7 @@
     <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="88" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2823,7 +2893,7 @@
     <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="90" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2835,7 +2905,7 @@
     <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2844,7 +2914,7 @@
     <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2856,6 +2926,9 @@
     <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2874,7 +2947,7 @@
     <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2883,7 +2956,7 @@
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2895,7 +2968,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="94" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2904,7 +2977,7 @@
     <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="94" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2916,6 +2989,9 @@
     <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2934,6 +3010,9 @@
     <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2952,6 +3031,9 @@
     <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2962,6 +3044,333 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4699,7 +5108,7 @@
         <v>137</v>
       </c>
       <c r="D2" s="306" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E2" s="308" t="s">
         <v>14</v>
@@ -4708,7 +5117,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="306" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H2" s="309" t="s">
         <v>18</v>
@@ -4731,19 +5140,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="313" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="313" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="315" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F3" s="313" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="G3" s="313" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H3" s="316" t="s">
         <v>29</v>
@@ -4752,10 +5161,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="318" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K3" s="319" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -4766,19 +5175,19 @@
         <v>139</v>
       </c>
       <c r="C4" s="320" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="320" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="320" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="322" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="320" t="s">
+      <c r="E4" s="320" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="322" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="320" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="320" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="323" t="s">
         <v>140</v>
@@ -4787,10 +5196,10 @@
         <v>141</v>
       </c>
       <c r="J4" s="325" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K4" s="326" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -4801,16 +5210,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D5" s="327" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="329" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="F5" s="327" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G5" s="327" t="s">
         <v>45</v>
@@ -4822,10 +5231,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="332" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="K5" s="333" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -4836,10 +5245,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="334" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D6" s="334" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E6" s="336" t="s">
         <v>16</v>
@@ -4848,7 +5257,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="334" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>47</v>
@@ -4871,19 +5280,19 @@
         <v>50</v>
       </c>
       <c r="C7" s="341" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D7" s="341" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E7" s="343" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F7" s="341" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G7" s="341" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="H7" s="344" t="s">
         <v>52</v>
@@ -4892,10 +5301,10 @@
         <v>53</v>
       </c>
       <c r="J7" s="346" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K7" s="347" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -4906,19 +5315,19 @@
         <v>115</v>
       </c>
       <c r="C8" s="348" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D8" s="348" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E8" s="350" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F8" s="348" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G8" s="348" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H8" s="351" t="s">
         <v>116</v>
@@ -4927,10 +5336,10 @@
         <v>117</v>
       </c>
       <c r="J8" s="353" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K8" s="354" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -4941,19 +5350,19 @@
         <v>55</v>
       </c>
       <c r="C9" s="355" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="355" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="357" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="355" t="s">
+      <c r="E9" s="355" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="357" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="355" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="355" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="358" t="s">
         <v>56</v>
@@ -4962,10 +5371,10 @@
         <v>57</v>
       </c>
       <c r="J9" s="360" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K9" s="361" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -4976,19 +5385,19 @@
         <v>59</v>
       </c>
       <c r="C10" s="362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="362" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="362" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="362" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F10" s="364" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="362" t="s">
         <v>110</v>
-      </c>
-      <c r="G10" s="362" t="s">
-        <v>17</v>
       </c>
       <c r="H10" s="365" t="s">
         <v>61</v>
@@ -4997,10 +5406,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="367" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="K10" s="368" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -5011,19 +5420,19 @@
         <v>66</v>
       </c>
       <c r="C11" s="369" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="369" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="369" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" s="369" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="371" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G11" s="369" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H11" s="372" t="s">
         <v>69</v>
@@ -5035,7 +5444,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="375" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -5046,19 +5455,19 @@
         <v>72</v>
       </c>
       <c r="C12" s="376" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="376" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="376" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" s="376" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="378" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="376" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="378" t="s">
         <v>121</v>
-      </c>
-      <c r="G12" s="376" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="379" t="s">
         <v>77</v>
@@ -5067,10 +5476,10 @@
         <v>78</v>
       </c>
       <c r="J12" s="381" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K12" s="382" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5081,19 +5490,19 @@
         <v>82</v>
       </c>
       <c r="C13" s="383" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="383" t="s">
-        <v>102</v>
-      </c>
       <c r="E13" s="383" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="385" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="383" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="385" t="s">
         <v>24</v>
-      </c>
-      <c r="G13" s="383" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="386" t="s">
         <v>84</v>
@@ -5102,10 +5511,10 @@
         <v>85</v>
       </c>
       <c r="J13" s="388" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="K13" s="389" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -5116,19 +5525,19 @@
         <v>87</v>
       </c>
       <c r="C14" s="390" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="390" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="390" t="s">
-        <v>112</v>
-      </c>
       <c r="E14" s="390" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F14" s="392" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="390" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="390" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="393" t="s">
         <v>88</v>
@@ -5137,10 +5546,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="395" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="K14" s="396" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -5151,101 +5560,101 @@
         <v>92</v>
       </c>
       <c r="C15" s="397" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="397" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="397" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="397" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="399" t="s">
-        <v>68</v>
-      </c>
       <c r="G15" s="397" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="400" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="399" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="401" t="s">
+      <c r="I15" s="400" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="402" t="s">
+      <c r="J15" s="401" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="402" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="403" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="404" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="403" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="403" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="403" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="405" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="403" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="406" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="407" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="408" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="403" t="s">
+      <c r="K16" s="409" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="404" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="405" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="404" t="s">
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="410" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="411" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="410" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="410" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="404" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="404" t="s">
+      <c r="F17" s="410" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="412" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="406" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="404" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="407" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="408" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="409" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="410" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="411" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="412" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="411" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="411" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="411" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="413" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="411" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="414" t="s">
+      <c r="H17" s="413" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="415" t="s">
+      <c r="I17" s="414" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="416" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="417" t="s">
-        <v>146</v>
+      <c r="J17" s="415" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="416" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5269,598 +5678,598 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="417" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="418" t="s">
+      <c r="B1" s="417" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="418" t="s">
+      <c r="C1" s="417" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="418" t="s">
+      <c r="D1" s="417" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="418" t="s">
+      <c r="E1" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="418" t="s">
+      <c r="F1" s="417" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="418" t="s">
+      <c r="G1" s="417" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="418" t="s">
+      <c r="H1" s="417" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="418" t="s">
+      <c r="I1" s="417" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="418" t="s">
+      <c r="J1" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="418" t="s">
+      <c r="K1" s="417" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="419" t="s">
+      <c r="A2" s="418" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="420" t="s">
+      <c r="B2" s="419" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="419" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="419" t="s">
+      <c r="C2" s="418" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="421" t="s">
+      <c r="E2" s="420" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="419" t="s">
+      <c r="F2" s="418" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="418" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="421" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="422" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="423" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="424" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="425" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="425" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="425" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="427" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="425" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="425" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="428" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="429" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="430" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="431" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="432" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="433" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="432" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="432" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="434" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="432" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="432" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="435" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="436" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="437" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="438" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="439" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="440" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="439" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="439" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="441" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="439" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="439" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="442" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="443" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="444" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="445" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="446" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="447" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="446" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="419" t="s">
+      <c r="D6" s="446" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="448" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="446" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="446" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="449" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="450" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="451" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="452" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="453" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="454" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="453" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="453" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="455" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="453" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="453" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="456" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="457" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="458" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="459" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="460" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="461" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="460" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="460" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="462" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="460" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="460" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="463" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="464" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="465" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="466" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="467" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="468" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="467" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="467" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="469" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="467" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="422" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="423" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="424" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="425" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="426" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="427" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="426" t="s">
+      <c r="G9" s="467" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="470" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="471" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="472" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="473" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="474" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="475" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="474" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="474" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="474" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="476" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="474" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="477" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="478" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="479" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="480" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="481" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="482" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="481" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="481" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="481" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="483" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="481" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="484" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="485" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="486" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="487" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="488" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="489" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="488" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="488" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="490" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="488" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="491" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="492" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="493" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="494" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="495" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="496" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="495" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="495" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="495" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="426" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="428" t="s">
+      <c r="F13" s="497" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="495" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="498" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="499" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="500" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="501" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="502" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="503" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="502" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="502" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="502" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="504" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="502" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="505" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="506" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="507" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="508" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="509" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="510" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="509" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="509" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="426" t="s">
+      <c r="E15" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="426" t="s">
+      <c r="F15" s="511" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="429" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="430" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="431" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="432" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="433" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="434" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="433" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="433" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="433" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="435" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="433" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="436" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="437" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="438" t="s">
+      <c r="G15" s="509" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="512" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="513" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="514" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="439" t="s">
+      <c r="K15" s="515" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="440" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="441" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="440" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="440" t="s">
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="516" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="517" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="516" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="516" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="516" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="518" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="516" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="519" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="520" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="521" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="522" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="523" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="524" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="442" t="s">
+      <c r="D17" s="523" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="440" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="440" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="443" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="444" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="445" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="446" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="447" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="448" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="447" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="447" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="449" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="447" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="447" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="450" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="451" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="452" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="453" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="454" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="455" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="454" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="454" t="s">
+      <c r="E17" s="523" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="456" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="454" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="454" t="s">
+      <c r="F17" s="525" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="523" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="457" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="458" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="459" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="460" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="461" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="462" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="461" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="461" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="463" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="461" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="461" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="464" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="465" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="466" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="467" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="468" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="469" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="468" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="468" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="468" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="470" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="468" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="471" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="472" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="473" t="s">
+      <c r="H17" s="526" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="527" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="528" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="474" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="475" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="476" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="475" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="475" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="475" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="475" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="477" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="478" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="479" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="480" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="481" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="482" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="483" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="482" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="482" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="482" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="484" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="482" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="485" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="486" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="487" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="488" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="489" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="490" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="489" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="489" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="489" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="489" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="491" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="492" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="493" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="494" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="495" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="496" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="497" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="496" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="496" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="496" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="496" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="498" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="499" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="500" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="501" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="502" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="503" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="504" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="503" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="503" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="503" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="505" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="503" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="506" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="507" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="508" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="509" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="510" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="511" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="510" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="510" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="510" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="510" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="512" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="513" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="514" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="515" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="516" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="517" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="518" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="517" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="517" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="517" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="517" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="519" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="520" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="521" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="522" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="523" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="524" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="525" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="524" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="524" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="524" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="524" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="526" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="527" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="528" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="529" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="530" t="s">
-        <v>150</v>
+      <c r="K17" s="529" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5884,411 +6293,411 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="531" t="s">
+      <c r="A1" s="530" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="531" t="s">
+      <c r="B1" s="530" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="531" t="s">
+      <c r="C1" s="530" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="531" t="s">
+      <c r="D1" s="530" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="531" t="s">
+      <c r="E1" s="530" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="531" t="s">
+      <c r="F1" s="530" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="531" t="s">
+      <c r="G1" s="530" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="531" t="s">
+      <c r="H1" s="530" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="531" t="s">
+      <c r="I1" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="531" t="s">
+      <c r="J1" s="530" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="531" t="s">
+      <c r="K1" s="530" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="532" t="s">
+      <c r="A2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="533" t="s">
+      <c r="B2" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="532" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="532" t="s">
+      <c r="C2" s="531" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="534" t="s">
+      <c r="E2" s="533" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="532" t="s">
+      <c r="F2" s="531" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="532" t="s">
+      <c r="G2" s="531" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="535" t="s">
+      <c r="H2" s="534" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="536" t="s">
+      <c r="I2" s="535" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="537" t="s">
+      <c r="J2" s="536" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="538" t="s">
+      <c r="K2" s="537" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="539" t="s">
+      <c r="A3" s="538" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="540" t="s">
+      <c r="B3" s="539" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="539" t="s">
+      <c r="C3" s="538" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="539" t="s">
+      <c r="D3" s="538" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="541" t="s">
+      <c r="E3" s="540" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="539" t="s">
+      <c r="F3" s="538" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="539" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="542" t="s">
+      <c r="G3" s="538" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="543" t="s">
+      <c r="I3" s="542" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="544" t="s">
+      <c r="J3" s="543" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="545" t="s">
+      <c r="K3" s="544" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="546" t="s">
+      <c r="A4" s="545" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="547" t="s">
+      <c r="B4" s="546" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="546" t="s">
+      <c r="C4" s="545" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="546" t="s">
+      <c r="D4" s="545" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="548" t="s">
+      <c r="F4" s="547" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="546" t="s">
+      <c r="G4" s="545" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="549" t="s">
+      <c r="H4" s="548" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="549" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="551" t="s">
+      <c r="J4" s="550" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="552" t="s">
+      <c r="K4" s="551" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="553" t="s">
+      <c r="A5" s="552" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="554" t="s">
+      <c r="B5" s="553" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="553" t="s">
+      <c r="C5" s="552" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="553" t="s">
+      <c r="D5" s="552" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="554" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="552" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="552" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="555" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="556" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="557" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="558" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="559" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="560" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="559" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="559" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="561" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="559" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="559" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="562" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="563" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="564" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="565" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="566" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="567" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="566" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="566" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="568" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="566" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="566" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="569" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="570" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="571" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="572" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="573" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="574" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="573" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="573" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="575" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="573" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="573" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="576" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="577" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="578" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="579" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="580" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="581" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="580" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="580" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="580" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="582" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="580" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="583" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="584" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="585" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="586" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="587" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="588" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="587" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="587" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="587" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="587" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="589" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="555" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="553" t="s">
+      <c r="H10" s="590" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="591" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="592" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="593" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="594" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="595" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="594" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="553" t="s">
+      <c r="D11" s="594" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="556" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="557" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="558" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="559" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="560" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="561" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="560" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="560" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="560" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="562" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="560" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="563" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="564" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="565" t="s">
+      <c r="E11" s="594" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="596" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="594" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="597" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="598" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="599" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="566" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="567" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="568" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="567" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="567" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="567" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="569" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="567" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="570" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="571" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="572" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="573" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="574" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="575" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="574" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="574" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="574" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="576" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="574" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="577" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="578" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="579" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="580" t="s">
+      <c r="K11" s="600" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="581" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="582" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="581" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="581" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="581" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="583" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="581" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="584" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="585" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="586" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="587" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="588" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="589" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="588" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="588" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="588" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="588" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="590" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="591" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="592" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="593" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="594" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="595" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="596" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="595" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="595" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="597" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="595" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="595" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="598" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="599" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="600" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="601" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="602" t="s">
+      <c r="A12" s="601" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="603" t="s">
+      <c r="B12" s="602" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="602" t="s">
+      <c r="C12" s="601" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="602" t="s">
+      <c r="D12" s="601" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="602" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="602" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="602" t="s">
+      <c r="E12" s="601" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="601" t="s">
         <v>74</v>
+      </c>
+      <c r="G12" s="603" t="s">
+        <v>96</v>
       </c>
       <c r="H12" s="604" t="s">
         <v>77</v>
@@ -6297,7 +6706,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="606" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K12" s="607" t="s">
         <v>154</v>
@@ -6320,10 +6729,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="608" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="G13" s="610" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H13" s="611" t="s">
         <v>84</v>
@@ -6332,10 +6741,10 @@
         <v>85</v>
       </c>
       <c r="J13" s="613" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="614" t="s">
         <v>155</v>
-      </c>
-      <c r="K13" s="614" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -6352,13 +6761,13 @@
         <v>46</v>
       </c>
       <c r="E14" s="615" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="615" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="617" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="F14" s="617" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="615" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="618" t="s">
         <v>88</v>
@@ -6367,10 +6776,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="620" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="621" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -6384,98 +6793,713 @@
         <v>46</v>
       </c>
       <c r="D15" s="622" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="622" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="622" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="624" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="625" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="626" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="627" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="628" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="629" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="630" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="629" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="629" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="629" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="629" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="631" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="632" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="633" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="634" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="635" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="636" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="637" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="636" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="636" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="636" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="636" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="638" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="639" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="640" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="641" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="642" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.600000381469727" baseColWidth="5" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="18.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="10.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.0" customHeight="true">
+      <c r="A1" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="643" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="643" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="643" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="643" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="643" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="643" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="643" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="643" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="643" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="643" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="20.0" customHeight="true">
+      <c r="A2" s="644" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="645" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="644" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="644" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="646" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="644" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="644" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="647" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="648" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="649" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="650" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="651" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="652" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="651" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="651" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="653" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="651" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="651" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="654" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="655" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="656" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="657" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="658" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="659" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="658" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="658" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="658" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="660" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="658" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="661" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="662" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="663" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="664" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="665" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="666" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="665" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="665" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="667" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="665" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="665" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="668" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="669" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="670" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="671" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="672" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="673" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="672" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="672" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="672" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="674" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="672" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="675" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="676" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="677" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="678" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="679" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="680" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="679" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="679" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="679" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="681" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="679" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="682" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="683" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="684" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="685" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="686" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="687" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="686" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="686" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="686" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="688" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="686" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="622" t="s">
+      <c r="H8" s="689" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="690" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="691" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="692" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="693" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="694" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="693" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="693" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="693" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="695" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="693" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="696" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="697" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="698" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="699" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="700" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="701" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="700" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="700" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="700" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="700" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="702" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="703" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="704" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="705" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="706" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="707" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="708" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="707" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="707" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="709" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="707" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="707" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="622" t="s">
+      <c r="H11" s="710" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="711" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="712" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="713" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="714" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="715" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="714" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="714" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="714" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="714" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="714" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="716" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="717" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="718" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="719" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="720" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="721" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="720" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="720" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="720" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="720" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="722" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="723" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="724" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="725" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="726" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="727" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="728" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="727" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="727" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="727" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="727" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="729" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="622" t="s">
+      <c r="H14" s="730" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="731" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="732" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="733" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="734" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="735" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="734" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="734" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="734" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="734" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="734" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="624" t="s">
+      <c r="H15" s="736" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="625" t="s">
+      <c r="I15" s="737" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="626" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="627" t="s">
-        <v>156</v>
+      <c r="J15" s="738" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="739" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="628" t="s">
+      <c r="A16" s="740" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="629" t="s">
+      <c r="B16" s="741" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="628" t="s">
+      <c r="C16" s="740" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="628" t="s">
+      <c r="D16" s="740" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="628" t="s">
+      <c r="E16" s="740" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="628" t="s">
+      <c r="F16" s="740" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="628" t="s">
+      <c r="G16" s="740" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="630" t="s">
+      <c r="H16" s="742" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="631" t="s">
+      <c r="I16" s="743" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="632" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="633" t="s">
-        <v>154</v>
+      <c r="J16" s="744" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="745" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="634" t="s">
+      <c r="A17" s="746" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="635" t="s">
+      <c r="B17" s="747" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="634" t="s">
+      <c r="C17" s="746" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="634" t="s">
+      <c r="D17" s="746" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="634" t="s">
+      <c r="E17" s="746" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="634" t="s">
+      <c r="F17" s="746" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="634" t="s">
+      <c r="G17" s="746" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="636" t="s">
+      <c r="H17" s="748" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="637" t="s">
+      <c r="I17" s="749" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="638" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="639" t="s">
-        <v>156</v>
+      <c r="J17" s="750" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="751" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -9,10 +9,10 @@
     <sheet name="经典S1交流分数线" r:id="rId3" sheetId="1"/>
     <sheet name="经典S3交流分数线" r:id="rId4" sheetId="2"/>
     <sheet name="经典S4交流分数线" r:id="rId5" sheetId="3"/>
-    <sheet name="经典s10交流分数线" r:id="rId6" sheetId="4"/>
-    <sheet name="经典s5交流分数线" r:id="rId7" sheetId="5"/>
-    <sheet name="经典s8交流分数线" r:id="rId8" sheetId="6"/>
-    <sheet name="经典s9交流分数线" r:id="rId9" sheetId="7"/>
+    <sheet name="经典S5交流分数线" r:id="rId6" sheetId="4"/>
+    <sheet name="经典S8交流分数线" r:id="rId7" sheetId="5"/>
+    <sheet name="经典S9交流分数线" r:id="rId8" sheetId="6"/>
+    <sheet name="经典S10交流分数线" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
@@ -431,67 +431,67 @@
     <t>76</t>
   </si>
   <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.10.37</t>
+  </si>
+  <si>
+    <t>2.02.06</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>娱乐开外</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>1.38</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.10.37</t>
-  </si>
-  <si>
-    <t>2.02.06</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>54</t>
   </si>
 </sst>
 </file>
@@ -1030,17 +1030,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="48"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -2062,7 +2062,7 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2071,7 +2071,7 @@
     <xf numFmtId="0" fontId="49" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2083,7 +2083,7 @@
     <xf numFmtId="0" fontId="50" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2092,7 +2092,7 @@
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2104,7 +2104,7 @@
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2113,7 +2113,7 @@
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2146,7 +2146,7 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2155,7 +2155,7 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2167,7 +2167,7 @@
     <xf numFmtId="0" fontId="54" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2176,7 +2176,7 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2197,7 +2197,7 @@
     <xf numFmtId="0" fontId="55" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2209,7 +2209,7 @@
     <xf numFmtId="0" fontId="56" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2218,7 +2218,7 @@
     <xf numFmtId="0" fontId="56" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2260,7 +2260,7 @@
     <xf numFmtId="0" fontId="58" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2281,7 +2281,7 @@
     <xf numFmtId="0" fontId="59" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2293,7 +2293,7 @@
     <xf numFmtId="0" fontId="60" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2302,7 +2302,7 @@
     <xf numFmtId="0" fontId="60" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2314,13 +2314,16 @@
     <xf numFmtId="0" fontId="61" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2362,7 +2365,7 @@
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2398,7 +2401,7 @@
     <xf numFmtId="0" fontId="66" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2407,7 +2410,7 @@
     <xf numFmtId="0" fontId="66" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2428,7 +2431,7 @@
     <xf numFmtId="0" fontId="67" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2482,7 +2485,7 @@
     <xf numFmtId="0" fontId="70" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="70" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2491,7 +2494,7 @@
     <xf numFmtId="0" fontId="70" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2503,7 +2506,7 @@
     <xf numFmtId="0" fontId="71" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2512,7 +2515,7 @@
     <xf numFmtId="0" fontId="71" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2533,7 +2536,7 @@
     <xf numFmtId="0" fontId="72" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="72" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2554,7 +2557,7 @@
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2587,7 +2590,7 @@
     <xf numFmtId="0" fontId="75" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2596,7 +2599,7 @@
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2617,7 +2620,7 @@
     <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2629,7 +2632,7 @@
     <xf numFmtId="0" fontId="77" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2638,7 +2641,7 @@
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2650,7 +2653,7 @@
     <xf numFmtId="0" fontId="78" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2659,7 +2662,7 @@
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2671,7 +2674,7 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2680,7 +2683,7 @@
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2701,7 +2704,7 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2779,7 +2782,7 @@
     <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2788,7 +2791,7 @@
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2800,7 +2803,7 @@
     <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2809,7 +2812,7 @@
     <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2821,7 +2824,7 @@
     <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2830,7 +2833,7 @@
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2842,7 +2845,7 @@
     <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2851,7 +2854,7 @@
     <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2893,7 +2896,7 @@
     <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="90" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2905,7 +2908,7 @@
     <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="91" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2914,7 +2917,7 @@
     <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="91" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2926,9 +2929,6 @@
     <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2947,7 +2947,7 @@
     <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2956,7 +2956,7 @@
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2968,7 +2968,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="94" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2977,7 +2977,7 @@
     <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="94" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2989,9 +2989,6 @@
     <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -3010,9 +3007,6 @@
     <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -3030,9 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -3097,7 +3088,7 @@
     <xf numFmtId="0" fontId="101" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="101" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3106,7 +3097,7 @@
     <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="101" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3139,7 +3130,7 @@
     <xf numFmtId="0" fontId="103" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="103" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3148,7 +3139,7 @@
     <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="103" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3160,7 +3151,7 @@
     <xf numFmtId="0" fontId="104" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="104" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3169,7 +3160,7 @@
     <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="104" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3181,7 +3172,7 @@
     <xf numFmtId="0" fontId="105" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="105" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3190,7 +3181,7 @@
     <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="105" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3223,7 +3214,7 @@
     <xf numFmtId="0" fontId="107" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="107" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3232,7 +3223,7 @@
     <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="107" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3244,7 +3235,7 @@
     <xf numFmtId="0" fontId="108" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3253,7 +3244,7 @@
     <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3265,6 +3256,9 @@
     <xf numFmtId="0" fontId="109" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="109" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -3283,7 +3277,7 @@
     <xf numFmtId="0" fontId="110" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="110" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3304,7 +3298,7 @@
     <xf numFmtId="0" fontId="111" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="111" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3313,7 +3307,7 @@
     <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="111" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3331,7 +3325,7 @@
     <xf numFmtId="0" fontId="112" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="112" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3343,13 +3337,16 @@
     <xf numFmtId="0" fontId="113" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="113" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="113" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3361,13 +3358,16 @@
     <xf numFmtId="0" fontId="114" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="114" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="114" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5108,7 +5108,7 @@
         <v>137</v>
       </c>
       <c r="D2" s="306" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E2" s="308" t="s">
         <v>14</v>
@@ -5117,7 +5117,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="306" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H2" s="309" t="s">
         <v>18</v>
@@ -5140,19 +5140,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="313" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" s="313" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E3" s="315" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F3" s="313" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="G3" s="313" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H3" s="316" t="s">
         <v>29</v>
@@ -5161,10 +5161,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="318" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="K3" s="319" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -5175,19 +5175,19 @@
         <v>139</v>
       </c>
       <c r="C4" s="320" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D4" s="320" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="320" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="322" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="E4" s="322" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="320" t="s">
+        <v>94</v>
       </c>
       <c r="G4" s="320" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H4" s="323" t="s">
         <v>140</v>
@@ -5196,10 +5196,10 @@
         <v>141</v>
       </c>
       <c r="J4" s="325" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K4" s="326" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -5210,16 +5210,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D5" s="327" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="329" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F5" s="327" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G5" s="327" t="s">
         <v>45</v>
@@ -5231,10 +5231,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="332" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K5" s="333" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -5245,10 +5245,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="334" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="D6" s="334" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E6" s="336" t="s">
         <v>16</v>
@@ -5257,7 +5257,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="334" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H6" s="337" t="s">
         <v>47</v>
@@ -5280,19 +5280,19 @@
         <v>50</v>
       </c>
       <c r="C7" s="341" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D7" s="341" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E7" s="343" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F7" s="341" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7" s="341" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H7" s="344" t="s">
         <v>52</v>
@@ -5301,10 +5301,10 @@
         <v>53</v>
       </c>
       <c r="J7" s="346" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="K7" s="347" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -5315,19 +5315,19 @@
         <v>115</v>
       </c>
       <c r="C8" s="348" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D8" s="348" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="E8" s="350" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="F8" s="348" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="G8" s="348" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H8" s="351" t="s">
         <v>116</v>
@@ -5336,10 +5336,10 @@
         <v>117</v>
       </c>
       <c r="J8" s="353" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="K8" s="354" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -5350,19 +5350,19 @@
         <v>55</v>
       </c>
       <c r="C9" s="355" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D9" s="355" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="355" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="357" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E9" s="357" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="355" t="s">
+        <v>60</v>
       </c>
       <c r="G9" s="355" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H9" s="358" t="s">
         <v>56</v>
@@ -5371,10 +5371,10 @@
         <v>57</v>
       </c>
       <c r="J9" s="360" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K9" s="361" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -5385,19 +5385,19 @@
         <v>59</v>
       </c>
       <c r="C10" s="362" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="362" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="362" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F10" s="364" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G10" s="362" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="H10" s="365" t="s">
         <v>61</v>
@@ -5406,10 +5406,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="367" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K10" s="368" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -5420,19 +5420,19 @@
         <v>66</v>
       </c>
       <c r="C11" s="369" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D11" s="369" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E11" s="369" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F11" s="371" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="G11" s="369" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H11" s="372" t="s">
         <v>69</v>
@@ -5444,7 +5444,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="375" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -5455,19 +5455,19 @@
         <v>72</v>
       </c>
       <c r="C12" s="376" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D12" s="376" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E12" s="376" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="376" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="378" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="378" t="s">
         <v>121</v>
+      </c>
+      <c r="G12" s="376" t="s">
+        <v>75</v>
       </c>
       <c r="H12" s="379" t="s">
         <v>77</v>
@@ -5476,10 +5476,10 @@
         <v>78</v>
       </c>
       <c r="J12" s="381" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K12" s="382" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -5490,19 +5490,19 @@
         <v>82</v>
       </c>
       <c r="C13" s="383" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D13" s="383" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="383" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="383" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="385" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="385" t="s">
         <v>24</v>
+      </c>
+      <c r="G13" s="383" t="s">
+        <v>51</v>
       </c>
       <c r="H13" s="386" t="s">
         <v>84</v>
@@ -5511,10 +5511,10 @@
         <v>85</v>
       </c>
       <c r="J13" s="388" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="K13" s="389" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -5525,19 +5525,19 @@
         <v>87</v>
       </c>
       <c r="C14" s="390" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" s="390" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E14" s="390" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F14" s="392" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="G14" s="390" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H14" s="393" t="s">
         <v>88</v>
@@ -5546,10 +5546,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="395" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K14" s="396" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -5560,101 +5560,101 @@
         <v>92</v>
       </c>
       <c r="C15" s="397" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="397" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="399" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="397" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="400" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="401" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="402" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="403" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="404" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="405" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="404" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="404" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="404" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="406" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="397" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="397" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="397" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="399" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="400" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="401" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="402" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="403" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="404" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="403" t="s">
+      <c r="G16" s="404" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="407" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="408" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="409" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="410" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="411" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="412" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="411" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="411" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="403" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="403" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="405" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="403" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="406" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="407" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="408" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="409" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="410" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="411" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="410" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="410" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="410" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="410" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="412" t="s">
+      <c r="E17" s="411" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="413" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="413" t="s">
+      <c r="G17" s="411" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="414" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="414" t="s">
+      <c r="I17" s="415" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="415" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="416" t="s">
-        <v>149</v>
+      <c r="J17" s="416" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="417" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5678,598 +5678,598 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="418" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="417" t="s">
+      <c r="B1" s="418" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="417" t="s">
+      <c r="C1" s="418" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="417" t="s">
+      <c r="D1" s="418" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="417" t="s">
+      <c r="E1" s="418" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="417" t="s">
+      <c r="F1" s="418" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="417" t="s">
+      <c r="G1" s="418" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="417" t="s">
+      <c r="H1" s="418" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="417" t="s">
+      <c r="I1" s="418" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="417" t="s">
+      <c r="J1" s="418" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="417" t="s">
+      <c r="K1" s="418" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="419" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="419" t="s">
+      <c r="B2" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="418" t="s">
+      <c r="C2" s="419" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="419" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="421" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="419" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="419" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="422" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="423" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="424" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="425" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="426" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="427" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="426" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="426" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="428" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="426" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="426" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="429" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="430" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="431" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="432" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="433" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="434" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="433" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="433" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="433" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="435" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="433" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="436" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="437" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="438" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="439" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="440" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="441" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="440" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="440" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="442" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="440" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="440" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="443" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="444" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="445" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="446" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="447" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="448" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="447" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="447" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="449" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="447" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="447" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="450" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="451" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="452" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="453" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="454" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="455" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="454" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="454" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="456" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="454" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="454" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="457" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="458" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="459" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="460" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="461" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="462" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="461" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="461" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="463" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="461" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="461" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="464" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="465" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="466" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="467" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="468" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="469" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="468" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="468" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="468" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="470" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="468" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="471" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="472" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="473" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="474" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="475" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="476" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="475" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="475" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="475" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="475" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="477" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="478" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="479" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="480" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="481" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="482" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="483" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="482" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="482" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="482" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="484" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="482" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="485" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="486" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="487" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="488" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="489" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="490" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="489" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="489" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="489" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="489" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="491" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="492" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="493" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="494" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="495" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="496" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="497" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="496" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="496" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="496" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="496" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="498" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="499" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="500" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="501" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="502" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="503" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="504" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="503" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="503" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="503" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="505" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="503" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="506" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="507" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="508" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="509" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="510" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="511" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="510" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="510" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="510" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="510" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="512" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="513" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="514" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="515" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="516" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="418" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="420" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="418" t="s">
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="517" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="518" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="517" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="517" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="517" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="517" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="519" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="520" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="521" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="522" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="523" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="524" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="525" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="524" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="418" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="421" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="422" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="423" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="424" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="425" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="426" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="425" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="425" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="427" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="425" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="425" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="428" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="429" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="430" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="431" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="432" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="433" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="432" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="432" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="434" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="432" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="432" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="435" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="436" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="437" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="438" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="439" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="440" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="439" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="439" t="s">
+      <c r="D17" s="524" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="441" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="439" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="439" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="442" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="443" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="444" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="445" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="446" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="447" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="446" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="446" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="448" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="446" t="s">
+      <c r="E17" s="524" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="446" t="s">
+      <c r="F17" s="524" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="449" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="450" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="451" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="452" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="453" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="454" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="453" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="453" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="455" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="453" t="s">
+      <c r="G17" s="526" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="453" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="456" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="457" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="458" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="459" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="460" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="461" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="460" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="460" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="462" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="460" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="460" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="463" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="464" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="465" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="466" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="467" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="468" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="467" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="467" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="469" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="467" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="467" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="470" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="471" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="472" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="473" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="474" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="475" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="474" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="474" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="474" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="476" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="474" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="477" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="478" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="479" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="480" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="481" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="482" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="481" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="481" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="481" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="483" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="481" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="484" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="485" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="486" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="487" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="488" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="489" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="488" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="488" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="490" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="488" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="491" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="492" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="493" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="494" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="495" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="496" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="495" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="495" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="495" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="497" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="495" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="498" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="499" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="500" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="501" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="502" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="503" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="502" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="502" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="502" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="504" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="502" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="505" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="506" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="507" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="508" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="509" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="510" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="509" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="509" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="509" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="511" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="509" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="512" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="513" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="514" t="s">
-        <v>143</v>
-      </c>
-      <c r="K15" s="515" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="516" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="517" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="516" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="516" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="516" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="518" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="516" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="519" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="520" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="521" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="522" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="523" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="524" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="523" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="523" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="523" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="525" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="523" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="526" t="s">
+      <c r="H17" s="527" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="527" t="s">
+      <c r="I17" s="528" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="528" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="529" t="s">
-        <v>145</v>
+      <c r="J17" s="529" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="530" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6293,411 +6293,411 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="530" t="s">
+      <c r="A1" s="531" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="530" t="s">
+      <c r="B1" s="531" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="530" t="s">
+      <c r="C1" s="531" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="530" t="s">
+      <c r="D1" s="531" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="530" t="s">
+      <c r="E1" s="531" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="530" t="s">
+      <c r="F1" s="531" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="530" t="s">
+      <c r="G1" s="531" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="530" t="s">
+      <c r="H1" s="531" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="530" t="s">
+      <c r="I1" s="531" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="530" t="s">
+      <c r="J1" s="531" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="530" t="s">
+      <c r="K1" s="531" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="531" t="s">
+      <c r="A2" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="532" t="s">
+      <c r="B2" s="533" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="531" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="531" t="s">
+      <c r="C2" s="532" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="532" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="533" t="s">
+      <c r="E2" s="534" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="531" t="s">
+      <c r="F2" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="531" t="s">
+      <c r="G2" s="532" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="534" t="s">
+      <c r="H2" s="535" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="535" t="s">
+      <c r="I2" s="536" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="536" t="s">
+      <c r="J2" s="537" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="537" t="s">
+      <c r="K2" s="538" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="539" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="539" t="s">
+      <c r="B3" s="540" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="538" t="s">
+      <c r="C3" s="539" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="538" t="s">
+      <c r="D3" s="539" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="540" t="s">
+      <c r="E3" s="541" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="538" t="s">
+      <c r="F3" s="539" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="538" t="s">
+      <c r="G3" s="539" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="542" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="543" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="544" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="545" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="546" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="547" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="546" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="546" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="546" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="548" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="541" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="542" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="543" t="s">
+      <c r="G4" s="546" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="549" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="550" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="551" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="552" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="553" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="554" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="553" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="553" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="555" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="553" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="553" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="556" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="557" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="558" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="559" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="560" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="561" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="560" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="560" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="560" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="562" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="560" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="563" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="564" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="565" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="566" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="567" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="568" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="567" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="567" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="567" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="569" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="567" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="570" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="571" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="572" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="573" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="574" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="575" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="574" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="574" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="574" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="576" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="574" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="577" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="578" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="579" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="580" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="581" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="582" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="581" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="581" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="581" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="583" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="581" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="584" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="585" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="586" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="587" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="588" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="589" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="588" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="588" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="588" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="588" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="590" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="591" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="592" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="593" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="594" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="595" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="596" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="595" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="595" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="597" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="595" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="595" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="598" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="599" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="600" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="544" t="s">
+      <c r="K11" s="601" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="545" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="546" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="545" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="545" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="545" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="547" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="545" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="548" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="549" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="550" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="551" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="552" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="553" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="552" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="552" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="554" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="552" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="552" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="555" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="556" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="557" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="558" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="559" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="560" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="559" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="559" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="561" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="559" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="559" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="562" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="563" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="564" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="565" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="566" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="567" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="566" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="566" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="568" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="566" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="566" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="569" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="570" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="571" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="572" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="573" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="574" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="573" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="573" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="575" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="573" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="573" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="576" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="577" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="578" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="579" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="580" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="581" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="580" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="580" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="580" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="582" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="580" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="583" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="584" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="585" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="586" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="587" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="588" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="587" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="587" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="587" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="587" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="589" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="590" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="591" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="592" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="593" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="594" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="595" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="594" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="594" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="594" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="596" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="594" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="597" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="598" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="599" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="600" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="601" t="s">
+      <c r="A12" s="602" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="602" t="s">
+      <c r="B12" s="603" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="602" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="601" t="s">
+      <c r="D12" s="602" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="601" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="601" t="s">
+      <c r="E12" s="602" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="602" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="602" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="603" t="s">
-        <v>96</v>
       </c>
       <c r="H12" s="604" t="s">
         <v>77</v>
@@ -6706,10 +6706,10 @@
         <v>78</v>
       </c>
       <c r="J12" s="606" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K12" s="607" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -6729,10 +6729,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="608" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G13" s="610" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H13" s="611" t="s">
         <v>84</v>
@@ -6741,7 +6741,7 @@
         <v>85</v>
       </c>
       <c r="J13" s="613" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K13" s="614" t="s">
         <v>155</v>
@@ -6761,13 +6761,13 @@
         <v>46</v>
       </c>
       <c r="E14" s="615" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="617" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="615" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="F14" s="615" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="617" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="618" t="s">
         <v>88</v>
@@ -6776,10 +6776,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="620" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K14" s="621" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -6793,98 +6793,98 @@
         <v>46</v>
       </c>
       <c r="D15" s="622" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E15" s="622" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F15" s="622" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="624" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="625" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="622" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="624" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="626" t="s">
+      <c r="I15" s="625" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="627" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="628" t="s">
+      <c r="J15" s="626" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="627" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="629" t="s">
+      <c r="A16" s="628" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="630" t="s">
+      <c r="B16" s="629" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="629" t="s">
+      <c r="C16" s="628" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="629" t="s">
+      <c r="D16" s="628" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="629" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="629" t="s">
+      <c r="E16" s="628" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="628" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="628" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="631" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="632" t="s">
+      <c r="H16" s="630" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="633" t="s">
+      <c r="I16" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="634" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="635" t="s">
-        <v>155</v>
+      <c r="J16" s="632" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="633" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="636" t="s">
+      <c r="A17" s="634" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="637" t="s">
+      <c r="B17" s="635" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="636" t="s">
+      <c r="C17" s="634" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="636" t="s">
+      <c r="D17" s="634" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="636" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="636" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="638" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="639" t="s">
+      <c r="E17" s="634" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="634" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="634" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="636" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="640" t="s">
+      <c r="I17" s="637" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="641" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="642" t="s">
-        <v>155</v>
+      <c r="J17" s="638" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="639" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6908,586 +6908,586 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="643" t="s">
+      <c r="A1" s="640" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="643" t="s">
+      <c r="B1" s="640" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="643" t="s">
+      <c r="C1" s="640" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="643" t="s">
+      <c r="D1" s="640" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="643" t="s">
+      <c r="E1" s="640" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="643" t="s">
+      <c r="F1" s="640" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="643" t="s">
+      <c r="G1" s="640" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="643" t="s">
+      <c r="H1" s="640" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="643" t="s">
+      <c r="I1" s="640" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="643" t="s">
+      <c r="J1" s="640" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="643" t="s">
+      <c r="K1" s="640" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="644" t="s">
+      <c r="A2" s="641" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="645" t="s">
+      <c r="B2" s="642" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="644" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="644" t="s">
+      <c r="C2" s="641" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="641" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="643" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="641" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="641" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="644" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="645" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="646" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="647" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="648" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="649" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="648" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="648" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="650" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="648" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="648" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="651" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="652" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="653" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="654" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="655" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="656" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="655" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="655" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="655" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="657" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="655" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="658" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="659" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="660" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="661" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" s="662" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="663" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="662" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="662" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="664" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="662" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="662" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="665" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="666" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="667" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="668" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" s="669" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="670" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="669" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="669" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="671" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="669" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="669" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="672" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="673" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="674" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="675" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="676" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="677" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="676" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="676" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="678" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="676" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="676" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="679" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="680" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="681" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="682" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="683" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="684" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="683" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="683" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="685" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="683" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="683" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="686" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="687" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="688" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="689" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="690" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="691" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="690" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="690" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="690" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="692" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="690" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="693" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="694" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="695" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="696" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="697" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="698" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="697" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="646" t="s">
+      <c r="D10" s="697" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="644" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="644" t="s">
+      <c r="E10" s="697" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="699" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="697" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="700" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="701" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="702" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="703" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="704" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="705" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="704" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="704" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="704" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="706" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="704" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="707" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="708" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="709" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="710" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" s="711" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="712" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="711" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="711" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="711" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="711" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="713" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="714" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="715" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="716" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="717" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" s="718" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="719" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="718" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="718" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="718" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="718" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="720" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="721" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="722" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="723" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="724" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="725" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="726" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="725" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="725" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="725" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="727" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="725" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="728" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="729" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="730" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="731" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="732" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="733" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="732" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="732" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="732" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="732" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="732" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="734" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="735" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="736" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="737" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="738" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="739" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="738" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="738" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="738" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="740" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="738" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="741" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="742" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="743" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="744" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="745" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="746" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="745" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="745" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="647" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="648" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="649" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="650" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="651" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="652" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="651" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="651" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="653" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="651" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="651" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="654" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="655" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="656" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="657" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="658" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="659" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="658" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="658" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="658" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="660" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="658" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="661" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="662" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="663" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="664" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="665" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="666" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="665" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="665" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="667" t="s">
+      <c r="E17" s="745" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="665" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="665" t="s">
+      <c r="F17" s="745" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="668" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="669" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="670" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="671" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="672" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="673" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="672" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="672" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="672" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="674" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="672" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="675" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="676" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="677" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="678" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="679" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="680" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="679" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="679" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="679" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="681" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="679" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="682" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="683" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="684" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="685" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="686" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="687" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="686" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="686" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="686" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="688" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="686" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="689" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="690" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="691" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="692" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="693" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="694" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="693" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="693" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="693" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="695" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="693" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="696" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="697" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="698" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="699" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="700" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="701" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="700" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="700" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="700" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="700" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="702" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="703" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="704" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="705" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="706" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="707" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="708" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="707" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="707" t="s">
+      <c r="G17" s="747" t="s">
         <v>102</v>
-      </c>
-      <c r="E11" s="709" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="707" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="707" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="710" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="711" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="712" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="713" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="714" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="715" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="714" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="714" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="714" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="714" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="714" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="716" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="717" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="718" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="719" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="720" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="721" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="720" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="720" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="720" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="720" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="722" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="723" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="724" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="725" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="726" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="727" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="728" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="727" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="727" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="727" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="727" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="729" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="730" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="731" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="732" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="733" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="734" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="735" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="734" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="734" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="734" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="734" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="734" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="736" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="737" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="738" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="739" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="740" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="741" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="740" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="740" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="740" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="740" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="740" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="742" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="743" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="744" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="745" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="746" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="747" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="746" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="746" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="746" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="746" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="746" t="s">
-        <v>37</v>
       </c>
       <c r="H17" s="748" t="s">
         <v>130</v>
@@ -7496,10 +7496,10 @@
         <v>131</v>
       </c>
       <c r="J17" s="750" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K17" s="751" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -10,15 +10,13 @@
     <sheet name="经典S3交流分数线" r:id="rId4" sheetId="2"/>
     <sheet name="经典S4交流分数线" r:id="rId5" sheetId="3"/>
     <sheet name="经典S5交流分数线" r:id="rId6" sheetId="4"/>
-    <sheet name="经典S8交流分数线" r:id="rId7" sheetId="5"/>
-    <sheet name="经典S9交流分数线" r:id="rId8" sheetId="6"/>
-    <sheet name="经典S10交流分数线" r:id="rId9" sheetId="7"/>
+    <sheet name="经典S10交流分数线" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -461,37 +459,22 @@
     <t>72</t>
   </si>
   <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>娱乐以上</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
     <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>1.38</t>
   </si>
 </sst>
 </file>
@@ -499,7 +482,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="115">
+  <fonts count="81">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -633,144 +616,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1030,17 +875,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="48"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -1118,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="752">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2422,7 +2267,7 @@
     <xf numFmtId="0" fontId="67" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2431,7 +2276,7 @@
     <xf numFmtId="0" fontId="67" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2443,7 +2288,7 @@
     <xf numFmtId="0" fontId="68" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2452,7 +2297,7 @@
     <xf numFmtId="0" fontId="68" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2548,7 +2393,7 @@
     <xf numFmtId="0" fontId="73" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2557,7 +2402,7 @@
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2590,7 +2435,7 @@
     <xf numFmtId="0" fontId="75" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2620,7 +2465,7 @@
     <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2653,16 +2498,13 @@
     <xf numFmtId="0" fontId="78" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2674,7 +2516,7 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2683,7 +2525,7 @@
     <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="79" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2704,673 +2546,10 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5720,16 +4899,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="419" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D2" s="419" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E2" s="421" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="419" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="G2" s="419" t="s">
         <v>60</v>
@@ -5755,16 +4934,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="426" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D3" s="426" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E3" s="428" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="426" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G3" s="426" t="s">
         <v>68</v>
@@ -5790,19 +4969,19 @@
         <v>139</v>
       </c>
       <c r="C4" s="433" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D4" s="433" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E4" s="433" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="435" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="G4" s="433" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="H4" s="436" t="s">
         <v>140</v>
@@ -5811,10 +4990,10 @@
         <v>141</v>
       </c>
       <c r="J4" s="438" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K4" s="439" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -5825,19 +5004,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="440" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D5" s="440" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="442" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="F5" s="440" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G5" s="440" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H5" s="443" t="s">
         <v>40</v>
@@ -5846,10 +5025,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="445" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="K5" s="446" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -5860,19 +5039,19 @@
         <v>43</v>
       </c>
       <c r="C6" s="447" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D6" s="447" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E6" s="449" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="447" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="G6" s="447" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="H6" s="450" t="s">
         <v>47</v>
@@ -5895,10 +5074,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="454" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D7" s="454" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E7" s="456" t="s">
         <v>101</v>
@@ -5907,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="454" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="H7" s="457" t="s">
         <v>52</v>
@@ -5930,10 +5109,10 @@
         <v>115</v>
       </c>
       <c r="C8" s="461" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D8" s="461" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E8" s="463" t="s">
         <v>102</v>
@@ -5942,7 +5121,7 @@
         <v>112</v>
       </c>
       <c r="G8" s="461" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H8" s="464" t="s">
         <v>116</v>
@@ -5965,19 +5144,19 @@
         <v>55</v>
       </c>
       <c r="C9" s="468" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D9" s="468" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E9" s="468" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="470" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="G9" s="468" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H9" s="471" t="s">
         <v>56</v>
@@ -5989,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="K9" s="474" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -6000,19 +5179,19 @@
         <v>59</v>
       </c>
       <c r="C10" s="475" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="D10" s="475" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E10" s="475" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="475" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="477" t="s">
-        <v>35</v>
+      <c r="F10" s="477" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="475" t="s">
+        <v>110</v>
       </c>
       <c r="H10" s="478" t="s">
         <v>61</v>
@@ -6021,10 +5200,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="480" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K10" s="481" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -6035,19 +5214,19 @@
         <v>66</v>
       </c>
       <c r="C11" s="482" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="482" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="482" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" s="482" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="484" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G11" s="482" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H11" s="485" t="s">
         <v>69</v>
@@ -6059,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="488" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -6070,19 +5249,19 @@
         <v>72</v>
       </c>
       <c r="C12" s="489" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D12" s="489" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E12" s="489" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F12" s="489" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G12" s="491" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H12" s="492" t="s">
         <v>77</v>
@@ -6091,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="494" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K12" s="495" t="s">
         <v>149</v>
@@ -6105,10 +5284,10 @@
         <v>82</v>
       </c>
       <c r="C13" s="496" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D13" s="496" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E13" s="496" t="s">
         <v>38</v>
@@ -6117,7 +5296,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="498" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="499" t="s">
         <v>84</v>
@@ -6126,10 +5305,10 @@
         <v>85</v>
       </c>
       <c r="J13" s="501" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K13" s="502" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -6140,19 +5319,19 @@
         <v>87</v>
       </c>
       <c r="C14" s="503" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D14" s="503" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E14" s="503" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F14" s="505" t="s">
         <v>109</v>
       </c>
       <c r="G14" s="503" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H14" s="506" t="s">
         <v>88</v>
@@ -6175,1331 +5354,101 @@
         <v>92</v>
       </c>
       <c r="C15" s="510" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" s="510" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E15" s="510" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F15" s="510" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="512" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="513" t="s">
+      <c r="G15" s="510" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="512" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="514" t="s">
+      <c r="I15" s="513" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="515" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="516" t="s">
+      <c r="J15" s="514" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="515" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="516" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="517" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="516" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="516" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="516" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="518" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="516" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="519" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="520" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="521" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="522" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="523" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="524" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="523" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="523" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="523" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="523" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="525" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="526" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="527" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="528" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="529" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="517" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="518" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="517" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="517" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="517" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="517" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="519" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="520" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="521" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="522" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="523" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="524" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="525" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="524" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="524" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="524" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="524" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="526" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="527" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="528" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="529" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="530" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.600000381469727" baseColWidth="5" customHeight="true"/>
-  <cols>
-    <col min="1" max="1" width="4.0" customWidth="true"/>
-    <col min="2" max="2" width="18.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
-    <col min="9" max="9" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="10.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="531" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="531" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="531" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="531" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="531" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="531" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="531" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="531" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="531" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="531" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="531" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="532" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="533" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="532" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="532" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="534" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="532" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="532" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="535" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="536" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="537" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="538" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="539" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="540" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="539" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="539" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="541" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="539" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="539" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="542" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="543" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="544" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="545" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="546" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="547" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="546" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="546" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="546" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="548" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="546" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="549" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="550" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="551" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="552" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="553" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="554" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="553" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="553" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="555" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="553" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="553" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="556" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="557" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="558" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="559" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="560" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="561" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="560" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="560" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="560" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="562" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="560" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="563" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="564" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="565" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="566" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="567" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="568" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="567" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="567" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="567" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="569" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="567" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="570" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="571" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="572" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="573" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="574" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="575" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="574" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="574" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="574" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="576" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="574" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="577" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="578" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="579" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="580" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="581" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="582" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="581" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="581" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="581" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="583" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="581" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="584" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="585" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="586" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="587" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="588" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="589" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="588" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="588" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="588" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="588" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="590" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="591" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="592" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="593" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="594" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="595" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="596" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="595" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="595" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="597" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="595" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="595" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="598" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="599" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="600" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="601" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="602" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="603" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="602" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="602" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="602" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="602" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="602" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="604" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="605" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="606" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="607" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="608" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="609" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="608" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="608" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="608" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="608" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="610" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="611" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="612" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="613" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" s="614" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="615" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="616" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="615" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="615" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="615" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="615" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="617" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="618" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="619" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="620" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="621" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="622" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="623" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="622" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="622" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="622" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="622" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="622" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="624" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="625" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="626" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="627" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="628" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="629" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="628" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="628" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="628" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="628" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="628" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="630" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="631" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="632" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="633" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="634" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="635" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="634" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="634" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="634" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="634" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="634" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="636" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="637" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="638" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="639" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.600000381469727" baseColWidth="5" customHeight="true"/>
-  <cols>
-    <col min="1" max="1" width="4.0" customWidth="true"/>
-    <col min="2" max="2" width="18.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
-    <col min="9" max="9" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="10.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.0" customHeight="true">
-      <c r="A1" s="640" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="640" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="640" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="640" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="640" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="640" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="640" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="640" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="640" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="640" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="640" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="641" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="642" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="641" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="641" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="643" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="641" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="641" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="644" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="645" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="646" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="647" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" s="648" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="649" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="648" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="648" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="650" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="648" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="648" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="651" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="652" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="653" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="654" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" s="655" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="656" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="655" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="655" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="655" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="657" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="655" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="658" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="659" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="660" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="661" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" s="662" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="663" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="662" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="662" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="664" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="662" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="662" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="665" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="666" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="667" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="668" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" s="669" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="670" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="669" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="669" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="671" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="669" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="669" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="672" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="673" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="674" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="675" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" s="676" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="677" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="676" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="676" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="678" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="676" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="676" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="679" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="680" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="681" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="682" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" s="683" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="684" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="683" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="683" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="685" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="683" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="683" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="686" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="687" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="688" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="689" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" s="690" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="691" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="690" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="690" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="690" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="692" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="690" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="693" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="694" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="695" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="696" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" s="697" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="698" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="697" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="697" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="697" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="699" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="697" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="700" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="701" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="702" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="703" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" s="704" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="705" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="704" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="704" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="704" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="706" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="704" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="707" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="708" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="709" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="710" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" s="711" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="712" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="711" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="711" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="711" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="711" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="713" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="714" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="715" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="716" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="717" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" s="718" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="719" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="718" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="718" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="718" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="718" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="720" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="721" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="722" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="723" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="724" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="725" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="726" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="725" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="725" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="725" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="727" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="725" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="728" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="729" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="730" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="731" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="732" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="733" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="732" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="732" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="732" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="732" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="732" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="734" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="735" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="736" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="737" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="738" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="739" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="738" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="738" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="738" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="740" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="738" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="741" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="742" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="743" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="744" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="745" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="746" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="745" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="745" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="745" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="745" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="747" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="748" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="749" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="750" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="751" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -460,6 +460,54 @@
   </si>
   <si>
     <t>1.38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>诸神世界</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.30.49</t>
+  </si>
+  <si>
+    <t>1.28.85</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>纽约狂飙</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.28.17</t>
+  </si>
+  <si>
+    <t>1.23.59</t>
   </si>
   <si>
     <t>娱乐勉强</t>
@@ -482,7 +530,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="81">
+  <fonts count="83">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -750,6 +798,14 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -963,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2372,7 +2428,7 @@
     <xf numFmtId="0" fontId="72" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2381,7 +2437,7 @@
     <xf numFmtId="0" fontId="72" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2393,7 +2449,7 @@
     <xf numFmtId="0" fontId="73" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2402,7 +2458,7 @@
     <xf numFmtId="0" fontId="73" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="73" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2414,7 +2470,7 @@
     <xf numFmtId="0" fontId="74" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2423,7 +2479,7 @@
     <xf numFmtId="0" fontId="74" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2435,7 +2491,7 @@
     <xf numFmtId="0" fontId="75" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2444,7 +2500,7 @@
     <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2465,7 +2521,7 @@
     <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2486,7 +2542,7 @@
     <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="77" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2498,13 +2554,16 @@
     <xf numFmtId="0" fontId="78" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="78" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2537,19 +2596,58 @@
     <xf numFmtId="0" fontId="80" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4843,7 +4941,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5138,317 +5236,387 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" s="468" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="B9" s="469" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C9" s="468" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="468" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="D9" s="470" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="468" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="470" t="s">
-        <v>111</v>
+        <v>152</v>
+      </c>
+      <c r="F9" s="468" t="s">
+        <v>153</v>
       </c>
       <c r="G9" s="468" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="H9" s="471" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="I9" s="472" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="J9" s="473" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K9" s="474" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="475" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="476" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="475" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D10" s="475" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="475" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="475" t="s">
+      <c r="F10" s="477" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="477" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="475" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H10" s="478" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I10" s="479" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J10" s="480" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K10" s="481" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="482" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11" s="483" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" s="482" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D11" s="482" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="E11" s="482" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F11" s="484" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G11" s="482" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="H11" s="485" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I11" s="486" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J11" s="487" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="K11" s="488" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="489" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B12" s="490" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="489" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D12" s="489" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="E12" s="489" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="489" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="491" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="F12" s="491" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="489" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="492" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I12" s="493" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J12" s="494" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="K12" s="495" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
       <c r="A13" s="496" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B13" s="497" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C13" s="496" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D13" s="496" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="496" t="s">
-        <v>38</v>
+        <v>160</v>
+      </c>
+      <c r="E13" s="498" t="s">
+        <v>151</v>
       </c>
       <c r="F13" s="496" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="498" t="s">
-        <v>24</v>
+        <v>161</v>
+      </c>
+      <c r="G13" s="496" t="s">
+        <v>153</v>
       </c>
       <c r="H13" s="499" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I13" s="500" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="J13" s="501" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K13" s="502" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="503" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B14" s="504" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C14" s="503" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D14" s="503" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E14" s="503" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="505" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="503" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="F14" s="503" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="505" t="s">
+        <v>121</v>
       </c>
       <c r="H14" s="506" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I14" s="507" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J14" s="508" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K14" s="509" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="510" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="511" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="510" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="510" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="510" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="510" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="512" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="513" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="514" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="515" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="516" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="517" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="518" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="517" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="517" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="517" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="519" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="517" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="520" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="521" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="522" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="523" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="524" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="511" t="s">
+      <c r="B17" s="525" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="510" t="s">
+      <c r="C17" s="524" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="510" t="s">
+      <c r="D17" s="524" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="510" t="s">
+      <c r="E17" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="510" t="s">
+      <c r="F17" s="524" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="510" t="s">
+      <c r="G17" s="524" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="512" t="s">
+      <c r="H17" s="526" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="513" t="s">
+      <c r="I17" s="527" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="514" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="515" t="s">
+      <c r="J17" s="528" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="529" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="516" t="s">
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" s="530" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="517" t="s">
+      <c r="B18" s="531" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="516" t="s">
+      <c r="C18" s="530" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="516" t="s">
+      <c r="D18" s="530" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="516" t="s">
+      <c r="E18" s="530" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="518" t="s">
+      <c r="F18" s="532" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="516" t="s">
+      <c r="G18" s="530" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="519" t="s">
+      <c r="H18" s="533" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="520" t="s">
+      <c r="I18" s="534" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="521" t="s">
+      <c r="J18" s="535" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="522" t="s">
+      <c r="K18" s="536" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="523" t="s">
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" s="537" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="524" t="s">
+      <c r="B19" s="538" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="523" t="s">
+      <c r="C19" s="537" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="523" t="s">
+      <c r="D19" s="537" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="523" t="s">
+      <c r="E19" s="537" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="523" t="s">
+      <c r="F19" s="537" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="525" t="s">
+      <c r="G19" s="539" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="526" t="s">
+      <c r="H19" s="540" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="527" t="s">
+      <c r="I19" s="541" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="528" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="529" t="s">
-        <v>151</v>
+      <c r="J19" s="542" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="543" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -1035,7 +1035,7 @@
     <t>街头狂飙</t>
   </si>
   <si>
-    <t>2.15.70</t>
+    <t>2.13.49</t>
   </si>
   <si>
     <t>2.04.24</t>
@@ -5719,7 +5719,7 @@
     <xf numFmtId="0" fontId="182" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="182" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="182" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -12355,10 +12355,10 @@
       <c r="E44" s="1235" t="s">
         <v>229</v>
       </c>
-      <c r="F44" s="1235" t="s">
+      <c r="F44" s="1237" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="1237" t="s">
+      <c r="G44" s="1235" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="1238" t="s">
@@ -12368,10 +12368,10 @@
         <v>340</v>
       </c>
       <c r="J44" s="1240" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="K44" s="1241" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" ht="20.0" customHeight="true">

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="350">
   <si>
     <t>id</t>
   </si>
@@ -213,7 +213,7 @@
     <t>1.21</t>
   </si>
   <si>
-    <t>1.11.86</t>
+    <t>1.11.27</t>
   </si>
   <si>
     <t>1.07.84</t>
@@ -369,12 +369,15 @@
     <t>2.16</t>
   </si>
   <si>
-    <t>2.03.57</t>
+    <t>2.02.79</t>
   </si>
   <si>
     <t>1.51.83</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
@@ -495,7 +498,7 @@
     <t>1.33</t>
   </si>
   <si>
-    <t>1.23.20</t>
+    <t>1.23.12</t>
   </si>
   <si>
     <t>1.14.48</t>
@@ -546,7 +549,7 @@
     <t>2.35</t>
   </si>
   <si>
-    <t>2.30.76</t>
+    <t>2.29.66</t>
   </si>
   <si>
     <t>2.23.26</t>
@@ -687,27 +690,27 @@
     <t>2.14</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.13.93</t>
+  </si>
+  <si>
+    <t>1.06.84</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
     <t>82</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.13.93</t>
-  </si>
-  <si>
-    <t>1.06.84</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -861,7 +864,7 @@
     <t>冰山滑雪场</t>
   </si>
   <si>
-    <t>2.24.48</t>
+    <t>2.22.61</t>
   </si>
   <si>
     <t>2.10.18</t>
@@ -2284,7 +2287,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2293,7 +2296,7 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2518,7 +2521,7 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2527,7 +2530,7 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3256,7 +3259,7 @@
     <xf numFmtId="0" fontId="63" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3265,7 +3268,7 @@
     <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3958,7 +3961,7 @@
     <xf numFmtId="0" fontId="96" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="96" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4057,7 +4060,7 @@
     <xf numFmtId="0" fontId="102" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="102" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4066,7 +4069,7 @@
     <xf numFmtId="0" fontId="102" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="102" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4822,7 +4825,7 @@
     <xf numFmtId="0" fontId="138" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="138" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5530,7 +5533,7 @@
     <xf numFmtId="0" fontId="173" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="173" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="173" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5539,7 +5542,7 @@
     <xf numFmtId="0" fontId="173" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="173" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="173" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5881,7 +5884,7 @@
     <xf numFmtId="0" fontId="190" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="190" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="190" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -6443,18 +6446,18 @@
         <v>118</v>
       </c>
       <c r="J15" s="98" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K15" s="99" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="100" t="s">
         <v>35</v>
@@ -6472,45 +6475,45 @@
         <v>103</v>
       </c>
       <c r="H16" s="103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" s="109" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" s="111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J17" s="112" t="s">
         <v>20</v>
@@ -6521,45 +6524,45 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="114" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" s="114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" s="114" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J18" s="119" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="121" t="s">
         <v>25</v>
@@ -6574,83 +6577,83 @@
         <v>37</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="125" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J19" s="126" t="s">
         <v>87</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" s="128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="128" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H20" s="131" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I20" s="132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J20" s="133" t="s">
         <v>107</v>
       </c>
       <c r="K20" s="134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" s="135" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21" s="135" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I21" s="139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J21" s="140" t="s">
         <v>98</v>
@@ -6725,10 +6728,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="145" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="143" t="s">
         <v>53</v>
@@ -6746,36 +6749,36 @@
         <v>87</v>
       </c>
       <c r="K2" s="149" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="152" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="150" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="150" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G3" s="150" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="153" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" s="154" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="155" t="s">
         <v>20</v>
@@ -6792,7 +6795,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D4" s="159" t="s">
         <v>24</v>
@@ -6839,7 +6842,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="164" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="167" t="s">
         <v>40</v>
@@ -6856,45 +6859,45 @@
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="171" t="s">
         <v>93</v>
       </c>
       <c r="E6" s="173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" s="171" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="176" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K6" s="177" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="178" t="s">
         <v>46</v>
@@ -6912,10 +6915,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" s="182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" s="183" t="s">
         <v>20</v>
@@ -6967,7 +6970,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" s="192" t="s">
         <v>78</v>
@@ -6991,77 +6994,77 @@
         <v>87</v>
       </c>
       <c r="K9" s="198" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="200" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="199" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="199" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="201" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="200" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="199" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="199" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="201" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="199" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="199" t="s">
-        <v>182</v>
-      </c>
       <c r="H10" s="202" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I10" s="203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J10" s="204" t="s">
         <v>87</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="206" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="207" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" s="206" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E11" s="206" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F11" s="208" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H11" s="209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I11" s="210" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J11" s="211" t="s">
         <v>107</v>
       </c>
       <c r="K11" s="212" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -7078,13 +7081,13 @@
         <v>61</v>
       </c>
       <c r="E12" s="213" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" s="213" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" s="213" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H12" s="216" t="s">
         <v>65</v>
@@ -7116,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="220" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="220" t="s">
         <v>35</v>
@@ -7131,36 +7134,36 @@
         <v>87</v>
       </c>
       <c r="K13" s="226" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="227" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="228" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14" s="227" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E14" s="229" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="227" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G14" s="227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="230" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I14" s="231" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J14" s="232" t="s">
         <v>98</v>
@@ -7171,10 +7174,10 @@
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="234" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="235" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="234" t="s">
         <v>25</v>
@@ -7183,7 +7186,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="234" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" s="234" t="s">
         <v>35</v>
@@ -7192,10 +7195,10 @@
         <v>37</v>
       </c>
       <c r="H15" s="237" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I15" s="238" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J15" s="239" t="s">
         <v>20</v>
@@ -7206,10 +7209,10 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="241" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" s="242" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="241" t="s">
         <v>36</v>
@@ -7224,13 +7227,13 @@
         <v>116</v>
       </c>
       <c r="G16" s="241" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H16" s="244" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I16" s="245" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J16" s="246" t="s">
         <v>20</v>
@@ -7241,31 +7244,31 @@
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="248" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="249" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="250" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" s="248" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E17" s="248" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F17" s="248" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G17" s="248" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="251" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I17" s="252" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J17" s="253" t="s">
         <v>31</v>
@@ -7282,10 +7285,10 @@
         <v>73</v>
       </c>
       <c r="C18" s="255" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" s="257" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" s="255" t="s">
         <v>78</v>
@@ -7326,7 +7329,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="262" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G19" s="262" t="s">
         <v>26</v>
@@ -7341,7 +7344,7 @@
         <v>87</v>
       </c>
       <c r="K19" s="268" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -7376,7 +7379,7 @@
         <v>87</v>
       </c>
       <c r="K20" s="275" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -7387,7 +7390,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="276" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D21" s="276" t="s">
         <v>104</v>
@@ -7396,7 +7399,7 @@
         <v>93</v>
       </c>
       <c r="F21" s="276" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21" s="276" t="s">
         <v>95</v>
@@ -7422,19 +7425,19 @@
         <v>101</v>
       </c>
       <c r="C22" s="283" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" s="283" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="285" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F22" s="283" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="283" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H22" s="286" t="s">
         <v>105</v>
@@ -7504,7 +7507,7 @@
         <v>37</v>
       </c>
       <c r="G24" s="297" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="300" t="s">
         <v>117</v>
@@ -7516,18 +7519,18 @@
         <v>87</v>
       </c>
       <c r="K24" s="303" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="304" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="305" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="304" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D25" s="304" t="s">
         <v>35</v>
@@ -7536,16 +7539,16 @@
         <v>37</v>
       </c>
       <c r="F25" s="304" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="304" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="307" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I25" s="308" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J25" s="309" t="s">
         <v>87</v>
@@ -7568,13 +7571,13 @@
         <v>61</v>
       </c>
       <c r="E26" s="313" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="311" t="s">
         <v>226</v>
       </c>
       <c r="G26" s="311" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="314" t="s">
         <v>227</v>
@@ -7586,15 +7589,15 @@
         <v>87</v>
       </c>
       <c r="K26" s="317" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="318" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B27" s="319" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="318" t="s">
         <v>35</v>
@@ -7609,27 +7612,27 @@
         <v>39</v>
       </c>
       <c r="G27" s="318" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H27" s="321" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I27" s="322" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J27" s="323" t="s">
         <v>87</v>
       </c>
       <c r="K27" s="324" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="325" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="326" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="325" t="s">
         <v>60</v>
@@ -7644,13 +7647,13 @@
         <v>63</v>
       </c>
       <c r="G28" s="325" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" s="328" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="329" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J28" s="330" t="s">
         <v>98</v>
@@ -7661,19 +7664,19 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="332" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B29" s="333" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="332" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D29" s="332" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="332" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="332" t="s">
         <v>14</v>
@@ -7682,27 +7685,27 @@
         <v>53</v>
       </c>
       <c r="H29" s="335" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I29" s="336" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J29" s="337" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29" s="338" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="339" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B30" s="340" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C30" s="339" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" s="339" t="s">
         <v>25</v>
@@ -7717,10 +7720,10 @@
         <v>84</v>
       </c>
       <c r="H30" s="342" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" s="343" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J30" s="344" t="s">
         <v>107</v>
@@ -7731,10 +7734,10 @@
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="346" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="347" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" s="346" t="s">
         <v>48</v>
@@ -7752,10 +7755,10 @@
         <v>116</v>
       </c>
       <c r="H31" s="349" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I31" s="350" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J31" s="351" t="s">
         <v>107</v>
@@ -7766,19 +7769,19 @@
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="353" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="354" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="353" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D32" s="353" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="355" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" s="353" t="s">
         <v>28</v>
@@ -7787,80 +7790,80 @@
         <v>84</v>
       </c>
       <c r="H32" s="356" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I32" s="357" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J32" s="358" t="s">
         <v>87</v>
       </c>
       <c r="K32" s="359" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="360" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" s="361" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" s="360" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" s="360" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="360" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33" s="362" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" s="360" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H33" s="363" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I33" s="364" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J33" s="365" t="s">
         <v>107</v>
       </c>
       <c r="K33" s="366" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="367" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34" s="368" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="367" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="367" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="369" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="367" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G34" s="367" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H34" s="370" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I34" s="371" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J34" s="372" t="s">
         <v>98</v>
@@ -7871,63 +7874,63 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="374" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B35" s="375" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C35" s="374" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D35" s="374" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="374" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F35" s="374" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" s="376" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="377" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I35" s="378" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J35" s="379" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K35" s="380" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="381" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="382" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C36" s="381" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="381" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E36" s="383" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="381" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G36" s="381" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="384" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I36" s="385" t="s">
         <v>74</v>
@@ -8002,13 +8005,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="389" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D2" s="389" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="391" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="389" t="s">
         <v>53</v>
@@ -8026,24 +8029,24 @@
         <v>87</v>
       </c>
       <c r="K2" s="395" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="396" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="397" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="396" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D3" s="396" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E3" s="398" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" s="396" t="s">
         <v>14</v>
@@ -8052,16 +8055,16 @@
         <v>53</v>
       </c>
       <c r="H3" s="399" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" s="400" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="401" t="s">
         <v>87</v>
       </c>
       <c r="K3" s="402" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -8116,10 +8119,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="410" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G5" s="410" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="413" t="s">
         <v>40</v>
@@ -8131,50 +8134,50 @@
         <v>87</v>
       </c>
       <c r="K5" s="416" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="417" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="418" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="417" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="417" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="417" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="419" t="s">
-        <v>174</v>
+      <c r="E6" s="419" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="417" t="s">
+        <v>175</v>
       </c>
       <c r="G6" s="417" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H6" s="420" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="421" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="422" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K6" s="423" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="424" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="425" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="424" t="s">
         <v>16</v>
@@ -8192,16 +8195,16 @@
         <v>55</v>
       </c>
       <c r="H7" s="427" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" s="428" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" s="429" t="s">
         <v>87</v>
       </c>
       <c r="K7" s="430" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -8236,7 +8239,7 @@
         <v>87</v>
       </c>
       <c r="K8" s="437" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -8247,7 +8250,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="438" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" s="438" t="s">
         <v>78</v>
@@ -8271,77 +8274,77 @@
         <v>87</v>
       </c>
       <c r="K9" s="444" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
       <c r="A10" s="445" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B10" s="446" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="445" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E10" s="447" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" s="445" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G10" s="445" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="448" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I10" s="449" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J10" s="450" t="s">
         <v>87</v>
       </c>
       <c r="K10" s="451" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="452" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="453" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="452" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="452" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="452" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="454" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" s="452" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H11" s="455" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I11" s="456" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J11" s="457" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K11" s="458" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -8355,10 +8358,10 @@
         <v>60</v>
       </c>
       <c r="D12" s="461" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" s="459" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="459" t="s">
         <v>62</v>
@@ -8396,7 +8399,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="466" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="466" t="s">
         <v>35</v>
@@ -8411,36 +8414,36 @@
         <v>87</v>
       </c>
       <c r="K13" s="472" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="473" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="474" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="473" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14" s="473" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E14" s="475" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="473" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G14" s="473" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="476" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I14" s="477" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J14" s="478" t="s">
         <v>98</v>
@@ -8451,10 +8454,10 @@
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="480" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="480" t="s">
         <v>24</v>
@@ -8472,24 +8475,24 @@
         <v>69</v>
       </c>
       <c r="H15" s="483" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I15" s="484" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J15" s="485" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="486" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="487" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" s="488" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="487" t="s">
         <v>28</v>
@@ -8501,51 +8504,51 @@
         <v>84</v>
       </c>
       <c r="F16" s="487" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G16" s="487" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H16" s="490" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I16" s="491" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J16" s="492" t="s">
         <v>87</v>
       </c>
       <c r="K16" s="493" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="494" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="495" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="494" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="496" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E17" s="494" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="494" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G17" s="494" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="497" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I17" s="498" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J17" s="499" t="s">
         <v>42</v>
@@ -8556,16 +8559,16 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="501" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B18" s="502" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C18" s="501" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="501" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18" s="503" t="s">
         <v>62</v>
@@ -8577,16 +8580,16 @@
         <v>64</v>
       </c>
       <c r="H18" s="504" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I18" s="505" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J18" s="506" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="507" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -8603,7 +8606,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="510" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F19" s="508" t="s">
         <v>16</v>
@@ -8621,7 +8624,7 @@
         <v>87</v>
       </c>
       <c r="K19" s="514" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
@@ -8632,10 +8635,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="515" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="515" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E20" s="517" t="s">
         <v>78</v>
@@ -8673,7 +8676,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="524" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" s="522" t="s">
         <v>35</v>
@@ -8691,7 +8694,7 @@
         <v>87</v>
       </c>
       <c r="K21" s="528" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -8702,16 +8705,16 @@
         <v>90</v>
       </c>
       <c r="C22" s="529" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" s="529" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="529" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" s="531" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G22" s="529" t="s">
         <v>94</v>
@@ -8726,7 +8729,7 @@
         <v>107</v>
       </c>
       <c r="K22" s="535" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -8737,7 +8740,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="536" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="536" t="s">
         <v>116</v>
@@ -8761,7 +8764,7 @@
         <v>107</v>
       </c>
       <c r="K23" s="542" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -8819,7 +8822,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="550" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="553" t="s">
         <v>117</v>
@@ -8831,15 +8834,15 @@
         <v>87</v>
       </c>
       <c r="K25" s="556" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="557" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="558" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="557" t="s">
         <v>55</v>
@@ -8854,19 +8857,19 @@
         <v>84</v>
       </c>
       <c r="G26" s="557" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H26" s="560" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="561" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26" s="562" t="s">
         <v>87</v>
       </c>
       <c r="K26" s="563" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -8880,16 +8883,16 @@
         <v>60</v>
       </c>
       <c r="D27" s="564" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E27" s="566" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" s="564" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27" s="564" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H27" s="567" t="s">
         <v>227</v>
@@ -8906,10 +8909,10 @@
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="571" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="572" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" s="571" t="s">
         <v>27</v>
@@ -8921,30 +8924,30 @@
         <v>37</v>
       </c>
       <c r="F28" s="573" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="571" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="574" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I28" s="575" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" s="576" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="577" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="578" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" s="579" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="578" t="s">
         <v>60</v>
@@ -8959,13 +8962,13 @@
         <v>63</v>
       </c>
       <c r="G29" s="578" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H29" s="581" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="582" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J29" s="583" t="s">
         <v>98</v>
@@ -8976,54 +8979,54 @@
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="585" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" s="586" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" s="585" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D30" s="585" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E30" s="585" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="585" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" s="587" t="s">
         <v>78</v>
       </c>
       <c r="H30" s="588" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I30" s="589" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J30" s="590" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K30" s="591" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="592" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" s="593" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="592" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D31" s="592" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E31" s="594" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F31" s="592" t="s">
         <v>15</v>
@@ -9032,24 +9035,24 @@
         <v>16</v>
       </c>
       <c r="H31" s="595" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I31" s="596" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J31" s="597" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="598" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="599" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="600" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="599" t="s">
         <v>17</v>
@@ -9067,24 +9070,24 @@
         <v>36</v>
       </c>
       <c r="H32" s="602" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I32" s="603" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J32" s="604" t="s">
         <v>107</v>
       </c>
       <c r="K32" s="605" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="606" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="607" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="606" t="s">
         <v>48</v>
@@ -9102,10 +9105,10 @@
         <v>116</v>
       </c>
       <c r="H33" s="609" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I33" s="610" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J33" s="611" t="s">
         <v>107</v>
@@ -9116,10 +9119,10 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="613" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="614" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="613" t="s">
         <v>17</v>
@@ -9134,13 +9137,13 @@
         <v>35</v>
       </c>
       <c r="G34" s="613" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H34" s="616" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I34" s="617" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J34" s="618" t="s">
         <v>98</v>
@@ -9151,115 +9154,115 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="620" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" s="621" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" s="620" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="620" t="s">
         <v>62</v>
       </c>
       <c r="E35" s="620" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F35" s="622" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35" s="620" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H35" s="623" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I35" s="624" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J35" s="625" t="s">
         <v>107</v>
       </c>
       <c r="K35" s="626" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="627" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" s="628" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" s="627" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="627" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="627" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F36" s="629" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G36" s="627" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H36" s="630" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I36" s="631" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J36" s="632" t="s">
         <v>107</v>
       </c>
       <c r="K36" s="633" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="634" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="635" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="634" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" s="634" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" s="634" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F37" s="634" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G37" s="636" t="s">
         <v>47</v>
       </c>
       <c r="H37" s="637" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I37" s="638" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J37" s="639" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K37" s="640" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="641" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="642" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="641" t="s">
         <v>111</v>
@@ -9277,7 +9280,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="644" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I38" s="645" t="s">
         <v>74</v>
@@ -9286,18 +9289,18 @@
         <v>107</v>
       </c>
       <c r="K38" s="647" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="648" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" s="649" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C39" s="648" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="648" t="s">
         <v>116</v>
@@ -9305,23 +9308,23 @@
       <c r="E39" s="648" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="648" t="s">
+      <c r="F39" s="650" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="650" t="s">
-        <v>257</v>
+      <c r="G39" s="648" t="s">
+        <v>258</v>
       </c>
       <c r="H39" s="651" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I39" s="652" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J39" s="653" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="K39" s="654" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9387,7 +9390,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="656" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" s="656" t="s">
         <v>13</v>
@@ -9396,7 +9399,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="656" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" s="656" t="s">
         <v>46</v>
@@ -9416,31 +9419,31 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="663" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="664" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="663" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="663" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="665" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F3" s="663" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" s="663" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="666" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" s="667" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="668" t="s">
         <v>98</v>
@@ -9501,10 +9504,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="677" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G5" s="677" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="680" t="s">
         <v>40</v>
@@ -9516,50 +9519,50 @@
         <v>87</v>
       </c>
       <c r="K5" s="683" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="684" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="685" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="684" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="684" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="684" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="686" t="s">
-        <v>174</v>
+      <c r="E6" s="686" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="684" t="s">
+        <v>175</v>
       </c>
       <c r="G6" s="684" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H6" s="687" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="688" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="689" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K6" s="690" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="691" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="692" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="691" t="s">
         <v>78</v>
@@ -9577,10 +9580,10 @@
         <v>48</v>
       </c>
       <c r="H7" s="694" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" s="695" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" s="696" t="s">
         <v>98</v>
@@ -9591,10 +9594,10 @@
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="698" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B8" s="699" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" s="698" t="s">
         <v>28</v>
@@ -9606,16 +9609,16 @@
         <v>84</v>
       </c>
       <c r="F8" s="698" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="698" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="701" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I8" s="702" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J8" s="703" t="s">
         <v>98</v>
@@ -9641,7 +9644,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="705" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="705" t="s">
         <v>54</v>
@@ -9696,31 +9699,31 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="719" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="720" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="719" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D11" s="719" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11" s="721" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F11" s="719" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" s="719" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="722" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I11" s="723" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J11" s="724" t="s">
         <v>98</v>
@@ -9731,10 +9734,10 @@
     </row>
     <row r="12" ht="20.0" customHeight="true">
       <c r="A12" s="726" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B12" s="727" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" s="726" t="s">
         <v>63</v>
@@ -9743,25 +9746,25 @@
         <v>64</v>
       </c>
       <c r="E12" s="726" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F12" s="728" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="726" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H12" s="729" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I12" s="730" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J12" s="731" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K12" s="732" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -9772,7 +9775,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="733" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D13" s="733" t="s">
         <v>60</v>
@@ -9781,7 +9784,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="733" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="733" t="s">
         <v>226</v>
@@ -9796,7 +9799,7 @@
         <v>87</v>
       </c>
       <c r="K13" s="739" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -9810,7 +9813,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="740" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E14" s="742" t="s">
         <v>54</v>
@@ -9831,36 +9834,36 @@
         <v>87</v>
       </c>
       <c r="K14" s="746" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="747" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B15" s="748" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" s="747" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="747" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E15" s="749" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F15" s="747" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G15" s="747" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H15" s="750" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I15" s="751" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J15" s="752" t="s">
         <v>98</v>
@@ -9871,13 +9874,13 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="754" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="755" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="754" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16" s="754" t="s">
         <v>25</v>
@@ -9892,24 +9895,24 @@
         <v>36</v>
       </c>
       <c r="H16" s="757" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I16" s="758" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J16" s="759" t="s">
         <v>87</v>
       </c>
       <c r="K16" s="760" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="761" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" s="762" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="761" t="s">
         <v>35</v>
@@ -9918,7 +9921,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="763" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F17" s="761" t="s">
         <v>38</v>
@@ -9927,45 +9930,45 @@
         <v>116</v>
       </c>
       <c r="H17" s="764" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I17" s="765" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J17" s="766" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="767" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="768" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" s="769" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="768" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D18" s="768" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E18" s="770" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F18" s="768" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G18" s="768" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="771" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I18" s="772" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J18" s="773" t="s">
         <v>98</v>
@@ -9976,10 +9979,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="775" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B19" s="776" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C19" s="775" t="s">
         <v>36</v>
@@ -9991,30 +9994,30 @@
         <v>229</v>
       </c>
       <c r="F19" s="775" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G19" s="775" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="778" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I19" s="779" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J19" s="780" t="s">
         <v>87</v>
       </c>
       <c r="K19" s="781" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="782" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B20" s="783" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C20" s="782" t="s">
         <v>60</v>
@@ -10023,19 +10026,19 @@
         <v>61</v>
       </c>
       <c r="E20" s="784" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="782" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="782" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H20" s="785" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I20" s="786" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J20" s="787" t="s">
         <v>98</v>
@@ -10052,10 +10055,10 @@
         <v>73</v>
       </c>
       <c r="C21" s="789" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" s="789" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E21" s="791" t="s">
         <v>15</v>
@@ -10076,7 +10079,7 @@
         <v>87</v>
       </c>
       <c r="K21" s="795" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -10111,7 +10114,7 @@
         <v>107</v>
       </c>
       <c r="K22" s="802" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -10122,7 +10125,7 @@
         <v>82</v>
       </c>
       <c r="C23" s="803" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23" s="803" t="s">
         <v>25</v>
@@ -10146,7 +10149,7 @@
         <v>107</v>
       </c>
       <c r="K23" s="809" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -10160,16 +10163,16 @@
         <v>103</v>
       </c>
       <c r="D24" s="810" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" s="810" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="810" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G24" s="812" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H24" s="813" t="s">
         <v>96</v>
@@ -10178,10 +10181,10 @@
         <v>97</v>
       </c>
       <c r="J24" s="815" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K24" s="816" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -10195,13 +10198,13 @@
         <v>38</v>
       </c>
       <c r="D25" s="817" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E25" s="817" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="819" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G25" s="817" t="s">
         <v>104</v>
@@ -10213,10 +10216,10 @@
         <v>106</v>
       </c>
       <c r="J25" s="822" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K25" s="823" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
@@ -10251,7 +10254,7 @@
         <v>107</v>
       </c>
       <c r="K26" s="830" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -10268,7 +10271,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="831" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F27" s="833" t="s">
         <v>35</v>
@@ -10286,21 +10289,21 @@
         <v>107</v>
       </c>
       <c r="K27" s="837" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="838" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="839" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="838" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="838" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E28" s="838" t="s">
         <v>35</v>
@@ -10312,16 +10315,16 @@
         <v>84</v>
       </c>
       <c r="H28" s="841" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I28" s="842" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J28" s="843" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="844" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -10332,7 +10335,7 @@
         <v>225</v>
       </c>
       <c r="C29" s="845" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D29" s="845" t="s">
         <v>60</v>
@@ -10356,15 +10359,15 @@
         <v>107</v>
       </c>
       <c r="K29" s="851" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="852" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="853" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="852" t="s">
         <v>27</v>
@@ -10382,68 +10385,68 @@
         <v>39</v>
       </c>
       <c r="H30" s="855" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I30" s="856" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J30" s="857" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K30" s="858" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="859" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="860" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="859" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D31" s="859" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" s="859" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F31" s="861" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="859" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H31" s="862" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="863" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J31" s="864" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K31" s="865" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="866" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" s="867" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="866" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D32" s="866" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" s="866" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F32" s="866" t="s">
         <v>14</v>
@@ -10452,45 +10455,45 @@
         <v>78</v>
       </c>
       <c r="H32" s="869" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I32" s="870" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J32" s="871" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K32" s="872" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="873" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" s="874" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="873" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D33" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="875" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="873" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G33" s="873" t="s">
         <v>78</v>
       </c>
       <c r="H33" s="876" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I33" s="877" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J33" s="878" t="s">
         <v>98</v>
@@ -10501,31 +10504,31 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="880" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="881" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="880" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D34" s="880" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="882" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="880" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G34" s="880" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="883" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I34" s="884" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J34" s="885" t="s">
         <v>98</v>
@@ -10536,16 +10539,16 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="887" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="888" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" s="887" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="887" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E35" s="887" t="s">
         <v>25</v>
@@ -10557,30 +10560,30 @@
         <v>35</v>
       </c>
       <c r="H35" s="890" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I35" s="891" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J35" s="892" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K35" s="893" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="894" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" s="895" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C36" s="894" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="894" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E36" s="894" t="s">
         <v>35</v>
@@ -10589,27 +10592,27 @@
         <v>69</v>
       </c>
       <c r="G36" s="894" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="897" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I36" s="898" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J36" s="899" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K36" s="900" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="901" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="902" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="901" t="s">
         <v>47</v>
@@ -10621,109 +10624,109 @@
         <v>26</v>
       </c>
       <c r="F37" s="903" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G37" s="901" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="904" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I37" s="905" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J37" s="906" t="s">
         <v>107</v>
       </c>
       <c r="K37" s="907" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="908" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="909" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="908" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="908" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" s="908" t="s">
         <v>226</v>
       </c>
       <c r="F38" s="908" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G38" s="910" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H38" s="911" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I38" s="912" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J38" s="913" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K38" s="914" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="915" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" s="916" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="915" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" s="915" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="915" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39" s="917" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G39" s="915" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H39" s="918" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I39" s="919" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J39" s="920" t="s">
         <v>107</v>
       </c>
       <c r="K39" s="921" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="922" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B40" s="923" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C40" s="922" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="922" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="922" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F40" s="922" t="s">
         <v>14</v>
@@ -10732,24 +10735,24 @@
         <v>78</v>
       </c>
       <c r="H40" s="925" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I40" s="926" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J40" s="927" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K40" s="928" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="929" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" s="930" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="929" t="s">
         <v>16</v>
@@ -10758,7 +10761,7 @@
         <v>111</v>
       </c>
       <c r="E41" s="929" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F41" s="931" t="s">
         <v>26</v>
@@ -10767,7 +10770,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="932" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I41" s="933" t="s">
         <v>74</v>
@@ -10776,42 +10779,42 @@
         <v>107</v>
       </c>
       <c r="K41" s="935" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="936" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B42" s="937" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C42" s="936" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="936" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42" s="936" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="936" t="s">
+      <c r="F42" s="938" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="938" t="s">
-        <v>257</v>
+      <c r="G42" s="936" t="s">
+        <v>258</v>
       </c>
       <c r="H42" s="939" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I42" s="940" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J42" s="941" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="K42" s="942" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10877,16 +10880,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="944" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="944" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" s="946" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="944" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" s="944" t="s">
         <v>78</v>
@@ -10906,31 +10909,31 @@
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="951" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="952" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="951" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="951" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="953" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="951" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="951" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="952" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="951" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="951" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="953" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="951" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="951" t="s">
-        <v>162</v>
-      </c>
       <c r="H3" s="954" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" s="955" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="956" t="s">
         <v>98</v>
@@ -10959,7 +10962,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="958" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="961" t="s">
         <v>29</v>
@@ -10971,7 +10974,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="964" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -11011,10 +11014,10 @@
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="972" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="973" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="972" t="s">
         <v>91</v>
@@ -11026,33 +11029,33 @@
         <v>93</v>
       </c>
       <c r="F6" s="974" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G6" s="972" t="s">
         <v>94</v>
       </c>
       <c r="H6" s="975" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="976" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="977" t="s">
         <v>107</v>
       </c>
       <c r="K6" s="978" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="979" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="980" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="979" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="979" t="s">
         <v>78</v>
@@ -11061,30 +11064,30 @@
         <v>111</v>
       </c>
       <c r="F7" s="981" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G7" s="979" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="982" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" s="983" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" s="984" t="s">
         <v>107</v>
       </c>
       <c r="K7" s="985" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="986" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B8" s="987" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" s="986" t="s">
         <v>83</v>
@@ -11099,19 +11102,19 @@
         <v>229</v>
       </c>
       <c r="G8" s="986" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H8" s="989" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I8" s="990" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J8" s="991" t="s">
         <v>107</v>
       </c>
       <c r="K8" s="992" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -11146,7 +11149,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="999" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -11157,10 +11160,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="1000" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1000" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1002" t="s">
         <v>16</v>
@@ -11169,7 +11172,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="1000" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="1003" t="s">
         <v>56</v>
@@ -11186,37 +11189,37 @@
     </row>
     <row r="11" ht="20.0" customHeight="true">
       <c r="A11" s="1007" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1008" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1007" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1007" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1007" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="1009" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="1007" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H11" s="1010" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I11" s="1011" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J11" s="1012" t="s">
         <v>107</v>
       </c>
       <c r="K11" s="1013" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -11227,16 +11230,16 @@
         <v>59</v>
       </c>
       <c r="C12" s="1014" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" s="1014" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="1016" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1014" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1014" t="s">
         <v>63</v>
@@ -11251,7 +11254,7 @@
         <v>87</v>
       </c>
       <c r="K12" s="1020" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -11274,7 +11277,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="1021" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H13" s="1024" t="s">
         <v>70</v>
@@ -11291,45 +11294,45 @@
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="1028" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1029" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1028" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1028" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1028" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1030" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G14" s="1028" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1031" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I14" s="1032" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J14" s="1033" t="s">
         <v>107</v>
       </c>
       <c r="K14" s="1034" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="1035" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="1036" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1035" t="s">
         <v>17</v>
@@ -11341,16 +11344,16 @@
         <v>26</v>
       </c>
       <c r="F15" s="1035" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G15" s="1035" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="1038" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I15" s="1039" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J15" s="1040" t="s">
         <v>98</v>
@@ -11361,10 +11364,10 @@
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="1042" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1043" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1042" t="s">
         <v>27</v>
@@ -11382,59 +11385,59 @@
         <v>38</v>
       </c>
       <c r="H16" s="1045" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I16" s="1046" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J16" s="1047" t="s">
         <v>107</v>
       </c>
       <c r="K16" s="1048" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="1049" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1050" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1049" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D17" s="1049" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E17" s="1051" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1049" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G17" s="1049" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H17" s="1052" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I17" s="1053" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J17" s="1054" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="1055" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="1056" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B18" s="1057" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="1056" t="s">
         <v>35</v>
@@ -11443,54 +11446,54 @@
         <v>36</v>
       </c>
       <c r="E18" s="1056" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F18" s="1058" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="1056" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H18" s="1059" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I18" s="1060" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J18" s="1061" t="s">
         <v>107</v>
       </c>
       <c r="K18" s="1062" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="1063" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="1064" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="1063" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="1064" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="1063" t="s">
-        <v>267</v>
-      </c>
       <c r="D19" s="1063" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="1065" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1063" t="s">
         <v>226</v>
       </c>
       <c r="G19" s="1063" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1066" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I19" s="1067" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J19" s="1068" t="s">
         <v>98</v>
@@ -11501,10 +11504,10 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="1070" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B20" s="1071" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C20" s="1070" t="s">
         <v>53</v>
@@ -11522,24 +11525,24 @@
         <v>54</v>
       </c>
       <c r="H20" s="1073" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I20" s="1074" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J20" s="1075" t="s">
         <v>107</v>
       </c>
       <c r="K20" s="1076" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="1077" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1078" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C21" s="1077" t="s">
         <v>46</v>
@@ -11557,30 +11560,30 @@
         <v>55</v>
       </c>
       <c r="H21" s="1080" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I21" s="1081" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J21" s="1082" t="s">
         <v>107</v>
       </c>
       <c r="K21" s="1083" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="1084" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B22" s="1085" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" s="1084" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1084" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" s="1084" t="s">
         <v>15</v>
@@ -11592,33 +11595,33 @@
         <v>46</v>
       </c>
       <c r="H22" s="1087" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I22" s="1088" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J22" s="1089" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K22" s="1090" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="1091" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B23" s="1092" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C23" s="1091" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1091" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="1091" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1091" t="s">
         <v>53</v>
@@ -11627,24 +11630,24 @@
         <v>16</v>
       </c>
       <c r="H23" s="1094" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I23" s="1095" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1096" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K23" s="1097" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="1098" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B24" s="1099" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" s="1098" t="s">
         <v>55</v>
@@ -11662,10 +11665,10 @@
         <v>84</v>
       </c>
       <c r="H24" s="1101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I24" s="1102" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J24" s="1103" t="s">
         <v>98</v>
@@ -11676,19 +11679,19 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="1105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B25" s="1106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C25" s="1105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D25" s="1105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1107" t="s">
         <v>60</v>
@@ -11697,30 +11700,30 @@
         <v>61</v>
       </c>
       <c r="H25" s="1108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I25" s="1109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J25" s="1110" t="s">
         <v>107</v>
       </c>
       <c r="K25" s="1111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="1112" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B26" s="1113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C26" s="1112" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="1112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E26" s="1114" t="s">
         <v>54</v>
@@ -11732,10 +11735,10 @@
         <v>27</v>
       </c>
       <c r="H26" s="1115" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I26" s="1116" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J26" s="1117" t="s">
         <v>98</v>
@@ -11746,31 +11749,31 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="1119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B27" s="1120" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C27" s="1119" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E27" s="1119" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="1119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H27" s="1122" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I27" s="1123" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J27" s="1124" t="s">
         <v>20</v>
@@ -11787,16 +11790,16 @@
         <v>73</v>
       </c>
       <c r="C28" s="1126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1126" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" s="1126" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1128" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G28" s="1126" t="s">
         <v>78</v>
@@ -11811,7 +11814,7 @@
         <v>107</v>
       </c>
       <c r="K28" s="1132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -11828,7 +11831,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F29" s="1135" t="s">
         <v>16</v>
@@ -11846,7 +11849,7 @@
         <v>107</v>
       </c>
       <c r="K29" s="1139" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
@@ -11860,13 +11863,13 @@
         <v>47</v>
       </c>
       <c r="D30" s="1140" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E30" s="1140" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="1142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G30" s="1140" t="s">
         <v>83</v>
@@ -11881,7 +11884,7 @@
         <v>107</v>
       </c>
       <c r="K30" s="1146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -11895,13 +11898,13 @@
         <v>102</v>
       </c>
       <c r="D31" s="1147" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E31" s="1147" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="1147" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G31" s="1149" t="s">
         <v>93</v>
@@ -11913,45 +11916,45 @@
         <v>97</v>
       </c>
       <c r="J31" s="1152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K31" s="1153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="1154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" s="1155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="1154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E32" s="1156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F32" s="1154" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" s="1154" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H32" s="1157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I32" s="1158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J32" s="1159" t="s">
         <v>87</v>
       </c>
       <c r="K32" s="1160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
@@ -11971,10 +11974,10 @@
         <v>39</v>
       </c>
       <c r="F33" s="1161" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="1163" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H33" s="1164" t="s">
         <v>105</v>
@@ -11983,10 +11986,10 @@
         <v>106</v>
       </c>
       <c r="J33" s="1166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K33" s="1167" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
@@ -12021,7 +12024,7 @@
         <v>107</v>
       </c>
       <c r="K34" s="1174" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
@@ -12032,7 +12035,7 @@
         <v>115</v>
       </c>
       <c r="C35" s="1175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D35" s="1175" t="s">
         <v>25</v>
@@ -12040,10 +12043,10 @@
       <c r="E35" s="1175" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="1175" t="s">
+      <c r="F35" s="1177" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="1177" t="s">
+      <c r="G35" s="1175" t="s">
         <v>35</v>
       </c>
       <c r="H35" s="1178" t="s">
@@ -12053,18 +12056,18 @@
         <v>118</v>
       </c>
       <c r="J35" s="1180" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K35" s="1181" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="1182" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1183" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1182" t="s">
         <v>54</v>
@@ -12082,16 +12085,16 @@
         <v>69</v>
       </c>
       <c r="H36" s="1185" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I36" s="1186" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J36" s="1187" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K36" s="1188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -12102,10 +12105,10 @@
         <v>225</v>
       </c>
       <c r="C37" s="1189" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E37" s="1189" t="s">
         <v>61</v>
@@ -12126,21 +12129,21 @@
         <v>107</v>
       </c>
       <c r="K37" s="1195" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="1196" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1197" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1196" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="1196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1196" t="s">
         <v>35</v>
@@ -12149,106 +12152,106 @@
         <v>69</v>
       </c>
       <c r="G38" s="1196" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H38" s="1198" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I38" s="1199" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J38" s="1200" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K38" s="1201" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="1202" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1203" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1202" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" s="1202" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="1202" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1202" t="s">
         <v>63</v>
       </c>
       <c r="H39" s="1205" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I39" s="1206" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J39" s="1207" t="s">
         <v>107</v>
       </c>
       <c r="K39" s="1208" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="1209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1209" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D40" s="1209" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" s="1209" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1209" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G40" s="1209" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40" s="1211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I40" s="1212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J40" s="1213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K40" s="1214" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="1215" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B41" s="1216" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C41" s="1215" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="1215" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E41" s="1215" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F41" s="1217" t="s">
         <v>14</v>
@@ -12257,33 +12260,33 @@
         <v>15</v>
       </c>
       <c r="H41" s="1218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I41" s="1219" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J41" s="1220" t="s">
         <v>107</v>
       </c>
       <c r="K41" s="1221" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="1222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" s="1223" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C42" s="1222" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1222" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42" s="1222" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F42" s="1224" t="s">
         <v>14</v>
@@ -12292,24 +12295,24 @@
         <v>15</v>
       </c>
       <c r="H42" s="1225" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I42" s="1226" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J42" s="1227" t="s">
         <v>107</v>
       </c>
       <c r="K42" s="1228" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" ht="20.0" customHeight="true">
       <c r="A43" s="1229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B43" s="1230" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C43" s="1229" t="s">
         <v>46</v>
@@ -12327,24 +12330,24 @@
         <v>55</v>
       </c>
       <c r="H43" s="1231" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I43" s="1232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J43" s="1233" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" s="1234" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" ht="20.0" customHeight="true">
       <c r="A44" s="1235" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" s="1236" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="1235" t="s">
         <v>36</v>
@@ -12356,30 +12359,30 @@
         <v>229</v>
       </c>
       <c r="F44" s="1237" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G44" s="1235" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="1238" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I44" s="1239" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J44" s="1240" t="s">
         <v>107</v>
       </c>
       <c r="K44" s="1241" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" ht="20.0" customHeight="true">
       <c r="A45" s="1242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B45" s="1243" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C45" s="1242" t="s">
         <v>14</v>
@@ -12397,24 +12400,24 @@
         <v>17</v>
       </c>
       <c r="H45" s="1245" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I45" s="1246" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J45" s="1247" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K45" s="1248" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" ht="20.0" customHeight="true">
       <c r="A46" s="1249" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B46" s="1250" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1249" t="s">
         <v>24</v>
@@ -12432,24 +12435,24 @@
         <v>28</v>
       </c>
       <c r="H46" s="1251" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I46" s="1252" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J46" s="1253" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K46" s="1254" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" ht="20.0" customHeight="true">
       <c r="A47" s="1255" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1256" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1255" t="s">
         <v>111</v>
@@ -12461,36 +12464,36 @@
         <v>54</v>
       </c>
       <c r="F47" s="1257" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G47" s="1255" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="1258" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I47" s="1259" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J47" s="1260" t="s">
         <v>107</v>
       </c>
       <c r="K47" s="1261" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" ht="20.0" customHeight="true">
       <c r="A48" s="1262" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1263" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C48" s="1262" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="1262" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1262" t="s">
         <v>226</v>
@@ -12499,30 +12502,30 @@
         <v>64</v>
       </c>
       <c r="G48" s="1264" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H48" s="1265" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I48" s="1266" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J48" s="1267" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K48" s="1268" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" ht="20.0" customHeight="true">
       <c r="A49" s="1269" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1269" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" s="1269" t="s">
         <v>63</v>
@@ -12531,68 +12534,68 @@
         <v>64</v>
       </c>
       <c r="F49" s="1271" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G49" s="1269" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H49" s="1272" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I49" s="1273" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J49" s="1274" t="s">
         <v>107</v>
       </c>
       <c r="K49" s="1275" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="20.0" customHeight="true">
       <c r="A50" s="1276" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1277" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C50" s="1276" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="1276" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E50" s="1276" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F50" s="1276" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1276" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H50" s="1278" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I50" s="1279" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J50" s="1280" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K50" s="1281" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" ht="20.0" customHeight="true">
       <c r="A51" s="1282" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B51" s="1283" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C51" s="1282" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1282" t="s">
         <v>78</v>
@@ -12607,86 +12610,86 @@
         <v>26</v>
       </c>
       <c r="H51" s="1285" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I51" s="1286" t="s">
         <v>74</v>
       </c>
       <c r="J51" s="1287" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K51" s="1288" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" ht="20.0" customHeight="true">
       <c r="A52" s="1289" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B52" s="1290" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C52" s="1289" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="1289" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E52" s="1289" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="1289" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="1291" t="s">
+      <c r="F52" s="1291" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="1289" t="s">
         <v>104</v>
       </c>
       <c r="H52" s="1292" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I52" s="1293" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J52" s="1294" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="K52" s="1295" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" ht="20.0" customHeight="true">
       <c r="A53" s="1296" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B53" s="1297" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="1296" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D53" s="1296" t="s">
         <v>229</v>
       </c>
       <c r="E53" s="1296" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F53" s="1296" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G53" s="1296" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H53" s="1298" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I53" s="1299" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J53" s="1300" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K53" s="1301" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/game/result.xlsx
+++ b/game/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="349">
   <si>
     <t>id</t>
   </si>
@@ -186,7 +186,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>1.49.67</t>
+    <t>1.49.64</t>
   </si>
   <si>
     <t>1.43.32</t>
@@ -333,727 +333,724 @@
     <t>2.24</t>
   </si>
   <si>
-    <t>2.20.75</t>
+    <t>2.19.41</t>
   </si>
   <si>
     <t>2.08.56</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>英特拉格斯</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.53.79</t>
+  </si>
+  <si>
+    <t>1.46.22</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>沙漠旋转工地</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.02.79</t>
+  </si>
+  <si>
+    <t>1.51.83</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>大城堡秘密地下室</t>
+  </si>
+  <si>
+    <t>2.05.89</t>
+  </si>
+  <si>
+    <t>1.56.26</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>海盗宝藏迷宫</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.08.43</t>
+  </si>
+  <si>
+    <t>1.57.16</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>城镇公路</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.15.37</t>
+  </si>
+  <si>
+    <t>1.07.38</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>太空蜿蜒跑道</t>
+  </si>
+  <si>
+    <t>1.59.09</t>
+  </si>
+  <si>
+    <t>1.48.96</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>矿山曲折滑坡</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.21.13</t>
+  </si>
+  <si>
+    <t>1.09.99</t>
+  </si>
+  <si>
     <t>三线以上</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>未完成的第五区</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.22.51</t>
+  </si>
+  <si>
+    <t>1.14.48</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>城镇南山</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.39.46</t>
+  </si>
+  <si>
+    <t>1.33.90</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>惊险飞机场</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.29.66</t>
+  </si>
+  <si>
+    <t>2.23.26</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>日光城</t>
+  </si>
+  <si>
+    <t>1.52.48</t>
+  </si>
+  <si>
+    <t>1.45.81</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>野外修炼馆</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36.01</t>
+  </si>
+  <si>
+    <t>1.29.66</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>城镇手指</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.27.81</t>
+  </si>
+  <si>
+    <t>1.17.17</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>浮空要塞</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.37.63</t>
+  </si>
+  <si>
+    <t>1.29.68</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>遗忘孤城</t>
+  </si>
+  <si>
+    <t>1.58.56</t>
+  </si>
+  <si>
+    <t>1.51.70</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>城镇命运之桥</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.08.63</t>
+  </si>
+  <si>
+    <t>2.00.30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>龙之路</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.04.96</t>
+  </si>
+  <si>
+    <t>1.00.80</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>黄山赛道</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.13.22</t>
+  </si>
+  <si>
+    <t>1.06.84</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>冰峰裂谷</t>
+  </si>
+  <si>
+    <t>1.42.40</t>
+  </si>
+  <si>
+    <t>1.31.51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>秘密机关的威胁</t>
+  </si>
+  <si>
+    <t>2.00.14</t>
+  </si>
+  <si>
+    <t>1.48.14</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>彩虹之门</t>
+  </si>
+  <si>
+    <t>2.07.71</t>
+  </si>
+  <si>
+    <t>1.52.91</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>英特拉格斯</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.53.78</t>
-  </si>
-  <si>
-    <t>1.46.22</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>沙漠旋转工地</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.02.79</t>
-  </si>
-  <si>
-    <t>1.51.83</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>大城堡秘密地下室</t>
-  </si>
-  <si>
-    <t>2.05.89</t>
-  </si>
-  <si>
-    <t>1.56.26</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>海盗宝藏迷宫</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.10.58</t>
-  </si>
-  <si>
-    <t>1.57.16</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>城镇公路</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.15.85</t>
-  </si>
-  <si>
-    <t>1.07.38</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>太空蜿蜒跑道</t>
-  </si>
-  <si>
-    <t>1.59.09</t>
-  </si>
-  <si>
-    <t>1.48.96</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>矿山曲折滑坡</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.22.96</t>
-  </si>
-  <si>
-    <t>1.09.99</t>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>森林崎岖下山道</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.47.68</t>
+  </si>
+  <si>
+    <t>1.31.26</t>
+  </si>
+  <si>
+    <t>娱乐以上</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>幽暗峡谷</t>
+  </si>
+  <si>
+    <t>1.57.11</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>三线勉强</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>玩具工厂</t>
+  </si>
+  <si>
+    <t>1.14.27</t>
+  </si>
+  <si>
+    <t>1.07.73</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>圣诞秘密空间</t>
+  </si>
+  <si>
+    <t>1.41.00</t>
+  </si>
+  <si>
+    <t>1.34.62</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>未完成的第五区</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>1.23.12</t>
-  </si>
-  <si>
-    <t>1.14.48</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>城镇南山</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.39.46</t>
-  </si>
-  <si>
-    <t>1.33.90</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>惊险飞机场</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.29.66</t>
-  </si>
-  <si>
-    <t>2.23.26</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>日光城</t>
-  </si>
-  <si>
-    <t>1.52.48</t>
-  </si>
-  <si>
-    <t>1.45.81</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>野外修炼馆</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.36.01</t>
-  </si>
-  <si>
-    <t>1.29.66</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>城镇手指</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.27.81</t>
-  </si>
-  <si>
-    <t>1.17.17</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>浮空要塞</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.37.94</t>
-  </si>
-  <si>
-    <t>1.29.68</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>遗忘孤城</t>
-  </si>
-  <si>
-    <t>1.58.56</t>
-  </si>
-  <si>
-    <t>1.51.70</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>城镇命运之桥</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.08.63</t>
-  </si>
-  <si>
-    <t>2.00.30</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>龙之路</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.04.96</t>
-  </si>
-  <si>
-    <t>1.00.80</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>黄山赛道</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.13.93</t>
-  </si>
-  <si>
-    <t>1.06.84</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>冰峰裂谷</t>
-  </si>
-  <si>
-    <t>1.45.75</t>
-  </si>
-  <si>
-    <t>1.31.51</t>
-  </si>
-  <si>
-    <t>娱乐以上</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>冰山滑雪场</t>
+  </si>
+  <si>
+    <t>2.22.61</t>
+  </si>
+  <si>
+    <t>2.10.18</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>龙之运河</t>
+  </si>
+  <si>
+    <t>2.10.37</t>
+  </si>
+  <si>
+    <t>2.02.06</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>神秘研究所</t>
+  </si>
+  <si>
+    <t>2.10.87</t>
+  </si>
+  <si>
+    <t>2.03.40</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>黄金坐标</t>
+  </si>
+  <si>
+    <t>1.41.40</t>
+  </si>
+  <si>
+    <t>1.33.39</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>铃鹿赛道</t>
+  </si>
+  <si>
+    <t>1.53.12</t>
+  </si>
+  <si>
+    <t>1.46.77</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>太空军用机场</t>
+  </si>
+  <si>
+    <t>1.57.87</t>
+  </si>
+  <si>
+    <t>1.48.58</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>城镇高速公路(反向)</t>
+  </si>
+  <si>
+    <t>1.48.92</t>
+  </si>
+  <si>
+    <t>1.39.82</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>城镇极限竞技场</t>
+  </si>
+  <si>
+    <t>1.49.09</t>
+  </si>
+  <si>
+    <t>1.37.41</t>
+  </si>
+  <si>
+    <t>娱乐勉强</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>巴黎铁塔</t>
+  </si>
+  <si>
+    <t>2.05.75</t>
+  </si>
+  <si>
+    <t>1.57.95</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>意大利比萨斜塔</t>
+  </si>
+  <si>
+    <t>1.09.16</t>
+  </si>
+  <si>
+    <t>1.00.90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>龙之西湖</t>
+  </si>
+  <si>
+    <t>1.57.02</t>
+  </si>
+  <si>
+    <t>1.50.30</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>诸神世界</t>
+  </si>
+  <si>
+    <t>1.30.49</t>
+  </si>
+  <si>
+    <t>1.28.85</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>纽约狂飙</t>
+  </si>
+  <si>
+    <t>1.28.17</t>
+  </si>
+  <si>
+    <t>1.23.59</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>秘密机关的威胁</t>
-  </si>
-  <si>
-    <t>2.01.15</t>
-  </si>
-  <si>
-    <t>1.48.14</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>彩虹之门</t>
-  </si>
-  <si>
-    <t>2.07.71</t>
-  </si>
-  <si>
-    <t>1.52.91</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>森林崎岖下山道</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.47.68</t>
-  </si>
-  <si>
-    <t>1.31.26</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>幽暗峡谷</t>
-  </si>
-  <si>
-    <t>1.57.11</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>三线勉强</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>玩具工厂</t>
-  </si>
-  <si>
-    <t>1.14.27</t>
-  </si>
-  <si>
-    <t>1.07.73</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>圣诞秘密空间</t>
-  </si>
-  <si>
-    <t>1.41.00</t>
-  </si>
-  <si>
-    <t>1.34.62</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>冰山滑雪场</t>
-  </si>
-  <si>
-    <t>2.22.61</t>
-  </si>
-  <si>
-    <t>2.10.18</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>龙之运河</t>
-  </si>
-  <si>
-    <t>2.10.37</t>
-  </si>
-  <si>
-    <t>2.02.06</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>神秘研究所</t>
-  </si>
-  <si>
-    <t>2.10.87</t>
-  </si>
-  <si>
-    <t>2.03.40</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>黄金坐标</t>
-  </si>
-  <si>
-    <t>1.41.40</t>
-  </si>
-  <si>
-    <t>1.33.39</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>铃鹿赛道</t>
-  </si>
-  <si>
-    <t>1.53.95</t>
-  </si>
-  <si>
-    <t>1.46.77</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>太空军用机场</t>
-  </si>
-  <si>
-    <t>1.57.87</t>
-  </si>
-  <si>
-    <t>1.48.58</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>城镇高速公路(反向)</t>
-  </si>
-  <si>
-    <t>1.48.92</t>
-  </si>
-  <si>
-    <t>1.39.82</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>城镇极限竞技场</t>
-  </si>
-  <si>
-    <t>1.49.09</t>
-  </si>
-  <si>
-    <t>1.37.41</t>
-  </si>
-  <si>
-    <t>娱乐勉强</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>巴黎铁塔</t>
-  </si>
-  <si>
-    <t>2.05.75</t>
-  </si>
-  <si>
-    <t>1.57.95</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>意大利比萨斜塔</t>
-  </si>
-  <si>
-    <t>1.09.16</t>
-  </si>
-  <si>
-    <t>1.00.90</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>龙之西湖</t>
-  </si>
-  <si>
-    <t>1.57.02</t>
-  </si>
-  <si>
-    <t>1.50.30</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>诸神世界</t>
-  </si>
-  <si>
-    <t>1.30.49</t>
-  </si>
-  <si>
-    <t>1.28.85</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>纽约狂飙</t>
-  </si>
-  <si>
-    <t>1.28.17</t>
-  </si>
-  <si>
-    <t>1.23.59</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>街头狂飙</t>
+  </si>
+  <si>
+    <t>2.13.49</t>
+  </si>
+  <si>
+    <t>2.04.24</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>海盗峭壁瞭望塔</t>
+  </si>
+  <si>
+    <t>1.51.77</t>
+  </si>
+  <si>
+    <t>1.42.45</t>
   </si>
   <si>
     <t>娱乐开外</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>街头狂飙</t>
-  </si>
-  <si>
-    <t>2.13.49</t>
-  </si>
-  <si>
-    <t>2.04.24</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>海盗峭壁瞭望塔</t>
-  </si>
-  <si>
-    <t>1.51.77</t>
-  </si>
-  <si>
-    <t>1.42.45</t>
   </si>
   <si>
     <t>63</t>
@@ -2003,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1302">
+  <cellXfs count="1305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2245,7 +2242,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2254,7 +2251,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2329,7 +2326,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2338,7 +2335,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2413,7 +2410,7 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2422,7 +2419,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2857,7 +2854,7 @@
     <xf numFmtId="0" fontId="43" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -2866,7 +2863,7 @@
     <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3013,7 +3010,7 @@
     <xf numFmtId="0" fontId="50" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3025,7 +3022,7 @@
     <xf numFmtId="0" fontId="51" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3034,7 +3031,7 @@
     <xf numFmtId="0" fontId="51" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3109,7 +3106,7 @@
     <xf numFmtId="0" fontId="55" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3118,7 +3115,7 @@
     <xf numFmtId="0" fontId="55" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3616,7 +3613,7 @@
     <xf numFmtId="0" fontId="80" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3625,7 +3622,7 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="80" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3721,7 +3718,7 @@
     <xf numFmtId="0" fontId="85" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3730,7 +3727,7 @@
     <xf numFmtId="0" fontId="85" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="85" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3772,7 +3769,7 @@
     <xf numFmtId="0" fontId="87" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="87" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3889,7 +3886,7 @@
     <xf numFmtId="0" fontId="93" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -3898,7 +3895,7 @@
     <xf numFmtId="0" fontId="93" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="93" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4459,7 +4456,7 @@
     <xf numFmtId="0" fontId="121" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="121" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="121" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4468,7 +4465,7 @@
     <xf numFmtId="0" fontId="121" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="121" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="121" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4564,7 +4561,7 @@
     <xf numFmtId="0" fontId="126" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4573,7 +4570,7 @@
     <xf numFmtId="0" fontId="126" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="126" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -4615,7 +4612,7 @@
     <xf numFmtId="0" fontId="128" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="128" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5491,7 +5488,7 @@
     <xf numFmtId="0" fontId="171" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="171" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5500,7 +5497,7 @@
     <xf numFmtId="0" fontId="171" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="171" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5596,13 +5593,16 @@
     <xf numFmtId="0" fontId="176" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="176" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="176" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="15" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="176" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5635,13 +5635,16 @@
     <xf numFmtId="0" fontId="178" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="178" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="178" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="178" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="15" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="178" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="178" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5695,13 +5698,16 @@
     <xf numFmtId="0" fontId="181" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="181" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="181" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="15" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="181" fillId="14" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5794,7 +5800,7 @@
     <xf numFmtId="0" fontId="186" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -5803,7 +5809,7 @@
     <xf numFmtId="0" fontId="186" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -6360,10 +6366,10 @@
       <c r="D13" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="79" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="79" t="s">
@@ -6376,21 +6382,21 @@
         <v>106</v>
       </c>
       <c r="J13" s="84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="86" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>111</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>17</v>
@@ -6405,10 +6411,10 @@
         <v>36</v>
       </c>
       <c r="H14" s="89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14" s="91" t="s">
         <v>20</v>
@@ -6419,10 +6425,10 @@
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>48</v>
@@ -6437,27 +6443,27 @@
         <v>38</v>
       </c>
       <c r="G15" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="97" t="s">
         <v>116</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="97" t="s">
-        <v>118</v>
       </c>
       <c r="J15" s="98" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="100" t="s">
         <v>35</v>
@@ -6469,54 +6475,54 @@
         <v>84</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="100" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="107" t="s">
         <v>125</v>
-      </c>
-      <c r="B17" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="109" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="107" t="s">
+      <c r="H17" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="I17" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="111" t="s">
-        <v>132</v>
-      </c>
       <c r="J17" s="112" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K17" s="113" t="s">
         <v>21</v>
@@ -6524,45 +6530,45 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="114" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="G18" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="H18" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="114" t="s">
+      <c r="I18" s="118" t="s">
         <v>138</v>
-      </c>
-      <c r="H18" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="118" t="s">
-        <v>140</v>
       </c>
       <c r="J18" s="119" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="121" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" s="121" t="s">
         <v>25</v>
@@ -6577,89 +6583,89 @@
         <v>37</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" s="124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I19" s="125" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J19" s="126" t="s">
         <v>87</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="D20" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="F20" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="128" t="s">
+      <c r="H20" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="128" t="s">
+      <c r="I20" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="J20" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="132" t="s">
+      <c r="K20" s="134" t="s">
         <v>153</v>
-      </c>
-      <c r="J20" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="134" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="136" t="s">
         <v>155</v>
-      </c>
-      <c r="B21" s="136" t="s">
-        <v>156</v>
       </c>
       <c r="C21" s="135" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="135" t="s">
+      <c r="G21" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="135" t="s">
+      <c r="H21" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="138" t="s">
+      <c r="I21" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="139" t="s">
+      <c r="J21" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="141" t="s">
         <v>161</v>
-      </c>
-      <c r="J21" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="141" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6749,7 +6755,7 @@
         <v>87</v>
       </c>
       <c r="K2" s="149" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -6842,7 +6848,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="164" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="167" t="s">
         <v>40</v>
@@ -6889,7 +6895,7 @@
         <v>87</v>
       </c>
       <c r="K6" s="177" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -6938,7 +6944,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="187" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="185" t="s">
         <v>17</v>
@@ -6994,7 +7000,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="198" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -7005,7 +7011,7 @@
         <v>185</v>
       </c>
       <c r="C10" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="199" t="s">
         <v>186</v>
@@ -7040,16 +7046,16 @@
         <v>192</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="206" t="s">
         <v>193</v>
       </c>
       <c r="E11" s="206" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="206" t="s">
         <v>194</v>
@@ -7061,7 +7067,7 @@
         <v>196</v>
       </c>
       <c r="J11" s="211" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K11" s="212" t="s">
         <v>197</v>
@@ -7081,13 +7087,13 @@
         <v>61</v>
       </c>
       <c r="E12" s="213" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="213" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="213" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="216" t="s">
         <v>65</v>
@@ -7224,7 +7230,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="241" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="241" t="s">
         <v>211</v>
@@ -7262,7 +7268,7 @@
         <v>219</v>
       </c>
       <c r="G17" s="248" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="251" t="s">
         <v>220</v>
@@ -7379,7 +7385,7 @@
         <v>87</v>
       </c>
       <c r="K20" s="275" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
@@ -7446,24 +7452,24 @@
         <v>106</v>
       </c>
       <c r="J22" s="288" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K22" s="289" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="290" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="291" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="290" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="290" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="292" t="s">
         <v>17</v>
@@ -7475,10 +7481,10 @@
         <v>55</v>
       </c>
       <c r="H23" s="293" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I23" s="294" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J23" s="295" t="s">
         <v>98</v>
@@ -7489,10 +7495,10 @@
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="297" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="298" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="297" t="s">
         <v>54</v>
@@ -7507,27 +7513,27 @@
         <v>37</v>
       </c>
       <c r="G24" s="297" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H24" s="300" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="301" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J24" s="302" t="s">
         <v>87</v>
       </c>
       <c r="K24" s="303" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="304" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="305" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" s="304" t="s">
         <v>198</v>
@@ -7539,16 +7545,16 @@
         <v>37</v>
       </c>
       <c r="F25" s="304" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G25" s="304" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="307" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I25" s="308" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J25" s="309" t="s">
         <v>87</v>
@@ -7571,13 +7577,13 @@
         <v>61</v>
       </c>
       <c r="E26" s="313" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F26" s="311" t="s">
         <v>226</v>
       </c>
       <c r="G26" s="311" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="314" t="s">
         <v>227</v>
@@ -7589,15 +7595,15 @@
         <v>87</v>
       </c>
       <c r="K26" s="317" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="318" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" s="319" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="318" t="s">
         <v>35</v>
@@ -7615,24 +7621,24 @@
         <v>211</v>
       </c>
       <c r="H27" s="321" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I27" s="322" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" s="323" t="s">
         <v>87</v>
       </c>
       <c r="K27" s="324" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="325" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="326" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="325" t="s">
         <v>60</v>
@@ -7650,10 +7656,10 @@
         <v>193</v>
       </c>
       <c r="H28" s="328" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="329" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J28" s="330" t="s">
         <v>98</v>
@@ -7664,10 +7670,10 @@
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="332" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="333" t="s">
         <v>231</v>
-      </c>
-      <c r="B29" s="333" t="s">
-        <v>232</v>
       </c>
       <c r="C29" s="332" t="s">
         <v>186</v>
@@ -7678,31 +7684,31 @@
       <c r="E29" s="332" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="332" t="s">
+      <c r="F29" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="334" t="s">
+      <c r="G29" s="332" t="s">
         <v>53</v>
       </c>
       <c r="H29" s="335" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="336" t="s">
         <v>233</v>
       </c>
-      <c r="I29" s="336" t="s">
-        <v>234</v>
-      </c>
       <c r="J29" s="337" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="K29" s="338" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="339" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B30" s="340" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30" s="339" t="s">
         <v>170</v>
@@ -7710,34 +7716,34 @@
       <c r="D30" s="339" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="339" t="s">
+      <c r="E30" s="341" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="341" t="s">
+      <c r="F30" s="339" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="339" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="342" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I30" s="343" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J30" s="344" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K30" s="345" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="346" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B31" s="347" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C31" s="346" t="s">
         <v>48</v>
@@ -7752,27 +7758,27 @@
         <v>229</v>
       </c>
       <c r="G31" s="346" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H31" s="349" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I31" s="350" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J31" s="351" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K31" s="352" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="353" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="354" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="353" t="s">
         <v>170</v>
@@ -7790,97 +7796,97 @@
         <v>84</v>
       </c>
       <c r="H32" s="356" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I32" s="357" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J32" s="358" t="s">
         <v>87</v>
       </c>
       <c r="K32" s="359" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="360" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="361" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="360" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="361" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="360" t="s">
-        <v>149</v>
-      </c>
       <c r="D33" s="360" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="360" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="362" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="360" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="362" t="s">
-        <v>138</v>
-      </c>
       <c r="G33" s="360" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H33" s="363" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="364" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="365" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="364" t="s">
-        <v>153</v>
-      </c>
-      <c r="J33" s="365" t="s">
-        <v>107</v>
-      </c>
       <c r="K33" s="366" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="367" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="368" t="s">
         <v>155</v>
-      </c>
-      <c r="B34" s="368" t="s">
-        <v>156</v>
       </c>
       <c r="C34" s="367" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="367" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="369" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F34" s="367" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G34" s="367" t="s">
         <v>194</v>
       </c>
       <c r="H34" s="370" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="371" t="s">
+      <c r="J34" s="372" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="373" t="s">
         <v>161</v>
-      </c>
-      <c r="J34" s="372" t="s">
-        <v>98</v>
-      </c>
-      <c r="K34" s="373" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="374" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="375" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C35" s="374" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D35" s="374" t="s">
         <v>167</v>
@@ -7895,27 +7901,27 @@
         <v>47</v>
       </c>
       <c r="H35" s="377" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="378" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" s="379" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="380" t="s">
         <v>251</v>
-      </c>
-      <c r="I35" s="378" t="s">
-        <v>252</v>
-      </c>
-      <c r="J35" s="379" t="s">
-        <v>235</v>
-      </c>
-      <c r="K35" s="380" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="381" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B36" s="382" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36" s="381" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="381" t="s">
         <v>170</v>
@@ -7930,7 +7936,7 @@
         <v>28</v>
       </c>
       <c r="H36" s="384" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I36" s="385" t="s">
         <v>74</v>
@@ -8029,7 +8035,7 @@
         <v>87</v>
       </c>
       <c r="K2" s="395" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
@@ -8040,7 +8046,7 @@
         <v>165</v>
       </c>
       <c r="C3" s="396" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" s="396" t="s">
         <v>187</v>
@@ -8064,7 +8070,7 @@
         <v>87</v>
       </c>
       <c r="K3" s="402" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
@@ -8119,10 +8125,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="410" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="410" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="413" t="s">
         <v>40</v>
@@ -8134,7 +8140,7 @@
         <v>87</v>
       </c>
       <c r="K5" s="416" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -8148,16 +8154,16 @@
         <v>92</v>
       </c>
       <c r="D6" s="417" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="419" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6" s="417" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="417" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" s="420" t="s">
         <v>177</v>
@@ -8183,7 +8189,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="424" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="426" t="s">
         <v>17</v>
@@ -8204,7 +8210,7 @@
         <v>87</v>
       </c>
       <c r="K7" s="430" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -8239,7 +8245,7 @@
         <v>87</v>
       </c>
       <c r="K8" s="437" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -8274,7 +8280,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="444" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -8288,7 +8294,7 @@
         <v>194</v>
       </c>
       <c r="D10" s="445" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E10" s="447" t="s">
         <v>166</v>
@@ -8309,7 +8315,7 @@
         <v>87</v>
       </c>
       <c r="K10" s="451" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -8320,7 +8326,7 @@
         <v>192</v>
       </c>
       <c r="C11" s="452" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="452" t="s">
         <v>64</v>
@@ -8329,10 +8335,10 @@
         <v>201</v>
       </c>
       <c r="F11" s="454" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="452" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H11" s="455" t="s">
         <v>195</v>
@@ -8341,10 +8347,10 @@
         <v>196</v>
       </c>
       <c r="J11" s="457" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K11" s="458" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -8361,7 +8367,7 @@
         <v>219</v>
       </c>
       <c r="E12" s="459" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" s="459" t="s">
         <v>62</v>
@@ -8428,7 +8434,7 @@
         <v>194</v>
       </c>
       <c r="D14" s="473" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E14" s="475" t="s">
         <v>166</v>
@@ -8507,7 +8513,7 @@
         <v>223</v>
       </c>
       <c r="G16" s="487" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="490" t="s">
         <v>212</v>
@@ -8530,16 +8536,16 @@
         <v>215</v>
       </c>
       <c r="C17" s="494" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D17" s="496" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E17" s="494" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17" s="494" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G17" s="494" t="s">
         <v>61</v>
@@ -8559,16 +8565,16 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="501" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B18" s="502" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18" s="501" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="501" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" s="503" t="s">
         <v>62</v>
@@ -8580,16 +8586,16 @@
         <v>64</v>
       </c>
       <c r="H18" s="504" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I18" s="505" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J18" s="506" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="507" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -8694,7 +8700,7 @@
         <v>87</v>
       </c>
       <c r="K21" s="528" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -8714,7 +8720,7 @@
         <v>173</v>
       </c>
       <c r="F22" s="531" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G22" s="529" t="s">
         <v>94</v>
@@ -8726,7 +8732,7 @@
         <v>97</v>
       </c>
       <c r="J22" s="534" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K22" s="535" t="s">
         <v>197</v>
@@ -8740,15 +8746,15 @@
         <v>101</v>
       </c>
       <c r="C23" s="536" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="536" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="536" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="538" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="538" t="s">
+      <c r="F23" s="536" t="s">
         <v>91</v>
       </c>
       <c r="G23" s="536" t="s">
@@ -8761,24 +8767,24 @@
         <v>106</v>
       </c>
       <c r="J23" s="541" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K23" s="542" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="543" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="544" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="543" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="543" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="545" t="s">
         <v>17</v>
@@ -8790,10 +8796,10 @@
         <v>55</v>
       </c>
       <c r="H24" s="546" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I24" s="547" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J24" s="548" t="s">
         <v>98</v>
@@ -8804,10 +8810,10 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="550" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="551" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="550" t="s">
         <v>54</v>
@@ -8822,27 +8828,27 @@
         <v>37</v>
       </c>
       <c r="G25" s="550" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H25" s="553" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I25" s="554" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J25" s="555" t="s">
         <v>87</v>
       </c>
       <c r="K25" s="556" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="557" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="558" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="557" t="s">
         <v>55</v>
@@ -8860,16 +8866,16 @@
         <v>223</v>
       </c>
       <c r="H26" s="560" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I26" s="561" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J26" s="562" t="s">
         <v>87</v>
       </c>
       <c r="K26" s="563" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
@@ -8886,13 +8892,13 @@
         <v>219</v>
       </c>
       <c r="E27" s="566" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F27" s="564" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G27" s="564" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27" s="567" t="s">
         <v>227</v>
@@ -8909,10 +8915,10 @@
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="571" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="572" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="571" t="s">
         <v>27</v>
@@ -8920,34 +8926,34 @@
       <c r="D28" s="571" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="571" t="s">
+      <c r="E28" s="573" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="573" t="s">
-        <v>128</v>
+      <c r="F28" s="571" t="s">
+        <v>126</v>
       </c>
       <c r="G28" s="571" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="574" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="574" t="s">
-        <v>131</v>
-      </c>
       <c r="I28" s="575" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" s="576" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K28" s="577" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
       <c r="A29" s="578" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="579" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="578" t="s">
         <v>60</v>
@@ -8965,10 +8971,10 @@
         <v>193</v>
       </c>
       <c r="H29" s="581" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29" s="582" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J29" s="583" t="s">
         <v>98</v>
@@ -8979,13 +8985,13 @@
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="585" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="586" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="586" t="s">
-        <v>232</v>
-      </c>
       <c r="C30" s="585" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D30" s="585" t="s">
         <v>187</v>
@@ -8993,31 +8999,31 @@
       <c r="E30" s="585" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="585" t="s">
+      <c r="F30" s="587" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="587" t="s">
+      <c r="G30" s="585" t="s">
         <v>78</v>
       </c>
       <c r="H30" s="588" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="589" t="s">
         <v>233</v>
       </c>
-      <c r="I30" s="589" t="s">
-        <v>234</v>
-      </c>
       <c r="J30" s="590" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="K30" s="591" t="s">
-        <v>274</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="592" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B31" s="593" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C31" s="592" t="s">
         <v>166</v>
@@ -9035,24 +9041,24 @@
         <v>16</v>
       </c>
       <c r="H31" s="595" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I31" s="596" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J31" s="597" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="598" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="599" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B32" s="600" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C32" s="599" t="s">
         <v>17</v>
@@ -9070,24 +9076,24 @@
         <v>36</v>
       </c>
       <c r="H32" s="602" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I32" s="603" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J32" s="604" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K32" s="605" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="606" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B33" s="607" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C33" s="606" t="s">
         <v>48</v>
@@ -9102,27 +9108,27 @@
         <v>229</v>
       </c>
       <c r="G33" s="606" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H33" s="609" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I33" s="610" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J33" s="611" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K33" s="612" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="613" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="614" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" s="613" t="s">
         <v>17</v>
@@ -9137,13 +9143,13 @@
         <v>35</v>
       </c>
       <c r="G34" s="613" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H34" s="616" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I34" s="617" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J34" s="618" t="s">
         <v>98</v>
@@ -9154,83 +9160,83 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="620" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="621" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="620" t="s">
         <v>147</v>
-      </c>
-      <c r="B35" s="621" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="620" t="s">
-        <v>149</v>
       </c>
       <c r="D35" s="620" t="s">
         <v>62</v>
       </c>
       <c r="E35" s="620" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="622" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="620" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="623" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="622" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="620" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="623" t="s">
+      <c r="I35" s="624" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="625" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="624" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="625" t="s">
-        <v>107</v>
-      </c>
       <c r="K35" s="626" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="627" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="628" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="628" t="s">
-        <v>156</v>
       </c>
       <c r="C36" s="627" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="627" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="627" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="629" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="629" t="s">
-        <v>138</v>
+      <c r="F36" s="627" t="s">
+        <v>136</v>
       </c>
       <c r="G36" s="627" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H36" s="630" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="631" t="s">
         <v>160</v>
       </c>
-      <c r="I36" s="631" t="s">
-        <v>161</v>
-      </c>
       <c r="J36" s="632" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K36" s="633" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="634" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B37" s="635" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C37" s="634" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D37" s="634" t="s">
         <v>167</v>
@@ -9245,27 +9251,27 @@
         <v>47</v>
       </c>
       <c r="H37" s="637" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" s="638" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="639" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="640" t="s">
         <v>251</v>
-      </c>
-      <c r="I37" s="638" t="s">
-        <v>252</v>
-      </c>
-      <c r="J37" s="639" t="s">
-        <v>235</v>
-      </c>
-      <c r="K37" s="640" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="641" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38" s="642" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C38" s="641" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="641" t="s">
         <v>17</v>
@@ -9280,30 +9286,30 @@
         <v>28</v>
       </c>
       <c r="H38" s="644" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I38" s="645" t="s">
         <v>74</v>
       </c>
       <c r="J38" s="646" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K38" s="647" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="648" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B39" s="649" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C39" s="648" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="648" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="648" t="s">
         <v>103</v>
@@ -9312,19 +9318,19 @@
         <v>91</v>
       </c>
       <c r="G39" s="648" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H39" s="651" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I39" s="652" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J39" s="653" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K39" s="654" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9504,10 +9510,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="677" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="677" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="680" t="s">
         <v>40</v>
@@ -9519,7 +9525,7 @@
         <v>87</v>
       </c>
       <c r="K5" s="683" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -9533,16 +9539,16 @@
         <v>92</v>
       </c>
       <c r="D6" s="684" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="686" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6" s="684" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="684" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" s="687" t="s">
         <v>177</v>
@@ -9594,10 +9600,10 @@
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="698" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B8" s="699" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C8" s="698" t="s">
         <v>28</v>
@@ -9609,16 +9615,16 @@
         <v>84</v>
       </c>
       <c r="F8" s="698" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="698" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="701" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I8" s="702" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J8" s="703" t="s">
         <v>98</v>
@@ -9641,7 +9647,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="707" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="705" t="s">
         <v>170</v>
@@ -9705,13 +9711,13 @@
         <v>185</v>
       </c>
       <c r="C11" s="719" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D11" s="719" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="721" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="719" t="s">
         <v>167</v>
@@ -9749,10 +9755,10 @@
         <v>201</v>
       </c>
       <c r="F12" s="728" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G12" s="726" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H12" s="729" t="s">
         <v>195</v>
@@ -9761,10 +9767,10 @@
         <v>196</v>
       </c>
       <c r="J12" s="731" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K12" s="732" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -9775,7 +9781,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="733" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D13" s="733" t="s">
         <v>60</v>
@@ -9784,7 +9790,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="733" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G13" s="733" t="s">
         <v>226</v>
@@ -9799,7 +9805,7 @@
         <v>87</v>
       </c>
       <c r="K13" s="739" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -9834,7 +9840,7 @@
         <v>87</v>
       </c>
       <c r="K14" s="746" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -9848,7 +9854,7 @@
         <v>194</v>
       </c>
       <c r="D15" s="747" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E15" s="749" t="s">
         <v>166</v>
@@ -9904,7 +9910,7 @@
         <v>87</v>
       </c>
       <c r="K16" s="760" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -9921,13 +9927,13 @@
         <v>36</v>
       </c>
       <c r="E17" s="763" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F17" s="761" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="761" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" s="764" t="s">
         <v>212</v>
@@ -9939,7 +9945,7 @@
         <v>87</v>
       </c>
       <c r="K17" s="767" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -9950,10 +9956,10 @@
         <v>215</v>
       </c>
       <c r="C18" s="768" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18" s="768" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E18" s="770" t="s">
         <v>216</v>
@@ -9979,10 +9985,10 @@
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="775" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B19" s="776" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C19" s="775" t="s">
         <v>36</v>
@@ -9997,27 +10003,27 @@
         <v>223</v>
       </c>
       <c r="G19" s="775" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="778" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I19" s="779" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J19" s="780" t="s">
         <v>87</v>
       </c>
       <c r="K19" s="781" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="782" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B20" s="783" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="782" t="s">
         <v>60</v>
@@ -10026,19 +10032,19 @@
         <v>61</v>
       </c>
       <c r="E20" s="784" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="782" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="782" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="785" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I20" s="786" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J20" s="787" t="s">
         <v>98</v>
@@ -10079,7 +10085,7 @@
         <v>87</v>
       </c>
       <c r="K21" s="795" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" ht="20.0" customHeight="true">
@@ -10099,7 +10105,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="798" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="796" t="s">
         <v>17</v>
@@ -10111,10 +10117,10 @@
         <v>80</v>
       </c>
       <c r="J22" s="801" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K22" s="802" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
@@ -10146,10 +10152,10 @@
         <v>86</v>
       </c>
       <c r="J23" s="808" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K23" s="809" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
@@ -10163,13 +10169,13 @@
         <v>103</v>
       </c>
       <c r="D24" s="810" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="810" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="810" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G24" s="812" t="s">
         <v>174</v>
@@ -10181,10 +10187,10 @@
         <v>97</v>
       </c>
       <c r="J24" s="815" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K24" s="816" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" ht="20.0" customHeight="true">
@@ -10216,18 +10222,18 @@
         <v>106</v>
       </c>
       <c r="J25" s="822" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="K25" s="823" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="824" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="825" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="824" t="s">
         <v>78</v>
@@ -10245,24 +10251,24 @@
         <v>26</v>
       </c>
       <c r="H26" s="827" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="828" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J26" s="829" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K26" s="830" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="831" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="832" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="831" t="s">
         <v>25</v>
@@ -10280,24 +10286,24 @@
         <v>69</v>
       </c>
       <c r="H27" s="834" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I27" s="835" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J27" s="836" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K27" s="837" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" ht="20.0" customHeight="true">
       <c r="A28" s="838" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="839" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="838" t="s">
         <v>48</v>
@@ -10315,16 +10321,16 @@
         <v>84</v>
       </c>
       <c r="H28" s="841" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I28" s="842" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="843" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K28" s="844" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -10335,7 +10341,7 @@
         <v>225</v>
       </c>
       <c r="C29" s="845" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D29" s="845" t="s">
         <v>60</v>
@@ -10356,18 +10362,18 @@
         <v>228</v>
       </c>
       <c r="J29" s="850" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K29" s="851" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" ht="20.0" customHeight="true">
       <c r="A30" s="852" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="853" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="852" t="s">
         <v>27</v>
@@ -10385,59 +10391,59 @@
         <v>39</v>
       </c>
       <c r="H30" s="855" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="856" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" s="857" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="K30" s="858" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
       <c r="A31" s="859" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="860" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="859" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D31" s="859" t="s">
         <v>219</v>
       </c>
       <c r="E31" s="859" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F31" s="861" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="859" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="862" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31" s="863" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J31" s="864" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K31" s="865" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="866" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="867" t="s">
         <v>231</v>
-      </c>
-      <c r="B32" s="867" t="s">
-        <v>232</v>
       </c>
       <c r="C32" s="866" t="s">
         <v>186</v>
@@ -10448,34 +10454,34 @@
       <c r="E32" s="866" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="866" t="s">
+      <c r="F32" s="868" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="868" t="s">
+      <c r="G32" s="866" t="s">
         <v>78</v>
       </c>
       <c r="H32" s="869" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="870" t="s">
         <v>233</v>
       </c>
-      <c r="I32" s="870" t="s">
-        <v>234</v>
-      </c>
       <c r="J32" s="871" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="K32" s="872" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" ht="20.0" customHeight="true">
       <c r="A33" s="873" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B33" s="874" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C33" s="873" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D33" s="873" t="s">
         <v>187</v>
@@ -10490,10 +10496,10 @@
         <v>78</v>
       </c>
       <c r="H33" s="876" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I33" s="877" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J33" s="878" t="s">
         <v>98</v>
@@ -10504,13 +10510,13 @@
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="880" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B34" s="881" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C34" s="880" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="880" t="s">
         <v>187</v>
@@ -10525,10 +10531,10 @@
         <v>78</v>
       </c>
       <c r="H34" s="883" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I34" s="884" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J34" s="885" t="s">
         <v>98</v>
@@ -10539,10 +10545,10 @@
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="887" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B35" s="888" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C35" s="887" t="s">
         <v>47</v>
@@ -10560,24 +10566,24 @@
         <v>35</v>
       </c>
       <c r="H35" s="890" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I35" s="891" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J35" s="892" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K35" s="893" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="894" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B36" s="895" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C36" s="894" t="s">
         <v>26</v>
@@ -10592,27 +10598,27 @@
         <v>69</v>
       </c>
       <c r="G36" s="894" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" s="897" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I36" s="898" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J36" s="899" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K36" s="900" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
       <c r="A37" s="901" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="902" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="901" t="s">
         <v>47</v>
@@ -10630,97 +10636,97 @@
         <v>28</v>
       </c>
       <c r="H37" s="904" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I37" s="905" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J37" s="906" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K37" s="907" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="908" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="909" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="908" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="908" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E38" s="908" t="s">
         <v>226</v>
       </c>
       <c r="F38" s="908" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="910" t="s">
         <v>201</v>
       </c>
       <c r="H38" s="911" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I38" s="912" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J38" s="913" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K38" s="914" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" ht="20.0" customHeight="true">
       <c r="A39" s="915" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="916" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="916" t="s">
-        <v>156</v>
-      </c>
       <c r="C39" s="915" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="915" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="915" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="917" t="s">
         <v>201</v>
       </c>
       <c r="G39" s="915" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H39" s="918" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="919" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="919" t="s">
-        <v>161</v>
-      </c>
       <c r="J39" s="920" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K39" s="921" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" ht="20.0" customHeight="true">
       <c r="A40" s="922" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B40" s="923" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" s="922" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="922" t="s">
         <v>166</v>
@@ -10735,30 +10741,30 @@
         <v>78</v>
       </c>
       <c r="H40" s="925" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I40" s="926" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J40" s="927" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K40" s="928" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" ht="20.0" customHeight="true">
       <c r="A41" s="929" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" s="930" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C41" s="929" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="929" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" s="929" t="s">
         <v>170</v>
@@ -10770,30 +10776,30 @@
         <v>27</v>
       </c>
       <c r="H41" s="932" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I41" s="933" t="s">
         <v>74</v>
       </c>
       <c r="J41" s="934" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K41" s="935" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" ht="20.0" customHeight="true">
       <c r="A42" s="936" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B42" s="937" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C42" s="936" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="936" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E42" s="936" t="s">
         <v>103</v>
@@ -10802,19 +10808,19 @@
         <v>91</v>
       </c>
       <c r="G42" s="936" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H42" s="939" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I42" s="940" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J42" s="941" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K42" s="942" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -10915,10 +10921,10 @@
         <v>165</v>
       </c>
       <c r="C3" s="951" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="951" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E3" s="953" t="s">
         <v>167</v>
@@ -10950,7 +10956,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="958" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="958" t="s">
         <v>17</v>
@@ -10974,7 +10980,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="964" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -11029,7 +11035,7 @@
         <v>93</v>
       </c>
       <c r="F6" s="974" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G6" s="972" t="s">
         <v>94</v>
@@ -11041,10 +11047,10 @@
         <v>178</v>
       </c>
       <c r="J6" s="977" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K6" s="978" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -11061,7 +11067,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="979" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="981" t="s">
         <v>170</v>
@@ -11076,18 +11082,18 @@
         <v>182</v>
       </c>
       <c r="J7" s="984" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K7" s="985" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
       <c r="A8" s="986" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B8" s="987" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C8" s="986" t="s">
         <v>83</v>
@@ -11102,16 +11108,16 @@
         <v>229</v>
       </c>
       <c r="G8" s="986" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" s="989" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I8" s="990" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J8" s="991" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K8" s="992" t="s">
         <v>197</v>
@@ -11149,7 +11155,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="999" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -11195,7 +11201,7 @@
         <v>185</v>
       </c>
       <c r="C11" s="1007" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11" s="1007" t="s">
         <v>194</v>
@@ -11216,10 +11222,10 @@
         <v>189</v>
       </c>
       <c r="J11" s="1012" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K11" s="1013" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -11236,10 +11242,10 @@
         <v>60</v>
       </c>
       <c r="E12" s="1016" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1014" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1014" t="s">
         <v>63</v>
@@ -11265,7 +11271,7 @@
         <v>68</v>
       </c>
       <c r="C13" s="1021" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1021" t="s">
         <v>17</v>
@@ -11300,13 +11306,13 @@
         <v>200</v>
       </c>
       <c r="C14" s="1028" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1028" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1028" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F14" s="1030" t="s">
         <v>167</v>
@@ -11321,10 +11327,10 @@
         <v>204</v>
       </c>
       <c r="J14" s="1033" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K14" s="1034" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -11391,10 +11397,10 @@
         <v>213</v>
       </c>
       <c r="J16" s="1047" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K16" s="1048" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -11405,16 +11411,16 @@
         <v>215</v>
       </c>
       <c r="C17" s="1049" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D17" s="1049" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E17" s="1051" t="s">
         <v>217</v>
       </c>
       <c r="F17" s="1049" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G17" s="1049" t="s">
         <v>219</v>
@@ -11434,10 +11440,10 @@
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="1056" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" s="1057" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" s="1056" t="s">
         <v>35</v>
@@ -11446,7 +11452,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="1056" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F18" s="1058" t="s">
         <v>38</v>
@@ -11455,45 +11461,45 @@
         <v>223</v>
       </c>
       <c r="H18" s="1059" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I18" s="1060" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J18" s="1061" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K18" s="1062" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="1063" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1064" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1063" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D19" s="1063" t="s">
         <v>219</v>
       </c>
       <c r="E19" s="1065" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1063" t="s">
         <v>226</v>
       </c>
       <c r="G19" s="1063" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" s="1066" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I19" s="1067" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J19" s="1068" t="s">
         <v>98</v>
@@ -11504,10 +11510,10 @@
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="1070" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B20" s="1071" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" s="1070" t="s">
         <v>53</v>
@@ -11525,24 +11531,24 @@
         <v>54</v>
       </c>
       <c r="H20" s="1073" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I20" s="1074" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J20" s="1075" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K20" s="1076" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" s="1077" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B21" s="1078" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C21" s="1077" t="s">
         <v>46</v>
@@ -11560,13 +11566,13 @@
         <v>55</v>
       </c>
       <c r="H21" s="1080" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I21" s="1081" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J21" s="1082" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K21" s="1083" t="s">
         <v>197</v>
@@ -11574,10 +11580,10 @@
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="1084" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B22" s="1085" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C22" s="1084" t="s">
         <v>202</v>
@@ -11595,24 +11601,24 @@
         <v>46</v>
       </c>
       <c r="H22" s="1087" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I22" s="1088" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J22" s="1089" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K22" s="1090" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="1091" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B23" s="1092" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C23" s="1091" t="s">
         <v>167</v>
@@ -11630,24 +11636,24 @@
         <v>16</v>
       </c>
       <c r="H23" s="1094" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="1095" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="1096" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="1095" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="1096" t="s">
-        <v>316</v>
-      </c>
       <c r="K23" s="1097" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" s="1098" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="1099" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C24" s="1098" t="s">
         <v>55</v>
@@ -11665,10 +11671,10 @@
         <v>84</v>
       </c>
       <c r="H24" s="1101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I24" s="1102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J24" s="1103" t="s">
         <v>98</v>
@@ -11679,19 +11685,19 @@
     </row>
     <row r="25" ht="20.0" customHeight="true">
       <c r="A25" s="1105" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B25" s="1106" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C25" s="1105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D25" s="1105" t="s">
         <v>216</v>
       </c>
       <c r="E25" s="1105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1107" t="s">
         <v>60</v>
@@ -11700,13 +11706,13 @@
         <v>61</v>
       </c>
       <c r="H25" s="1108" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I25" s="1109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J25" s="1110" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K25" s="1111" t="s">
         <v>197</v>
@@ -11714,10 +11720,10 @@
     </row>
     <row r="26" ht="20.0" customHeight="true">
       <c r="A26" s="1112" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B26" s="1113" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" s="1112" t="s">
         <v>47</v>
@@ -11735,10 +11741,10 @@
         <v>27</v>
       </c>
       <c r="H26" s="1115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I26" s="1116" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J26" s="1117" t="s">
         <v>98</v>
@@ -11749,16 +11755,16 @@
     </row>
     <row r="27" ht="20.0" customHeight="true">
       <c r="A27" s="1119" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="1120" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C27" s="1119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1121" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" s="1119" t="s">
         <v>194</v>
@@ -11770,10 +11776,10 @@
         <v>166</v>
       </c>
       <c r="H27" s="1122" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I27" s="1123" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J27" s="1124" t="s">
         <v>20</v>
@@ -11811,10 +11817,10 @@
         <v>75</v>
       </c>
       <c r="J28" s="1131" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K28" s="1132" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" ht="20.0" customHeight="true">
@@ -11837,7 +11843,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="1133" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="1136" t="s">
         <v>79</v>
@@ -11846,7 +11852,7 @@
         <v>80</v>
       </c>
       <c r="J29" s="1138" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K29" s="1139" t="s">
         <v>197</v>
@@ -11881,10 +11887,10 @@
         <v>86</v>
       </c>
       <c r="J30" s="1145" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K30" s="1146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" ht="20.0" customHeight="true">
@@ -11916,39 +11922,39 @@
         <v>97</v>
       </c>
       <c r="J31" s="1152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K31" s="1153" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" ht="20.0" customHeight="true">
       <c r="A32" s="1154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" s="1155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C32" s="1154" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1154" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E32" s="1156" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F32" s="1154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G32" s="1154" t="s">
         <v>186</v>
       </c>
       <c r="H32" s="1157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I32" s="1158" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J32" s="1159" t="s">
         <v>87</v>
@@ -11974,7 +11980,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="1161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G33" s="1163" t="s">
         <v>211</v>
@@ -11986,18 +11992,18 @@
         <v>106</v>
       </c>
       <c r="J33" s="1166" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="K33" s="1167" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" ht="20.0" customHeight="true">
       <c r="A34" s="1168" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1169" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1168" t="s">
         <v>53</v>
@@ -12015,24 +12021,24 @@
         <v>54</v>
       </c>
       <c r="H34" s="1171" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1172" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J34" s="1173" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K34" s="1174" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="20.0" customHeight="true">
       <c r="A35" s="1175" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1176" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1175" t="s">
         <v>170</v>
@@ -12050,24 +12056,24 @@
         <v>35</v>
       </c>
       <c r="H35" s="1178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I35" s="1179" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35" s="1180" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K35" s="1181" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" ht="20.0" customHeight="true">
       <c r="A36" s="1182" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1183" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1182" t="s">
         <v>54</v>
@@ -12085,16 +12091,16 @@
         <v>69</v>
       </c>
       <c r="H36" s="1185" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I36" s="1186" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J36" s="1187" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K36" s="1188" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" ht="20.0" customHeight="true">
@@ -12105,10 +12111,10 @@
         <v>225</v>
       </c>
       <c r="C37" s="1189" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1189" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E37" s="1189" t="s">
         <v>61</v>
@@ -12126,18 +12132,18 @@
         <v>228</v>
       </c>
       <c r="J37" s="1194" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="K37" s="1195" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" ht="20.0" customHeight="true">
       <c r="A38" s="1196" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1197" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1196" t="s">
         <v>48</v>
@@ -12151,545 +12157,545 @@
       <c r="F38" s="1196" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="1196" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="1198" t="s">
+      <c r="G38" s="1198" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" s="1199" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="1200" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="1201" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="1202" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="1203" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="1199" t="s">
+      <c r="B39" s="1204" t="s">
         <v>132</v>
       </c>
-      <c r="J38" s="1200" t="s">
+      <c r="C39" s="1203" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="1203" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1203" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="1205" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="1203" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1206" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="1207" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="1208" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="1209" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="1210" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1211" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="1210" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" s="1210" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="1210" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="1212" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="1210" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="1213" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="1214" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="1215" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" s="1216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="1217" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="1218" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="1217" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="1217" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="1217" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="1219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1217" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1220" t="s">
+        <v>272</v>
+      </c>
+      <c r="I41" s="1221" t="s">
+        <v>273</v>
+      </c>
+      <c r="J41" s="1222" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="1223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="1224" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="1225" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="1224" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="1224" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="1224" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="1226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1224" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1227" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" s="1228" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" s="1229" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42" s="1230" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" s="1231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="1232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="1231" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1231" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1231" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1233" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1234" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="1235" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" s="1236" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" s="1237" t="s">
+        <v>245</